--- a/Edgewell US Male Dataset.xlsx
+++ b/Edgewell US Male Dataset.xlsx
@@ -2,22 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\BW4SA\Documents\Slide-Automate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\Salma Hany\Documents\Slide-Automate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE753E3-1E76-4F4C-BA2E-0DA1C2ECE023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146C339B-A8C6-4F19-97B8-DD398BB0D6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2676" yWindow="2652" windowWidth="15384" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Edgewell US Male Dataset" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="32815" r:id="rId2"/>
+    <pivotCache cacheId="957" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,16 +52,18 @@
   <metadataTypes count="1">
     <metadataType name="XLMDX" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <metadataStrings count="7">
+  <metadataStrings count="9">
     <s v="pbiazure://api.powerbi.com e378e301-2498-4932-9987-fbfe08fd72f4 Model"/>
     <s v="{[Market].[Channel].[All]}"/>
-    <s v="{[Market].[Region].[All]}"/>
-    <s v="{[Scope].[Scope].[All]}"/>
-    <s v="{[Market].[Area].&amp;[REGIONS]}"/>
-    <s v="{[Market].[Market].&amp;[Walmart West]}"/>
-    <s v="{[Products].[Top Companies].&amp;[Edgewell Personal Care]}"/>
+    <s v="{[Market].[Market].[All]}"/>
+    <s v="{[Products].[Category].&amp;[Manual Shave Men]}"/>
+    <s v="{[Market].[Area].&amp;[RETAILER]}"/>
+    <s v="{[Market].[Region].&amp;[Walmart]}"/>
+    <s v="{[Scope].[Scope].&amp;[Segment]}"/>
+    <s v="{[Products].[Segment].&amp;[Disposables]}"/>
+    <s v="{[Calendar].[MonthYear].&amp;[Apr-24],[Calendar].[MonthYear].&amp;[May-24],[Calendar].[MonthYear].&amp;[Jun-24],[Calendar].[MonthYear].&amp;[Jul-24],[Calendar].[MonthYear].&amp;[Aug-24],[Calendar].[MonthYear].&amp;[Sep-24],[Calendar].[MonthYear].&amp;[Oct-24],[Calendar].[MonthYear].&amp;[Nov-24],[Calendar].[MonthYear].&amp;[Dec-24],[Calendar].[MonthYear].&amp;[Jan-25],[Calendar].[MonthYear].&amp;[Feb-25],[Calendar].[MonthYear].&amp;[Mar-25]}"/>
   </metadataStrings>
-  <mdxMetadata count="6">
+  <mdxMetadata count="8">
     <mdx n="0" f="s">
       <ms ns="1" c="0"/>
     </mdx>
@@ -80,8 +82,14 @@
     <mdx n="0" f="s">
       <ms ns="6" c="0"/>
     </mdx>
+    <mdx n="0" f="s">
+      <ms ns="7" c="0"/>
+    </mdx>
+    <mdx n="0" f="s">
+      <ms ns="8" c="0"/>
+    </mdx>
   </mdxMetadata>
-  <valueMetadata count="6">
+  <valueMetadata count="8">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -100,12 +108,18 @@
     <bk>
       <rc t="1" v="5"/>
     </bk>
+    <bk>
+      <rc t="1" v="6"/>
+    </bk>
+    <bk>
+      <rc t="1" v="7"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="61">
   <si>
     <t>Scope</t>
   </si>
@@ -134,118 +148,170 @@
     <t>MonthYear</t>
   </si>
   <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>(Multiple Items)</t>
+  </si>
+  <si>
+    <t>RETAILER</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>Disposables</t>
+  </si>
+  <si>
+    <t>Barbasol</t>
+  </si>
+  <si>
+    <t>Bic</t>
+  </si>
+  <si>
+    <t>Equate</t>
+  </si>
+  <si>
+    <t>Gillette</t>
+  </si>
+  <si>
+    <t>Harry's</t>
+  </si>
+  <si>
+    <t>Personna</t>
+  </si>
+  <si>
+    <t>Schick</t>
+  </si>
+  <si>
+    <t>Wilkinson Sword</t>
+  </si>
+  <si>
     <t>Grand Total</t>
   </si>
   <si>
-    <t>REGIONS</t>
+    <t>Pack Size</t>
   </si>
   <si>
-    <t>Walmart West</t>
+    <t>1CT</t>
   </si>
   <si>
-    <t>Out Of Scope</t>
+    <t>2CT</t>
   </si>
   <si>
-    <t>Manual Shave Men Total</t>
+    <t>5CT</t>
   </si>
   <si>
-    <t>Out Of Scope Total</t>
+    <t>10CT</t>
   </si>
   <si>
-    <t>Top Companies</t>
+    <t>3CT</t>
   </si>
   <si>
-    <t>Edgewell Personal Care</t>
+    <t>4CT</t>
   </si>
   <si>
-    <t>Value Sales</t>
+    <t>6CT</t>
   </si>
   <si>
-    <t>Jan-23</t>
+    <t>15CT</t>
   </si>
   <si>
-    <t>Feb-23</t>
+    <t>Barbasol Total</t>
   </si>
   <si>
-    <t>Mar-23</t>
+    <t>8CT</t>
   </si>
   <si>
-    <t>Apr-23</t>
+    <t>20CT</t>
   </si>
   <si>
-    <t>May-23</t>
+    <t>7CT</t>
   </si>
   <si>
-    <t>Jun-23</t>
+    <t>9CT</t>
   </si>
   <si>
-    <t>Jul-23</t>
+    <t>12CT</t>
   </si>
   <si>
-    <t>Aug-23</t>
+    <t>18CT</t>
   </si>
   <si>
-    <t>Sep-23</t>
+    <t>21CT</t>
   </si>
   <si>
-    <t>Oct-23</t>
+    <t>24CT</t>
   </si>
   <si>
-    <t>Nov-23</t>
+    <t>52CT</t>
   </si>
   <si>
-    <t>Dec-23</t>
+    <t>Bic Total</t>
   </si>
   <si>
-    <t>Jan-24</t>
+    <t>Equate Total</t>
   </si>
   <si>
-    <t>Feb-24</t>
+    <t>25CT</t>
   </si>
   <si>
-    <t>Mar-24</t>
+    <t>Gillette Total</t>
   </si>
   <si>
-    <t>Apr-24</t>
+    <t>Harry's Total</t>
   </si>
   <si>
-    <t>May-24</t>
+    <t>Personna Total</t>
   </si>
   <si>
-    <t>Jun-24</t>
+    <t>Schick Total</t>
   </si>
   <si>
-    <t>Jul-24</t>
+    <t>Wilkinson Sword Total</t>
   </si>
   <si>
-    <t>Aug-24</t>
+    <t>SubCategory</t>
   </si>
   <si>
-    <t>Sep-24</t>
+    <t>Av Price/Unit</t>
   </si>
   <si>
-    <t>Oct-24</t>
+    <t>Values</t>
   </si>
   <si>
-    <t>Nov-24</t>
+    <t>Value Share</t>
   </si>
   <si>
-    <t>Dec-24</t>
+    <t>Sensitive Skin</t>
   </si>
   <si>
-    <t>Jan-25</t>
+    <t>Normal Skin</t>
   </si>
   <si>
-    <t>Feb-25</t>
+    <t>Rem Types</t>
   </si>
   <si>
-    <t>Mar-25</t>
+    <t>Sensitive Skin Total</t>
+  </si>
+  <si>
+    <t>Normal Skin Total</t>
+  </si>
+  <si>
+    <t>Rem Types Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="\$#,##0.00;\-\$#,##0.00;\$#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0%;\-0.0%;0.0%"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -705,10 +771,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -768,50 +835,57 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="BW4SA" refreshedDate="45860.541113078703" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Salma Hany" refreshedDate="45866.644905555557" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="9">
-    <cacheField name="[Products].[Category].[Category]" caption="Category" numFmtId="0" hierarchy="81" level="1">
-      <sharedItems count="2">
-        <s v="[Products].[Category].&amp;[Manual Shave Men]" c="Manual Shave Men"/>
-        <s v="[Products].[Category].&amp;[Out Of Scope]" c="Out Of Scope"/>
+  <cacheFields count="13">
+    <cacheField name="[Products].[Brand].[Brand]" caption="Brand" numFmtId="0" hierarchy="76" level="1">
+      <sharedItems count="8">
+        <s v="[Products].[Brand].&amp;[Barbasol]" c="Barbasol"/>
+        <s v="[Products].[Brand].&amp;[Bic]" c="Bic"/>
+        <s v="[Products].[Brand].&amp;[Equate]" c="Equate"/>
+        <s v="[Products].[Brand].&amp;[Gillette]" c="Gillette"/>
+        <s v="[Products].[Brand].&amp;[Harry's]" c="Harry's"/>
+        <s v="[Products].[Brand].&amp;[Personna]" c="Personna"/>
+        <s v="[Products].[Brand].&amp;[Schick]" c="Schick"/>
+        <s v="[Products].[Brand].&amp;[Wilkinson Sword]" c="Wilkinson Sword"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Calendar].[MonthYear].[MonthYear]" caption="MonthYear" numFmtId="0" hierarchy="35" level="1">
-      <sharedItems count="27">
-        <s v="[Calendar].[MonthYear].&amp;[Jan-23]" c="Jan-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Feb-23]" c="Feb-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Mar-23]" c="Mar-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Apr-23]" c="Apr-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[May-23]" c="May-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Jun-23]" c="Jun-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Jul-23]" c="Jul-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Aug-23]" c="Aug-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Sep-23]" c="Sep-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Oct-23]" c="Oct-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Nov-23]" c="Nov-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Dec-23]" c="Dec-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Jan-24]" c="Jan-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Feb-24]" c="Feb-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Mar-24]" c="Mar-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Apr-24]" c="Apr-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[May-24]" c="May-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Jun-24]" c="Jun-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Jul-24]" c="Jul-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Aug-24]" c="Aug-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Sep-24]" c="Sep-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Oct-24]" c="Oct-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Nov-24]" c="Nov-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Dec-24]" c="Dec-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Jan-25]" c="Jan-25"/>
-        <s v="[Calendar].[MonthYear].&amp;[Feb-25]" c="Feb-25"/>
-        <s v="[Calendar].[MonthYear].&amp;[Mar-25]" c="Mar-25"/>
+    <cacheField name="[Products].[SubCategory].[SubCategory]" caption="SubCategory" numFmtId="0" hierarchy="107" level="1">
+      <sharedItems count="3">
+        <s v="[Products].[SubCategory].&amp;[Normal Skin]" c="Normal Skin"/>
+        <s v="[Products].[SubCategory].&amp;[Sensitive Skin]" c="Sensitive Skin"/>
+        <s v="[Products].[SubCategory].&amp;[Rem Types]" c="Rem Types"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Products].[Top Companies].[Top Companies]" caption="Top Companies" numFmtId="0" hierarchy="110" level="1">
+    <cacheField name="[Products].[Pack Size].[Pack Size]" caption="Pack Size" numFmtId="0" hierarchy="93" level="1">
+      <sharedItems count="18">
+        <s v="[Products].[Pack Size].&amp;[3CT]" c="3CT"/>
+        <s v="[Products].[Pack Size].&amp;[4CT]" c="4CT"/>
+        <s v="[Products].[Pack Size].&amp;[1CT]" c="1CT"/>
+        <s v="[Products].[Pack Size].&amp;[2CT]" c="2CT"/>
+        <s v="[Products].[Pack Size].&amp;[6CT]" c="6CT"/>
+        <s v="[Products].[Pack Size].&amp;[8CT]" c="8CT"/>
+        <s v="[Products].[Pack Size].&amp;[10CT]" c="10CT"/>
+        <s v="[Products].[Pack Size].&amp;[12CT]" c="12CT"/>
+        <s v="[Products].[Pack Size].&amp;[18CT]" c="18CT"/>
+        <s v="[Products].[Pack Size].&amp;[5CT]" c="5CT"/>
+        <s v="[Products].[Pack Size].&amp;[7CT]" c="7CT"/>
+        <s v="[Products].[Pack Size].&amp;[24CT]" c="24CT"/>
+        <s v="[Products].[Pack Size].&amp;[52CT]" c="52CT"/>
+        <s v="[Products].[Pack Size].&amp;[15CT]" c="15CT"/>
+        <s v="[Products].[Pack Size].&amp;[21CT]" c="21CT"/>
+        <s v="[Products].[Pack Size].&amp;[25CT]" c="25CT"/>
+        <s v="[Products].[Pack Size].&amp;[9CT]" c="9CT"/>
+        <s v="[Products].[Pack Size].&amp;[20CT]" c="20CT"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Products].[Category].[Category]" caption="Category" numFmtId="0" hierarchy="81" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[Scope].[Scope].[Scope]" caption="Scope" numFmtId="0" hierarchy="145" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Calendar].[MonthYear].[MonthYear]" caption="MonthYear" numFmtId="0" hierarchy="35" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[Market].[Area].[Area]" caption="Area" numFmtId="0" hierarchy="58" level="1">
@@ -826,7 +900,11 @@
     <cacheField name="[Market].[Market].[Market]" caption="Market" numFmtId="0" hierarchy="63" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[Measures].[Value Sales]" caption="Value Sales" numFmtId="0" hierarchy="448" level="32767"/>
+    <cacheField name="[Products].[Segment].[Segment]" caption="Segment" numFmtId="0" hierarchy="103" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Measures].[Av Price/Unit]" caption="Av Price/Unit" numFmtId="0" hierarchy="549" level="32767"/>
+    <cacheField name="[Measures].[Value Share]" caption="Value Share" numFmtId="0" hierarchy="639" level="32767"/>
   </cacheFields>
   <cacheHierarchies count="2657">
     <cacheHierarchy uniqueName="[2nd Measure Table].[Measures]" caption="Measures" attribute="1" defaultMemberUniqueName="[2nd Measure Table].[Measures].[All]" allUniqueName="[2nd Measure Table].[Measures].[All]" dimensionUniqueName="[2nd Measure Table]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -867,7 +945,7 @@
     <cacheHierarchy uniqueName="[Calendar].[MonthYear]" caption="MonthYear" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthYear].[All]" allUniqueName="[Calendar].[MonthYear].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
+        <fieldUsage x="5"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Calendar].[MonthYearLong]" caption="MonthYearLong" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthYearLong].[All]" allUniqueName="[Calendar].[MonthYearLong].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -895,13 +973,13 @@
     <cacheHierarchy uniqueName="[Market].[Area]" caption="Area" attribute="1" defaultMemberUniqueName="[Market].[Area].[All]" allUniqueName="[Market].[Area].[All]" dimensionUniqueName="[Market]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="4"/>
+        <fieldUsage x="6"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Market].[Channel]" caption="Channel" attribute="1" defaultMemberUniqueName="[Market].[Channel].[All]" allUniqueName="[Market].[Channel].[All]" dimensionUniqueName="[Market]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="6"/>
+        <fieldUsage x="8"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Market].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Market].[Country].[All]" allUniqueName="[Market].[Country].[All]" dimensionUniqueName="[Market]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -910,13 +988,13 @@
     <cacheHierarchy uniqueName="[Market].[Market]" caption="Market" attribute="1" defaultMemberUniqueName="[Market].[Market].[All]" allUniqueName="[Market].[Market].[All]" dimensionUniqueName="[Market]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="7"/>
+        <fieldUsage x="9"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Market].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[Market].[Region].[All]" allUniqueName="[Market].[Region].[All]" dimensionUniqueName="[Market]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="5"/>
+        <fieldUsage x="7"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measure Table].[Measures]" caption="Measures" attribute="1" defaultMemberUniqueName="[Measure Table].[Measures].[All]" allUniqueName="[Measure Table].[Measures].[All]" dimensionUniqueName="[Measure Table]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -930,7 +1008,12 @@
     <cacheHierarchy uniqueName="[ProductNames].[ProductMaster]" caption="ProductMaster" attribute="1" defaultMemberUniqueName="[ProductNames].[ProductMaster].[All]" allUniqueName="[ProductNames].[ProductMaster].[All]" dimensionUniqueName="[ProductNames]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[ProductNames].[ProductName]" caption="ProductName" attribute="1" defaultMemberUniqueName="[ProductNames].[ProductName].[All]" allUniqueName="[ProductNames].[ProductName].[All]" dimensionUniqueName="[ProductNames]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[ProductNames].[SourceName]" caption="SourceName" attribute="1" defaultMemberUniqueName="[ProductNames].[SourceName].[All]" allUniqueName="[ProductNames].[SourceName].[All]" dimensionUniqueName="[ProductNames]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Brand]" caption="Brand" attribute="1" defaultMemberUniqueName="[Products].[Brand].[All]" allUniqueName="[Products].[Brand].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Brand]" caption="Brand" attribute="1" defaultMemberUniqueName="[Products].[Brand].[All]" allUniqueName="[Products].[Brand].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[Brand Logo URL]" caption="Brand Logo URL" attribute="1" defaultMemberUniqueName="[Products].[Brand Logo URL].[All]" allUniqueName="[Products].[Brand Logo URL].[All]" dimensionUniqueName="[Products]" displayFolder="Images" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[BrandType]" caption="BrandType" attribute="1" defaultMemberUniqueName="[Products].[BrandType].[All]" allUniqueName="[Products].[BrandType].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Bundle]" caption="Bundle" attribute="1" defaultMemberUniqueName="[Products].[Bundle].[All]" allUniqueName="[Products].[Bundle].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -938,7 +1021,7 @@
     <cacheHierarchy uniqueName="[Products].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Products].[Category].[All]" allUniqueName="[Products].[Category].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
+        <fieldUsage x="3"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[Category Hierarchy]" caption="Category Hierarchy" defaultMemberUniqueName="[Products].[Category Hierarchy].[All]" allUniqueName="[Products].[Category Hierarchy].[All]" dimensionUniqueName="[Products]" displayFolder="" count="6" unbalanced="0"/>
@@ -952,7 +1035,12 @@
     <cacheHierarchy uniqueName="[Products].[MANUFACTURER Hierarchy]" caption="MANUFACTURER Hierarchy" defaultMemberUniqueName="[Products].[MANUFACTURER Hierarchy].[All]" allUniqueName="[Products].[MANUFACTURER Hierarchy].[All]" dimensionUniqueName="[Products]" displayFolder="" count="9" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Pack Count]" caption="Pack Count" attribute="1" defaultMemberUniqueName="[Products].[Pack Count].[All]" allUniqueName="[Products].[Pack Count].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Pack Count Bracket]" caption="Pack Count Bracket" attribute="1" defaultMemberUniqueName="[Products].[Pack Count Bracket].[All]" allUniqueName="[Products].[Pack Count Bracket].[All]" dimensionUniqueName="[Products]" displayFolder="Brackets" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Pack Size]" caption="Pack Size" attribute="1" defaultMemberUniqueName="[Products].[Pack Size].[All]" allUniqueName="[Products].[Pack Size].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Pack Size]" caption="Pack Size" attribute="1" defaultMemberUniqueName="[Products].[Pack Size].[All]" allUniqueName="[Products].[Pack Size].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[Pack Size Bracket]" caption="Pack Size Bracket" attribute="1" defaultMemberUniqueName="[Products].[Pack Size Bracket].[All]" allUniqueName="[Products].[Pack Size Bracket].[All]" dimensionUniqueName="[Products]" displayFolder="Brackets" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Pack Type]" caption="Pack Type" attribute="1" defaultMemberUniqueName="[Products].[Pack Type].[All]" allUniqueName="[Products].[Pack Type].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[PackConfiguration]" caption="PackConfiguration" attribute="1" defaultMemberUniqueName="[Products].[PackConfiguration].[All]" allUniqueName="[Products].[PackConfiguration].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -962,19 +1050,24 @@
     <cacheHierarchy uniqueName="[Products].[Portion Size Bracket]" caption="Portion Size Bracket" attribute="1" defaultMemberUniqueName="[Products].[Portion Size Bracket].[All]" allUniqueName="[Products].[Portion Size Bracket].[All]" dimensionUniqueName="[Products]" displayFolder="Brackets" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Product]" caption="Product" attribute="1" defaultMemberUniqueName="[Products].[Product].[All]" allUniqueName="[Products].[Product].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Sector]" caption="Sector" attribute="1" defaultMemberUniqueName="[Products].[Sector].[All]" allUniqueName="[Products].[Sector].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Segment]" caption="Segment" attribute="1" defaultMemberUniqueName="[Products].[Segment].[All]" allUniqueName="[Products].[Segment].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Segment]" caption="Segment" attribute="1" defaultMemberUniqueName="[Products].[Segment].[All]" allUniqueName="[Products].[Segment].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="10"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[SKU]" caption="SKU" attribute="1" defaultMemberUniqueName="[Products].[SKU].[All]" allUniqueName="[Products].[SKU].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Store Link]" caption="Store Link" attribute="1" defaultMemberUniqueName="[Products].[Store Link].[All]" allUniqueName="[Products].[Store Link].[All]" dimensionUniqueName="[Products]" displayFolder="Images" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[SubBrand]" caption="SubBrand" attribute="1" defaultMemberUniqueName="[Products].[SubBrand].[All]" allUniqueName="[Products].[SubBrand].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[SubCategory]" caption="SubCategory" attribute="1" defaultMemberUniqueName="[Products].[SubCategory].[All]" allUniqueName="[Products].[SubCategory].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[SubCategory]" caption="SubCategory" attribute="1" defaultMemberUniqueName="[Products].[SubCategory].[All]" allUniqueName="[Products].[SubCategory].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[SubSegment]" caption="SubSegment" attribute="1" defaultMemberUniqueName="[Products].[SubSegment].[All]" allUniqueName="[Products].[SubSegment].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Top Brands]" caption="Top Brands" attribute="1" defaultMemberUniqueName="[Products].[Top Brands].[All]" allUniqueName="[Products].[Top Brands].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Top Companies]" caption="Top Companies" attribute="1" defaultMemberUniqueName="[Products].[Top Companies].[All]" allUniqueName="[Products].[Top Companies].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Products].[Top Companies]" caption="Top Companies" attribute="1" defaultMemberUniqueName="[Products].[Top Companies].[All]" allUniqueName="[Products].[Top Companies].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Total Size]" caption="Total Size" attribute="1" defaultMemberUniqueName="[Products].[Total Size].[All]" allUniqueName="[Products].[Total Size].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[UnitOfMeasure]" caption="UnitOfMeasure" attribute="1" defaultMemberUniqueName="[Products].[UnitOfMeasure].[All]" allUniqueName="[Products].[UnitOfMeasure].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Variant]" caption="Variant" attribute="1" defaultMemberUniqueName="[Products].[Variant].[All]" allUniqueName="[Products].[Variant].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -1012,7 +1105,7 @@
     <cacheHierarchy uniqueName="[Scope].[Scope]" caption="Scope" attribute="1" defaultMemberUniqueName="[Scope].[Scope].[All]" allUniqueName="[Scope].[Scope].[All]" dimensionUniqueName="[Scope]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="3"/>
+        <fieldUsage x="4"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Shelf Price Ladder].[Shelf Price Group]" caption="Shelf Price Group" attribute="1" defaultMemberUniqueName="[Shelf Price Ladder].[Shelf Price Group].[All]" allUniqueName="[Shelf Price Ladder].[Shelf Price Group].[All]" dimensionUniqueName="[Shelf Price Ladder]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
@@ -1317,11 +1410,7 @@
     <cacheHierarchy uniqueName="[VAT].[VAT SORT]" caption="VAT SORT" attribute="1" defaultMemberUniqueName="[VAT].[VAT SORT].[All]" allUniqueName="[VAT].[VAT SORT].[All]" dimensionUniqueName="[VAT]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[Unit Sales]" caption="Unit Sales" measure="1" displayFolder="Unit Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Sales]" caption="Volume Sales" measure="1" displayFolder="Volume Sales" measureGroup="Sales Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Value Sales]" caption="Value Sales" measure="1" displayFolder="Value Sales" measureGroup="Sales Metrics" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="8"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Value Sales]" caption="Value Sales" measure="1" displayFolder="Value Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Unit Sales PP]" caption="Unit Sales PP" measure="1" displayFolder="Unit Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Unit Sales YA]" caption="Unit Sales YA" measure="1" displayFolder="Unit Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Sales PP]" caption="Volume Sales PP" measure="1" displayFolder="Volume Sales" measureGroup="Sales Metrics" count="0"/>
@@ -1422,7 +1511,11 @@
     <cacheHierarchy uniqueName="[Measures].[Av Pack Size]" caption="Av Pack Size" measure="1" displayFolder="" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Yearly Seasonality Index]" caption="Yearly Seasonality Index" measure="1" displayFolder="Seasonality" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Seasonality Index]" caption="Seasonality Index" measure="1" displayFolder="Seasonality" measureGroup="Sales Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Av Price/Unit]" caption="Av Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Av Price/Unit]" caption="Av Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="11"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Av Price/KG]" caption="Av Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[YA Price/Unit]" caption="YA Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[YA Price/KG]" caption="YA Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
@@ -1512,7 +1605,11 @@
     <cacheHierarchy uniqueName="[Measures].[Category Value]" caption="Category Value" measure="1" displayFolder="" measureGroup="Market Sales" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Category Volume]" caption="Category Volume" measure="1" displayFolder="" measureGroup="Market Sales" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Company Sales]" caption="Company Sales" measure="1" displayFolder="" measureGroup="Market Sales" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Value Share]" caption="Value Share" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Value Share]" caption="Value Share" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="12"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Volume Share]" caption="Volume Share" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Unit Share]" caption="Unit Share" measure="1" displayFolder="Unit Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Value Share YA]" caption="Value Share YA" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0"/>
@@ -3694,18 +3791,32 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="32815" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A16:C73" firstHeaderRow="1" firstDataRow="1" firstDataCol="2" rowPageCount="6" colPageCount="1"/>
-  <pivotFields count="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="957" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A16:E109" firstHeaderRow="1" firstDataRow="2" firstDataCol="3" rowPageCount="8" colPageCount="1"/>
+  <pivotFields count="13">
     <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="3">
+      <items count="9">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="28">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="19">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -3724,15 +3835,16 @@
         <item x="15"/>
         <item x="16"/>
         <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
         <item t="default"/>
       </items>
     </pivotField>
@@ -3767,93 +3879,24 @@
       </items>
     </pivotField>
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="3">
     <field x="0"/>
     <field x="1"/>
+    <field x="2"/>
   </rowFields>
-  <rowItems count="57">
+  <rowItems count="92">
     <i>
       <x/>
       <x/>
-    </i>
-    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
       <x v="1"/>
     </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="18"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-    </i>
-    <i r="1">
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="21"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x v="23"/>
-    </i>
-    <i r="1">
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x v="25"/>
-    </i>
-    <i r="1">
-      <x v="26"/>
+    <i t="default" r="1">
+      <x/>
     </i>
     <i t="default">
       <x/>
@@ -3861,105 +3904,312 @@
     <i>
       <x v="1"/>
       <x/>
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i t="default" r="1">
+      <x/>
     </i>
     <i r="1">
       <x v="1"/>
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="11"/>
+    </i>
+    <i r="2">
+      <x v="12"/>
+    </i>
+    <i t="default" r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i t="default" r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i t="default" r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x/>
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="14"/>
+    </i>
+    <i r="2">
+      <x v="15"/>
+    </i>
+    <i r="2">
+      <x v="12"/>
+    </i>
+    <i t="default" r="1">
+      <x/>
     </i>
     <i r="1">
       <x v="2"/>
+      <x v="16"/>
+    </i>
+    <i t="default" r="1">
+      <x v="2"/>
     </i>
     <i r="1">
+      <x v="1"/>
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i t="default" r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
       <x v="3"/>
     </i>
+    <i>
+      <x v="4"/>
+      <x/>
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i t="default" r="1">
+      <x/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x/>
+      <x v="6"/>
+    </i>
+    <i t="default" r="1">
+      <x/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x/>
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i t="default" r="1">
+      <x/>
+    </i>
     <i r="1">
+      <x v="2"/>
+      <x v="5"/>
+    </i>
+    <i t="default" r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
       <x v="4"/>
     </i>
-    <i r="1">
+    <i r="2">
       <x v="5"/>
     </i>
-    <i r="1">
+    <i r="2">
       <x v="6"/>
     </i>
-    <i r="1">
+    <i r="2">
       <x v="7"/>
     </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
-    <i r="1">
+    <i r="2">
       <x v="17"/>
     </i>
-    <i r="1">
-      <x v="18"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-    </i>
-    <i r="1">
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="21"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x v="23"/>
-    </i>
-    <i r="1">
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x v="25"/>
-    </i>
-    <i r="1">
-      <x v="26"/>
+    <i t="default" r="1">
+      <x v="1"/>
     </i>
     <i t="default">
-      <x v="1"/>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x/>
+      <x v="5"/>
+    </i>
+    <i t="default" r="1">
+      <x/>
+    </i>
+    <i t="default">
+      <x v="7"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <pageFields count="6">
-    <pageField fld="2" hier="110" name="[Products].[Top Companies].&amp;[Edgewell Personal Care]" cap="Edgewell Personal Care"/>
-    <pageField fld="3" hier="145" name="[Scope].[Scope].[All]" cap="All"/>
-    <pageField fld="4" hier="58" name="[Market].[Area].&amp;[REGIONS]" cap="REGIONS"/>
-    <pageField fld="5" hier="64" name="[Market].[Region].[All]" cap="All"/>
-    <pageField fld="6" hier="59" name="[Market].[Channel].[All]" cap="All"/>
-    <pageField fld="7" hier="63" name="[Market].[Market].&amp;[Walmart West]" cap="Walmart West"/>
+  <pageFields count="8">
+    <pageField fld="3" hier="81" name="[Products].[Category].&amp;[Manual Shave Men]" cap="Manual Shave Men"/>
+    <pageField fld="4" hier="145" name="[Scope].[Scope].&amp;[Segment]" cap="Segment"/>
+    <pageField fld="5" hier="35" name="[Calendar].[MonthYear].[All]" cap="All"/>
+    <pageField fld="6" hier="58" name="[Market].[Area].&amp;[RETAILER]" cap="RETAILER"/>
+    <pageField fld="7" hier="64" name="[Market].[Region].&amp;[Walmart]" cap="Walmart"/>
+    <pageField fld="8" hier="59" name="[Market].[Channel].[All]" cap="All"/>
+    <pageField fld="9" hier="63" name="[Market].[Market].[All]" cap="All"/>
+    <pageField fld="10" hier="103" name="[Products].[Segment].&amp;[Disposables]" cap="Disposables"/>
   </pageFields>
-  <dataFields count="1">
-    <dataField fld="8" baseField="0" baseItem="0"/>
+  <dataFields count="2">
+    <dataField fld="11" baseField="0" baseItem="0"/>
+    <dataField fld="12" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotHierarchies count="2657">
     <pivotHierarchy/>
@@ -3997,7 +4247,22 @@
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="12" level="1">
+        <member name="[Calendar].[MonthYear].&amp;[Apr-24]"/>
+        <member name="[Calendar].[MonthYear].&amp;[May-24]"/>
+        <member name="[Calendar].[MonthYear].&amp;[Jun-24]"/>
+        <member name="[Calendar].[MonthYear].&amp;[Jul-24]"/>
+        <member name="[Calendar].[MonthYear].&amp;[Aug-24]"/>
+        <member name="[Calendar].[MonthYear].&amp;[Sep-24]"/>
+        <member name="[Calendar].[MonthYear].&amp;[Oct-24]"/>
+        <member name="[Calendar].[MonthYear].&amp;[Nov-24]"/>
+        <member name="[Calendar].[MonthYear].&amp;[Dec-24]"/>
+        <member name="[Calendar].[MonthYear].&amp;[Jan-25]"/>
+        <member name="[Calendar].[MonthYear].&amp;[Feb-25]"/>
+        <member name="[Calendar].[MonthYear].&amp;[Mar-25]"/>
+      </members>
+    </pivotHierarchy>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -6621,10 +6886,14 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleMedium21" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="81"/>
-    <rowHierarchyUsage hierarchyUsage="35"/>
+  <rowHierarchiesUsage count="3">
+    <rowHierarchyUsage hierarchyUsage="76"/>
+    <rowHierarchyUsage hierarchyUsage="107"/>
+    <rowHierarchyUsage hierarchyUsage="93"/>
   </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
   <extLst>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
@@ -6930,562 +7199,1203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A9:C73"/>
+  <dimension ref="A7:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C14005" sqref="C14005"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="20" width="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="35" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="97" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="35" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="97" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="18" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s" vm="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s" vm="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s" vm="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s" vm="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s" vm="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s" vm="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s" vm="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s" vm="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s" vm="6">
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="2">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5.5631528305760471E-8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="2">
+        <v>13</v>
+      </c>
+      <c r="E19" s="3">
+        <v>8.0356651997209573E-8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="2">
+        <v>11</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.3598818030297006E-7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="2">
+        <v>11</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1.3598818030297006E-7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s" vm="3">
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.9098999999999999</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2.8817131662383926E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5.9901</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3.651074331967645E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="2">
+        <v>10.915699999999999</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2.221899133536474E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="2">
+        <v>9.5553000000000008</v>
+      </c>
+      <c r="E25" s="3">
+        <v>4.4063940999525238E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4.9801000000000002</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3.2828535730084628E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="2">
+        <v>5.8822000000000001</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1.6323359766509778E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="2">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3">
+        <v>6.181280922862275E-8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="2">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>3.0906404614311375E-8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="2">
+        <v>6.8739999999999997</v>
+      </c>
+      <c r="E30" s="3">
+        <v>8.2771251945388188E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1.0832999999999999</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1.6071330399441915E-7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="2">
+        <v>6.9260999999999999</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2.7693745667462934E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="2">
+        <v>6.4462000000000002</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2.0445847633675237E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3.9830999999999999</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2.0366739600424448E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="2">
+        <v>4.9180999999999999</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1.1855702991330767E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="2">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2.4725123691449099E-8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="2">
+        <v>12.9671</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2.3216334830987646E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="2">
+        <v>5.4809999999999999</v>
+      </c>
+      <c r="E38" s="3">
+        <v>8.8225237173585568E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1.2980689938010778E-7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="2">
+        <v>3.4321999999999999</v>
+      </c>
+      <c r="E40" s="3">
+        <v>3.5184376421810513E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1.236256184572455E-8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2.5961379876021556E-7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="2">
+        <v>4.3986999999999998</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.10176678563613224</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="2">
+        <v>5.2460000000000004</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.18453803758152043</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1.9370000000000001</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2.0521852663902753E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="2">
+        <v>5.0484</v>
+      </c>
+      <c r="E46" s="3">
+        <v>7.421648277376526E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1.0034000000000001</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1.0835352768112967E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2.1772999999999998</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2.3807982315800332E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2.9874999999999998</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.10888033971034246</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1.6689458491728143E-7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="2">
+        <v>3.972</v>
+      </c>
+      <c r="E51" s="3">
+        <v>2.2045915469524599E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="2">
+        <v>5.9797000000000002</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2.2355789263468605E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="2">
+        <v>4.78</v>
+      </c>
+      <c r="E53" s="3">
+        <v>4.4401871627578124E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3.3515999999999999</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.15328221133792058</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="2">
+        <v>9.9791000000000007</v>
+      </c>
+      <c r="E55" s="3">
+        <v>2.3011759157564596E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="2">
+        <v>6.9650999999999996</v>
+      </c>
+      <c r="E56" s="3">
+        <v>3.5912345876096E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="2">
+        <v>6.9947999999999997</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2.3255017287002917E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="2">
+        <v>3.5127999999999999</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5.0810129185927899E-6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="3">
+        <v>4.3268966460035926E-8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="2">
+        <v>12.014200000000001</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1.6019314920476029E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="2">
+        <v>9.9687000000000001</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5.2849914802786911E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="2">
+        <v>10.818899999999999</v>
+      </c>
+      <c r="E62" s="3">
+        <v>9.0276501429118333E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="2">
+        <v>15.0128</v>
+      </c>
+      <c r="E63" s="3">
+        <v>2.2180574674429153E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" s="2">
+        <v>14.9922</v>
+      </c>
+      <c r="E64" s="3">
+        <v>4.3111387065469395E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" s="2">
+        <v>20.064</v>
+      </c>
+      <c r="E65" s="3">
+        <v>3.2422456479857191E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" s="2">
+        <v>19.960899999999999</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2.4541286215522252E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="2">
+        <v>65</v>
+      </c>
+      <c r="E67" s="3">
+        <v>4.0178325998604784E-7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" s="2">
+        <v>11.029199999999999</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0.36358608397346781</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="2">
+        <v>10</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1.236256184572455E-7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="2">
+        <v>10</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1.236256184572455E-7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1.9575</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1.8574131045108848E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="2">
+        <v>6.9623999999999997</v>
+      </c>
+      <c r="E72" s="3">
+        <v>5.4284219228127872E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="2">
+        <v>6.9691000000000001</v>
+      </c>
+      <c r="E73" s="3">
+        <v>4.0855806750312335E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" s="2">
+        <v>13.062799999999999</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1.430153077073168E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D75" s="2">
+        <v>14.9907</v>
+      </c>
+      <c r="E75" s="3">
+        <v>5.1439321771066049E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" s="2">
+        <v>12.0143</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2.5299883916780525E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77" s="2">
+        <v>19.044699999999999</v>
+      </c>
+      <c r="E77" s="3">
+        <v>3.6860770714495375E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78" s="2">
+        <v>15.0275</v>
+      </c>
+      <c r="E78" s="3">
+        <v>3.3480463066457064E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79" s="2">
+        <v>8.9879999999999995</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0.17723765429141672</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>46</v>
+      </c>
+      <c r="D80" s="2">
+        <v>10.2652</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0.54082386189050302</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" t="s">
+        <v>56</v>
+      </c>
+      <c r="C81" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" s="2">
+        <v>5.9424999999999999</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1.7462242232704384E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" s="2">
+        <v>7.9743000000000004</v>
+      </c>
+      <c r="E82" s="3">
+        <v>1.5253670558965692E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83" s="2">
+        <v>6.7435999999999998</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3.2715912791670076E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>47</v>
+      </c>
+      <c r="D84" s="2">
+        <v>6.7435999999999998</v>
+      </c>
+      <c r="E84" s="3">
+        <v>3.2715912791670076E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" s="2">
+        <v>2.3332999999999999</v>
+      </c>
+      <c r="E85" s="3">
+        <v>4.3268966460035926E-8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>59</v>
+      </c>
+      <c r="D86" s="2">
+        <v>2.3332999999999999</v>
+      </c>
+      <c r="E86" s="3">
+        <v>4.3268966460035926E-8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>48</v>
+      </c>
+      <c r="D87" s="2">
+        <v>2.3332999999999999</v>
+      </c>
+      <c r="E87" s="3">
+        <v>4.3268966460035926E-8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" t="s">
+        <v>56</v>
+      </c>
+      <c r="C88" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E88" s="3">
+        <v>3.0906404614311375E-8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>29</v>
+      </c>
+      <c r="D89" s="2">
+        <v>3.8235000000000001</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4.0178325998604784E-7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90" s="2">
+        <v>3.2303000000000002</v>
+      </c>
+      <c r="E90" s="3">
+        <v>3.5542365306458079E-6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" s="2">
+        <v>5.1802999999999999</v>
+      </c>
+      <c r="E91" s="3">
+        <v>1.9532847716244788E-6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="E92" s="3">
+        <v>4.3268966460035926E-8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>38</v>
+      </c>
+      <c r="D93" s="2">
+        <v>6.4972000000000003</v>
+      </c>
+      <c r="E93" s="3">
+        <v>3.051805945905163E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>59</v>
+      </c>
+      <c r="D94" s="2">
+        <v>6.4961000000000002</v>
+      </c>
+      <c r="E94" s="3">
+        <v>3.052404293898496E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>57</v>
+      </c>
+      <c r="C95" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="E95" s="3">
+        <v>2.5961379876021556E-7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>60</v>
+      </c>
+      <c r="D96" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="E96" s="3">
+        <v>2.5961379876021556E-7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>55</v>
+      </c>
+      <c r="C97" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="E97" s="3">
+        <v>4.1229143755491375E-6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>30</v>
+      </c>
+      <c r="D98" s="2">
+        <v>6.4927000000000001</v>
+      </c>
+      <c r="E98" s="3">
+        <v>2.8369495660512084E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>31</v>
+      </c>
+      <c r="D99" s="2">
+        <v>5.6071</v>
+      </c>
+      <c r="E99" s="3">
+        <v>9.7046110488937719E-7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>34</v>
+      </c>
+      <c r="D100" s="2">
+        <v>10.5608</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3.7758657400069423E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="2">
+        <v>16</v>
+      </c>
+      <c r="E101" s="3">
+        <v>3.9560197906318559E-7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>38</v>
+      </c>
+      <c r="D102" s="2">
+        <v>15.0189</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2.142595153680428E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>35</v>
+      </c>
+      <c r="D103" s="2">
+        <v>25</v>
+      </c>
+      <c r="E103" s="3">
+        <v>1.5453202307155687E-7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>58</v>
+      </c>
+      <c r="D104" s="2">
+        <v>9.3378999999999994</v>
+      </c>
+      <c r="E104" s="3">
+        <v>8.7559748106868368E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>49</v>
+      </c>
+      <c r="D105" s="2">
+        <v>8.3892000000000007</v>
+      </c>
+      <c r="E105" s="3">
+        <v>0.11808405065965208</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>22</v>
+      </c>
+      <c r="B106" t="s">
+        <v>56</v>
+      </c>
+      <c r="C106" t="s">
+        <v>34</v>
+      </c>
+      <c r="D106" s="2">
+        <v>3.6667000000000001</v>
+      </c>
+      <c r="E106" s="3">
+        <v>6.7994090151485029E-8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>59</v>
+      </c>
+      <c r="D107" s="2">
+        <v>3.6667000000000001</v>
+      </c>
+      <c r="E107" s="3">
+        <v>6.7994090151485029E-8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>50</v>
+      </c>
+      <c r="D108" s="2">
+        <v>3.6667000000000001</v>
+      </c>
+      <c r="E108" s="3">
+        <v>6.7994090151485029E-8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" s="2">
+        <v>6.7496</v>
+      </c>
+      <c r="E109" s="3">
         <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s" vm="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s" vm="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s" vm="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s" vm="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2">
-        <v>552312</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="2">
-        <v>514629</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="2">
-        <v>566590</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="2">
-        <v>551818</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="2">
-        <v>551963</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="2">
-        <v>569834</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="2">
-        <v>613906</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="2">
-        <v>612423</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="2">
-        <v>562108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="2">
-        <v>596216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="2">
-        <v>614608</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="2">
-        <v>936458</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="2">
-        <v>489329</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="2">
-        <v>500226</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="2">
-        <v>530890</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="2">
-        <v>503331</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="2">
-        <v>512833</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="2">
-        <v>503899</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="2">
-        <v>525124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="2">
-        <v>514734</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="2">
-        <v>481188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="2">
-        <v>529397</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="2">
-        <v>531279</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="2">
-        <v>744788</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="2">
-        <v>443289</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="2">
-        <v>413595</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="2">
-        <v>491134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="2">
-        <v>14957901</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="2">
-        <v>431144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="2">
-        <v>417101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" s="2">
-        <v>495428</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="2">
-        <v>492528</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" s="2">
-        <v>522777</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="2">
-        <v>538350</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="2">
-        <v>562052</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="2">
-        <v>575545</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="2">
-        <v>517643</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" s="2">
-        <v>507805</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C55" s="2">
-        <v>470002</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="2">
-        <v>540734</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>30</v>
-      </c>
-      <c r="C57" s="2">
-        <v>454615</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>31</v>
-      </c>
-      <c r="C58" s="2">
-        <v>410651</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="2">
-        <v>402530</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>33</v>
-      </c>
-      <c r="C60" s="2">
-        <v>384747</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>34</v>
-      </c>
-      <c r="C61" s="2">
-        <v>362474</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62" s="2">
-        <v>354608</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>36</v>
-      </c>
-      <c r="C63" s="2">
-        <v>356180</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" s="2">
-        <v>358496</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>38</v>
-      </c>
-      <c r="C65" s="2">
-        <v>333470</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>39</v>
-      </c>
-      <c r="C66" s="2">
-        <v>334451</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67" s="2">
-        <v>310950</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>41</v>
-      </c>
-      <c r="C68" s="2">
-        <v>374072</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>42</v>
-      </c>
-      <c r="C69" s="2">
-        <v>323727</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>43</v>
-      </c>
-      <c r="C70" s="2">
-        <v>289621</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>44</v>
-      </c>
-      <c r="C71" s="2">
-        <v>341249</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="2">
-        <v>11462950</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="2">
-        <v>26420851</v>
       </c>
     </row>
   </sheetData>

--- a/Edgewell US Male Dataset.xlsx
+++ b/Edgewell US Male Dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\Salma Hany\Documents\Slide-Automate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146C339B-A8C6-4F19-97B8-DD398BB0D6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B63616-44FA-48EE-9B94-F1F8A5F42297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="957" r:id="rId2"/>
+    <pivotCache cacheId="1072" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -59,9 +59,9 @@
     <s v="{[Products].[Category].&amp;[Manual Shave Men]}"/>
     <s v="{[Market].[Area].&amp;[RETAILER]}"/>
     <s v="{[Market].[Region].&amp;[Walmart]}"/>
+    <s v="{[Calendar].[MonthYear].&amp;[Apr-24],[Calendar].[MonthYear].&amp;[May-24],[Calendar].[MonthYear].&amp;[Jun-24],[Calendar].[MonthYear].&amp;[Jul-24],[Calendar].[MonthYear].&amp;[Aug-24],[Calendar].[MonthYear].&amp;[Sep-24],[Calendar].[MonthYear].&amp;[Oct-24],[Calendar].[MonthYear].&amp;[Nov-24],[Calendar].[MonthYear].&amp;[Dec-24],[Calendar].[MonthYear].&amp;[Jan-25],[Calendar].[MonthYear].&amp;[Feb-25],[Calendar].[MonthYear].&amp;[Mar-25]}"/>
     <s v="{[Scope].[Scope].&amp;[Segment]}"/>
-    <s v="{[Products].[Segment].&amp;[Disposables]}"/>
-    <s v="{[Calendar].[MonthYear].&amp;[Apr-24],[Calendar].[MonthYear].&amp;[May-24],[Calendar].[MonthYear].&amp;[Jun-24],[Calendar].[MonthYear].&amp;[Jul-24],[Calendar].[MonthYear].&amp;[Aug-24],[Calendar].[MonthYear].&amp;[Sep-24],[Calendar].[MonthYear].&amp;[Oct-24],[Calendar].[MonthYear].&amp;[Nov-24],[Calendar].[MonthYear].&amp;[Dec-24],[Calendar].[MonthYear].&amp;[Jan-25],[Calendar].[MonthYear].&amp;[Feb-25],[Calendar].[MonthYear].&amp;[Mar-25]}"/>
+    <s v="{[Products].[Sector].&amp;[Disposables]}"/>
   </metadataStrings>
   <mdxMetadata count="8">
     <mdx n="0" f="s">
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Scope</t>
   </si>
@@ -145,16 +145,7 @@
     <t>Market</t>
   </si>
   <si>
-    <t>MonthYear</t>
-  </si>
-  <si>
     <t>Brand</t>
-  </si>
-  <si>
-    <t>Segment</t>
-  </si>
-  <si>
-    <t>(Multiple Items)</t>
   </si>
   <si>
     <t>RETAILER</t>
@@ -163,16 +154,19 @@
     <t>Walmart</t>
   </si>
   <si>
-    <t>Disposables</t>
+    <t>Equate</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Values</t>
   </si>
   <si>
     <t>Barbasol</t>
   </si>
   <si>
     <t>Bic</t>
-  </si>
-  <si>
-    <t>Equate</t>
   </si>
   <si>
     <t>Gillette</t>
@@ -190,127 +184,61 @@
     <t>Wilkinson Sword</t>
   </si>
   <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Pack Size</t>
-  </si>
-  <si>
-    <t>1CT</t>
-  </si>
-  <si>
-    <t>2CT</t>
-  </si>
-  <si>
-    <t>5CT</t>
-  </si>
-  <si>
-    <t>10CT</t>
-  </si>
-  <si>
-    <t>3CT</t>
-  </si>
-  <si>
-    <t>4CT</t>
-  </si>
-  <si>
-    <t>6CT</t>
-  </si>
-  <si>
-    <t>15CT</t>
-  </si>
-  <si>
-    <t>Barbasol Total</t>
-  </si>
-  <si>
-    <t>8CT</t>
-  </si>
-  <si>
-    <t>20CT</t>
-  </si>
-  <si>
-    <t>7CT</t>
-  </si>
-  <si>
-    <t>9CT</t>
-  </si>
-  <si>
-    <t>12CT</t>
-  </si>
-  <si>
-    <t>18CT</t>
-  </si>
-  <si>
-    <t>21CT</t>
-  </si>
-  <si>
-    <t>24CT</t>
-  </si>
-  <si>
-    <t>52CT</t>
-  </si>
-  <si>
-    <t>Bic Total</t>
-  </si>
-  <si>
-    <t>Equate Total</t>
-  </si>
-  <si>
-    <t>25CT</t>
-  </si>
-  <si>
-    <t>Gillette Total</t>
-  </si>
-  <si>
-    <t>Harry's Total</t>
-  </si>
-  <si>
-    <t>Personna Total</t>
-  </si>
-  <si>
-    <t>Schick Total</t>
-  </si>
-  <si>
-    <t>Wilkinson Sword Total</t>
-  </si>
-  <si>
-    <t>SubCategory</t>
+    <t>MonthYear</t>
   </si>
   <si>
     <t>Av Price/Unit</t>
   </si>
   <si>
-    <t>Values</t>
-  </si>
-  <si>
     <t>Value Share</t>
   </si>
   <si>
-    <t>Sensitive Skin</t>
+    <t>(Multiple Items)</t>
   </si>
   <si>
-    <t>Normal Skin</t>
+    <t>Disposables</t>
   </si>
   <si>
-    <t>Rem Types</t>
+    <t>Segment</t>
   </si>
   <si>
-    <t>Sensitive Skin Total</t>
+    <t>Sector</t>
   </si>
   <si>
-    <t>Normal Skin Total</t>
+    <t>Disposables Total</t>
   </si>
   <si>
-    <t>Rem Types Total</t>
+    <t>Relative Price</t>
+  </si>
+  <si>
+    <t>Value Sales</t>
+  </si>
+  <si>
+    <t>IYA Price/KG</t>
+  </si>
+  <si>
+    <t>Base Price/KG</t>
+  </si>
+  <si>
+    <t>Av Price/KG</t>
+  </si>
+  <si>
+    <t>WoB %</t>
+  </si>
+  <si>
+    <t>Value Share DYA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="\$#,##0.00;\-\$#,##0.00;\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.0%;\-0.0%;0.0%"/>
+    <numFmt numFmtId="166" formatCode="#,##0%;\-#,##0%;#,##0%"/>
+    <numFmt numFmtId="167" formatCode="0%;\-0%;0%"/>
+    <numFmt numFmtId="168" formatCode="\+0.0%;\-0.0%;0.0%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -771,11 +699,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -835,9 +767,14 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Salma Hany" refreshedDate="45866.644905555557" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Salma Hany" refreshedDate="45875.559035995371" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="13">
+  <cacheFields count="19">
+    <cacheField name="[Products].[Segment].[Segment]" caption="Segment" numFmtId="0" hierarchy="103" level="1">
+      <sharedItems count="1">
+        <s v="[Products].[Segment].&amp;[Disposables]" c="Disposables"/>
+      </sharedItems>
+    </cacheField>
     <cacheField name="[Products].[Brand].[Brand]" caption="Brand" numFmtId="0" hierarchy="76" level="1">
       <sharedItems count="8">
         <s v="[Products].[Brand].&amp;[Barbasol]" c="Barbasol"/>
@@ -850,35 +787,6 @@
         <s v="[Products].[Brand].&amp;[Wilkinson Sword]" c="Wilkinson Sword"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Products].[SubCategory].[SubCategory]" caption="SubCategory" numFmtId="0" hierarchy="107" level="1">
-      <sharedItems count="3">
-        <s v="[Products].[SubCategory].&amp;[Normal Skin]" c="Normal Skin"/>
-        <s v="[Products].[SubCategory].&amp;[Sensitive Skin]" c="Sensitive Skin"/>
-        <s v="[Products].[SubCategory].&amp;[Rem Types]" c="Rem Types"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Products].[Pack Size].[Pack Size]" caption="Pack Size" numFmtId="0" hierarchy="93" level="1">
-      <sharedItems count="18">
-        <s v="[Products].[Pack Size].&amp;[3CT]" c="3CT"/>
-        <s v="[Products].[Pack Size].&amp;[4CT]" c="4CT"/>
-        <s v="[Products].[Pack Size].&amp;[1CT]" c="1CT"/>
-        <s v="[Products].[Pack Size].&amp;[2CT]" c="2CT"/>
-        <s v="[Products].[Pack Size].&amp;[6CT]" c="6CT"/>
-        <s v="[Products].[Pack Size].&amp;[8CT]" c="8CT"/>
-        <s v="[Products].[Pack Size].&amp;[10CT]" c="10CT"/>
-        <s v="[Products].[Pack Size].&amp;[12CT]" c="12CT"/>
-        <s v="[Products].[Pack Size].&amp;[18CT]" c="18CT"/>
-        <s v="[Products].[Pack Size].&amp;[5CT]" c="5CT"/>
-        <s v="[Products].[Pack Size].&amp;[7CT]" c="7CT"/>
-        <s v="[Products].[Pack Size].&amp;[24CT]" c="24CT"/>
-        <s v="[Products].[Pack Size].&amp;[52CT]" c="52CT"/>
-        <s v="[Products].[Pack Size].&amp;[15CT]" c="15CT"/>
-        <s v="[Products].[Pack Size].&amp;[21CT]" c="21CT"/>
-        <s v="[Products].[Pack Size].&amp;[25CT]" c="25CT"/>
-        <s v="[Products].[Pack Size].&amp;[9CT]" c="9CT"/>
-        <s v="[Products].[Pack Size].&amp;[20CT]" c="20CT"/>
-      </sharedItems>
-    </cacheField>
     <cacheField name="[Products].[Category].[Category]" caption="Category" numFmtId="0" hierarchy="81" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
@@ -886,6 +794,9 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[Calendar].[MonthYear].[MonthYear]" caption="MonthYear" numFmtId="0" hierarchy="35" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Products].[Sector].[Sector]" caption="Sector" numFmtId="0" hierarchy="102" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[Market].[Area].[Area]" caption="Area" numFmtId="0" hierarchy="58" level="1">
@@ -900,11 +811,15 @@
     <cacheField name="[Market].[Market].[Market]" caption="Market" numFmtId="0" hierarchy="63" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[Products].[Segment].[Segment]" caption="Segment" numFmtId="0" hierarchy="103" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
+    <cacheField name="[Measures].[Relative Price]" caption="Relative Price" numFmtId="0" hierarchy="564" level="32767"/>
     <cacheField name="[Measures].[Av Price/Unit]" caption="Av Price/Unit" numFmtId="0" hierarchy="549" level="32767"/>
+    <cacheField name="[Measures].[Value Sales]" caption="Value Sales" numFmtId="0" hierarchy="448" level="32767"/>
+    <cacheField name="[Measures].[IYA Price/KG]" caption="IYA Price/KG" numFmtId="0" hierarchy="559" level="32767"/>
+    <cacheField name="[Measures].[Base Price/KG]" caption="Base Price/KG" numFmtId="0" hierarchy="689" level="32767"/>
+    <cacheField name="[Measures].[Av Price/KG]" caption="Av Price/KG" numFmtId="0" hierarchy="550" level="32767"/>
     <cacheField name="[Measures].[Value Share]" caption="Value Share" numFmtId="0" hierarchy="639" level="32767"/>
+    <cacheField name="[Measures].[WoB %]" caption="WoB %" numFmtId="0" hierarchy="1366" level="32767"/>
+    <cacheField name="[Measures].[Value Share DYA]" caption="Value Share DYA" numFmtId="0" hierarchy="648" level="32767"/>
   </cacheFields>
   <cacheHierarchies count="2657">
     <cacheHierarchy uniqueName="[2nd Measure Table].[Measures]" caption="Measures" attribute="1" defaultMemberUniqueName="[2nd Measure Table].[Measures].[All]" allUniqueName="[2nd Measure Table].[Measures].[All]" dimensionUniqueName="[2nd Measure Table]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -945,7 +860,7 @@
     <cacheHierarchy uniqueName="[Calendar].[MonthYear]" caption="MonthYear" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthYear].[All]" allUniqueName="[Calendar].[MonthYear].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="5"/>
+        <fieldUsage x="4"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Calendar].[MonthYearLong]" caption="MonthYearLong" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthYearLong].[All]" allUniqueName="[Calendar].[MonthYearLong].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -1011,7 +926,7 @@
     <cacheHierarchy uniqueName="[Products].[Brand]" caption="Brand" attribute="1" defaultMemberUniqueName="[Products].[Brand].[All]" allUniqueName="[Products].[Brand].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
+        <fieldUsage x="1"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[Brand Logo URL]" caption="Brand Logo URL" attribute="1" defaultMemberUniqueName="[Products].[Brand Logo URL].[All]" allUniqueName="[Products].[Brand Logo URL].[All]" dimensionUniqueName="[Products]" displayFolder="Images" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -1021,7 +936,7 @@
     <cacheHierarchy uniqueName="[Products].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Products].[Category].[All]" allUniqueName="[Products].[Category].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="3"/>
+        <fieldUsage x="2"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[Category Hierarchy]" caption="Category Hierarchy" defaultMemberUniqueName="[Products].[Category Hierarchy].[All]" allUniqueName="[Products].[Category Hierarchy].[All]" dimensionUniqueName="[Products]" displayFolder="" count="6" unbalanced="0"/>
@@ -1035,12 +950,7 @@
     <cacheHierarchy uniqueName="[Products].[MANUFACTURER Hierarchy]" caption="MANUFACTURER Hierarchy" defaultMemberUniqueName="[Products].[MANUFACTURER Hierarchy].[All]" allUniqueName="[Products].[MANUFACTURER Hierarchy].[All]" dimensionUniqueName="[Products]" displayFolder="" count="9" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Pack Count]" caption="Pack Count" attribute="1" defaultMemberUniqueName="[Products].[Pack Count].[All]" allUniqueName="[Products].[Pack Count].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Pack Count Bracket]" caption="Pack Count Bracket" attribute="1" defaultMemberUniqueName="[Products].[Pack Count Bracket].[All]" allUniqueName="[Products].[Pack Count Bracket].[All]" dimensionUniqueName="[Products]" displayFolder="Brackets" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Pack Size]" caption="Pack Size" attribute="1" defaultMemberUniqueName="[Products].[Pack Size].[All]" allUniqueName="[Products].[Pack Size].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Products].[Pack Size]" caption="Pack Size" attribute="1" defaultMemberUniqueName="[Products].[Pack Size].[All]" allUniqueName="[Products].[Pack Size].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Pack Size Bracket]" caption="Pack Size Bracket" attribute="1" defaultMemberUniqueName="[Products].[Pack Size Bracket].[All]" allUniqueName="[Products].[Pack Size Bracket].[All]" dimensionUniqueName="[Products]" displayFolder="Brackets" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Pack Type]" caption="Pack Type" attribute="1" defaultMemberUniqueName="[Products].[Pack Type].[All]" allUniqueName="[Products].[Pack Type].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[PackConfiguration]" caption="PackConfiguration" attribute="1" defaultMemberUniqueName="[Products].[PackConfiguration].[All]" allUniqueName="[Products].[PackConfiguration].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -1049,22 +959,22 @@
     <cacheHierarchy uniqueName="[Products].[Portion Size]" caption="Portion Size" attribute="1" defaultMemberUniqueName="[Products].[Portion Size].[All]" allUniqueName="[Products].[Portion Size].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Portion Size Bracket]" caption="Portion Size Bracket" attribute="1" defaultMemberUniqueName="[Products].[Portion Size Bracket].[All]" allUniqueName="[Products].[Portion Size Bracket].[All]" dimensionUniqueName="[Products]" displayFolder="Brackets" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Product]" caption="Product" attribute="1" defaultMemberUniqueName="[Products].[Product].[All]" allUniqueName="[Products].[Product].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Sector]" caption="Sector" attribute="1" defaultMemberUniqueName="[Products].[Sector].[All]" allUniqueName="[Products].[Sector].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Sector]" caption="Sector" attribute="1" defaultMemberUniqueName="[Products].[Sector].[All]" allUniqueName="[Products].[Sector].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="5"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[Segment]" caption="Segment" attribute="1" defaultMemberUniqueName="[Products].[Segment].[All]" allUniqueName="[Products].[Segment].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="10"/>
+        <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[SKU]" caption="SKU" attribute="1" defaultMemberUniqueName="[Products].[SKU].[All]" allUniqueName="[Products].[SKU].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Store Link]" caption="Store Link" attribute="1" defaultMemberUniqueName="[Products].[Store Link].[All]" allUniqueName="[Products].[Store Link].[All]" dimensionUniqueName="[Products]" displayFolder="Images" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[SubBrand]" caption="SubBrand" attribute="1" defaultMemberUniqueName="[Products].[SubBrand].[All]" allUniqueName="[Products].[SubBrand].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[SubCategory]" caption="SubCategory" attribute="1" defaultMemberUniqueName="[Products].[SubCategory].[All]" allUniqueName="[Products].[SubCategory].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Products].[SubCategory]" caption="SubCategory" attribute="1" defaultMemberUniqueName="[Products].[SubCategory].[All]" allUniqueName="[Products].[SubCategory].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[SubSegment]" caption="SubSegment" attribute="1" defaultMemberUniqueName="[Products].[SubSegment].[All]" allUniqueName="[Products].[SubSegment].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Top Brands]" caption="Top Brands" attribute="1" defaultMemberUniqueName="[Products].[Top Brands].[All]" allUniqueName="[Products].[Top Brands].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Top Companies]" caption="Top Companies" attribute="1" defaultMemberUniqueName="[Products].[Top Companies].[All]" allUniqueName="[Products].[Top Companies].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
@@ -1105,7 +1015,7 @@
     <cacheHierarchy uniqueName="[Scope].[Scope]" caption="Scope" attribute="1" defaultMemberUniqueName="[Scope].[Scope].[All]" allUniqueName="[Scope].[Scope].[All]" dimensionUniqueName="[Scope]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="4"/>
+        <fieldUsage x="3"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Shelf Price Ladder].[Shelf Price Group]" caption="Shelf Price Group" attribute="1" defaultMemberUniqueName="[Shelf Price Ladder].[Shelf Price Group].[All]" allUniqueName="[Shelf Price Ladder].[Shelf Price Group].[All]" dimensionUniqueName="[Shelf Price Ladder]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
@@ -1410,7 +1320,11 @@
     <cacheHierarchy uniqueName="[VAT].[VAT SORT]" caption="VAT SORT" attribute="1" defaultMemberUniqueName="[VAT].[VAT SORT].[All]" allUniqueName="[VAT].[VAT SORT].[All]" dimensionUniqueName="[VAT]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[Unit Sales]" caption="Unit Sales" measure="1" displayFolder="Unit Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Sales]" caption="Volume Sales" measure="1" displayFolder="Volume Sales" measureGroup="Sales Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Value Sales]" caption="Value Sales" measure="1" displayFolder="Value Sales" measureGroup="Sales Metrics" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Value Sales]" caption="Value Sales" measure="1" displayFolder="Value Sales" measureGroup="Sales Metrics" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="12"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Unit Sales PP]" caption="Unit Sales PP" measure="1" displayFolder="Unit Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Unit Sales YA]" caption="Unit Sales YA" measure="1" displayFolder="Unit Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Sales PP]" caption="Volume Sales PP" measure="1" displayFolder="Volume Sales" measureGroup="Sales Metrics" count="0"/>
@@ -1516,7 +1430,11 @@
         <fieldUsage x="11"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Av Price/KG]" caption="Av Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Av Price/KG]" caption="Av Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="15"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[YA Price/Unit]" caption="YA Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[YA Price/KG]" caption="YA Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[PP Price/KG]" caption="PP Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
@@ -1525,12 +1443,20 @@
     <cacheHierarchy uniqueName="[Measures].[DPP Price/Unit]" caption="DPP Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[DYA Price/KG]" caption="DYA Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[DYA Price/Unit]" caption="DYA Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[IYA Price/KG]" caption="IYA Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[IYA Price/KG]" caption="IYA Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="13"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[IYA Price/Unit]" caption="IYA Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[IPP Price/KG]" caption="IPP Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[IPP Price/Unit]" caption="IPP Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Relative Price Index]" caption="Relative Price Index" measure="1" displayFolder="Relative Price" measureGroup="Price Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Relative Price]" caption="Relative Price" measure="1" displayFolder="Relative Price" measureGroup="Price Metrics" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Relative Price]" caption="Relative Price" measure="1" displayFolder="Relative Price" measureGroup="Price Metrics" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="10"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Channel Relative Price]" caption="Channel Relative Price" measure="1" displayFolder="Relative Price" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Price]" caption="Price" measure="1" displayFolder="" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Price Evolution]" caption="Price Evolution" measure="1" displayFolder="" measureGroup="Price Metrics" count="0"/>
@@ -1607,7 +1533,7 @@
     <cacheHierarchy uniqueName="[Measures].[Company Sales]" caption="Company Sales" measure="1" displayFolder="" measureGroup="Market Sales" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Value Share]" caption="Value Share" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="12"/>
+        <fieldUsage x="16"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Volume Share]" caption="Volume Share" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
@@ -1618,7 +1544,11 @@
     <cacheHierarchy uniqueName="[Measures].[Unit Share PP]" caption="Unit Share PP" measure="1" displayFolder="Unit Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Share YA]" caption="Volume Share YA" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Share PP]" caption="Volume Share PP" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Value Share DYA]" caption="Value Share DYA" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Value Share DYA]" caption="Value Share DYA" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="18"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Value Share DPP]" caption="Value Share DPP" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Share DYA]" caption="Volume Share DYA" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Share DPP]" caption="Volume Share DPP" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
@@ -1659,7 +1589,11 @@
     <cacheHierarchy uniqueName="[Measures].[Value Uplift (v. base)]" caption="Value Uplift (v. base)" measure="1" displayFolder="Uplift" measureGroup="Promo Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Units Uplift (v. Base)]" caption="Units Uplift (v. Base)" measure="1" displayFolder="Uplift" measureGroup="Promo Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[VSOD]" caption="VSOD" measure="1" displayFolder="KPIs" measureGroup="Promo Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Base Price/KG]" caption="Base Price/KG" measure="1" displayFolder="Base\Base Price" measureGroup="Promo Metrics" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Base Price/KG]" caption="Base Price/KG" measure="1" displayFolder="Base\Base Price" measureGroup="Promo Metrics" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="14"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Promo Price/KG]" caption="Promo Price/KG" measure="1" displayFolder="Promo Price" measureGroup="Promo Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Base Price/Unit]" caption="Base Price/Unit" measure="1" displayFolder="Base\Base Price" measureGroup="Promo Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Promo Price/Unit]" caption="Promo Price/Unit" measure="1" displayFolder="Promo Price" measureGroup="Promo Metrics" count="0"/>
@@ -2336,7 +2270,11 @@
     <cacheHierarchy uniqueName="[Measures].[Trade WoB %]" caption="Trade WoB %" measure="1" displayFolder="WoB" measureGroup="Distribution" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Area Weight DYA]" caption="Area Weight DYA" measure="1" displayFolder="WoB" measureGroup="Distribution" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Price Bracket WoB %]" caption="Price Bracket WoB %" measure="1" displayFolder="WoB" measureGroup="Distribution" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[WoB %]" caption="WoB %" measure="1" displayFolder="WoB" measureGroup="Distribution" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[WoB %]" caption="WoB %" measure="1" displayFolder="WoB" measureGroup="Distribution" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="17"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[ND PP]" caption="ND PP" measure="1" displayFolder="Numeric" measureGroup="Distribution" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[ND YA]" caption="ND YA" measure="1" displayFolder="Numeric" measureGroup="Distribution" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[ND DYA]" caption="ND DYA" measure="1" displayFolder="Numeric" measureGroup="Distribution" count="0"/>
@@ -3791,9 +3729,15 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="957" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A16:E109" firstHeaderRow="1" firstDataRow="2" firstDataCol="3" rowPageCount="8" colPageCount="1"/>
-  <pivotFields count="13">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1072" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A16:K27" firstHeaderRow="1" firstDataRow="2" firstDataCol="2" rowPageCount="8" colPageCount="1"/>
+  <pivotFields count="19">
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
       <items count="9">
         <item x="0"/>
@@ -3804,37 +3748,6 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="19">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3880,307 +3793,46 @@
     </pivotField>
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
   </pivotFields>
-  <rowFields count="3">
+  <rowFields count="2">
     <field x="0"/>
     <field x="1"/>
-    <field x="2"/>
   </rowFields>
-  <rowItems count="92">
+  <rowItems count="10">
     <i>
       <x/>
-      <x/>
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x/>
-    </i>
-    <i t="default">
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i t="default" r="1">
       <x/>
     </i>
     <i r="1">
       <x v="1"/>
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="10"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="2">
-      <x v="11"/>
-    </i>
-    <i r="2">
-      <x v="12"/>
-    </i>
-    <i t="default" r="1">
-      <x v="1"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x/>
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i t="default" r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i t="default" r="1">
-      <x v="1"/>
-    </i>
-    <i t="default">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x/>
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="2">
-      <x v="13"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="14"/>
-    </i>
-    <i r="2">
-      <x v="15"/>
-    </i>
-    <i r="2">
-      <x v="12"/>
-    </i>
-    <i t="default" r="1">
-      <x/>
     </i>
     <i r="1">
       <x v="2"/>
-      <x v="16"/>
-    </i>
-    <i t="default" r="1">
-      <x v="2"/>
     </i>
     <i r="1">
-      <x v="1"/>
-      <x v="2"/>
+      <x v="3"/>
     </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
+    <i r="1">
       <x v="4"/>
     </i>
-    <i r="2">
-      <x v="10"/>
-    </i>
-    <i r="2">
+    <i r="1">
       <x v="5"/>
     </i>
-    <i r="2">
+    <i r="1">
       <x v="6"/>
     </i>
-    <i r="2">
+    <i r="1">
       <x v="7"/>
     </i>
-    <i t="default" r="1">
-      <x v="1"/>
-    </i>
     <i t="default">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
       <x/>
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i t="default" r="1">
-      <x/>
-    </i>
-    <i t="default">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x/>
-      <x v="6"/>
-    </i>
-    <i t="default" r="1">
-      <x/>
-    </i>
-    <i t="default">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x/>
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i t="default" r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-      <x v="5"/>
-    </i>
-    <i t="default" r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="2">
-      <x v="17"/>
-    </i>
-    <i t="default" r="1">
-      <x v="1"/>
-    </i>
-    <i t="default">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x/>
-      <x v="5"/>
-    </i>
-    <i t="default" r="1">
-      <x/>
-    </i>
-    <i t="default">
-      <x v="7"/>
     </i>
     <i t="grand">
       <x/>
@@ -4189,27 +3841,55 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="9">
     <i>
       <x/>
     </i>
     <i i="1">
       <x v="1"/>
     </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+    <i i="8">
+      <x v="8"/>
+    </i>
   </colItems>
   <pageFields count="8">
-    <pageField fld="3" hier="81" name="[Products].[Category].&amp;[Manual Shave Men]" cap="Manual Shave Men"/>
-    <pageField fld="4" hier="145" name="[Scope].[Scope].&amp;[Segment]" cap="Segment"/>
-    <pageField fld="5" hier="35" name="[Calendar].[MonthYear].[All]" cap="All"/>
+    <pageField fld="2" hier="81" name="[Products].[Category].&amp;[Manual Shave Men]" cap="Manual Shave Men"/>
+    <pageField fld="3" hier="145" name="[Scope].[Scope].&amp;[Segment]" cap="Segment"/>
+    <pageField fld="4" hier="35" name="[Calendar].[MonthYear].[All]" cap="All"/>
+    <pageField fld="5" hier="102" name="[Products].[Sector].&amp;[Disposables]" cap="Disposables"/>
     <pageField fld="6" hier="58" name="[Market].[Area].&amp;[RETAILER]" cap="RETAILER"/>
     <pageField fld="7" hier="64" name="[Market].[Region].&amp;[Walmart]" cap="Walmart"/>
     <pageField fld="8" hier="59" name="[Market].[Channel].[All]" cap="All"/>
     <pageField fld="9" hier="63" name="[Market].[Market].[All]" cap="All"/>
-    <pageField fld="10" hier="103" name="[Products].[Segment].&amp;[Disposables]" cap="Disposables"/>
   </pageFields>
-  <dataFields count="2">
+  <dataFields count="9">
+    <dataField fld="10" baseField="0" baseItem="0"/>
     <dataField fld="11" baseField="0" baseItem="0"/>
     <dataField fld="12" baseField="0" baseItem="0"/>
+    <dataField fld="13" baseField="0" baseItem="0"/>
+    <dataField fld="14" baseField="0" baseItem="0"/>
+    <dataField fld="15" baseField="0" baseItem="0"/>
+    <dataField fld="16" baseField="0" baseItem="0"/>
+    <dataField fld="17" baseField="0" baseItem="0"/>
+    <dataField fld="18" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotHierarchies count="2657">
     <pivotHierarchy/>
@@ -6886,10 +6566,9 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleMedium21" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="3">
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="103"/>
     <rowHierarchyUsage hierarchyUsage="76"/>
-    <rowHierarchyUsage hierarchyUsage="107"/>
-    <rowHierarchyUsage hierarchyUsage="93"/>
   </rowHierarchiesUsage>
   <colHierarchiesUsage count="1">
     <colHierarchyUsage hierarchyUsage="-2"/>
@@ -7199,25 +6878,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:E109"/>
+  <dimension ref="A7:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C14005" sqref="C14005"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
@@ -7236,7 +6914,7 @@
     <col min="103" max="103" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -7244,1159 +6922,420 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="s" vm="6">
+      <c r="B8" t="s" vm="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s" vm="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s" vm="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s" vm="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s" vm="5">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s" vm="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s" vm="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s" vm="8">
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1.58</v>
+      </c>
+      <c r="D18" s="2">
         <v>11</v>
       </c>
+      <c r="E18" s="5">
+        <v>22</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1.179</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1.8332999999999999</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1.4666999999999999</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1.3598818030297006E-7</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <v>-4.8347746888349138E-7</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s" vm="4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5.2460000000000004</v>
+      </c>
+      <c r="E19" s="5">
+        <v>29854336</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.77959999999999996</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.78159999999999996</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.18453803758152043</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0.1845</v>
+      </c>
+      <c r="K19" s="7">
+        <v>6.3656479803893828E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3.3515999999999999</v>
+      </c>
+      <c r="E20" s="5">
+        <v>24797807</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.54910000000000003</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.54459999999999997</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.15328221133792058</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0.15329999999999999</v>
+      </c>
+      <c r="K20" s="7">
+        <v>7.0539345932639219E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="D21" s="2">
+        <v>10.2652</v>
+      </c>
+      <c r="E21" s="5">
+        <v>87493817</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1.2384999999999999</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1.2369000000000001</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.54082386189050302</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0.54079999999999995</v>
+      </c>
+      <c r="K21" s="7">
+        <v>4.3554912445610272E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1.302</v>
+      </c>
+      <c r="D22" s="2">
+        <v>6.7435999999999998</v>
+      </c>
+      <c r="E22" s="5">
+        <v>529274</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1.109</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1.2119</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1.2088000000000001</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3.2715912791670076E-3</v>
+      </c>
+      <c r="J22" s="6">
+        <v>3.3E-3</v>
+      </c>
+      <c r="K22" s="7">
+        <v>-1.1246129040241231E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.251</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2.3332999999999999</v>
+      </c>
+      <c r="E23" s="5">
+        <v>7</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1.8660000000000001</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="I23" s="3">
+        <v>4.3268966460035926E-8</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7">
+        <v>1.7723991235851948E-8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="D24" s="2">
+        <v>8.3892000000000007</v>
+      </c>
+      <c r="E24" s="5">
+        <v>19103492</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.98709999999999998</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.11808405065965208</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0.1181</v>
+      </c>
+      <c r="K24" s="7">
+        <v>-6.5284831561474993E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3.6667000000000001</v>
+      </c>
+      <c r="E25" s="5">
+        <v>11</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.34379999999999999</v>
+      </c>
+      <c r="I25" s="3">
+        <v>6.7994090151485029E-8</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0</v>
+      </c>
+      <c r="K25" s="7">
+        <v>4.1316520910250806E-9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>6.7496</v>
+      </c>
+      <c r="E26" s="5">
+        <v>161778766</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.93069999999999997</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.9284</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="6">
+        <v>1</v>
+      </c>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s" vm="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s" vm="1">
+      <c r="C27" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s" vm="2">
+      <c r="D27" s="2">
+        <v>6.7496</v>
+      </c>
+      <c r="E27" s="5">
+        <v>161778766</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.93069999999999997</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.9284</v>
+      </c>
+      <c r="I27" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s" vm="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D16" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="2">
-        <v>9</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5.5631528305760471E-8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="2">
-        <v>13</v>
-      </c>
-      <c r="E19" s="3">
-        <v>8.0356651997209573E-8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="2">
-        <v>11</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1.3598818030297006E-7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="2">
-        <v>11</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1.3598818030297006E-7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1.9098999999999999</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2.8817131662383926E-5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="2">
-        <v>5.9901</v>
-      </c>
-      <c r="E23" s="3">
-        <v>3.651074331967645E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="2">
-        <v>10.915699999999999</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2.221899133536474E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="2">
-        <v>9.5553000000000008</v>
-      </c>
-      <c r="E25" s="3">
-        <v>4.4063940999525238E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="2">
-        <v>4.9801000000000002</v>
-      </c>
-      <c r="E26" s="3">
-        <v>3.2828535730084628E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="2">
-        <v>5.8822000000000001</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1.6323359766509778E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="2">
-        <v>10</v>
-      </c>
-      <c r="E28" s="3">
-        <v>6.181280922862275E-8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="2">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3">
-        <v>3.0906404614311375E-8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="2">
-        <v>6.8739999999999997</v>
-      </c>
-      <c r="E30" s="3">
-        <v>8.2771251945388188E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1.0832999999999999</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1.6071330399441915E-7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="2">
-        <v>6.9260999999999999</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2.7693745667462934E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="2">
-        <v>6.4462000000000002</v>
-      </c>
-      <c r="E33" s="3">
-        <v>2.0445847633675237E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="2">
-        <v>3.9830999999999999</v>
-      </c>
-      <c r="E34" s="3">
-        <v>2.0366739600424448E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="2">
-        <v>4.9180999999999999</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1.1855702991330767E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="2">
-        <v>4</v>
-      </c>
-      <c r="E36" s="3">
-        <v>2.4725123691449099E-8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="2">
-        <v>12.9671</v>
-      </c>
-      <c r="E37" s="3">
-        <v>2.3216334830987646E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="2">
-        <v>5.4809999999999999</v>
-      </c>
-      <c r="E38" s="3">
-        <v>8.8225237173585568E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1.2980689938010778E-7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="2">
-        <v>3.4321999999999999</v>
-      </c>
-      <c r="E40" s="3">
-        <v>3.5184376421810513E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="2">
-        <v>2</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1.236256184572455E-8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="E42" s="3">
-        <v>2.5961379876021556E-7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="2">
-        <v>4.3986999999999998</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0.10176678563613224</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="2">
-        <v>5.2460000000000004</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0.18453803758152043</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1.9370000000000001</v>
-      </c>
-      <c r="E45" s="3">
-        <v>2.0521852663902753E-5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="2">
-        <v>5.0484</v>
-      </c>
-      <c r="E46" s="3">
-        <v>7.421648277376526E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="2">
-        <v>1.0034000000000001</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1.0835352768112967E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C48" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" s="2">
-        <v>2.1772999999999998</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2.3807982315800332E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>59</v>
-      </c>
-      <c r="D49" s="2">
-        <v>2.9874999999999998</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0.10888033971034246</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1.6689458491728143E-7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="2">
-        <v>3.972</v>
-      </c>
-      <c r="E51" s="3">
-        <v>2.2045915469524599E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C52" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52" s="2">
-        <v>5.9797000000000002</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2.2355789263468605E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" s="2">
-        <v>4.78</v>
-      </c>
-      <c r="E53" s="3">
-        <v>4.4401871627578124E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>44</v>
-      </c>
-      <c r="D54" s="2">
-        <v>3.3515999999999999</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0.15328221133792058</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D55" s="2">
-        <v>9.9791000000000007</v>
-      </c>
-      <c r="E55" s="3">
-        <v>2.3011759157564596E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C56" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="2">
-        <v>6.9650999999999996</v>
-      </c>
-      <c r="E56" s="3">
-        <v>3.5912345876096E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C57" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" s="2">
-        <v>6.9947999999999997</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2.3255017287002917E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" s="2">
-        <v>3.5127999999999999</v>
-      </c>
-      <c r="E58" s="3">
-        <v>5.0810129185927899E-6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="3">
-        <v>4.3268966460035926E-8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D60" s="2">
-        <v>12.014200000000001</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1.6019314920476029E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C61" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="2">
-        <v>9.9687000000000001</v>
-      </c>
-      <c r="E61" s="3">
-        <v>5.2849914802786911E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C62" t="s">
-        <v>38</v>
-      </c>
-      <c r="D62" s="2">
-        <v>10.818899999999999</v>
-      </c>
-      <c r="E62" s="3">
-        <v>9.0276501429118333E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C63" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" s="2">
-        <v>15.0128</v>
-      </c>
-      <c r="E63" s="3">
-        <v>2.2180574674429153E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C64" t="s">
-        <v>39</v>
-      </c>
-      <c r="D64" s="2">
-        <v>14.9922</v>
-      </c>
-      <c r="E64" s="3">
-        <v>4.3111387065469395E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C65" t="s">
-        <v>40</v>
-      </c>
-      <c r="D65" s="2">
-        <v>20.064</v>
-      </c>
-      <c r="E65" s="3">
-        <v>3.2422456479857191E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C66" t="s">
-        <v>45</v>
-      </c>
-      <c r="D66" s="2">
-        <v>19.960899999999999</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2.4541286215522252E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C67" t="s">
-        <v>42</v>
-      </c>
-      <c r="D67" s="2">
-        <v>65</v>
-      </c>
-      <c r="E67" s="3">
-        <v>4.0178325998604784E-7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>59</v>
-      </c>
-      <c r="D68" s="2">
-        <v>11.029199999999999</v>
-      </c>
-      <c r="E68" s="3">
-        <v>0.36358608397346781</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>57</v>
-      </c>
-      <c r="C69" t="s">
-        <v>37</v>
-      </c>
-      <c r="D69" s="2">
-        <v>10</v>
-      </c>
-      <c r="E69" s="3">
-        <v>1.236256184572455E-7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>60</v>
-      </c>
-      <c r="D70" s="2">
-        <v>10</v>
-      </c>
-      <c r="E70" s="3">
-        <v>1.236256184572455E-7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71" t="s">
-        <v>25</v>
-      </c>
-      <c r="D71" s="2">
-        <v>1.9575</v>
-      </c>
-      <c r="E71" s="3">
-        <v>1.8574131045108848E-4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C72" t="s">
-        <v>29</v>
-      </c>
-      <c r="D72" s="2">
-        <v>6.9623999999999997</v>
-      </c>
-      <c r="E72" s="3">
-        <v>5.4284219228127872E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C73" t="s">
-        <v>30</v>
-      </c>
-      <c r="D73" s="2">
-        <v>6.9691000000000001</v>
-      </c>
-      <c r="E73" s="3">
-        <v>4.0855806750312335E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C74" t="s">
-        <v>31</v>
-      </c>
-      <c r="D74" s="2">
-        <v>13.062799999999999</v>
-      </c>
-      <c r="E74" s="3">
-        <v>1.430153077073168E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C75" t="s">
-        <v>36</v>
-      </c>
-      <c r="D75" s="2">
-        <v>14.9907</v>
-      </c>
-      <c r="E75" s="3">
-        <v>5.1439321771066049E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C76" t="s">
-        <v>34</v>
-      </c>
-      <c r="D76" s="2">
-        <v>12.0143</v>
-      </c>
-      <c r="E76" s="3">
-        <v>2.5299883916780525E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C77" t="s">
-        <v>28</v>
-      </c>
-      <c r="D77" s="2">
-        <v>19.044699999999999</v>
-      </c>
-      <c r="E77" s="3">
-        <v>3.6860770714495375E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C78" t="s">
-        <v>38</v>
-      </c>
-      <c r="D78" s="2">
-        <v>15.0275</v>
-      </c>
-      <c r="E78" s="3">
-        <v>3.3480463066457064E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>58</v>
-      </c>
-      <c r="D79" s="2">
-        <v>8.9879999999999995</v>
-      </c>
-      <c r="E79" s="3">
-        <v>0.17723765429141672</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>46</v>
-      </c>
-      <c r="D80" s="2">
-        <v>10.2652</v>
-      </c>
-      <c r="E80" s="3">
-        <v>0.54082386189050302</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>19</v>
-      </c>
-      <c r="B81" t="s">
-        <v>56</v>
-      </c>
-      <c r="C81" t="s">
-        <v>30</v>
-      </c>
-      <c r="D81" s="2">
-        <v>5.9424999999999999</v>
-      </c>
-      <c r="E81" s="3">
-        <v>1.7462242232704384E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C82" t="s">
-        <v>34</v>
-      </c>
-      <c r="D82" s="2">
-        <v>7.9743000000000004</v>
-      </c>
-      <c r="E82" s="3">
-        <v>1.5253670558965692E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
-        <v>59</v>
-      </c>
-      <c r="D83" s="2">
-        <v>6.7435999999999998</v>
-      </c>
-      <c r="E83" s="3">
-        <v>3.2715912791670076E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>47</v>
-      </c>
-      <c r="D84" s="2">
-        <v>6.7435999999999998</v>
-      </c>
-      <c r="E84" s="3">
-        <v>3.2715912791670076E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>20</v>
-      </c>
-      <c r="B85" t="s">
-        <v>56</v>
-      </c>
-      <c r="C85" t="s">
-        <v>28</v>
-      </c>
-      <c r="D85" s="2">
-        <v>2.3332999999999999</v>
-      </c>
-      <c r="E85" s="3">
-        <v>4.3268966460035926E-8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
-        <v>59</v>
-      </c>
-      <c r="D86" s="2">
-        <v>2.3332999999999999</v>
-      </c>
-      <c r="E86" s="3">
-        <v>4.3268966460035926E-8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>48</v>
-      </c>
-      <c r="D87" s="2">
-        <v>2.3332999999999999</v>
-      </c>
-      <c r="E87" s="3">
-        <v>4.3268966460035926E-8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>21</v>
-      </c>
-      <c r="B88" t="s">
-        <v>56</v>
-      </c>
-      <c r="C88" t="s">
-        <v>26</v>
-      </c>
-      <c r="D88" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="E88" s="3">
-        <v>3.0906404614311375E-8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C89" t="s">
-        <v>29</v>
-      </c>
-      <c r="D89" s="2">
-        <v>3.8235000000000001</v>
-      </c>
-      <c r="E89" s="3">
-        <v>4.0178325998604784E-7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C90" t="s">
-        <v>30</v>
-      </c>
-      <c r="D90" s="2">
-        <v>3.2303000000000002</v>
-      </c>
-      <c r="E90" s="3">
-        <v>3.5542365306458079E-6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C91" t="s">
-        <v>34</v>
-      </c>
-      <c r="D91" s="2">
-        <v>5.1802999999999999</v>
-      </c>
-      <c r="E91" s="3">
-        <v>1.9532847716244788E-6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C92" t="s">
-        <v>28</v>
-      </c>
-      <c r="D92" s="2">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="E92" s="3">
-        <v>4.3268966460035926E-8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C93" t="s">
-        <v>38</v>
-      </c>
-      <c r="D93" s="2">
-        <v>6.4972000000000003</v>
-      </c>
-      <c r="E93" s="3">
-        <v>3.051805945905163E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
-        <v>59</v>
-      </c>
-      <c r="D94" s="2">
-        <v>6.4961000000000002</v>
-      </c>
-      <c r="E94" s="3">
-        <v>3.052404293898496E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B95" t="s">
-        <v>57</v>
-      </c>
-      <c r="C95" t="s">
-        <v>34</v>
-      </c>
-      <c r="D95" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="E95" s="3">
-        <v>2.5961379876021556E-7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
-        <v>60</v>
-      </c>
-      <c r="D96" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="E96" s="3">
-        <v>2.5961379876021556E-7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
-        <v>55</v>
-      </c>
-      <c r="C97" t="s">
-        <v>25</v>
-      </c>
-      <c r="D97" s="2">
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="E97" s="3">
-        <v>4.1229143755491375E-6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C98" t="s">
-        <v>30</v>
-      </c>
-      <c r="D98" s="2">
-        <v>6.4927000000000001</v>
-      </c>
-      <c r="E98" s="3">
-        <v>2.8369495660512084E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C99" t="s">
-        <v>31</v>
-      </c>
-      <c r="D99" s="2">
-        <v>5.6071</v>
-      </c>
-      <c r="E99" s="3">
-        <v>9.7046110488937719E-7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C100" t="s">
-        <v>34</v>
-      </c>
-      <c r="D100" s="2">
-        <v>10.5608</v>
-      </c>
-      <c r="E100" s="3">
-        <v>3.7758657400069423E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C101" t="s">
-        <v>28</v>
-      </c>
-      <c r="D101" s="2">
-        <v>16</v>
-      </c>
-      <c r="E101" s="3">
-        <v>3.9560197906318559E-7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C102" t="s">
-        <v>38</v>
-      </c>
-      <c r="D102" s="2">
-        <v>15.0189</v>
-      </c>
-      <c r="E102" s="3">
-        <v>2.142595153680428E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C103" t="s">
-        <v>35</v>
-      </c>
-      <c r="D103" s="2">
-        <v>25</v>
-      </c>
-      <c r="E103" s="3">
-        <v>1.5453202307155687E-7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B104" t="s">
-        <v>58</v>
-      </c>
-      <c r="D104" s="2">
-        <v>9.3378999999999994</v>
-      </c>
-      <c r="E104" s="3">
-        <v>8.7559748106868368E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>49</v>
-      </c>
-      <c r="D105" s="2">
-        <v>8.3892000000000007</v>
-      </c>
-      <c r="E105" s="3">
-        <v>0.11808405065965208</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>22</v>
-      </c>
-      <c r="B106" t="s">
-        <v>56</v>
-      </c>
-      <c r="C106" t="s">
-        <v>34</v>
-      </c>
-      <c r="D106" s="2">
-        <v>3.6667000000000001</v>
-      </c>
-      <c r="E106" s="3">
-        <v>6.7994090151485029E-8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B107" t="s">
-        <v>59</v>
-      </c>
-      <c r="D107" s="2">
-        <v>3.6667000000000001</v>
-      </c>
-      <c r="E107" s="3">
-        <v>6.7994090151485029E-8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>50</v>
-      </c>
-      <c r="D108" s="2">
-        <v>3.6667000000000001</v>
-      </c>
-      <c r="E108" s="3">
-        <v>6.7994090151485029E-8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>23</v>
-      </c>
-      <c r="D109" s="2">
-        <v>6.7496</v>
-      </c>
-      <c r="E109" s="3">
+      <c r="J27" s="6">
         <v>1</v>
       </c>
+      <c r="K27" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Edgewell US Male Dataset.xlsx
+++ b/Edgewell US Male Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\Salma Hany\Documents\Slide-Automate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B63616-44FA-48EE-9B94-F1F8A5F42297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D357AB1-5102-4CC9-BF55-A6C52D041302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1072" r:id="rId2"/>
+    <pivotCache cacheId="2220" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -61,7 +61,7 @@
     <s v="{[Market].[Region].&amp;[Walmart]}"/>
     <s v="{[Calendar].[MonthYear].&amp;[Apr-24],[Calendar].[MonthYear].&amp;[May-24],[Calendar].[MonthYear].&amp;[Jun-24],[Calendar].[MonthYear].&amp;[Jul-24],[Calendar].[MonthYear].&amp;[Aug-24],[Calendar].[MonthYear].&amp;[Sep-24],[Calendar].[MonthYear].&amp;[Oct-24],[Calendar].[MonthYear].&amp;[Nov-24],[Calendar].[MonthYear].&amp;[Dec-24],[Calendar].[MonthYear].&amp;[Jan-25],[Calendar].[MonthYear].&amp;[Feb-25],[Calendar].[MonthYear].&amp;[Mar-25]}"/>
     <s v="{[Scope].[Scope].&amp;[Segment]}"/>
-    <s v="{[Products].[Sector].&amp;[Disposables]}"/>
+    <s v="{[Products].[Segment].&amp;[Disposables]}"/>
   </metadataStrings>
   <mdxMetadata count="8">
     <mdx n="0" f="s">
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="61">
   <si>
     <t>Scope</t>
   </si>
@@ -202,43 +202,115 @@
     <t>Segment</t>
   </si>
   <si>
-    <t>Sector</t>
+    <t>SubCategory</t>
   </si>
   <si>
-    <t>Disposables Total</t>
+    <t>Normal Skin</t>
   </si>
   <si>
-    <t>Relative Price</t>
+    <t>Sensitive Skin</t>
   </si>
   <si>
-    <t>Value Sales</t>
+    <t>Rem Types</t>
   </si>
   <si>
-    <t>IYA Price/KG</t>
+    <t>Pack Size</t>
   </si>
   <si>
-    <t>Base Price/KG</t>
+    <t>1CT</t>
   </si>
   <si>
-    <t>Av Price/KG</t>
+    <t>2CT</t>
   </si>
   <si>
-    <t>WoB %</t>
+    <t>5CT</t>
   </si>
   <si>
-    <t>Value Share DYA</t>
+    <t>10CT</t>
+  </si>
+  <si>
+    <t>3CT</t>
+  </si>
+  <si>
+    <t>4CT</t>
+  </si>
+  <si>
+    <t>6CT</t>
+  </si>
+  <si>
+    <t>15CT</t>
+  </si>
+  <si>
+    <t>Barbasol Total</t>
+  </si>
+  <si>
+    <t>8CT</t>
+  </si>
+  <si>
+    <t>20CT</t>
+  </si>
+  <si>
+    <t>7CT</t>
+  </si>
+  <si>
+    <t>9CT</t>
+  </si>
+  <si>
+    <t>12CT</t>
+  </si>
+  <si>
+    <t>18CT</t>
+  </si>
+  <si>
+    <t>21CT</t>
+  </si>
+  <si>
+    <t>24CT</t>
+  </si>
+  <si>
+    <t>52CT</t>
+  </si>
+  <si>
+    <t>Bic Total</t>
+  </si>
+  <si>
+    <t>Equate Total</t>
+  </si>
+  <si>
+    <t>25CT</t>
+  </si>
+  <si>
+    <t>Gillette Total</t>
+  </si>
+  <si>
+    <t>Harry's Total</t>
+  </si>
+  <si>
+    <t>Personna Total</t>
+  </si>
+  <si>
+    <t>Schick Total</t>
+  </si>
+  <si>
+    <t>Wilkinson Sword Total</t>
+  </si>
+  <si>
+    <t>Sensitive Skin Total</t>
+  </si>
+  <si>
+    <t>Normal Skin Total</t>
+  </si>
+  <si>
+    <t>Rem Types Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\$#,##0.00;\-\$#,##0.00;\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.0%;\-0.0%;0.0%"/>
-    <numFmt numFmtId="166" formatCode="#,##0%;\-#,##0%;#,##0%"/>
-    <numFmt numFmtId="167" formatCode="0%;\-0%;0%"/>
-    <numFmt numFmtId="168" formatCode="\+0.0%;\-0.0%;0.0%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -699,15 +771,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -767,14 +835,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Salma Hany" refreshedDate="45875.559035995371" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Salma Hany" refreshedDate="45876.555749074076" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="19">
-    <cacheField name="[Products].[Segment].[Segment]" caption="Segment" numFmtId="0" hierarchy="103" level="1">
-      <sharedItems count="1">
-        <s v="[Products].[Segment].&amp;[Disposables]" c="Disposables"/>
-      </sharedItems>
-    </cacheField>
+  <cacheFields count="13">
     <cacheField name="[Products].[Brand].[Brand]" caption="Brand" numFmtId="0" hierarchy="76" level="1">
       <sharedItems count="8">
         <s v="[Products].[Brand].&amp;[Barbasol]" c="Barbasol"/>
@@ -787,6 +850,35 @@
         <s v="[Products].[Brand].&amp;[Wilkinson Sword]" c="Wilkinson Sword"/>
       </sharedItems>
     </cacheField>
+    <cacheField name="[Products].[SubCategory].[SubCategory]" caption="SubCategory" numFmtId="0" hierarchy="107" level="1">
+      <sharedItems count="3">
+        <s v="[Products].[SubCategory].&amp;[Normal Skin]" c="Normal Skin"/>
+        <s v="[Products].[SubCategory].&amp;[Sensitive Skin]" c="Sensitive Skin"/>
+        <s v="[Products].[SubCategory].&amp;[Rem Types]" c="Rem Types"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Products].[Pack Size].[Pack Size]" caption="Pack Size" numFmtId="0" hierarchy="93" level="1">
+      <sharedItems count="18">
+        <s v="[Products].[Pack Size].&amp;[3CT]" c="3CT"/>
+        <s v="[Products].[Pack Size].&amp;[4CT]" c="4CT"/>
+        <s v="[Products].[Pack Size].&amp;[1CT]" c="1CT"/>
+        <s v="[Products].[Pack Size].&amp;[2CT]" c="2CT"/>
+        <s v="[Products].[Pack Size].&amp;[6CT]" c="6CT"/>
+        <s v="[Products].[Pack Size].&amp;[8CT]" c="8CT"/>
+        <s v="[Products].[Pack Size].&amp;[10CT]" c="10CT"/>
+        <s v="[Products].[Pack Size].&amp;[12CT]" c="12CT"/>
+        <s v="[Products].[Pack Size].&amp;[18CT]" c="18CT"/>
+        <s v="[Products].[Pack Size].&amp;[5CT]" c="5CT"/>
+        <s v="[Products].[Pack Size].&amp;[7CT]" c="7CT"/>
+        <s v="[Products].[Pack Size].&amp;[24CT]" c="24CT"/>
+        <s v="[Products].[Pack Size].&amp;[52CT]" c="52CT"/>
+        <s v="[Products].[Pack Size].&amp;[15CT]" c="15CT"/>
+        <s v="[Products].[Pack Size].&amp;[21CT]" c="21CT"/>
+        <s v="[Products].[Pack Size].&amp;[25CT]" c="25CT"/>
+        <s v="[Products].[Pack Size].&amp;[9CT]" c="9CT"/>
+        <s v="[Products].[Pack Size].&amp;[20CT]" c="20CT"/>
+      </sharedItems>
+    </cacheField>
     <cacheField name="[Products].[Category].[Category]" caption="Category" numFmtId="0" hierarchy="81" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
@@ -794,9 +886,6 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[Calendar].[MonthYear].[MonthYear]" caption="MonthYear" numFmtId="0" hierarchy="35" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Products].[Sector].[Sector]" caption="Sector" numFmtId="0" hierarchy="102" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[Market].[Area].[Area]" caption="Area" numFmtId="0" hierarchy="58" level="1">
@@ -811,15 +900,11 @@
     <cacheField name="[Market].[Market].[Market]" caption="Market" numFmtId="0" hierarchy="63" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[Measures].[Relative Price]" caption="Relative Price" numFmtId="0" hierarchy="564" level="32767"/>
+    <cacheField name="[Products].[Segment].[Segment]" caption="Segment" numFmtId="0" hierarchy="103" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
     <cacheField name="[Measures].[Av Price/Unit]" caption="Av Price/Unit" numFmtId="0" hierarchy="549" level="32767"/>
-    <cacheField name="[Measures].[Value Sales]" caption="Value Sales" numFmtId="0" hierarchy="448" level="32767"/>
-    <cacheField name="[Measures].[IYA Price/KG]" caption="IYA Price/KG" numFmtId="0" hierarchy="559" level="32767"/>
-    <cacheField name="[Measures].[Base Price/KG]" caption="Base Price/KG" numFmtId="0" hierarchy="689" level="32767"/>
-    <cacheField name="[Measures].[Av Price/KG]" caption="Av Price/KG" numFmtId="0" hierarchy="550" level="32767"/>
     <cacheField name="[Measures].[Value Share]" caption="Value Share" numFmtId="0" hierarchy="639" level="32767"/>
-    <cacheField name="[Measures].[WoB %]" caption="WoB %" numFmtId="0" hierarchy="1366" level="32767"/>
-    <cacheField name="[Measures].[Value Share DYA]" caption="Value Share DYA" numFmtId="0" hierarchy="648" level="32767"/>
   </cacheFields>
   <cacheHierarchies count="2657">
     <cacheHierarchy uniqueName="[2nd Measure Table].[Measures]" caption="Measures" attribute="1" defaultMemberUniqueName="[2nd Measure Table].[Measures].[All]" allUniqueName="[2nd Measure Table].[Measures].[All]" dimensionUniqueName="[2nd Measure Table]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -860,7 +945,7 @@
     <cacheHierarchy uniqueName="[Calendar].[MonthYear]" caption="MonthYear" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthYear].[All]" allUniqueName="[Calendar].[MonthYear].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="4"/>
+        <fieldUsage x="5"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Calendar].[MonthYearLong]" caption="MonthYearLong" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthYearLong].[All]" allUniqueName="[Calendar].[MonthYearLong].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -926,7 +1011,7 @@
     <cacheHierarchy uniqueName="[Products].[Brand]" caption="Brand" attribute="1" defaultMemberUniqueName="[Products].[Brand].[All]" allUniqueName="[Products].[Brand].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
+        <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[Brand Logo URL]" caption="Brand Logo URL" attribute="1" defaultMemberUniqueName="[Products].[Brand Logo URL].[All]" allUniqueName="[Products].[Brand Logo URL].[All]" dimensionUniqueName="[Products]" displayFolder="Images" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -936,7 +1021,7 @@
     <cacheHierarchy uniqueName="[Products].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Products].[Category].[All]" allUniqueName="[Products].[Category].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
+        <fieldUsage x="3"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[Category Hierarchy]" caption="Category Hierarchy" defaultMemberUniqueName="[Products].[Category Hierarchy].[All]" allUniqueName="[Products].[Category Hierarchy].[All]" dimensionUniqueName="[Products]" displayFolder="" count="6" unbalanced="0"/>
@@ -950,7 +1035,12 @@
     <cacheHierarchy uniqueName="[Products].[MANUFACTURER Hierarchy]" caption="MANUFACTURER Hierarchy" defaultMemberUniqueName="[Products].[MANUFACTURER Hierarchy].[All]" allUniqueName="[Products].[MANUFACTURER Hierarchy].[All]" dimensionUniqueName="[Products]" displayFolder="" count="9" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Pack Count]" caption="Pack Count" attribute="1" defaultMemberUniqueName="[Products].[Pack Count].[All]" allUniqueName="[Products].[Pack Count].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Pack Count Bracket]" caption="Pack Count Bracket" attribute="1" defaultMemberUniqueName="[Products].[Pack Count Bracket].[All]" allUniqueName="[Products].[Pack Count Bracket].[All]" dimensionUniqueName="[Products]" displayFolder="Brackets" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Pack Size]" caption="Pack Size" attribute="1" defaultMemberUniqueName="[Products].[Pack Size].[All]" allUniqueName="[Products].[Pack Size].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Pack Size]" caption="Pack Size" attribute="1" defaultMemberUniqueName="[Products].[Pack Size].[All]" allUniqueName="[Products].[Pack Size].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[Pack Size Bracket]" caption="Pack Size Bracket" attribute="1" defaultMemberUniqueName="[Products].[Pack Size Bracket].[All]" allUniqueName="[Products].[Pack Size Bracket].[All]" dimensionUniqueName="[Products]" displayFolder="Brackets" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Pack Type]" caption="Pack Type" attribute="1" defaultMemberUniqueName="[Products].[Pack Type].[All]" allUniqueName="[Products].[Pack Type].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[PackConfiguration]" caption="PackConfiguration" attribute="1" defaultMemberUniqueName="[Products].[PackConfiguration].[All]" allUniqueName="[Products].[PackConfiguration].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -959,22 +1049,22 @@
     <cacheHierarchy uniqueName="[Products].[Portion Size]" caption="Portion Size" attribute="1" defaultMemberUniqueName="[Products].[Portion Size].[All]" allUniqueName="[Products].[Portion Size].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Portion Size Bracket]" caption="Portion Size Bracket" attribute="1" defaultMemberUniqueName="[Products].[Portion Size Bracket].[All]" allUniqueName="[Products].[Portion Size Bracket].[All]" dimensionUniqueName="[Products]" displayFolder="Brackets" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Product]" caption="Product" attribute="1" defaultMemberUniqueName="[Products].[Product].[All]" allUniqueName="[Products].[Product].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Sector]" caption="Sector" attribute="1" defaultMemberUniqueName="[Products].[Sector].[All]" allUniqueName="[Products].[Sector].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="5"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Products].[Sector]" caption="Sector" attribute="1" defaultMemberUniqueName="[Products].[Sector].[All]" allUniqueName="[Products].[Sector].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Segment]" caption="Segment" attribute="1" defaultMemberUniqueName="[Products].[Segment].[All]" allUniqueName="[Products].[Segment].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
+        <fieldUsage x="10"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[SKU]" caption="SKU" attribute="1" defaultMemberUniqueName="[Products].[SKU].[All]" allUniqueName="[Products].[SKU].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Store Link]" caption="Store Link" attribute="1" defaultMemberUniqueName="[Products].[Store Link].[All]" allUniqueName="[Products].[Store Link].[All]" dimensionUniqueName="[Products]" displayFolder="Images" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[SubBrand]" caption="SubBrand" attribute="1" defaultMemberUniqueName="[Products].[SubBrand].[All]" allUniqueName="[Products].[SubBrand].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[SubCategory]" caption="SubCategory" attribute="1" defaultMemberUniqueName="[Products].[SubCategory].[All]" allUniqueName="[Products].[SubCategory].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[SubCategory]" caption="SubCategory" attribute="1" defaultMemberUniqueName="[Products].[SubCategory].[All]" allUniqueName="[Products].[SubCategory].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[SubSegment]" caption="SubSegment" attribute="1" defaultMemberUniqueName="[Products].[SubSegment].[All]" allUniqueName="[Products].[SubSegment].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Top Brands]" caption="Top Brands" attribute="1" defaultMemberUniqueName="[Products].[Top Brands].[All]" allUniqueName="[Products].[Top Brands].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Top Companies]" caption="Top Companies" attribute="1" defaultMemberUniqueName="[Products].[Top Companies].[All]" allUniqueName="[Products].[Top Companies].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
@@ -1015,7 +1105,7 @@
     <cacheHierarchy uniqueName="[Scope].[Scope]" caption="Scope" attribute="1" defaultMemberUniqueName="[Scope].[Scope].[All]" allUniqueName="[Scope].[Scope].[All]" dimensionUniqueName="[Scope]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="3"/>
+        <fieldUsage x="4"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Shelf Price Ladder].[Shelf Price Group]" caption="Shelf Price Group" attribute="1" defaultMemberUniqueName="[Shelf Price Ladder].[Shelf Price Group].[All]" allUniqueName="[Shelf Price Ladder].[Shelf Price Group].[All]" dimensionUniqueName="[Shelf Price Ladder]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
@@ -1320,11 +1410,7 @@
     <cacheHierarchy uniqueName="[VAT].[VAT SORT]" caption="VAT SORT" attribute="1" defaultMemberUniqueName="[VAT].[VAT SORT].[All]" allUniqueName="[VAT].[VAT SORT].[All]" dimensionUniqueName="[VAT]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[Unit Sales]" caption="Unit Sales" measure="1" displayFolder="Unit Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Sales]" caption="Volume Sales" measure="1" displayFolder="Volume Sales" measureGroup="Sales Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Value Sales]" caption="Value Sales" measure="1" displayFolder="Value Sales" measureGroup="Sales Metrics" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="12"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Value Sales]" caption="Value Sales" measure="1" displayFolder="Value Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Unit Sales PP]" caption="Unit Sales PP" measure="1" displayFolder="Unit Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Unit Sales YA]" caption="Unit Sales YA" measure="1" displayFolder="Unit Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Sales PP]" caption="Volume Sales PP" measure="1" displayFolder="Volume Sales" measureGroup="Sales Metrics" count="0"/>
@@ -1430,11 +1516,7 @@
         <fieldUsage x="11"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Av Price/KG]" caption="Av Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="15"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Av Price/KG]" caption="Av Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[YA Price/Unit]" caption="YA Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[YA Price/KG]" caption="YA Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[PP Price/KG]" caption="PP Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
@@ -1443,20 +1525,12 @@
     <cacheHierarchy uniqueName="[Measures].[DPP Price/Unit]" caption="DPP Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[DYA Price/KG]" caption="DYA Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[DYA Price/Unit]" caption="DYA Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[IYA Price/KG]" caption="IYA Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="13"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[IYA Price/KG]" caption="IYA Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[IYA Price/Unit]" caption="IYA Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[IPP Price/KG]" caption="IPP Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[IPP Price/Unit]" caption="IPP Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Relative Price Index]" caption="Relative Price Index" measure="1" displayFolder="Relative Price" measureGroup="Price Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Relative Price]" caption="Relative Price" measure="1" displayFolder="Relative Price" measureGroup="Price Metrics" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="10"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Relative Price]" caption="Relative Price" measure="1" displayFolder="Relative Price" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Channel Relative Price]" caption="Channel Relative Price" measure="1" displayFolder="Relative Price" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Price]" caption="Price" measure="1" displayFolder="" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Price Evolution]" caption="Price Evolution" measure="1" displayFolder="" measureGroup="Price Metrics" count="0"/>
@@ -1533,7 +1607,7 @@
     <cacheHierarchy uniqueName="[Measures].[Company Sales]" caption="Company Sales" measure="1" displayFolder="" measureGroup="Market Sales" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Value Share]" caption="Value Share" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="16"/>
+        <fieldUsage x="12"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Volume Share]" caption="Volume Share" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
@@ -1544,11 +1618,7 @@
     <cacheHierarchy uniqueName="[Measures].[Unit Share PP]" caption="Unit Share PP" measure="1" displayFolder="Unit Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Share YA]" caption="Volume Share YA" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Share PP]" caption="Volume Share PP" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Value Share DYA]" caption="Value Share DYA" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="18"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Value Share DYA]" caption="Value Share DYA" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Value Share DPP]" caption="Value Share DPP" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Share DYA]" caption="Volume Share DYA" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Share DPP]" caption="Volume Share DPP" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
@@ -1589,11 +1659,7 @@
     <cacheHierarchy uniqueName="[Measures].[Value Uplift (v. base)]" caption="Value Uplift (v. base)" measure="1" displayFolder="Uplift" measureGroup="Promo Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Units Uplift (v. Base)]" caption="Units Uplift (v. Base)" measure="1" displayFolder="Uplift" measureGroup="Promo Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[VSOD]" caption="VSOD" measure="1" displayFolder="KPIs" measureGroup="Promo Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Base Price/KG]" caption="Base Price/KG" measure="1" displayFolder="Base\Base Price" measureGroup="Promo Metrics" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="14"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Base Price/KG]" caption="Base Price/KG" measure="1" displayFolder="Base\Base Price" measureGroup="Promo Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Promo Price/KG]" caption="Promo Price/KG" measure="1" displayFolder="Promo Price" measureGroup="Promo Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Base Price/Unit]" caption="Base Price/Unit" measure="1" displayFolder="Base\Base Price" measureGroup="Promo Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Promo Price/Unit]" caption="Promo Price/Unit" measure="1" displayFolder="Promo Price" measureGroup="Promo Metrics" count="0"/>
@@ -2270,11 +2336,7 @@
     <cacheHierarchy uniqueName="[Measures].[Trade WoB %]" caption="Trade WoB %" measure="1" displayFolder="WoB" measureGroup="Distribution" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Area Weight DYA]" caption="Area Weight DYA" measure="1" displayFolder="WoB" measureGroup="Distribution" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Price Bracket WoB %]" caption="Price Bracket WoB %" measure="1" displayFolder="WoB" measureGroup="Distribution" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[WoB %]" caption="WoB %" measure="1" displayFolder="WoB" measureGroup="Distribution" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="17"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[WoB %]" caption="WoB %" measure="1" displayFolder="WoB" measureGroup="Distribution" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[ND PP]" caption="ND PP" measure="1" displayFolder="Numeric" measureGroup="Distribution" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[ND YA]" caption="ND YA" measure="1" displayFolder="Numeric" measureGroup="Distribution" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[ND DYA]" caption="ND DYA" measure="1" displayFolder="Numeric" measureGroup="Distribution" count="0"/>
@@ -3729,15 +3791,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1072" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A16:K27" firstHeaderRow="1" firstDataRow="2" firstDataCol="2" rowPageCount="8" colPageCount="1"/>
-  <pivotFields count="19">
-    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="2220" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A16:E109" firstHeaderRow="1" firstDataRow="2" firstDataCol="3" rowPageCount="8" colPageCount="1"/>
+  <pivotFields count="13">
     <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
       <items count="9">
         <item x="0"/>
@@ -3748,6 +3804,37 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="19">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3793,46 +3880,307 @@
     </pivotField>
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="3">
     <field x="0"/>
     <field x="1"/>
+    <field x="2"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="92">
     <i>
       <x/>
       <x/>
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i t="default" r="1">
+      <x/>
     </i>
     <i r="1">
       <x v="1"/>
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="11"/>
+    </i>
+    <i r="2">
+      <x v="12"/>
+    </i>
+    <i t="default" r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i t="default" r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i t="default" r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x/>
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="14"/>
+    </i>
+    <i r="2">
+      <x v="15"/>
+    </i>
+    <i r="2">
+      <x v="12"/>
+    </i>
+    <i t="default" r="1">
+      <x/>
     </i>
     <i r="1">
       <x v="2"/>
+      <x v="16"/>
+    </i>
+    <i t="default" r="1">
+      <x v="2"/>
     </i>
     <i r="1">
+      <x v="1"/>
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i t="default" r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
       <x v="3"/>
     </i>
+    <i>
+      <x v="4"/>
+      <x/>
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i t="default" r="1">
+      <x/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x/>
+      <x v="6"/>
+    </i>
+    <i t="default" r="1">
+      <x/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x/>
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i t="default" r="1">
+      <x/>
+    </i>
     <i r="1">
+      <x v="2"/>
+      <x v="5"/>
+    </i>
+    <i t="default" r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
       <x v="4"/>
     </i>
-    <i r="1">
+    <i r="2">
       <x v="5"/>
     </i>
-    <i r="1">
+    <i r="2">
       <x v="6"/>
     </i>
-    <i r="1">
+    <i r="2">
       <x v="7"/>
     </i>
+    <i r="2">
+      <x v="17"/>
+    </i>
+    <i t="default" r="1">
+      <x v="1"/>
+    </i>
     <i t="default">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
       <x/>
+      <x v="5"/>
+    </i>
+    <i t="default" r="1">
+      <x/>
+    </i>
+    <i t="default">
+      <x v="7"/>
     </i>
     <i t="grand">
       <x/>
@@ -3841,55 +4189,27 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="9">
+  <colItems count="2">
     <i>
       <x/>
     </i>
     <i i="1">
       <x v="1"/>
     </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-    <i i="6">
-      <x v="6"/>
-    </i>
-    <i i="7">
-      <x v="7"/>
-    </i>
-    <i i="8">
-      <x v="8"/>
-    </i>
   </colItems>
   <pageFields count="8">
-    <pageField fld="2" hier="81" name="[Products].[Category].&amp;[Manual Shave Men]" cap="Manual Shave Men"/>
-    <pageField fld="3" hier="145" name="[Scope].[Scope].&amp;[Segment]" cap="Segment"/>
-    <pageField fld="4" hier="35" name="[Calendar].[MonthYear].[All]" cap="All"/>
-    <pageField fld="5" hier="102" name="[Products].[Sector].&amp;[Disposables]" cap="Disposables"/>
+    <pageField fld="3" hier="81" name="[Products].[Category].&amp;[Manual Shave Men]" cap="Manual Shave Men"/>
+    <pageField fld="4" hier="145" name="[Scope].[Scope].&amp;[Segment]" cap="Segment"/>
+    <pageField fld="5" hier="35" name="[Calendar].[MonthYear].[All]" cap="All"/>
     <pageField fld="6" hier="58" name="[Market].[Area].&amp;[RETAILER]" cap="RETAILER"/>
     <pageField fld="7" hier="64" name="[Market].[Region].&amp;[Walmart]" cap="Walmart"/>
     <pageField fld="8" hier="59" name="[Market].[Channel].[All]" cap="All"/>
     <pageField fld="9" hier="63" name="[Market].[Market].[All]" cap="All"/>
+    <pageField fld="10" hier="103" name="[Products].[Segment].&amp;[Disposables]" cap="Disposables"/>
   </pageFields>
-  <dataFields count="9">
-    <dataField fld="10" baseField="0" baseItem="0"/>
+  <dataFields count="2">
     <dataField fld="11" baseField="0" baseItem="0"/>
     <dataField fld="12" baseField="0" baseItem="0"/>
-    <dataField fld="13" baseField="0" baseItem="0"/>
-    <dataField fld="14" baseField="0" baseItem="0"/>
-    <dataField fld="15" baseField="0" baseItem="0"/>
-    <dataField fld="16" baseField="0" baseItem="0"/>
-    <dataField fld="17" baseField="0" baseItem="0"/>
-    <dataField fld="18" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotHierarchies count="2657">
     <pivotHierarchy/>
@@ -6566,9 +6886,10 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleMedium21" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="103"/>
+  <rowHierarchiesUsage count="3">
     <rowHierarchyUsage hierarchyUsage="76"/>
+    <rowHierarchyUsage hierarchyUsage="107"/>
+    <rowHierarchyUsage hierarchyUsage="93"/>
   </rowHierarchiesUsage>
   <colHierarchiesUsage count="1">
     <colHierarchyUsage hierarchyUsage="-2"/>
@@ -6878,7 +7199,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:K27"/>
+  <dimension ref="A7:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
@@ -6886,13 +7207,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
@@ -6914,7 +7236,7 @@
     <col min="103" max="103" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -6922,7 +7244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -6930,7 +7252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -6938,404 +7260,1143 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s" vm="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s" vm="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s" vm="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s" vm="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s" vm="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s" vm="8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s" vm="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s" vm="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s" vm="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s" vm="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5.5631528305760471E-8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="2">
+        <v>13</v>
+      </c>
+      <c r="E19" s="3">
+        <v>8.0356651997209573E-8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="2">
+        <v>11</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.3598818030297006E-7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="2">
+        <v>11</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1.3598818030297006E-7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.9098999999999999</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2.8817131662383926E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5.9901</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3.651074331967645E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="2">
+        <v>10.915699999999999</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2.221899133536474E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="2">
+        <v>9.5553000000000008</v>
+      </c>
+      <c r="E25" s="3">
+        <v>4.4063940999525238E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4.9801000000000002</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3.2828535730084628E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="2">
+        <v>5.8822000000000001</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1.6323359766509778E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="2">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3">
+        <v>6.181280922862275E-8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="2">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>3.0906404614311375E-8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="2">
+        <v>6.8739999999999997</v>
+      </c>
+      <c r="E30" s="3">
+        <v>8.2771251945388188E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1.0832999999999999</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1.6071330399441915E-7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="2">
+        <v>6.9260999999999999</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2.7693745667462934E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="2">
+        <v>6.4462000000000002</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2.0445847633675237E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3.9830999999999999</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2.0366739600424448E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="2">
+        <v>4.9180999999999999</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1.1855702991330767E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="2">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2.4725123691449099E-8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="2">
+        <v>12.9671</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2.3216334830987646E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="2">
+        <v>5.4809999999999999</v>
+      </c>
+      <c r="E38" s="3">
+        <v>8.8225237173585568E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1.2980689938010778E-7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="2">
+        <v>3.4321999999999999</v>
+      </c>
+      <c r="E40" s="3">
+        <v>3.5184376421810513E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1.236256184572455E-8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2.5961379876021556E-7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="2">
+        <v>4.3986999999999998</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.10176678563613224</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="2">
+        <v>5.2460000000000004</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.18453803758152043</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1.9370000000000001</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2.0521852663902753E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="2">
+        <v>5.0484</v>
+      </c>
+      <c r="E46" s="3">
+        <v>7.421648277376526E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1.0034000000000001</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1.0835352768112967E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2.1772999999999998</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2.3807982315800332E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2.9874999999999998</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.10888033971034246</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1.6689458491728143E-7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="2">
+        <v>3.972</v>
+      </c>
+      <c r="E51" s="3">
+        <v>2.2045915469524599E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="2">
+        <v>5.9797000000000002</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2.2355789263468605E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="2">
+        <v>4.78</v>
+      </c>
+      <c r="E53" s="3">
+        <v>4.4401871627578124E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3.3515999999999999</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.15328221133792058</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="2">
+        <v>9.9791000000000007</v>
+      </c>
+      <c r="E55" s="3">
+        <v>2.3011759157564596E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="2">
+        <v>6.9650999999999996</v>
+      </c>
+      <c r="E56" s="3">
+        <v>3.5912345876096E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="2">
+        <v>6.9947999999999997</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2.3255017287002917E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="2">
+        <v>3.5127999999999999</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5.0810129185927899E-6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="3">
+        <v>4.3268966460035926E-8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="2">
+        <v>12.014200000000001</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1.6019314920476029E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="2">
+        <v>9.9687000000000001</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5.2849914802786911E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" s="2">
+        <v>10.818899999999999</v>
+      </c>
+      <c r="E62" s="3">
+        <v>9.0276501429118333E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" s="2">
+        <v>15.0128</v>
+      </c>
+      <c r="E63" s="3">
+        <v>2.2180574674429153E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="2">
+        <v>14.9922</v>
+      </c>
+      <c r="E64" s="3">
+        <v>4.3111387065469395E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="2">
+        <v>20.064</v>
+      </c>
+      <c r="E65" s="3">
+        <v>3.2422456479857191E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" s="2">
+        <v>19.960899999999999</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2.4541286215522252E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>49</v>
+      </c>
+      <c r="D67" s="2">
+        <v>65</v>
+      </c>
+      <c r="E67" s="3">
+        <v>4.0178325998604784E-7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" s="2">
+        <v>11.029199999999999</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0.36358608397346781</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
         <v>30</v>
       </c>
-      <c r="F17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="C69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" s="2">
+        <v>10</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1.236256184572455E-7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="2">
+        <v>10</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1.236256184572455E-7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" t="s">
         <v>32</v>
       </c>
-      <c r="H17" t="s">
+      <c r="D71" s="2">
+        <v>1.9575</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1.8574131045108848E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" s="2">
+        <v>6.9623999999999997</v>
+      </c>
+      <c r="E72" s="3">
+        <v>5.4284219228127872E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73" s="2">
+        <v>6.9691000000000001</v>
+      </c>
+      <c r="E73" s="3">
+        <v>4.0855806750312335E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74" s="2">
+        <v>13.062799999999999</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1.430153077073168E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>43</v>
+      </c>
+      <c r="D75" s="2">
+        <v>14.9907</v>
+      </c>
+      <c r="E75" s="3">
+        <v>5.1439321771066049E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" s="2">
+        <v>12.0143</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2.5299883916780525E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" s="2">
+        <v>19.044699999999999</v>
+      </c>
+      <c r="E77" s="3">
+        <v>3.6860770714495375E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>45</v>
+      </c>
+      <c r="D78" s="2">
+        <v>15.0275</v>
+      </c>
+      <c r="E78" s="3">
+        <v>3.3480463066457064E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79" s="2">
+        <v>8.9879999999999995</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0.17723765429141672</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" s="2">
+        <v>10.2652</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0.54082386189050302</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" s="2">
+        <v>5.9424999999999999</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1.7462242232704384E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" s="2">
+        <v>7.9743000000000004</v>
+      </c>
+      <c r="E82" s="3">
+        <v>1.5253670558965692E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83" s="2">
+        <v>6.7435999999999998</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3.2715912791670076E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>54</v>
+      </c>
+      <c r="D84" s="2">
+        <v>6.7435999999999998</v>
+      </c>
+      <c r="E84" s="3">
+        <v>3.2715912791670076E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" t="s">
+        <v>35</v>
+      </c>
+      <c r="D85" s="2">
+        <v>2.3332999999999999</v>
+      </c>
+      <c r="E85" s="3">
+        <v>4.3268966460035926E-8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>59</v>
+      </c>
+      <c r="D86" s="2">
+        <v>2.3332999999999999</v>
+      </c>
+      <c r="E86" s="3">
+        <v>4.3268966460035926E-8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>55</v>
+      </c>
+      <c r="D87" s="2">
+        <v>2.3332999999999999</v>
+      </c>
+      <c r="E87" s="3">
+        <v>4.3268966460035926E-8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" t="s">
         <v>33</v>
       </c>
-      <c r="I17" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="D88" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E88" s="3">
+        <v>3.0906404614311375E-8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" s="2">
+        <v>3.8235000000000001</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4.0178325998604784E-7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>37</v>
+      </c>
+      <c r="D90" s="2">
+        <v>3.2303000000000002</v>
+      </c>
+      <c r="E90" s="3">
+        <v>3.5542365306458079E-6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D91" s="2">
+        <v>5.1802999999999999</v>
+      </c>
+      <c r="E91" s="3">
+        <v>1.9532847716244788E-6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="D92" s="2">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="E92" s="3">
+        <v>4.3268966460035926E-8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>45</v>
+      </c>
+      <c r="D93" s="2">
+        <v>6.4972000000000003</v>
+      </c>
+      <c r="E93" s="3">
+        <v>3.051805945905163E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>59</v>
+      </c>
+      <c r="D94" s="2">
+        <v>6.4961000000000002</v>
+      </c>
+      <c r="E94" s="3">
+        <v>3.052404293898496E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>30</v>
+      </c>
+      <c r="C95" t="s">
+        <v>41</v>
+      </c>
+      <c r="D95" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="E95" s="3">
+        <v>2.5961379876021556E-7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>60</v>
+      </c>
+      <c r="D96" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="E96" s="3">
+        <v>2.5961379876021556E-7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" t="s">
+        <v>32</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="E97" s="3">
+        <v>4.1229143755491375E-6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>37</v>
+      </c>
+      <c r="D98" s="2">
+        <v>6.4927000000000001</v>
+      </c>
+      <c r="E98" s="3">
+        <v>2.8369495660512084E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>38</v>
+      </c>
+      <c r="D99" s="2">
+        <v>5.6071</v>
+      </c>
+      <c r="E99" s="3">
+        <v>9.7046110488937719E-7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>41</v>
+      </c>
+      <c r="D100" s="2">
+        <v>10.5608</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3.7758657400069423E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>35</v>
+      </c>
+      <c r="D101" s="2">
+        <v>16</v>
+      </c>
+      <c r="E101" s="3">
+        <v>3.9560197906318559E-7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>45</v>
+      </c>
+      <c r="D102" s="2">
+        <v>15.0189</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2.142595153680428E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>42</v>
+      </c>
+      <c r="D103" s="2">
         <v>25</v>
       </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1.58</v>
-      </c>
-      <c r="D18" s="2">
-        <v>11</v>
-      </c>
-      <c r="E18" s="5">
-        <v>22</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1.179</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1.8332999999999999</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1.4666999999999999</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1.3598818030297006E-7</v>
-      </c>
-      <c r="J18" s="6">
-        <v>0</v>
-      </c>
-      <c r="K18" s="7">
-        <v>-4.8347746888349138E-7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="D19" s="2">
-        <v>5.2460000000000004</v>
-      </c>
-      <c r="E19" s="5">
-        <v>29854336</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.77959999999999996</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.78159999999999996</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0.18453803758152043</v>
-      </c>
-      <c r="J19" s="6">
-        <v>0.1845</v>
-      </c>
-      <c r="K19" s="7">
-        <v>6.3656479803893828E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="D20" s="2">
-        <v>3.3515999999999999</v>
-      </c>
-      <c r="E20" s="5">
-        <v>24797807</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.54910000000000003</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.54459999999999997</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0.15328221133792058</v>
-      </c>
-      <c r="J20" s="6">
-        <v>0.15329999999999999</v>
-      </c>
-      <c r="K20" s="7">
-        <v>7.0539345932639219E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1.3320000000000001</v>
-      </c>
-      <c r="D21" s="2">
-        <v>10.2652</v>
-      </c>
-      <c r="E21" s="5">
-        <v>87493817</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1.2384999999999999</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1.2369000000000001</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0.54082386189050302</v>
-      </c>
-      <c r="J21" s="6">
-        <v>0.54079999999999995</v>
-      </c>
-      <c r="K21" s="7">
-        <v>4.3554912445610272E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1.302</v>
-      </c>
-      <c r="D22" s="2">
-        <v>6.7435999999999998</v>
-      </c>
-      <c r="E22" s="5">
-        <v>529274</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1.109</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1.2119</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1.2088000000000001</v>
-      </c>
-      <c r="I22" s="3">
-        <v>3.2715912791670076E-3</v>
-      </c>
-      <c r="J22" s="6">
-        <v>3.3E-3</v>
-      </c>
-      <c r="K22" s="7">
-        <v>-1.1246129040241231E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.251</v>
-      </c>
-      <c r="D23" s="2">
-        <v>2.3332999999999999</v>
-      </c>
-      <c r="E23" s="5">
-        <v>7</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1.8660000000000001</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0.23330000000000001</v>
-      </c>
-      <c r="I23" s="3">
-        <v>4.3268966460035926E-8</v>
-      </c>
-      <c r="J23" s="6">
-        <v>0</v>
-      </c>
-      <c r="K23" s="7">
-        <v>1.7723991235851948E-8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1.0640000000000001</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="E103" s="3">
+        <v>1.5453202307155687E-7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>58</v>
+      </c>
+      <c r="D104" s="2">
+        <v>9.3378999999999994</v>
+      </c>
+      <c r="E104" s="3">
+        <v>8.7559748106868368E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>56</v>
+      </c>
+      <c r="D105" s="2">
         <v>8.3892000000000007</v>
       </c>
-      <c r="E24" s="5">
-        <v>19103492</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="E105" s="3">
+        <v>0.11808405065965208</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>20</v>
+      </c>
+      <c r="B106" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" t="s">
+        <v>41</v>
+      </c>
+      <c r="D106" s="2">
+        <v>3.6667000000000001</v>
+      </c>
+      <c r="E106" s="3">
+        <v>6.7994090151485029E-8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>59</v>
+      </c>
+      <c r="D107" s="2">
+        <v>3.6667000000000001</v>
+      </c>
+      <c r="E107" s="3">
+        <v>6.7994090151485029E-8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>57</v>
+      </c>
+      <c r="D108" s="2">
+        <v>3.6667000000000001</v>
+      </c>
+      <c r="E108" s="3">
+        <v>6.7994090151485029E-8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2">
+        <v>6.7496</v>
+      </c>
+      <c r="E109" s="3">
         <v>1</v>
       </c>
-      <c r="G24" s="2">
-        <v>0.98709999999999998</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0.98740000000000006</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0.11808405065965208</v>
-      </c>
-      <c r="J24" s="6">
-        <v>0.1181</v>
-      </c>
-      <c r="K24" s="7">
-        <v>-6.5284831561474993E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="D25" s="2">
-        <v>3.6667000000000001</v>
-      </c>
-      <c r="E25" s="5">
-        <v>11</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0.34379999999999999</v>
-      </c>
-      <c r="I25" s="3">
-        <v>6.7994090151485029E-8</v>
-      </c>
-      <c r="J25" s="6">
-        <v>0</v>
-      </c>
-      <c r="K25" s="7">
-        <v>4.1316520910250806E-9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2">
-        <v>6.7496</v>
-      </c>
-      <c r="E26" s="5">
-        <v>161778766</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0.93069999999999997</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0.9284</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1</v>
-      </c>
-      <c r="J26" s="6">
-        <v>1</v>
-      </c>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2">
-        <v>6.7496</v>
-      </c>
-      <c r="E27" s="5">
-        <v>161778766</v>
-      </c>
-      <c r="F27" s="4">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0.93069999999999997</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0.9284</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1</v>
-      </c>
-      <c r="J27" s="6">
-        <v>1</v>
-      </c>
-      <c r="K27" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Edgewell US Male Dataset.xlsx
+++ b/Edgewell US Male Dataset.xlsx
@@ -5,19 +5,19 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\Salma Hany\Documents\Slide-Automate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\aleaa\Documents\Slide-Automate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146C339B-A8C6-4F19-97B8-DD398BB0D6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5739F417-A1B4-4602-8768-CDBD3F7A6BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="10545" yWindow="0" windowWidth="9945" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Edgewell US Male Dataset" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="957" r:id="rId2"/>
+    <pivotCache cacheId="4516" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -56,12 +56,12 @@
     <s v="pbiazure://api.powerbi.com e378e301-2498-4932-9987-fbfe08fd72f4 Model"/>
     <s v="{[Market].[Channel].[All]}"/>
     <s v="{[Market].[Market].[All]}"/>
+    <s v="{[Market].[Area].&amp;[RETAILER]}"/>
+    <s v="{[Calendar].[MonthYear].&amp;[Apr-24],[Calendar].[MonthYear].&amp;[May-24],[Calendar].[MonthYear].&amp;[Jun-24],[Calendar].[MonthYear].&amp;[Jul-24],[Calendar].[MonthYear].&amp;[Aug-24],[Calendar].[MonthYear].&amp;[Sep-24],[Calendar].[MonthYear].&amp;[Oct-24],[Calendar].[MonthYear].&amp;[Nov-24],[Calendar].[MonthYear].&amp;[Dec-24],[Calendar].[MonthYear].&amp;[Jan-25],[Calendar].[MonthYear].&amp;[Feb-25],[Calendar].[MonthYear].&amp;[Mar-25]}"/>
     <s v="{[Products].[Category].&amp;[Manual Shave Men]}"/>
-    <s v="{[Market].[Area].&amp;[RETAILER]}"/>
+    <s v="{[Products].[Sector].&amp;[Disposables]}"/>
     <s v="{[Market].[Region].&amp;[Walmart]}"/>
     <s v="{[Scope].[Scope].&amp;[Segment]}"/>
-    <s v="{[Products].[Segment].&amp;[Disposables]}"/>
-    <s v="{[Calendar].[MonthYear].&amp;[Apr-24],[Calendar].[MonthYear].&amp;[May-24],[Calendar].[MonthYear].&amp;[Jun-24],[Calendar].[MonthYear].&amp;[Jul-24],[Calendar].[MonthYear].&amp;[Aug-24],[Calendar].[MonthYear].&amp;[Sep-24],[Calendar].[MonthYear].&amp;[Oct-24],[Calendar].[MonthYear].&amp;[Nov-24],[Calendar].[MonthYear].&amp;[Dec-24],[Calendar].[MonthYear].&amp;[Jan-25],[Calendar].[MonthYear].&amp;[Feb-25],[Calendar].[MonthYear].&amp;[Mar-25]}"/>
   </metadataStrings>
   <mdxMetadata count="8">
     <mdx n="0" f="s">
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Scope</t>
   </si>
@@ -148,25 +148,37 @@
     <t>MonthYear</t>
   </si>
   <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Segment</t>
-  </si>
-  <si>
     <t>(Multiple Items)</t>
   </si>
   <si>
     <t>RETAILER</t>
   </si>
   <si>
-    <t>Walmart</t>
-  </si>
-  <si>
     <t>Disposables</t>
   </si>
   <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
     <t>Barbasol</t>
+  </si>
+  <si>
+    <t>Gillette</t>
+  </si>
+  <si>
+    <t>Personna</t>
+  </si>
+  <si>
+    <t>Schick</t>
   </si>
   <si>
     <t>Bic</t>
@@ -175,142 +187,58 @@
     <t>Equate</t>
   </si>
   <si>
-    <t>Gillette</t>
-  </si>
-  <si>
     <t>Harry's</t>
-  </si>
-  <si>
-    <t>Personna</t>
-  </si>
-  <si>
-    <t>Schick</t>
   </si>
   <si>
     <t>Wilkinson Sword</t>
   </si>
   <si>
-    <t>Grand Total</t>
+    <t>Disposables Total</t>
   </si>
   <si>
-    <t>Pack Size</t>
+    <t>Relative Price</t>
   </si>
   <si>
-    <t>1CT</t>
-  </si>
-  <si>
-    <t>2CT</t>
-  </si>
-  <si>
-    <t>5CT</t>
-  </si>
-  <si>
-    <t>10CT</t>
-  </si>
-  <si>
-    <t>3CT</t>
-  </si>
-  <si>
-    <t>4CT</t>
-  </si>
-  <si>
-    <t>6CT</t>
-  </si>
-  <si>
-    <t>15CT</t>
-  </si>
-  <si>
-    <t>Barbasol Total</t>
-  </si>
-  <si>
-    <t>8CT</t>
-  </si>
-  <si>
-    <t>20CT</t>
-  </si>
-  <si>
-    <t>7CT</t>
-  </si>
-  <si>
-    <t>9CT</t>
-  </si>
-  <si>
-    <t>12CT</t>
-  </si>
-  <si>
-    <t>18CT</t>
-  </si>
-  <si>
-    <t>21CT</t>
-  </si>
-  <si>
-    <t>24CT</t>
-  </si>
-  <si>
-    <t>52CT</t>
-  </si>
-  <si>
-    <t>Bic Total</t>
-  </si>
-  <si>
-    <t>Equate Total</t>
-  </si>
-  <si>
-    <t>25CT</t>
-  </si>
-  <si>
-    <t>Gillette Total</t>
-  </si>
-  <si>
-    <t>Harry's Total</t>
-  </si>
-  <si>
-    <t>Personna Total</t>
-  </si>
-  <si>
-    <t>Schick Total</t>
-  </si>
-  <si>
-    <t>Wilkinson Sword Total</t>
-  </si>
-  <si>
-    <t>SubCategory</t>
+    <t>Values</t>
   </si>
   <si>
     <t>Av Price/Unit</t>
   </si>
   <si>
-    <t>Values</t>
+    <t>Value Sales</t>
+  </si>
+  <si>
+    <t>IYA Price/KG</t>
+  </si>
+  <si>
+    <t>Base Price/KG</t>
+  </si>
+  <si>
+    <t>Av Price/KG</t>
   </si>
   <si>
     <t>Value Share</t>
   </si>
   <si>
-    <t>Sensitive Skin</t>
+    <t>WoB %</t>
   </si>
   <si>
-    <t>Normal Skin</t>
+    <t>Value Share DYA</t>
   </si>
   <si>
-    <t>Rem Types</t>
-  </si>
-  <si>
-    <t>Sensitive Skin Total</t>
-  </si>
-  <si>
-    <t>Normal Skin Total</t>
-  </si>
-  <si>
-    <t>Rem Types Total</t>
+    <t>Walmart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="\$#,##0.00;\-\$#,##0.00;\$#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="0.0%;\-0.0%;0.0%"/>
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="0%;\-0%;0%"/>
+    <numFmt numFmtId="165" formatCode="#,##0%;\-#,##0%;#,##0%"/>
+    <numFmt numFmtId="166" formatCode="\$#,##0.00;\-\$#,##0.00;\$#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="0.0%;\-0.0%;0.0%"/>
+    <numFmt numFmtId="168" formatCode="\+0.0%;\-0.0%;0.0%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -771,11 +699,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -835,9 +767,14 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Salma Hany" refreshedDate="45866.644905555557" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Aleaa salah" refreshedDate="45876.514626041666" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="13">
+  <cacheFields count="19">
+    <cacheField name="[Products].[Segment].[Segment]" caption="Segment" numFmtId="0" hierarchy="103" level="1">
+      <sharedItems count="1">
+        <s v="[Products].[Segment].&amp;[Disposables]" c="Disposables"/>
+      </sharedItems>
+    </cacheField>
     <cacheField name="[Products].[Brand].[Brand]" caption="Brand" numFmtId="0" hierarchy="76" level="1">
       <sharedItems count="8">
         <s v="[Products].[Brand].&amp;[Barbasol]" c="Barbasol"/>
@@ -850,35 +787,6 @@
         <s v="[Products].[Brand].&amp;[Wilkinson Sword]" c="Wilkinson Sword"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Products].[SubCategory].[SubCategory]" caption="SubCategory" numFmtId="0" hierarchy="107" level="1">
-      <sharedItems count="3">
-        <s v="[Products].[SubCategory].&amp;[Normal Skin]" c="Normal Skin"/>
-        <s v="[Products].[SubCategory].&amp;[Sensitive Skin]" c="Sensitive Skin"/>
-        <s v="[Products].[SubCategory].&amp;[Rem Types]" c="Rem Types"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Products].[Pack Size].[Pack Size]" caption="Pack Size" numFmtId="0" hierarchy="93" level="1">
-      <sharedItems count="18">
-        <s v="[Products].[Pack Size].&amp;[3CT]" c="3CT"/>
-        <s v="[Products].[Pack Size].&amp;[4CT]" c="4CT"/>
-        <s v="[Products].[Pack Size].&amp;[1CT]" c="1CT"/>
-        <s v="[Products].[Pack Size].&amp;[2CT]" c="2CT"/>
-        <s v="[Products].[Pack Size].&amp;[6CT]" c="6CT"/>
-        <s v="[Products].[Pack Size].&amp;[8CT]" c="8CT"/>
-        <s v="[Products].[Pack Size].&amp;[10CT]" c="10CT"/>
-        <s v="[Products].[Pack Size].&amp;[12CT]" c="12CT"/>
-        <s v="[Products].[Pack Size].&amp;[18CT]" c="18CT"/>
-        <s v="[Products].[Pack Size].&amp;[5CT]" c="5CT"/>
-        <s v="[Products].[Pack Size].&amp;[7CT]" c="7CT"/>
-        <s v="[Products].[Pack Size].&amp;[24CT]" c="24CT"/>
-        <s v="[Products].[Pack Size].&amp;[52CT]" c="52CT"/>
-        <s v="[Products].[Pack Size].&amp;[15CT]" c="15CT"/>
-        <s v="[Products].[Pack Size].&amp;[21CT]" c="21CT"/>
-        <s v="[Products].[Pack Size].&amp;[25CT]" c="25CT"/>
-        <s v="[Products].[Pack Size].&amp;[9CT]" c="9CT"/>
-        <s v="[Products].[Pack Size].&amp;[20CT]" c="20CT"/>
-      </sharedItems>
-    </cacheField>
     <cacheField name="[Products].[Category].[Category]" caption="Category" numFmtId="0" hierarchy="81" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
@@ -886,6 +794,9 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[Calendar].[MonthYear].[MonthYear]" caption="MonthYear" numFmtId="0" hierarchy="35" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Products].[Sector].[Sector]" caption="Sector" numFmtId="0" hierarchy="102" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[Market].[Area].[Area]" caption="Area" numFmtId="0" hierarchy="58" level="1">
@@ -900,11 +811,15 @@
     <cacheField name="[Market].[Market].[Market]" caption="Market" numFmtId="0" hierarchy="63" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[Products].[Segment].[Segment]" caption="Segment" numFmtId="0" hierarchy="103" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
+    <cacheField name="[Measures].[Relative Price]" caption="Relative Price" numFmtId="0" hierarchy="564" level="32767"/>
     <cacheField name="[Measures].[Av Price/Unit]" caption="Av Price/Unit" numFmtId="0" hierarchy="549" level="32767"/>
+    <cacheField name="[Measures].[Value Sales]" caption="Value Sales" numFmtId="0" hierarchy="448" level="32767"/>
+    <cacheField name="[Measures].[IYA Price/KG]" caption="IYA Price/KG" numFmtId="0" hierarchy="559" level="32767"/>
+    <cacheField name="[Measures].[Base Price/KG]" caption="Base Price/KG" numFmtId="0" hierarchy="689" level="32767"/>
+    <cacheField name="[Measures].[Av Price/KG]" caption="Av Price/KG" numFmtId="0" hierarchy="550" level="32767"/>
     <cacheField name="[Measures].[Value Share]" caption="Value Share" numFmtId="0" hierarchy="639" level="32767"/>
+    <cacheField name="[Measures].[WoB %]" caption="WoB %" numFmtId="0" hierarchy="1366" level="32767"/>
+    <cacheField name="[Measures].[Value Share DYA]" caption="Value Share DYA" numFmtId="0" hierarchy="648" level="32767"/>
   </cacheFields>
   <cacheHierarchies count="2657">
     <cacheHierarchy uniqueName="[2nd Measure Table].[Measures]" caption="Measures" attribute="1" defaultMemberUniqueName="[2nd Measure Table].[Measures].[All]" allUniqueName="[2nd Measure Table].[Measures].[All]" dimensionUniqueName="[2nd Measure Table]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -945,7 +860,7 @@
     <cacheHierarchy uniqueName="[Calendar].[MonthYear]" caption="MonthYear" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthYear].[All]" allUniqueName="[Calendar].[MonthYear].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="5"/>
+        <fieldUsage x="4"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Calendar].[MonthYearLong]" caption="MonthYearLong" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthYearLong].[All]" allUniqueName="[Calendar].[MonthYearLong].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -1011,7 +926,7 @@
     <cacheHierarchy uniqueName="[Products].[Brand]" caption="Brand" attribute="1" defaultMemberUniqueName="[Products].[Brand].[All]" allUniqueName="[Products].[Brand].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
+        <fieldUsage x="1"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[Brand Logo URL]" caption="Brand Logo URL" attribute="1" defaultMemberUniqueName="[Products].[Brand Logo URL].[All]" allUniqueName="[Products].[Brand Logo URL].[All]" dimensionUniqueName="[Products]" displayFolder="Images" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -1021,7 +936,7 @@
     <cacheHierarchy uniqueName="[Products].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Products].[Category].[All]" allUniqueName="[Products].[Category].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="3"/>
+        <fieldUsage x="2"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[Category Hierarchy]" caption="Category Hierarchy" defaultMemberUniqueName="[Products].[Category Hierarchy].[All]" allUniqueName="[Products].[Category Hierarchy].[All]" dimensionUniqueName="[Products]" displayFolder="" count="6" unbalanced="0"/>
@@ -1035,12 +950,7 @@
     <cacheHierarchy uniqueName="[Products].[MANUFACTURER Hierarchy]" caption="MANUFACTURER Hierarchy" defaultMemberUniqueName="[Products].[MANUFACTURER Hierarchy].[All]" allUniqueName="[Products].[MANUFACTURER Hierarchy].[All]" dimensionUniqueName="[Products]" displayFolder="" count="9" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Pack Count]" caption="Pack Count" attribute="1" defaultMemberUniqueName="[Products].[Pack Count].[All]" allUniqueName="[Products].[Pack Count].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Pack Count Bracket]" caption="Pack Count Bracket" attribute="1" defaultMemberUniqueName="[Products].[Pack Count Bracket].[All]" allUniqueName="[Products].[Pack Count Bracket].[All]" dimensionUniqueName="[Products]" displayFolder="Brackets" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Pack Size]" caption="Pack Size" attribute="1" defaultMemberUniqueName="[Products].[Pack Size].[All]" allUniqueName="[Products].[Pack Size].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Products].[Pack Size]" caption="Pack Size" attribute="1" defaultMemberUniqueName="[Products].[Pack Size].[All]" allUniqueName="[Products].[Pack Size].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Pack Size Bracket]" caption="Pack Size Bracket" attribute="1" defaultMemberUniqueName="[Products].[Pack Size Bracket].[All]" allUniqueName="[Products].[Pack Size Bracket].[All]" dimensionUniqueName="[Products]" displayFolder="Brackets" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Pack Type]" caption="Pack Type" attribute="1" defaultMemberUniqueName="[Products].[Pack Type].[All]" allUniqueName="[Products].[Pack Type].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[PackConfiguration]" caption="PackConfiguration" attribute="1" defaultMemberUniqueName="[Products].[PackConfiguration].[All]" allUniqueName="[Products].[PackConfiguration].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -1049,22 +959,22 @@
     <cacheHierarchy uniqueName="[Products].[Portion Size]" caption="Portion Size" attribute="1" defaultMemberUniqueName="[Products].[Portion Size].[All]" allUniqueName="[Products].[Portion Size].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Portion Size Bracket]" caption="Portion Size Bracket" attribute="1" defaultMemberUniqueName="[Products].[Portion Size Bracket].[All]" allUniqueName="[Products].[Portion Size Bracket].[All]" dimensionUniqueName="[Products]" displayFolder="Brackets" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Product]" caption="Product" attribute="1" defaultMemberUniqueName="[Products].[Product].[All]" allUniqueName="[Products].[Product].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Sector]" caption="Sector" attribute="1" defaultMemberUniqueName="[Products].[Sector].[All]" allUniqueName="[Products].[Sector].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Sector]" caption="Sector" attribute="1" defaultMemberUniqueName="[Products].[Sector].[All]" allUniqueName="[Products].[Sector].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="5"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[Segment]" caption="Segment" attribute="1" defaultMemberUniqueName="[Products].[Segment].[All]" allUniqueName="[Products].[Segment].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="10"/>
+        <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[SKU]" caption="SKU" attribute="1" defaultMemberUniqueName="[Products].[SKU].[All]" allUniqueName="[Products].[SKU].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Store Link]" caption="Store Link" attribute="1" defaultMemberUniqueName="[Products].[Store Link].[All]" allUniqueName="[Products].[Store Link].[All]" dimensionUniqueName="[Products]" displayFolder="Images" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[SubBrand]" caption="SubBrand" attribute="1" defaultMemberUniqueName="[Products].[SubBrand].[All]" allUniqueName="[Products].[SubBrand].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[SubCategory]" caption="SubCategory" attribute="1" defaultMemberUniqueName="[Products].[SubCategory].[All]" allUniqueName="[Products].[SubCategory].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Products].[SubCategory]" caption="SubCategory" attribute="1" defaultMemberUniqueName="[Products].[SubCategory].[All]" allUniqueName="[Products].[SubCategory].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[SubSegment]" caption="SubSegment" attribute="1" defaultMemberUniqueName="[Products].[SubSegment].[All]" allUniqueName="[Products].[SubSegment].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Top Brands]" caption="Top Brands" attribute="1" defaultMemberUniqueName="[Products].[Top Brands].[All]" allUniqueName="[Products].[Top Brands].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Top Companies]" caption="Top Companies" attribute="1" defaultMemberUniqueName="[Products].[Top Companies].[All]" allUniqueName="[Products].[Top Companies].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
@@ -1105,7 +1015,7 @@
     <cacheHierarchy uniqueName="[Scope].[Scope]" caption="Scope" attribute="1" defaultMemberUniqueName="[Scope].[Scope].[All]" allUniqueName="[Scope].[Scope].[All]" dimensionUniqueName="[Scope]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="4"/>
+        <fieldUsage x="3"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Shelf Price Ladder].[Shelf Price Group]" caption="Shelf Price Group" attribute="1" defaultMemberUniqueName="[Shelf Price Ladder].[Shelf Price Group].[All]" allUniqueName="[Shelf Price Ladder].[Shelf Price Group].[All]" dimensionUniqueName="[Shelf Price Ladder]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
@@ -1410,7 +1320,11 @@
     <cacheHierarchy uniqueName="[VAT].[VAT SORT]" caption="VAT SORT" attribute="1" defaultMemberUniqueName="[VAT].[VAT SORT].[All]" allUniqueName="[VAT].[VAT SORT].[All]" dimensionUniqueName="[VAT]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[Unit Sales]" caption="Unit Sales" measure="1" displayFolder="Unit Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Sales]" caption="Volume Sales" measure="1" displayFolder="Volume Sales" measureGroup="Sales Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Value Sales]" caption="Value Sales" measure="1" displayFolder="Value Sales" measureGroup="Sales Metrics" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Value Sales]" caption="Value Sales" measure="1" displayFolder="Value Sales" measureGroup="Sales Metrics" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="12"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Unit Sales PP]" caption="Unit Sales PP" measure="1" displayFolder="Unit Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Unit Sales YA]" caption="Unit Sales YA" measure="1" displayFolder="Unit Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Sales PP]" caption="Volume Sales PP" measure="1" displayFolder="Volume Sales" measureGroup="Sales Metrics" count="0"/>
@@ -1516,7 +1430,11 @@
         <fieldUsage x="11"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Av Price/KG]" caption="Av Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Av Price/KG]" caption="Av Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="15"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[YA Price/Unit]" caption="YA Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[YA Price/KG]" caption="YA Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[PP Price/KG]" caption="PP Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
@@ -1525,12 +1443,20 @@
     <cacheHierarchy uniqueName="[Measures].[DPP Price/Unit]" caption="DPP Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[DYA Price/KG]" caption="DYA Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[DYA Price/Unit]" caption="DYA Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[IYA Price/KG]" caption="IYA Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[IYA Price/KG]" caption="IYA Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="13"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[IYA Price/Unit]" caption="IYA Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[IPP Price/KG]" caption="IPP Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[IPP Price/Unit]" caption="IPP Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Relative Price Index]" caption="Relative Price Index" measure="1" displayFolder="Relative Price" measureGroup="Price Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Relative Price]" caption="Relative Price" measure="1" displayFolder="Relative Price" measureGroup="Price Metrics" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Relative Price]" caption="Relative Price" measure="1" displayFolder="Relative Price" measureGroup="Price Metrics" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="10"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Channel Relative Price]" caption="Channel Relative Price" measure="1" displayFolder="Relative Price" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Price]" caption="Price" measure="1" displayFolder="" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Price Evolution]" caption="Price Evolution" measure="1" displayFolder="" measureGroup="Price Metrics" count="0"/>
@@ -1607,7 +1533,7 @@
     <cacheHierarchy uniqueName="[Measures].[Company Sales]" caption="Company Sales" measure="1" displayFolder="" measureGroup="Market Sales" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Value Share]" caption="Value Share" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="12"/>
+        <fieldUsage x="16"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Volume Share]" caption="Volume Share" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
@@ -1618,7 +1544,11 @@
     <cacheHierarchy uniqueName="[Measures].[Unit Share PP]" caption="Unit Share PP" measure="1" displayFolder="Unit Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Share YA]" caption="Volume Share YA" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Share PP]" caption="Volume Share PP" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Value Share DYA]" caption="Value Share DYA" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Value Share DYA]" caption="Value Share DYA" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="18"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Value Share DPP]" caption="Value Share DPP" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Share DYA]" caption="Volume Share DYA" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Share DPP]" caption="Volume Share DPP" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
@@ -1659,7 +1589,11 @@
     <cacheHierarchy uniqueName="[Measures].[Value Uplift (v. base)]" caption="Value Uplift (v. base)" measure="1" displayFolder="Uplift" measureGroup="Promo Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Units Uplift (v. Base)]" caption="Units Uplift (v. Base)" measure="1" displayFolder="Uplift" measureGroup="Promo Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[VSOD]" caption="VSOD" measure="1" displayFolder="KPIs" measureGroup="Promo Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Base Price/KG]" caption="Base Price/KG" measure="1" displayFolder="Base\Base Price" measureGroup="Promo Metrics" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Base Price/KG]" caption="Base Price/KG" measure="1" displayFolder="Base\Base Price" measureGroup="Promo Metrics" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="14"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Promo Price/KG]" caption="Promo Price/KG" measure="1" displayFolder="Promo Price" measureGroup="Promo Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Base Price/Unit]" caption="Base Price/Unit" measure="1" displayFolder="Base\Base Price" measureGroup="Promo Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Promo Price/Unit]" caption="Promo Price/Unit" measure="1" displayFolder="Promo Price" measureGroup="Promo Metrics" count="0"/>
@@ -2336,7 +2270,11 @@
     <cacheHierarchy uniqueName="[Measures].[Trade WoB %]" caption="Trade WoB %" measure="1" displayFolder="WoB" measureGroup="Distribution" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Area Weight DYA]" caption="Area Weight DYA" measure="1" displayFolder="WoB" measureGroup="Distribution" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Price Bracket WoB %]" caption="Price Bracket WoB %" measure="1" displayFolder="WoB" measureGroup="Distribution" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[WoB %]" caption="WoB %" measure="1" displayFolder="WoB" measureGroup="Distribution" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[WoB %]" caption="WoB %" measure="1" displayFolder="WoB" measureGroup="Distribution" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="17"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[ND PP]" caption="ND PP" measure="1" displayFolder="Numeric" measureGroup="Distribution" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[ND YA]" caption="ND YA" measure="1" displayFolder="Numeric" measureGroup="Distribution" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[ND DYA]" caption="ND DYA" measure="1" displayFolder="Numeric" measureGroup="Distribution" count="0"/>
@@ -3791,9 +3729,15 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="957" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A16:E109" firstHeaderRow="1" firstDataRow="2" firstDataCol="3" rowPageCount="8" colPageCount="1"/>
-  <pivotFields count="13">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="4516" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A16:K27" firstHeaderRow="1" firstDataRow="2" firstDataCol="2" rowPageCount="8" colPageCount="1"/>
+  <pivotFields count="19">
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
       <items count="9">
         <item x="0"/>
@@ -3804,37 +3748,6 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="19">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3880,307 +3793,46 @@
     </pivotField>
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
   </pivotFields>
-  <rowFields count="3">
+  <rowFields count="2">
     <field x="0"/>
     <field x="1"/>
-    <field x="2"/>
   </rowFields>
-  <rowItems count="92">
+  <rowItems count="10">
     <i>
       <x/>
-      <x/>
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x/>
-    </i>
-    <i t="default">
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i t="default" r="1">
       <x/>
     </i>
     <i r="1">
       <x v="1"/>
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="10"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="2">
-      <x v="11"/>
-    </i>
-    <i r="2">
-      <x v="12"/>
-    </i>
-    <i t="default" r="1">
-      <x v="1"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x/>
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i t="default" r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i t="default" r="1">
-      <x v="1"/>
-    </i>
-    <i t="default">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x/>
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="2">
-      <x v="13"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="14"/>
-    </i>
-    <i r="2">
-      <x v="15"/>
-    </i>
-    <i r="2">
-      <x v="12"/>
-    </i>
-    <i t="default" r="1">
-      <x/>
     </i>
     <i r="1">
       <x v="2"/>
-      <x v="16"/>
-    </i>
-    <i t="default" r="1">
-      <x v="2"/>
     </i>
     <i r="1">
-      <x v="1"/>
-      <x v="2"/>
+      <x v="3"/>
     </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
+    <i r="1">
       <x v="4"/>
     </i>
-    <i r="2">
-      <x v="10"/>
-    </i>
-    <i r="2">
+    <i r="1">
       <x v="5"/>
     </i>
-    <i r="2">
+    <i r="1">
       <x v="6"/>
     </i>
-    <i r="2">
+    <i r="1">
       <x v="7"/>
     </i>
-    <i t="default" r="1">
-      <x v="1"/>
-    </i>
     <i t="default">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
       <x/>
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i t="default" r="1">
-      <x/>
-    </i>
-    <i t="default">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x/>
-      <x v="6"/>
-    </i>
-    <i t="default" r="1">
-      <x/>
-    </i>
-    <i t="default">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x/>
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i t="default" r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-      <x v="5"/>
-    </i>
-    <i t="default" r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="2">
-      <x v="17"/>
-    </i>
-    <i t="default" r="1">
-      <x v="1"/>
-    </i>
-    <i t="default">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x/>
-      <x v="5"/>
-    </i>
-    <i t="default" r="1">
-      <x/>
-    </i>
-    <i t="default">
-      <x v="7"/>
     </i>
     <i t="grand">
       <x/>
@@ -4189,27 +3841,55 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="9">
     <i>
       <x/>
     </i>
     <i i="1">
       <x v="1"/>
     </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+    <i i="8">
+      <x v="8"/>
+    </i>
   </colItems>
   <pageFields count="8">
-    <pageField fld="3" hier="81" name="[Products].[Category].&amp;[Manual Shave Men]" cap="Manual Shave Men"/>
-    <pageField fld="4" hier="145" name="[Scope].[Scope].&amp;[Segment]" cap="Segment"/>
-    <pageField fld="5" hier="35" name="[Calendar].[MonthYear].[All]" cap="All"/>
+    <pageField fld="2" hier="81" name="[Products].[Category].&amp;[Manual Shave Men]" cap="Manual Shave Men"/>
+    <pageField fld="3" hier="145" name="[Scope].[Scope].&amp;[Segment]" cap="Segment"/>
+    <pageField fld="4" hier="35" name="[Calendar].[MonthYear].[All]" cap="All"/>
+    <pageField fld="5" hier="102" name="[Products].[Sector].&amp;[Disposables]" cap="Disposables"/>
     <pageField fld="6" hier="58" name="[Market].[Area].&amp;[RETAILER]" cap="RETAILER"/>
     <pageField fld="7" hier="64" name="[Market].[Region].&amp;[Walmart]" cap="Walmart"/>
     <pageField fld="8" hier="59" name="[Market].[Channel].[All]" cap="All"/>
     <pageField fld="9" hier="63" name="[Market].[Market].[All]" cap="All"/>
-    <pageField fld="10" hier="103" name="[Products].[Segment].&amp;[Disposables]" cap="Disposables"/>
   </pageFields>
-  <dataFields count="2">
+  <dataFields count="9">
+    <dataField fld="10" baseField="0" baseItem="0"/>
     <dataField fld="11" baseField="0" baseItem="0"/>
     <dataField fld="12" baseField="0" baseItem="0"/>
+    <dataField fld="13" baseField="0" baseItem="0"/>
+    <dataField fld="14" baseField="0" baseItem="0"/>
+    <dataField fld="15" baseField="0" baseItem="0"/>
+    <dataField fld="16" baseField="0" baseItem="0"/>
+    <dataField fld="17" baseField="0" baseItem="0"/>
+    <dataField fld="18" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotHierarchies count="2657">
     <pivotHierarchy/>
@@ -6886,10 +6566,9 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleMedium21" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="3">
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="103"/>
     <rowHierarchyUsage hierarchyUsage="76"/>
-    <rowHierarchyUsage hierarchyUsage="107"/>
-    <rowHierarchyUsage hierarchyUsage="93"/>
   </rowHierarchiesUsage>
   <colHierarchiesUsage count="1">
     <colHierarchyUsage hierarchyUsage="-2"/>
@@ -7199,1204 +6878,464 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:E109"/>
+  <dimension ref="A7:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C14005" sqref="C14005"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
     <col min="15" max="20" width="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="35" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="97" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="35" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="97" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="18" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" t="s" vm="3">
+      <c r="B7" t="s" vm="5">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="s" vm="6">
-        <v>10</v>
+      <c r="B8" t="s" vm="8">
+        <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s" vm="8">
+      <c r="B9" t="s" vm="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s" vm="6">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="s" vm="4">
+      <c r="B11" t="s" vm="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s" vm="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s" vm="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s" vm="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.58</v>
+      </c>
+      <c r="D18" s="4">
+        <v>11</v>
+      </c>
+      <c r="E18" s="5">
+        <v>22</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1.179</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1.8332999999999999</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1.4666999999999999</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1.3598818030297006E-7</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <v>-4.8347746888349138E-7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5.2460000000000004</v>
+      </c>
+      <c r="E19" s="5">
+        <v>29854336</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.77959999999999996</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.78159999999999996</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.18453803758152043</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.1845</v>
+      </c>
+      <c r="K19" s="7">
+        <v>6.3656479803893828E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3.3515999999999999</v>
+      </c>
+      <c r="E20" s="5">
+        <v>24797807</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.54910000000000003</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.54459999999999997</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.15328221133792058</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.15329999999999999</v>
+      </c>
+      <c r="K20" s="7">
+        <v>7.0539345932639219E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="D21" s="4">
+        <v>10.2652</v>
+      </c>
+      <c r="E21" s="5">
+        <v>87493817</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1.2384999999999999</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1.2369000000000001</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.54082386189050302</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.54079999999999995</v>
+      </c>
+      <c r="K21" s="7">
+        <v>4.3554912445610272E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1.302</v>
+      </c>
+      <c r="D22" s="4">
+        <v>6.7435999999999998</v>
+      </c>
+      <c r="E22" s="5">
+        <v>529274</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1.109</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1.2119</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1.2088000000000001</v>
+      </c>
+      <c r="I22" s="6">
+        <v>3.2715912791670076E-3</v>
+      </c>
+      <c r="J22" s="2">
+        <v>3.3E-3</v>
+      </c>
+      <c r="K22" s="7">
+        <v>-1.1246129040241231E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.251</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2.3332999999999999</v>
+      </c>
+      <c r="E23" s="5">
+        <v>7</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1.8660000000000001</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="I23" s="6">
+        <v>4.3268966460035926E-8</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7">
+        <v>1.7723991235851948E-8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="D24" s="4">
+        <v>8.3892000000000007</v>
+      </c>
+      <c r="E24" s="5">
+        <v>19103492</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.98709999999999998</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.11808405065965208</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.1181</v>
+      </c>
+      <c r="K24" s="7">
+        <v>-6.5284831561474993E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="D25" s="4">
+        <v>3.6667000000000001</v>
+      </c>
+      <c r="E25" s="5">
+        <v>11</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.34379999999999999</v>
+      </c>
+      <c r="I25" s="6">
+        <v>6.7994090151485029E-8</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="7">
+        <v>4.1316520910250806E-9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>6.7496</v>
+      </c>
+      <c r="E26" s="5">
+        <v>161778766</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.93069999999999997</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.9284</v>
+      </c>
+      <c r="I26" s="6">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s" vm="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s" vm="1">
+      <c r="C27" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s" vm="2">
+      <c r="D27" s="4">
+        <v>6.7496</v>
+      </c>
+      <c r="E27" s="5">
+        <v>161778766</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.93069999999999997</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.9284</v>
+      </c>
+      <c r="I27" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s" vm="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D16" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="2">
-        <v>9</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5.5631528305760471E-8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="2">
-        <v>13</v>
-      </c>
-      <c r="E19" s="3">
-        <v>8.0356651997209573E-8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="2">
-        <v>11</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1.3598818030297006E-7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="2">
-        <v>11</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1.3598818030297006E-7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1.9098999999999999</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2.8817131662383926E-5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="2">
-        <v>5.9901</v>
-      </c>
-      <c r="E23" s="3">
-        <v>3.651074331967645E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="2">
-        <v>10.915699999999999</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2.221899133536474E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="2">
-        <v>9.5553000000000008</v>
-      </c>
-      <c r="E25" s="3">
-        <v>4.4063940999525238E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="2">
-        <v>4.9801000000000002</v>
-      </c>
-      <c r="E26" s="3">
-        <v>3.2828535730084628E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="2">
-        <v>5.8822000000000001</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1.6323359766509778E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="2">
-        <v>10</v>
-      </c>
-      <c r="E28" s="3">
-        <v>6.181280922862275E-8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="2">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3">
-        <v>3.0906404614311375E-8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="2">
-        <v>6.8739999999999997</v>
-      </c>
-      <c r="E30" s="3">
-        <v>8.2771251945388188E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1.0832999999999999</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1.6071330399441915E-7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="2">
-        <v>6.9260999999999999</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2.7693745667462934E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="2">
-        <v>6.4462000000000002</v>
-      </c>
-      <c r="E33" s="3">
-        <v>2.0445847633675237E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="2">
-        <v>3.9830999999999999</v>
-      </c>
-      <c r="E34" s="3">
-        <v>2.0366739600424448E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="2">
-        <v>4.9180999999999999</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1.1855702991330767E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="2">
-        <v>4</v>
-      </c>
-      <c r="E36" s="3">
-        <v>2.4725123691449099E-8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="2">
-        <v>12.9671</v>
-      </c>
-      <c r="E37" s="3">
-        <v>2.3216334830987646E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="2">
-        <v>5.4809999999999999</v>
-      </c>
-      <c r="E38" s="3">
-        <v>8.8225237173585568E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1.2980689938010778E-7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="2">
-        <v>3.4321999999999999</v>
-      </c>
-      <c r="E40" s="3">
-        <v>3.5184376421810513E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="2">
-        <v>2</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1.236256184572455E-8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="E42" s="3">
-        <v>2.5961379876021556E-7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="2">
-        <v>4.3986999999999998</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0.10176678563613224</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="2">
-        <v>5.2460000000000004</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0.18453803758152043</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1.9370000000000001</v>
-      </c>
-      <c r="E45" s="3">
-        <v>2.0521852663902753E-5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="2">
-        <v>5.0484</v>
-      </c>
-      <c r="E46" s="3">
-        <v>7.421648277376526E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="2">
-        <v>1.0034000000000001</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1.0835352768112967E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C48" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" s="2">
-        <v>2.1772999999999998</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2.3807982315800332E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>59</v>
-      </c>
-      <c r="D49" s="2">
-        <v>2.9874999999999998</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0.10888033971034246</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1.6689458491728143E-7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="2">
-        <v>3.972</v>
-      </c>
-      <c r="E51" s="3">
-        <v>2.2045915469524599E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C52" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52" s="2">
-        <v>5.9797000000000002</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2.2355789263468605E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" s="2">
-        <v>4.78</v>
-      </c>
-      <c r="E53" s="3">
-        <v>4.4401871627578124E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>44</v>
-      </c>
-      <c r="D54" s="2">
-        <v>3.3515999999999999</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0.15328221133792058</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D55" s="2">
-        <v>9.9791000000000007</v>
-      </c>
-      <c r="E55" s="3">
-        <v>2.3011759157564596E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C56" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="2">
-        <v>6.9650999999999996</v>
-      </c>
-      <c r="E56" s="3">
-        <v>3.5912345876096E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C57" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" s="2">
-        <v>6.9947999999999997</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2.3255017287002917E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" s="2">
-        <v>3.5127999999999999</v>
-      </c>
-      <c r="E58" s="3">
-        <v>5.0810129185927899E-6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="3">
-        <v>4.3268966460035926E-8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D60" s="2">
-        <v>12.014200000000001</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1.6019314920476029E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C61" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="2">
-        <v>9.9687000000000001</v>
-      </c>
-      <c r="E61" s="3">
-        <v>5.2849914802786911E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C62" t="s">
-        <v>38</v>
-      </c>
-      <c r="D62" s="2">
-        <v>10.818899999999999</v>
-      </c>
-      <c r="E62" s="3">
-        <v>9.0276501429118333E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C63" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" s="2">
-        <v>15.0128</v>
-      </c>
-      <c r="E63" s="3">
-        <v>2.2180574674429153E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C64" t="s">
-        <v>39</v>
-      </c>
-      <c r="D64" s="2">
-        <v>14.9922</v>
-      </c>
-      <c r="E64" s="3">
-        <v>4.3111387065469395E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C65" t="s">
-        <v>40</v>
-      </c>
-      <c r="D65" s="2">
-        <v>20.064</v>
-      </c>
-      <c r="E65" s="3">
-        <v>3.2422456479857191E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C66" t="s">
-        <v>45</v>
-      </c>
-      <c r="D66" s="2">
-        <v>19.960899999999999</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2.4541286215522252E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C67" t="s">
-        <v>42</v>
-      </c>
-      <c r="D67" s="2">
-        <v>65</v>
-      </c>
-      <c r="E67" s="3">
-        <v>4.0178325998604784E-7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>59</v>
-      </c>
-      <c r="D68" s="2">
-        <v>11.029199999999999</v>
-      </c>
-      <c r="E68" s="3">
-        <v>0.36358608397346781</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>57</v>
-      </c>
-      <c r="C69" t="s">
-        <v>37</v>
-      </c>
-      <c r="D69" s="2">
-        <v>10</v>
-      </c>
-      <c r="E69" s="3">
-        <v>1.236256184572455E-7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>60</v>
-      </c>
-      <c r="D70" s="2">
-        <v>10</v>
-      </c>
-      <c r="E70" s="3">
-        <v>1.236256184572455E-7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71" t="s">
-        <v>25</v>
-      </c>
-      <c r="D71" s="2">
-        <v>1.9575</v>
-      </c>
-      <c r="E71" s="3">
-        <v>1.8574131045108848E-4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C72" t="s">
-        <v>29</v>
-      </c>
-      <c r="D72" s="2">
-        <v>6.9623999999999997</v>
-      </c>
-      <c r="E72" s="3">
-        <v>5.4284219228127872E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C73" t="s">
-        <v>30</v>
-      </c>
-      <c r="D73" s="2">
-        <v>6.9691000000000001</v>
-      </c>
-      <c r="E73" s="3">
-        <v>4.0855806750312335E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C74" t="s">
-        <v>31</v>
-      </c>
-      <c r="D74" s="2">
-        <v>13.062799999999999</v>
-      </c>
-      <c r="E74" s="3">
-        <v>1.430153077073168E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C75" t="s">
-        <v>36</v>
-      </c>
-      <c r="D75" s="2">
-        <v>14.9907</v>
-      </c>
-      <c r="E75" s="3">
-        <v>5.1439321771066049E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C76" t="s">
-        <v>34</v>
-      </c>
-      <c r="D76" s="2">
-        <v>12.0143</v>
-      </c>
-      <c r="E76" s="3">
-        <v>2.5299883916780525E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C77" t="s">
-        <v>28</v>
-      </c>
-      <c r="D77" s="2">
-        <v>19.044699999999999</v>
-      </c>
-      <c r="E77" s="3">
-        <v>3.6860770714495375E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C78" t="s">
-        <v>38</v>
-      </c>
-      <c r="D78" s="2">
-        <v>15.0275</v>
-      </c>
-      <c r="E78" s="3">
-        <v>3.3480463066457064E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>58</v>
-      </c>
-      <c r="D79" s="2">
-        <v>8.9879999999999995</v>
-      </c>
-      <c r="E79" s="3">
-        <v>0.17723765429141672</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>46</v>
-      </c>
-      <c r="D80" s="2">
-        <v>10.2652</v>
-      </c>
-      <c r="E80" s="3">
-        <v>0.54082386189050302</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>19</v>
-      </c>
-      <c r="B81" t="s">
-        <v>56</v>
-      </c>
-      <c r="C81" t="s">
-        <v>30</v>
-      </c>
-      <c r="D81" s="2">
-        <v>5.9424999999999999</v>
-      </c>
-      <c r="E81" s="3">
-        <v>1.7462242232704384E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C82" t="s">
-        <v>34</v>
-      </c>
-      <c r="D82" s="2">
-        <v>7.9743000000000004</v>
-      </c>
-      <c r="E82" s="3">
-        <v>1.5253670558965692E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
-        <v>59</v>
-      </c>
-      <c r="D83" s="2">
-        <v>6.7435999999999998</v>
-      </c>
-      <c r="E83" s="3">
-        <v>3.2715912791670076E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>47</v>
-      </c>
-      <c r="D84" s="2">
-        <v>6.7435999999999998</v>
-      </c>
-      <c r="E84" s="3">
-        <v>3.2715912791670076E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>20</v>
-      </c>
-      <c r="B85" t="s">
-        <v>56</v>
-      </c>
-      <c r="C85" t="s">
-        <v>28</v>
-      </c>
-      <c r="D85" s="2">
-        <v>2.3332999999999999</v>
-      </c>
-      <c r="E85" s="3">
-        <v>4.3268966460035926E-8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
-        <v>59</v>
-      </c>
-      <c r="D86" s="2">
-        <v>2.3332999999999999</v>
-      </c>
-      <c r="E86" s="3">
-        <v>4.3268966460035926E-8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>48</v>
-      </c>
-      <c r="D87" s="2">
-        <v>2.3332999999999999</v>
-      </c>
-      <c r="E87" s="3">
-        <v>4.3268966460035926E-8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>21</v>
-      </c>
-      <c r="B88" t="s">
-        <v>56</v>
-      </c>
-      <c r="C88" t="s">
-        <v>26</v>
-      </c>
-      <c r="D88" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="E88" s="3">
-        <v>3.0906404614311375E-8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C89" t="s">
-        <v>29</v>
-      </c>
-      <c r="D89" s="2">
-        <v>3.8235000000000001</v>
-      </c>
-      <c r="E89" s="3">
-        <v>4.0178325998604784E-7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C90" t="s">
-        <v>30</v>
-      </c>
-      <c r="D90" s="2">
-        <v>3.2303000000000002</v>
-      </c>
-      <c r="E90" s="3">
-        <v>3.5542365306458079E-6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C91" t="s">
-        <v>34</v>
-      </c>
-      <c r="D91" s="2">
-        <v>5.1802999999999999</v>
-      </c>
-      <c r="E91" s="3">
-        <v>1.9532847716244788E-6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C92" t="s">
-        <v>28</v>
-      </c>
-      <c r="D92" s="2">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="E92" s="3">
-        <v>4.3268966460035926E-8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C93" t="s">
-        <v>38</v>
-      </c>
-      <c r="D93" s="2">
-        <v>6.4972000000000003</v>
-      </c>
-      <c r="E93" s="3">
-        <v>3.051805945905163E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
-        <v>59</v>
-      </c>
-      <c r="D94" s="2">
-        <v>6.4961000000000002</v>
-      </c>
-      <c r="E94" s="3">
-        <v>3.052404293898496E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B95" t="s">
-        <v>57</v>
-      </c>
-      <c r="C95" t="s">
-        <v>34</v>
-      </c>
-      <c r="D95" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="E95" s="3">
-        <v>2.5961379876021556E-7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
-        <v>60</v>
-      </c>
-      <c r="D96" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="E96" s="3">
-        <v>2.5961379876021556E-7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
-        <v>55</v>
-      </c>
-      <c r="C97" t="s">
-        <v>25</v>
-      </c>
-      <c r="D97" s="2">
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="E97" s="3">
-        <v>4.1229143755491375E-6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C98" t="s">
-        <v>30</v>
-      </c>
-      <c r="D98" s="2">
-        <v>6.4927000000000001</v>
-      </c>
-      <c r="E98" s="3">
-        <v>2.8369495660512084E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C99" t="s">
-        <v>31</v>
-      </c>
-      <c r="D99" s="2">
-        <v>5.6071</v>
-      </c>
-      <c r="E99" s="3">
-        <v>9.7046110488937719E-7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C100" t="s">
-        <v>34</v>
-      </c>
-      <c r="D100" s="2">
-        <v>10.5608</v>
-      </c>
-      <c r="E100" s="3">
-        <v>3.7758657400069423E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C101" t="s">
-        <v>28</v>
-      </c>
-      <c r="D101" s="2">
-        <v>16</v>
-      </c>
-      <c r="E101" s="3">
-        <v>3.9560197906318559E-7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C102" t="s">
-        <v>38</v>
-      </c>
-      <c r="D102" s="2">
-        <v>15.0189</v>
-      </c>
-      <c r="E102" s="3">
-        <v>2.142595153680428E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C103" t="s">
-        <v>35</v>
-      </c>
-      <c r="D103" s="2">
-        <v>25</v>
-      </c>
-      <c r="E103" s="3">
-        <v>1.5453202307155687E-7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B104" t="s">
-        <v>58</v>
-      </c>
-      <c r="D104" s="2">
-        <v>9.3378999999999994</v>
-      </c>
-      <c r="E104" s="3">
-        <v>8.7559748106868368E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>49</v>
-      </c>
-      <c r="D105" s="2">
-        <v>8.3892000000000007</v>
-      </c>
-      <c r="E105" s="3">
-        <v>0.11808405065965208</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>22</v>
-      </c>
-      <c r="B106" t="s">
-        <v>56</v>
-      </c>
-      <c r="C106" t="s">
-        <v>34</v>
-      </c>
-      <c r="D106" s="2">
-        <v>3.6667000000000001</v>
-      </c>
-      <c r="E106" s="3">
-        <v>6.7994090151485029E-8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B107" t="s">
-        <v>59</v>
-      </c>
-      <c r="D107" s="2">
-        <v>3.6667000000000001</v>
-      </c>
-      <c r="E107" s="3">
-        <v>6.7994090151485029E-8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>50</v>
-      </c>
-      <c r="D108" s="2">
-        <v>3.6667000000000001</v>
-      </c>
-      <c r="E108" s="3">
-        <v>6.7994090151485029E-8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>23</v>
-      </c>
-      <c r="D109" s="2">
-        <v>6.7496</v>
-      </c>
-      <c r="E109" s="3">
+      <c r="J27" s="2">
         <v>1</v>
       </c>
+      <c r="K27" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Edgewell US Male Dataset.xlsx
+++ b/Edgewell US Male Dataset.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\aleaa\Documents\Slide-Automate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\Salma Hany\Documents\Slide-Automate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5739F417-A1B4-4602-8768-CDBD3F7A6BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C6DEC4-1E5F-4362-922E-F20297F39B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="10545" yWindow="0" windowWidth="9945" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Edgewell US Male Dataset" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4516" r:id="rId2"/>
+    <pivotCache cacheId="4953" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,18 +52,20 @@
   <metadataTypes count="1">
     <metadataType name="XLMDX" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <metadataStrings count="9">
+  <metadataStrings count="11">
     <s v="pbiazure://api.powerbi.com e378e301-2498-4932-9987-fbfe08fd72f4 Model"/>
     <s v="{[Market].[Channel].[All]}"/>
     <s v="{[Market].[Market].[All]}"/>
     <s v="{[Market].[Area].&amp;[RETAILER]}"/>
-    <s v="{[Calendar].[MonthYear].&amp;[Apr-24],[Calendar].[MonthYear].&amp;[May-24],[Calendar].[MonthYear].&amp;[Jun-24],[Calendar].[MonthYear].&amp;[Jul-24],[Calendar].[MonthYear].&amp;[Aug-24],[Calendar].[MonthYear].&amp;[Sep-24],[Calendar].[MonthYear].&amp;[Oct-24],[Calendar].[MonthYear].&amp;[Nov-24],[Calendar].[MonthYear].&amp;[Dec-24],[Calendar].[MonthYear].&amp;[Jan-25],[Calendar].[MonthYear].&amp;[Feb-25],[Calendar].[MonthYear].&amp;[Mar-25]}"/>
     <s v="{[Products].[Category].&amp;[Manual Shave Men]}"/>
-    <s v="{[Products].[Sector].&amp;[Disposables]}"/>
     <s v="{[Market].[Region].&amp;[Walmart]}"/>
     <s v="{[Scope].[Scope].&amp;[Segment]}"/>
+    <s v="{[Products].[Top Companies].&amp;[Edgewell Personal Care]}"/>
+    <s v="{[Products].[Brand].&amp;[Cremo]}"/>
+    <s v="{[Calendar].[MonthYear].&amp;[Jan-25],[Calendar].[MonthYear].&amp;[Feb-25],[Calendar].[MonthYear].&amp;[Mar-25]}"/>
+    <s v="{[Products].[Segment].&amp;[Disposables]}"/>
   </metadataStrings>
-  <mdxMetadata count="8">
+  <mdxMetadata count="10">
     <mdx n="0" f="s">
       <ms ns="1" c="0"/>
     </mdx>
@@ -88,8 +90,14 @@
     <mdx n="0" f="s">
       <ms ns="8" c="0"/>
     </mdx>
+    <mdx n="0" f="s">
+      <ms ns="9" c="0"/>
+    </mdx>
+    <mdx n="0" f="s">
+      <ms ns="10" c="0"/>
+    </mdx>
   </mdxMetadata>
-  <valueMetadata count="8">
+  <valueMetadata count="10">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -114,12 +122,18 @@
     <bk>
       <rc t="1" v="7"/>
     </bk>
+    <bk>
+      <rc t="1" v="8"/>
+    </bk>
+    <bk>
+      <rc t="1" v="9"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Scope</t>
   </si>
@@ -157,89 +171,52 @@
     <t>Disposables</t>
   </si>
   <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Sector</t>
-  </si>
-  <si>
     <t>Segment</t>
   </si>
   <si>
     <t>Brand</t>
   </si>
   <si>
-    <t>Barbasol</t>
-  </si>
-  <si>
-    <t>Gillette</t>
-  </si>
-  <si>
-    <t>Personna</t>
-  </si>
-  <si>
-    <t>Schick</t>
-  </si>
-  <si>
-    <t>Bic</t>
-  </si>
-  <si>
-    <t>Equate</t>
-  </si>
-  <si>
-    <t>Harry's</t>
-  </si>
-  <si>
-    <t>Wilkinson Sword</t>
-  </si>
-  <si>
-    <t>Disposables Total</t>
-  </si>
-  <si>
-    <t>Relative Price</t>
-  </si>
-  <si>
     <t>Values</t>
-  </si>
-  <si>
-    <t>Av Price/Unit</t>
   </si>
   <si>
     <t>Value Sales</t>
   </si>
   <si>
-    <t>IYA Price/KG</t>
-  </si>
-  <si>
     <t>Base Price/KG</t>
   </si>
   <si>
-    <t>Av Price/KG</t>
+    <t>Walmart</t>
   </si>
   <si>
-    <t>Value Share</t>
+    <t>SKU</t>
   </si>
   <si>
-    <t>WoB %</t>
+    <t>Total Size</t>
   </si>
   <si>
-    <t>Value Share DYA</t>
+    <t>Top Companies</t>
   </si>
   <si>
-    <t>Walmart</t>
+    <t>Base Price/Unit</t>
+  </si>
+  <si>
+    <t>Gross Margin %</t>
+  </si>
+  <si>
+    <t>Edgewell Personal Care</t>
+  </si>
+  <si>
+    <t>Cremo</t>
+  </si>
+  <si>
+    <t>SubCategory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="0%;\-0%;0%"/>
-    <numFmt numFmtId="165" formatCode="#,##0%;\-#,##0%;#,##0%"/>
-    <numFmt numFmtId="166" formatCode="\$#,##0.00;\-\$#,##0.00;\$#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="0.0%;\-0.0%;0.0%"/>
-    <numFmt numFmtId="168" formatCode="\+0.0%;\-0.0%;0.0%"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -699,15 +676,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -767,25 +738,31 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Aleaa salah" refreshedDate="45876.514626041666" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Salma Hany" refreshedDate="45887.64835787037" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="19">
-    <cacheField name="[Products].[Segment].[Segment]" caption="Segment" numFmtId="0" hierarchy="103" level="1">
-      <sharedItems count="1">
-        <s v="[Products].[Segment].&amp;[Disposables]" c="Disposables"/>
+  <cacheFields count="17">
+    <cacheField name="[Products].[SubCategory].[SubCategory]" caption="SubCategory" numFmtId="0" hierarchy="107" level="1">
+      <sharedItems count="2">
+        <s v="[Products].[SubCategory].&amp;[Normal Skin]" c="Normal Skin"/>
+        <s v="[Products].[SubCategory].&amp;[Rem Types]" c="Rem Types"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Products].[Brand].[Brand]" caption="Brand" numFmtId="0" hierarchy="76" level="1">
-      <sharedItems count="8">
-        <s v="[Products].[Brand].&amp;[Barbasol]" c="Barbasol"/>
-        <s v="[Products].[Brand].&amp;[Bic]" c="Bic"/>
-        <s v="[Products].[Brand].&amp;[Equate]" c="Equate"/>
-        <s v="[Products].[Brand].&amp;[Gillette]" c="Gillette"/>
-        <s v="[Products].[Brand].&amp;[Harry's]" c="Harry's"/>
-        <s v="[Products].[Brand].&amp;[Personna]" c="Personna"/>
-        <s v="[Products].[Brand].&amp;[Schick]" c="Schick"/>
-        <s v="[Products].[Brand].&amp;[Wilkinson Sword]" c="Wilkinson Sword"/>
+    <cacheField name="[Products].[SKU].[SKU]" caption="SKU" numFmtId="0" hierarchy="104" level="1">
+      <sharedItems count="4">
+        <s v="[Products].[SKU].&amp;[CREMO 5 BLADE RAZOR NORMAL 2CT]" c="CREMO 5 BLADE RAZOR NORMAL 2CT"/>
+        <s v="[Products].[SKU].&amp;[CREMO 5 BLADE REFILL NORMAL 4CT]" c="CREMO 5 BLADE REFILL NORMAL 4CT"/>
+        <s v="[Products].[SKU].&amp;[CREMO HERITAGE RED HOLIDAY GIFT PACK REM BLADES RAZOR 2CT]" c="CREMO HERITAGE RED HOLIDAY GIFT PACK REM BLADES RAZOR 2CT"/>
+        <s v="[Products].[SKU].&amp;[CREMO HOLIDAY GIFT PACK 5 BLADE RAZOR 2CT]" c="CREMO HOLIDAY GIFT PACK 5 BLADE RAZOR 2CT"/>
       </sharedItems>
+    </cacheField>
+    <cacheField name="[Products].[Total Size].[Total Size]" caption="Total Size" numFmtId="0" hierarchy="111" level="1">
+      <sharedItems count="2">
+        <s v="[Products].[Total Size].&amp;[2CT]" c="2CT"/>
+        <s v="[Products].[Total Size].&amp;[4CT]" c="4CT"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Products].[Top Companies].[Top Companies]" caption="Top Companies" numFmtId="0" hierarchy="110" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[Products].[Category].[Category]" caption="Category" numFmtId="0" hierarchy="81" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
@@ -793,10 +770,10 @@
     <cacheField name="[Scope].[Scope].[Scope]" caption="Scope" numFmtId="0" hierarchy="145" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[Calendar].[MonthYear].[MonthYear]" caption="MonthYear" numFmtId="0" hierarchy="35" level="1">
+    <cacheField name="[Products].[Brand].[Brand]" caption="Brand" numFmtId="0" hierarchy="76" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[Products].[Sector].[Sector]" caption="Sector" numFmtId="0" hierarchy="102" level="1">
+    <cacheField name="[Calendar].[MonthYear].[MonthYear]" caption="MonthYear" numFmtId="0" hierarchy="35" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[Market].[Area].[Area]" caption="Area" numFmtId="0" hierarchy="58" level="1">
@@ -811,15 +788,13 @@
     <cacheField name="[Market].[Market].[Market]" caption="Market" numFmtId="0" hierarchy="63" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[Measures].[Relative Price]" caption="Relative Price" numFmtId="0" hierarchy="564" level="32767"/>
-    <cacheField name="[Measures].[Av Price/Unit]" caption="Av Price/Unit" numFmtId="0" hierarchy="549" level="32767"/>
+    <cacheField name="[Products].[Segment].[Segment]" caption="Segment" numFmtId="0" hierarchy="103" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Measures].[Base Price/Unit]" caption="Base Price/Unit" numFmtId="0" hierarchy="691" level="32767"/>
+    <cacheField name="[Measures].[Base Price/KG]" caption="Base Price/KG" numFmtId="0" hierarchy="689" level="32767"/>
     <cacheField name="[Measures].[Value Sales]" caption="Value Sales" numFmtId="0" hierarchy="448" level="32767"/>
-    <cacheField name="[Measures].[IYA Price/KG]" caption="IYA Price/KG" numFmtId="0" hierarchy="559" level="32767"/>
-    <cacheField name="[Measures].[Base Price/KG]" caption="Base Price/KG" numFmtId="0" hierarchy="689" level="32767"/>
-    <cacheField name="[Measures].[Av Price/KG]" caption="Av Price/KG" numFmtId="0" hierarchy="550" level="32767"/>
-    <cacheField name="[Measures].[Value Share]" caption="Value Share" numFmtId="0" hierarchy="639" level="32767"/>
-    <cacheField name="[Measures].[WoB %]" caption="WoB %" numFmtId="0" hierarchy="1366" level="32767"/>
-    <cacheField name="[Measures].[Value Share DYA]" caption="Value Share DYA" numFmtId="0" hierarchy="648" level="32767"/>
+    <cacheField name="[Measures].[Gross Margin %]" caption="Gross Margin %" numFmtId="0" hierarchy="1692" level="32767"/>
   </cacheFields>
   <cacheHierarchies count="2657">
     <cacheHierarchy uniqueName="[2nd Measure Table].[Measures]" caption="Measures" attribute="1" defaultMemberUniqueName="[2nd Measure Table].[Measures].[All]" allUniqueName="[2nd Measure Table].[Measures].[All]" dimensionUniqueName="[2nd Measure Table]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -860,7 +835,7 @@
     <cacheHierarchy uniqueName="[Calendar].[MonthYear]" caption="MonthYear" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthYear].[All]" allUniqueName="[Calendar].[MonthYear].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="4"/>
+        <fieldUsage x="7"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Calendar].[MonthYearLong]" caption="MonthYearLong" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthYearLong].[All]" allUniqueName="[Calendar].[MonthYearLong].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -888,13 +863,13 @@
     <cacheHierarchy uniqueName="[Market].[Area]" caption="Area" attribute="1" defaultMemberUniqueName="[Market].[Area].[All]" allUniqueName="[Market].[Area].[All]" dimensionUniqueName="[Market]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="6"/>
+        <fieldUsage x="8"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Market].[Channel]" caption="Channel" attribute="1" defaultMemberUniqueName="[Market].[Channel].[All]" allUniqueName="[Market].[Channel].[All]" dimensionUniqueName="[Market]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="8"/>
+        <fieldUsage x="10"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Market].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Market].[Country].[All]" allUniqueName="[Market].[Country].[All]" dimensionUniqueName="[Market]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -903,13 +878,13 @@
     <cacheHierarchy uniqueName="[Market].[Market]" caption="Market" attribute="1" defaultMemberUniqueName="[Market].[Market].[All]" allUniqueName="[Market].[Market].[All]" dimensionUniqueName="[Market]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="9"/>
+        <fieldUsage x="11"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Market].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[Market].[Region].[All]" allUniqueName="[Market].[Region].[All]" dimensionUniqueName="[Market]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="7"/>
+        <fieldUsage x="9"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measure Table].[Measures]" caption="Measures" attribute="1" defaultMemberUniqueName="[Measure Table].[Measures].[All]" allUniqueName="[Measure Table].[Measures].[All]" dimensionUniqueName="[Measure Table]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -926,7 +901,7 @@
     <cacheHierarchy uniqueName="[Products].[Brand]" caption="Brand" attribute="1" defaultMemberUniqueName="[Products].[Brand].[All]" allUniqueName="[Products].[Brand].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
+        <fieldUsage x="6"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[Brand Logo URL]" caption="Brand Logo URL" attribute="1" defaultMemberUniqueName="[Products].[Brand Logo URL].[All]" allUniqueName="[Products].[Brand Logo URL].[All]" dimensionUniqueName="[Products]" displayFolder="Images" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -936,7 +911,7 @@
     <cacheHierarchy uniqueName="[Products].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Products].[Category].[All]" allUniqueName="[Products].[Category].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
+        <fieldUsage x="4"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[Category Hierarchy]" caption="Category Hierarchy" defaultMemberUniqueName="[Products].[Category Hierarchy].[All]" allUniqueName="[Products].[Category Hierarchy].[All]" dimensionUniqueName="[Products]" displayFolder="" count="6" unbalanced="0"/>
@@ -959,26 +934,41 @@
     <cacheHierarchy uniqueName="[Products].[Portion Size]" caption="Portion Size" attribute="1" defaultMemberUniqueName="[Products].[Portion Size].[All]" allUniqueName="[Products].[Portion Size].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Portion Size Bracket]" caption="Portion Size Bracket" attribute="1" defaultMemberUniqueName="[Products].[Portion Size Bracket].[All]" allUniqueName="[Products].[Portion Size Bracket].[All]" dimensionUniqueName="[Products]" displayFolder="Brackets" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Product]" caption="Product" attribute="1" defaultMemberUniqueName="[Products].[Product].[All]" allUniqueName="[Products].[Product].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Sector]" caption="Sector" attribute="1" defaultMemberUniqueName="[Products].[Sector].[All]" allUniqueName="[Products].[Sector].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
+    <cacheHierarchy uniqueName="[Products].[Sector]" caption="Sector" attribute="1" defaultMemberUniqueName="[Products].[Sector].[All]" allUniqueName="[Products].[Sector].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Segment]" caption="Segment" attribute="1" defaultMemberUniqueName="[Products].[Segment].[All]" allUniqueName="[Products].[Segment].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="5"/>
+        <fieldUsage x="12"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Products].[Segment]" caption="Segment" attribute="1" defaultMemberUniqueName="[Products].[Segment].[All]" allUniqueName="[Products].[Segment].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
+    <cacheHierarchy uniqueName="[Products].[SKU]" caption="SKU" attribute="1" defaultMemberUniqueName="[Products].[SKU].[All]" allUniqueName="[Products].[SKU].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Products].[Store Link]" caption="Store Link" attribute="1" defaultMemberUniqueName="[Products].[Store Link].[All]" allUniqueName="[Products].[Store Link].[All]" dimensionUniqueName="[Products]" displayFolder="Images" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[SubBrand]" caption="SubBrand" attribute="1" defaultMemberUniqueName="[Products].[SubBrand].[All]" allUniqueName="[Products].[SubBrand].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[SubCategory]" caption="SubCategory" attribute="1" defaultMemberUniqueName="[Products].[SubCategory].[All]" allUniqueName="[Products].[SubCategory].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
         <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Products].[SKU]" caption="SKU" attribute="1" defaultMemberUniqueName="[Products].[SKU].[All]" allUniqueName="[Products].[SKU].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Store Link]" caption="Store Link" attribute="1" defaultMemberUniqueName="[Products].[Store Link].[All]" allUniqueName="[Products].[Store Link].[All]" dimensionUniqueName="[Products]" displayFolder="Images" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[SubBrand]" caption="SubBrand" attribute="1" defaultMemberUniqueName="[Products].[SubBrand].[All]" allUniqueName="[Products].[SubBrand].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[SubCategory]" caption="SubCategory" attribute="1" defaultMemberUniqueName="[Products].[SubCategory].[All]" allUniqueName="[Products].[SubCategory].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[SubSegment]" caption="SubSegment" attribute="1" defaultMemberUniqueName="[Products].[SubSegment].[All]" allUniqueName="[Products].[SubSegment].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Top Brands]" caption="Top Brands" attribute="1" defaultMemberUniqueName="[Products].[Top Brands].[All]" allUniqueName="[Products].[Top Brands].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Top Companies]" caption="Top Companies" attribute="1" defaultMemberUniqueName="[Products].[Top Companies].[All]" allUniqueName="[Products].[Top Companies].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Total Size]" caption="Total Size" attribute="1" defaultMemberUniqueName="[Products].[Total Size].[All]" allUniqueName="[Products].[Total Size].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Top Companies]" caption="Top Companies" attribute="1" defaultMemberUniqueName="[Products].[Top Companies].[All]" allUniqueName="[Products].[Top Companies].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Products].[Total Size]" caption="Total Size" attribute="1" defaultMemberUniqueName="[Products].[Total Size].[All]" allUniqueName="[Products].[Total Size].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[UnitOfMeasure]" caption="UnitOfMeasure" attribute="1" defaultMemberUniqueName="[Products].[UnitOfMeasure].[All]" allUniqueName="[Products].[UnitOfMeasure].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Variant]" caption="Variant" attribute="1" defaultMemberUniqueName="[Products].[Variant].[All]" allUniqueName="[Products].[Variant].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Version]" caption="Version" attribute="1" defaultMemberUniqueName="[Products].[Version].[All]" allUniqueName="[Products].[Version].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -1015,7 +1005,7 @@
     <cacheHierarchy uniqueName="[Scope].[Scope]" caption="Scope" attribute="1" defaultMemberUniqueName="[Scope].[Scope].[All]" allUniqueName="[Scope].[Scope].[All]" dimensionUniqueName="[Scope]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="3"/>
+        <fieldUsage x="5"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Shelf Price Ladder].[Shelf Price Group]" caption="Shelf Price Group" attribute="1" defaultMemberUniqueName="[Shelf Price Ladder].[Shelf Price Group].[All]" allUniqueName="[Shelf Price Ladder].[Shelf Price Group].[All]" dimensionUniqueName="[Shelf Price Ladder]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
@@ -1322,7 +1312,7 @@
     <cacheHierarchy uniqueName="[Measures].[Volume Sales]" caption="Volume Sales" measure="1" displayFolder="Volume Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Value Sales]" caption="Value Sales" measure="1" displayFolder="Value Sales" measureGroup="Sales Metrics" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="12"/>
+        <fieldUsage x="15"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Unit Sales PP]" caption="Unit Sales PP" measure="1" displayFolder="Unit Sales" measureGroup="Sales Metrics" count="0"/>
@@ -1425,16 +1415,8 @@
     <cacheHierarchy uniqueName="[Measures].[Av Pack Size]" caption="Av Pack Size" measure="1" displayFolder="" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Yearly Seasonality Index]" caption="Yearly Seasonality Index" measure="1" displayFolder="Seasonality" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Seasonality Index]" caption="Seasonality Index" measure="1" displayFolder="Seasonality" measureGroup="Sales Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Av Price/Unit]" caption="Av Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="11"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Av Price/KG]" caption="Av Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="15"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Av Price/Unit]" caption="Av Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Av Price/KG]" caption="Av Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[YA Price/Unit]" caption="YA Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[YA Price/KG]" caption="YA Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[PP Price/KG]" caption="PP Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
@@ -1443,20 +1425,12 @@
     <cacheHierarchy uniqueName="[Measures].[DPP Price/Unit]" caption="DPP Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[DYA Price/KG]" caption="DYA Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[DYA Price/Unit]" caption="DYA Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[IYA Price/KG]" caption="IYA Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="13"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[IYA Price/KG]" caption="IYA Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[IYA Price/Unit]" caption="IYA Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[IPP Price/KG]" caption="IPP Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[IPP Price/Unit]" caption="IPP Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Relative Price Index]" caption="Relative Price Index" measure="1" displayFolder="Relative Price" measureGroup="Price Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Relative Price]" caption="Relative Price" measure="1" displayFolder="Relative Price" measureGroup="Price Metrics" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="10"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Relative Price]" caption="Relative Price" measure="1" displayFolder="Relative Price" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Channel Relative Price]" caption="Channel Relative Price" measure="1" displayFolder="Relative Price" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Price]" caption="Price" measure="1" displayFolder="" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Price Evolution]" caption="Price Evolution" measure="1" displayFolder="" measureGroup="Price Metrics" count="0"/>
@@ -1531,11 +1505,7 @@
     <cacheHierarchy uniqueName="[Measures].[Category Value]" caption="Category Value" measure="1" displayFolder="" measureGroup="Market Sales" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Category Volume]" caption="Category Volume" measure="1" displayFolder="" measureGroup="Market Sales" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Company Sales]" caption="Company Sales" measure="1" displayFolder="" measureGroup="Market Sales" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Value Share]" caption="Value Share" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="16"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Value Share]" caption="Value Share" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Share]" caption="Volume Share" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Unit Share]" caption="Unit Share" measure="1" displayFolder="Unit Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Value Share YA]" caption="Value Share YA" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0"/>
@@ -1544,11 +1514,7 @@
     <cacheHierarchy uniqueName="[Measures].[Unit Share PP]" caption="Unit Share PP" measure="1" displayFolder="Unit Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Share YA]" caption="Volume Share YA" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Share PP]" caption="Volume Share PP" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Value Share DYA]" caption="Value Share DYA" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="18"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Value Share DYA]" caption="Value Share DYA" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Value Share DPP]" caption="Value Share DPP" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Share DYA]" caption="Volume Share DYA" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Share DPP]" caption="Volume Share DPP" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
@@ -1595,7 +1561,11 @@
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Promo Price/KG]" caption="Promo Price/KG" measure="1" displayFolder="Promo Price" measureGroup="Promo Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Base Price/Unit]" caption="Base Price/Unit" measure="1" displayFolder="Base\Base Price" measureGroup="Promo Metrics" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Base Price/Unit]" caption="Base Price/Unit" measure="1" displayFolder="Base\Base Price" measureGroup="Promo Metrics" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="13"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Promo Price/Unit]" caption="Promo Price/Unit" measure="1" displayFolder="Promo Price" measureGroup="Promo Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Non Promo Price/KG]" caption="Non Promo Price/KG" measure="1" displayFolder="Non Promo\Non Promo Price" measureGroup="Promo Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Non Promo Price/Unit]" caption="Non Promo Price/Unit" measure="1" displayFolder="Non Promo\Non Promo Price" measureGroup="Promo Metrics" count="0"/>
@@ -2270,11 +2240,7 @@
     <cacheHierarchy uniqueName="[Measures].[Trade WoB %]" caption="Trade WoB %" measure="1" displayFolder="WoB" measureGroup="Distribution" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Area Weight DYA]" caption="Area Weight DYA" measure="1" displayFolder="WoB" measureGroup="Distribution" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Price Bracket WoB %]" caption="Price Bracket WoB %" measure="1" displayFolder="WoB" measureGroup="Distribution" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[WoB %]" caption="WoB %" measure="1" displayFolder="WoB" measureGroup="Distribution" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="17"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[WoB %]" caption="WoB %" measure="1" displayFolder="WoB" measureGroup="Distribution" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[ND PP]" caption="ND PP" measure="1" displayFolder="Numeric" measureGroup="Distribution" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[ND YA]" caption="ND YA" measure="1" displayFolder="Numeric" measureGroup="Distribution" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[ND DYA]" caption="ND DYA" measure="1" displayFolder="Numeric" measureGroup="Distribution" count="0"/>
@@ -2600,7 +2566,11 @@
     <cacheHierarchy uniqueName="[Measures].[COGS %]" caption="COGS %" measure="1" displayFolder="% Pct" measureGroup="Financial Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[COGS % IYA]" caption="COGS % IYA" measure="1" displayFolder="% Pct" measureGroup="Financial Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Front Margin %]" caption="Front Margin %" measure="1" displayFolder="% Pct" measureGroup="Financial Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Gross Margin %]" caption="Gross Margin %" measure="1" displayFolder="% Pct" measureGroup="Financial Metrics" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Gross Margin %]" caption="Gross Margin %" measure="1" displayFolder="% Pct" measureGroup="Financial Metrics" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="16"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Gross Margin % IYA]" caption="Gross Margin % IYA" measure="1" displayFolder="% Pct" measureGroup="Financial Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Gross to Net %]" caption="Gross to Net %" measure="1" displayFolder="% Pct" measureGroup="Financial Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Gross to Net % IYA]" caption="Gross to Net % IYA" measure="1" displayFolder="% Pct" measureGroup="Financial Metrics" count="0"/>
@@ -3729,25 +3699,39 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="4516" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A16:K27" firstHeaderRow="1" firstDataRow="2" firstDataCol="2" rowPageCount="8" colPageCount="1"/>
-  <pivotFields count="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="4953" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A16:G17" firstHeaderRow="1" firstDataRow="2" firstDataCol="3" rowPageCount="10" colPageCount="1"/>
+  <pivotFields count="17">
     <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="2">
+      <items count="3">
         <item x="0"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="9">
+      <items count="5">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
         <item t="default"/>
       </items>
     </pivotField>
@@ -3795,53 +3779,16 @@
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="3">
     <field x="0"/>
     <field x="1"/>
+    <field x="2"/>
   </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="9">
+  <colItems count="4">
     <i>
       <x/>
     </i>
@@ -3854,42 +3801,24 @@
     <i i="3">
       <x v="3"/>
     </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-    <i i="6">
-      <x v="6"/>
-    </i>
-    <i i="7">
-      <x v="7"/>
-    </i>
-    <i i="8">
-      <x v="8"/>
-    </i>
   </colItems>
-  <pageFields count="8">
-    <pageField fld="2" hier="81" name="[Products].[Category].&amp;[Manual Shave Men]" cap="Manual Shave Men"/>
-    <pageField fld="3" hier="145" name="[Scope].[Scope].&amp;[Segment]" cap="Segment"/>
-    <pageField fld="4" hier="35" name="[Calendar].[MonthYear].[All]" cap="All"/>
-    <pageField fld="5" hier="102" name="[Products].[Sector].&amp;[Disposables]" cap="Disposables"/>
-    <pageField fld="6" hier="58" name="[Market].[Area].&amp;[RETAILER]" cap="RETAILER"/>
-    <pageField fld="7" hier="64" name="[Market].[Region].&amp;[Walmart]" cap="Walmart"/>
-    <pageField fld="8" hier="59" name="[Market].[Channel].[All]" cap="All"/>
-    <pageField fld="9" hier="63" name="[Market].[Market].[All]" cap="All"/>
+  <pageFields count="10">
+    <pageField fld="3" hier="110" name="[Products].[Top Companies].&amp;[Edgewell Personal Care]" cap="Edgewell Personal Care"/>
+    <pageField fld="4" hier="81" name="[Products].[Category].&amp;[Manual Shave Men]" cap="Manual Shave Men"/>
+    <pageField fld="5" hier="145" name="[Scope].[Scope].&amp;[Segment]" cap="Segment"/>
+    <pageField fld="6" hier="76" name="[Products].[Brand].&amp;[Cremo]" cap="Cremo"/>
+    <pageField fld="7" hier="35" name="[Calendar].[MonthYear].[All]" cap="All"/>
+    <pageField fld="8" hier="58" name="[Market].[Area].&amp;[RETAILER]" cap="RETAILER"/>
+    <pageField fld="9" hier="64" name="[Market].[Region].&amp;[Walmart]" cap="Walmart"/>
+    <pageField fld="10" hier="59" name="[Market].[Channel].[All]" cap="All"/>
+    <pageField fld="11" hier="63" name="[Market].[Market].[All]" cap="All"/>
+    <pageField fld="12" hier="103" name="[Products].[Segment].&amp;[Disposables]" cap="Disposables"/>
   </pageFields>
-  <dataFields count="9">
-    <dataField fld="10" baseField="0" baseItem="0"/>
-    <dataField fld="11" baseField="0" baseItem="0"/>
-    <dataField fld="12" baseField="0" baseItem="0"/>
+  <dataFields count="4">
     <dataField fld="13" baseField="0" baseItem="0"/>
     <dataField fld="14" baseField="0" baseItem="0"/>
     <dataField fld="15" baseField="0" baseItem="0"/>
     <dataField fld="16" baseField="0" baseItem="0"/>
-    <dataField fld="17" baseField="0" baseItem="0"/>
-    <dataField fld="18" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotHierarchies count="2657">
     <pivotHierarchy/>
@@ -3928,16 +3857,7 @@
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy multipleItemSelectionAllowed="1">
-      <members count="12" level="1">
-        <member name="[Calendar].[MonthYear].&amp;[Apr-24]"/>
-        <member name="[Calendar].[MonthYear].&amp;[May-24]"/>
-        <member name="[Calendar].[MonthYear].&amp;[Jun-24]"/>
-        <member name="[Calendar].[MonthYear].&amp;[Jul-24]"/>
-        <member name="[Calendar].[MonthYear].&amp;[Aug-24]"/>
-        <member name="[Calendar].[MonthYear].&amp;[Sep-24]"/>
-        <member name="[Calendar].[MonthYear].&amp;[Oct-24]"/>
-        <member name="[Calendar].[MonthYear].&amp;[Nov-24]"/>
-        <member name="[Calendar].[MonthYear].&amp;[Dec-24]"/>
+      <members count="3" level="1">
         <member name="[Calendar].[MonthYear].&amp;[Jan-25]"/>
         <member name="[Calendar].[MonthYear].&amp;[Feb-25]"/>
         <member name="[Calendar].[MonthYear].&amp;[Mar-25]"/>
@@ -6566,9 +6486,10 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleMedium21" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="103"/>
-    <rowHierarchyUsage hierarchyUsage="76"/>
+  <rowHierarchiesUsage count="3">
+    <rowHierarchyUsage hierarchyUsage="107"/>
+    <rowHierarchyUsage hierarchyUsage="104"/>
+    <rowHierarchyUsage hierarchyUsage="111"/>
   </rowHierarchiesUsage>
   <colHierarchiesUsage count="1">
     <colHierarchyUsage hierarchyUsage="-2"/>
@@ -6878,464 +6799,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:K27"/>
+  <dimension ref="A5:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="117.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
     <col min="15" max="20" width="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="35" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="97" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="35" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="97" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="18" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s" vm="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" t="s" vm="5">
+      <c r="B6" t="s" vm="4">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B7" t="s" vm="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B8" t="s" vm="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s" vm="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s" vm="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s" vm="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s" vm="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s" vm="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s" vm="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s" vm="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s" vm="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s" vm="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s" vm="7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s" vm="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s" vm="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" t="s">
-        <v>29</v>
-      </c>
       <c r="G17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1.58</v>
-      </c>
-      <c r="D18" s="4">
-        <v>11</v>
-      </c>
-      <c r="E18" s="5">
         <v>22</v>
       </c>
-      <c r="F18" s="3">
-        <v>1.179</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1.8332999999999999</v>
-      </c>
-      <c r="H18" s="4">
-        <v>1.4666999999999999</v>
-      </c>
-      <c r="I18" s="6">
-        <v>1.3598818030297006E-7</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="7">
-        <v>-4.8347746888349138E-7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="D19" s="4">
-        <v>5.2460000000000004</v>
-      </c>
-      <c r="E19" s="5">
-        <v>29854336</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0.77959999999999996</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0.78159999999999996</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0.18453803758152043</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0.1845</v>
-      </c>
-      <c r="K19" s="7">
-        <v>6.3656479803893828E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="D20" s="4">
-        <v>3.3515999999999999</v>
-      </c>
-      <c r="E20" s="5">
-        <v>24797807</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0.54910000000000003</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0.54459999999999997</v>
-      </c>
-      <c r="I20" s="6">
-        <v>0.15328221133792058</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0.15329999999999999</v>
-      </c>
-      <c r="K20" s="7">
-        <v>7.0539345932639219E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1.3320000000000001</v>
-      </c>
-      <c r="D21" s="4">
-        <v>10.2652</v>
-      </c>
-      <c r="E21" s="5">
-        <v>87493817</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1.2384999999999999</v>
-      </c>
-      <c r="H21" s="4">
-        <v>1.2369000000000001</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0.54082386189050302</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0.54079999999999995</v>
-      </c>
-      <c r="K21" s="7">
-        <v>4.3554912445610272E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1.302</v>
-      </c>
-      <c r="D22" s="4">
-        <v>6.7435999999999998</v>
-      </c>
-      <c r="E22" s="5">
-        <v>529274</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1.109</v>
-      </c>
-      <c r="G22" s="4">
-        <v>1.2119</v>
-      </c>
-      <c r="H22" s="4">
-        <v>1.2088000000000001</v>
-      </c>
-      <c r="I22" s="6">
-        <v>3.2715912791670076E-3</v>
-      </c>
-      <c r="J22" s="2">
-        <v>3.3E-3</v>
-      </c>
-      <c r="K22" s="7">
-        <v>-1.1246129040241231E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.251</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2.3332999999999999</v>
-      </c>
-      <c r="E23" s="5">
-        <v>7</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1.8660000000000001</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0.23330000000000001</v>
-      </c>
-      <c r="I23" s="6">
-        <v>4.3268966460035926E-8</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="7">
-        <v>1.7723991235851948E-8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1.0640000000000001</v>
-      </c>
-      <c r="D24" s="4">
-        <v>8.3892000000000007</v>
-      </c>
-      <c r="E24" s="5">
-        <v>19103492</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0.98709999999999998</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0.98740000000000006</v>
-      </c>
-      <c r="I24" s="6">
-        <v>0.11808405065965208</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0.1181</v>
-      </c>
-      <c r="K24" s="7">
-        <v>-6.5284831561474993E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.37</v>
-      </c>
-      <c r="D25" s="4">
-        <v>3.6667000000000001</v>
-      </c>
-      <c r="E25" s="5">
-        <v>11</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0.34379999999999999</v>
-      </c>
-      <c r="I25" s="6">
-        <v>6.7994090151485029E-8</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-      <c r="K25" s="7">
-        <v>4.1316520910250806E-9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4">
-        <v>6.7496</v>
-      </c>
-      <c r="E26" s="5">
-        <v>161778766</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0.93069999999999997</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0.9284</v>
-      </c>
-      <c r="I26" s="6">
-        <v>1</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1</v>
-      </c>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4">
-        <v>6.7496</v>
-      </c>
-      <c r="E27" s="5">
-        <v>161778766</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0.93069999999999997</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0.9284</v>
-      </c>
-      <c r="I27" s="6">
-        <v>1</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1</v>
-      </c>
-      <c r="K27" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Edgewell US Male Dataset.xlsx
+++ b/Edgewell US Male Dataset.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\aleaa\Documents\Slide-Automate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5739F417-A1B4-4602-8768-CDBD3F7A6BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B76B0A1-5BF9-44B9-A4FD-AF4127E6BF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="10545" yWindow="0" windowWidth="9945" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Edgewell US Male Dataset" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4516" r:id="rId2"/>
+    <pivotCache cacheId="3560" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,18 +52,16 @@
   <metadataTypes count="1">
     <metadataType name="XLMDX" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <metadataStrings count="9">
+  <metadataStrings count="7">
     <s v="pbiazure://api.powerbi.com e378e301-2498-4932-9987-fbfe08fd72f4 Model"/>
     <s v="{[Market].[Channel].[All]}"/>
     <s v="{[Market].[Market].[All]}"/>
     <s v="{[Market].[Area].&amp;[RETAILER]}"/>
-    <s v="{[Calendar].[MonthYear].&amp;[Apr-24],[Calendar].[MonthYear].&amp;[May-24],[Calendar].[MonthYear].&amp;[Jun-24],[Calendar].[MonthYear].&amp;[Jul-24],[Calendar].[MonthYear].&amp;[Aug-24],[Calendar].[MonthYear].&amp;[Sep-24],[Calendar].[MonthYear].&amp;[Oct-24],[Calendar].[MonthYear].&amp;[Nov-24],[Calendar].[MonthYear].&amp;[Dec-24],[Calendar].[MonthYear].&amp;[Jan-25],[Calendar].[MonthYear].&amp;[Feb-25],[Calendar].[MonthYear].&amp;[Mar-25]}"/>
-    <s v="{[Products].[Category].&amp;[Manual Shave Men]}"/>
-    <s v="{[Products].[Sector].&amp;[Disposables]}"/>
     <s v="{[Market].[Region].&amp;[Walmart]}"/>
-    <s v="{[Scope].[Scope].&amp;[Segment]}"/>
+    <s v="{[Scope].[Scope].[All]}"/>
+    <s v="{[Products].[Top Companies].&amp;[Edgewell Personal Care]}"/>
   </metadataStrings>
-  <mdxMetadata count="8">
+  <mdxMetadata count="6">
     <mdx n="0" f="s">
       <ms ns="1" c="0"/>
     </mdx>
@@ -82,14 +80,8 @@
     <mdx n="0" f="s">
       <ms ns="6" c="0"/>
     </mdx>
-    <mdx n="0" f="s">
-      <ms ns="7" c="0"/>
-    </mdx>
-    <mdx n="0" f="s">
-      <ms ns="8" c="0"/>
-    </mdx>
   </mdxMetadata>
-  <valueMetadata count="8">
+  <valueMetadata count="6">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -108,18 +100,12 @@
     <bk>
       <rc t="1" v="5"/>
     </bk>
-    <bk>
-      <rc t="1" v="6"/>
-    </bk>
-    <bk>
-      <rc t="1" v="7"/>
-    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>Scope</t>
   </si>
@@ -148,98 +134,118 @@
     <t>MonthYear</t>
   </si>
   <si>
-    <t>(Multiple Items)</t>
-  </si>
-  <si>
     <t>RETAILER</t>
-  </si>
-  <si>
-    <t>Disposables</t>
   </si>
   <si>
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Sector</t>
-  </si>
-  <si>
-    <t>Segment</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Barbasol</t>
-  </si>
-  <si>
-    <t>Gillette</t>
-  </si>
-  <si>
-    <t>Personna</t>
-  </si>
-  <si>
-    <t>Schick</t>
-  </si>
-  <si>
-    <t>Bic</t>
-  </si>
-  <si>
-    <t>Equate</t>
-  </si>
-  <si>
-    <t>Harry's</t>
-  </si>
-  <si>
-    <t>Wilkinson Sword</t>
-  </si>
-  <si>
-    <t>Disposables Total</t>
-  </si>
-  <si>
-    <t>Relative Price</t>
-  </si>
-  <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>Av Price/Unit</t>
-  </si>
-  <si>
     <t>Value Sales</t>
   </si>
   <si>
-    <t>IYA Price/KG</t>
+    <t>Walmart</t>
   </si>
   <si>
-    <t>Base Price/KG</t>
+    <t>Out Of Scope</t>
   </si>
   <si>
-    <t>Av Price/KG</t>
+    <t>Manual Shave Men Total</t>
   </si>
   <si>
-    <t>Value Share</t>
+    <t>Out Of Scope Total</t>
   </si>
   <si>
-    <t>WoB %</t>
+    <t>Top Companies</t>
   </si>
   <si>
-    <t>Value Share DYA</t>
+    <t>Edgewell Personal Care</t>
   </si>
   <si>
-    <t>Walmart</t>
+    <t>Jan-23</t>
+  </si>
+  <si>
+    <t>Feb-23</t>
+  </si>
+  <si>
+    <t>Mar-23</t>
+  </si>
+  <si>
+    <t>Apr-23</t>
+  </si>
+  <si>
+    <t>May-23</t>
+  </si>
+  <si>
+    <t>Jun-23</t>
+  </si>
+  <si>
+    <t>Jul-23</t>
+  </si>
+  <si>
+    <t>Aug-23</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Oct-24</t>
+  </si>
+  <si>
+    <t>Nov-24</t>
+  </si>
+  <si>
+    <t>Dec-24</t>
+  </si>
+  <si>
+    <t>Jan-25</t>
+  </si>
+  <si>
+    <t>Feb-25</t>
+  </si>
+  <si>
+    <t>Mar-25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="0%;\-0%;0%"/>
-    <numFmt numFmtId="165" formatCode="#,##0%;\-#,##0%;#,##0%"/>
-    <numFmt numFmtId="166" formatCode="\$#,##0.00;\-\$#,##0.00;\$#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="0.0%;\-0.0%;0.0%"/>
-    <numFmt numFmtId="168" formatCode="\+0.0%;\-0.0%;0.0%"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -699,15 +705,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -767,36 +768,50 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Aleaa salah" refreshedDate="45876.514626041666" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Aleaa salah" refreshedDate="45887.581377893519" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="19">
-    <cacheField name="[Products].[Segment].[Segment]" caption="Segment" numFmtId="0" hierarchy="103" level="1">
-      <sharedItems count="1">
-        <s v="[Products].[Segment].&amp;[Disposables]" c="Disposables"/>
+  <cacheFields count="9">
+    <cacheField name="[Products].[Category].[Category]" caption="Category" numFmtId="0" hierarchy="81" level="1">
+      <sharedItems count="2">
+        <s v="[Products].[Category].&amp;[Manual Shave Men]" c="Manual Shave Men"/>
+        <s v="[Products].[Category].&amp;[Out Of Scope]" c="Out Of Scope"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Products].[Brand].[Brand]" caption="Brand" numFmtId="0" hierarchy="76" level="1">
-      <sharedItems count="8">
-        <s v="[Products].[Brand].&amp;[Barbasol]" c="Barbasol"/>
-        <s v="[Products].[Brand].&amp;[Bic]" c="Bic"/>
-        <s v="[Products].[Brand].&amp;[Equate]" c="Equate"/>
-        <s v="[Products].[Brand].&amp;[Gillette]" c="Gillette"/>
-        <s v="[Products].[Brand].&amp;[Harry's]" c="Harry's"/>
-        <s v="[Products].[Brand].&amp;[Personna]" c="Personna"/>
-        <s v="[Products].[Brand].&amp;[Schick]" c="Schick"/>
-        <s v="[Products].[Brand].&amp;[Wilkinson Sword]" c="Wilkinson Sword"/>
+    <cacheField name="[Calendar].[MonthYear].[MonthYear]" caption="MonthYear" numFmtId="0" hierarchy="35" level="1">
+      <sharedItems count="27">
+        <s v="[Calendar].[MonthYear].&amp;[Jan-23]" c="Jan-23"/>
+        <s v="[Calendar].[MonthYear].&amp;[Feb-23]" c="Feb-23"/>
+        <s v="[Calendar].[MonthYear].&amp;[Mar-23]" c="Mar-23"/>
+        <s v="[Calendar].[MonthYear].&amp;[Apr-23]" c="Apr-23"/>
+        <s v="[Calendar].[MonthYear].&amp;[May-23]" c="May-23"/>
+        <s v="[Calendar].[MonthYear].&amp;[Jun-23]" c="Jun-23"/>
+        <s v="[Calendar].[MonthYear].&amp;[Jul-23]" c="Jul-23"/>
+        <s v="[Calendar].[MonthYear].&amp;[Aug-23]" c="Aug-23"/>
+        <s v="[Calendar].[MonthYear].&amp;[Sep-23]" c="Sep-23"/>
+        <s v="[Calendar].[MonthYear].&amp;[Oct-23]" c="Oct-23"/>
+        <s v="[Calendar].[MonthYear].&amp;[Nov-23]" c="Nov-23"/>
+        <s v="[Calendar].[MonthYear].&amp;[Dec-23]" c="Dec-23"/>
+        <s v="[Calendar].[MonthYear].&amp;[Jan-24]" c="Jan-24"/>
+        <s v="[Calendar].[MonthYear].&amp;[Feb-24]" c="Feb-24"/>
+        <s v="[Calendar].[MonthYear].&amp;[Mar-24]" c="Mar-24"/>
+        <s v="[Calendar].[MonthYear].&amp;[Apr-24]" c="Apr-24"/>
+        <s v="[Calendar].[MonthYear].&amp;[May-24]" c="May-24"/>
+        <s v="[Calendar].[MonthYear].&amp;[Jun-24]" c="Jun-24"/>
+        <s v="[Calendar].[MonthYear].&amp;[Jul-24]" c="Jul-24"/>
+        <s v="[Calendar].[MonthYear].&amp;[Aug-24]" c="Aug-24"/>
+        <s v="[Calendar].[MonthYear].&amp;[Sep-24]" c="Sep-24"/>
+        <s v="[Calendar].[MonthYear].&amp;[Oct-24]" c="Oct-24"/>
+        <s v="[Calendar].[MonthYear].&amp;[Nov-24]" c="Nov-24"/>
+        <s v="[Calendar].[MonthYear].&amp;[Dec-24]" c="Dec-24"/>
+        <s v="[Calendar].[MonthYear].&amp;[Jan-25]" c="Jan-25"/>
+        <s v="[Calendar].[MonthYear].&amp;[Feb-25]" c="Feb-25"/>
+        <s v="[Calendar].[MonthYear].&amp;[Mar-25]" c="Mar-25"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Products].[Category].[Category]" caption="Category" numFmtId="0" hierarchy="81" level="1">
+    <cacheField name="[Products].[Top Companies].[Top Companies]" caption="Top Companies" numFmtId="0" hierarchy="110" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[Scope].[Scope].[Scope]" caption="Scope" numFmtId="0" hierarchy="145" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Calendar].[MonthYear].[MonthYear]" caption="MonthYear" numFmtId="0" hierarchy="35" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Products].[Sector].[Sector]" caption="Sector" numFmtId="0" hierarchy="102" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[Market].[Area].[Area]" caption="Area" numFmtId="0" hierarchy="58" level="1">
@@ -811,15 +826,7 @@
     <cacheField name="[Market].[Market].[Market]" caption="Market" numFmtId="0" hierarchy="63" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[Measures].[Relative Price]" caption="Relative Price" numFmtId="0" hierarchy="564" level="32767"/>
-    <cacheField name="[Measures].[Av Price/Unit]" caption="Av Price/Unit" numFmtId="0" hierarchy="549" level="32767"/>
     <cacheField name="[Measures].[Value Sales]" caption="Value Sales" numFmtId="0" hierarchy="448" level="32767"/>
-    <cacheField name="[Measures].[IYA Price/KG]" caption="IYA Price/KG" numFmtId="0" hierarchy="559" level="32767"/>
-    <cacheField name="[Measures].[Base Price/KG]" caption="Base Price/KG" numFmtId="0" hierarchy="689" level="32767"/>
-    <cacheField name="[Measures].[Av Price/KG]" caption="Av Price/KG" numFmtId="0" hierarchy="550" level="32767"/>
-    <cacheField name="[Measures].[Value Share]" caption="Value Share" numFmtId="0" hierarchy="639" level="32767"/>
-    <cacheField name="[Measures].[WoB %]" caption="WoB %" numFmtId="0" hierarchy="1366" level="32767"/>
-    <cacheField name="[Measures].[Value Share DYA]" caption="Value Share DYA" numFmtId="0" hierarchy="648" level="32767"/>
   </cacheFields>
   <cacheHierarchies count="2657">
     <cacheHierarchy uniqueName="[2nd Measure Table].[Measures]" caption="Measures" attribute="1" defaultMemberUniqueName="[2nd Measure Table].[Measures].[All]" allUniqueName="[2nd Measure Table].[Measures].[All]" dimensionUniqueName="[2nd Measure Table]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -860,7 +867,7 @@
     <cacheHierarchy uniqueName="[Calendar].[MonthYear]" caption="MonthYear" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthYear].[All]" allUniqueName="[Calendar].[MonthYear].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="4"/>
+        <fieldUsage x="1"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Calendar].[MonthYearLong]" caption="MonthYearLong" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthYearLong].[All]" allUniqueName="[Calendar].[MonthYearLong].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -888,13 +895,13 @@
     <cacheHierarchy uniqueName="[Market].[Area]" caption="Area" attribute="1" defaultMemberUniqueName="[Market].[Area].[All]" allUniqueName="[Market].[Area].[All]" dimensionUniqueName="[Market]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="6"/>
+        <fieldUsage x="4"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Market].[Channel]" caption="Channel" attribute="1" defaultMemberUniqueName="[Market].[Channel].[All]" allUniqueName="[Market].[Channel].[All]" dimensionUniqueName="[Market]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="8"/>
+        <fieldUsage x="6"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Market].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Market].[Country].[All]" allUniqueName="[Market].[Country].[All]" dimensionUniqueName="[Market]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -903,13 +910,13 @@
     <cacheHierarchy uniqueName="[Market].[Market]" caption="Market" attribute="1" defaultMemberUniqueName="[Market].[Market].[All]" allUniqueName="[Market].[Market].[All]" dimensionUniqueName="[Market]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="9"/>
+        <fieldUsage x="7"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Market].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[Market].[Region].[All]" allUniqueName="[Market].[Region].[All]" dimensionUniqueName="[Market]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="7"/>
+        <fieldUsage x="5"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measure Table].[Measures]" caption="Measures" attribute="1" defaultMemberUniqueName="[Measure Table].[Measures].[All]" allUniqueName="[Measure Table].[Measures].[All]" dimensionUniqueName="[Measure Table]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -923,12 +930,7 @@
     <cacheHierarchy uniqueName="[ProductNames].[ProductMaster]" caption="ProductMaster" attribute="1" defaultMemberUniqueName="[ProductNames].[ProductMaster].[All]" allUniqueName="[ProductNames].[ProductMaster].[All]" dimensionUniqueName="[ProductNames]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[ProductNames].[ProductName]" caption="ProductName" attribute="1" defaultMemberUniqueName="[ProductNames].[ProductName].[All]" allUniqueName="[ProductNames].[ProductName].[All]" dimensionUniqueName="[ProductNames]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[ProductNames].[SourceName]" caption="SourceName" attribute="1" defaultMemberUniqueName="[ProductNames].[SourceName].[All]" allUniqueName="[ProductNames].[SourceName].[All]" dimensionUniqueName="[ProductNames]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Brand]" caption="Brand" attribute="1" defaultMemberUniqueName="[Products].[Brand].[All]" allUniqueName="[Products].[Brand].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Products].[Brand]" caption="Brand" attribute="1" defaultMemberUniqueName="[Products].[Brand].[All]" allUniqueName="[Products].[Brand].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Brand Logo URL]" caption="Brand Logo URL" attribute="1" defaultMemberUniqueName="[Products].[Brand Logo URL].[All]" allUniqueName="[Products].[Brand Logo URL].[All]" dimensionUniqueName="[Products]" displayFolder="Images" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[BrandType]" caption="BrandType" attribute="1" defaultMemberUniqueName="[Products].[BrandType].[All]" allUniqueName="[Products].[BrandType].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Bundle]" caption="Bundle" attribute="1" defaultMemberUniqueName="[Products].[Bundle].[All]" allUniqueName="[Products].[Bundle].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -936,7 +938,7 @@
     <cacheHierarchy uniqueName="[Products].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Products].[Category].[All]" allUniqueName="[Products].[Category].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
+        <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[Category Hierarchy]" caption="Category Hierarchy" defaultMemberUniqueName="[Products].[Category Hierarchy].[All]" allUniqueName="[Products].[Category Hierarchy].[All]" dimensionUniqueName="[Products]" displayFolder="" count="6" unbalanced="0"/>
@@ -959,25 +961,20 @@
     <cacheHierarchy uniqueName="[Products].[Portion Size]" caption="Portion Size" attribute="1" defaultMemberUniqueName="[Products].[Portion Size].[All]" allUniqueName="[Products].[Portion Size].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Portion Size Bracket]" caption="Portion Size Bracket" attribute="1" defaultMemberUniqueName="[Products].[Portion Size Bracket].[All]" allUniqueName="[Products].[Portion Size Bracket].[All]" dimensionUniqueName="[Products]" displayFolder="Brackets" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Product]" caption="Product" attribute="1" defaultMemberUniqueName="[Products].[Product].[All]" allUniqueName="[Products].[Product].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Sector]" caption="Sector" attribute="1" defaultMemberUniqueName="[Products].[Sector].[All]" allUniqueName="[Products].[Sector].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="5"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Products].[Segment]" caption="Segment" attribute="1" defaultMemberUniqueName="[Products].[Segment].[All]" allUniqueName="[Products].[Segment].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Products].[Sector]" caption="Sector" attribute="1" defaultMemberUniqueName="[Products].[Sector].[All]" allUniqueName="[Products].[Sector].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Segment]" caption="Segment" attribute="1" defaultMemberUniqueName="[Products].[Segment].[All]" allUniqueName="[Products].[Segment].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[SKU]" caption="SKU" attribute="1" defaultMemberUniqueName="[Products].[SKU].[All]" allUniqueName="[Products].[SKU].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Store Link]" caption="Store Link" attribute="1" defaultMemberUniqueName="[Products].[Store Link].[All]" allUniqueName="[Products].[Store Link].[All]" dimensionUniqueName="[Products]" displayFolder="Images" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[SubBrand]" caption="SubBrand" attribute="1" defaultMemberUniqueName="[Products].[SubBrand].[All]" allUniqueName="[Products].[SubBrand].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[SubCategory]" caption="SubCategory" attribute="1" defaultMemberUniqueName="[Products].[SubCategory].[All]" allUniqueName="[Products].[SubCategory].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[SubSegment]" caption="SubSegment" attribute="1" defaultMemberUniqueName="[Products].[SubSegment].[All]" allUniqueName="[Products].[SubSegment].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Top Brands]" caption="Top Brands" attribute="1" defaultMemberUniqueName="[Products].[Top Brands].[All]" allUniqueName="[Products].[Top Brands].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Top Companies]" caption="Top Companies" attribute="1" defaultMemberUniqueName="[Products].[Top Companies].[All]" allUniqueName="[Products].[Top Companies].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Top Companies]" caption="Top Companies" attribute="1" defaultMemberUniqueName="[Products].[Top Companies].[All]" allUniqueName="[Products].[Top Companies].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[Total Size]" caption="Total Size" attribute="1" defaultMemberUniqueName="[Products].[Total Size].[All]" allUniqueName="[Products].[Total Size].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[UnitOfMeasure]" caption="UnitOfMeasure" attribute="1" defaultMemberUniqueName="[Products].[UnitOfMeasure].[All]" allUniqueName="[Products].[UnitOfMeasure].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Variant]" caption="Variant" attribute="1" defaultMemberUniqueName="[Products].[Variant].[All]" allUniqueName="[Products].[Variant].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -1322,7 +1319,7 @@
     <cacheHierarchy uniqueName="[Measures].[Volume Sales]" caption="Volume Sales" measure="1" displayFolder="Volume Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Value Sales]" caption="Value Sales" measure="1" displayFolder="Value Sales" measureGroup="Sales Metrics" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="12"/>
+        <fieldUsage x="8"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Unit Sales PP]" caption="Unit Sales PP" measure="1" displayFolder="Unit Sales" measureGroup="Sales Metrics" count="0"/>
@@ -1425,16 +1422,8 @@
     <cacheHierarchy uniqueName="[Measures].[Av Pack Size]" caption="Av Pack Size" measure="1" displayFolder="" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Yearly Seasonality Index]" caption="Yearly Seasonality Index" measure="1" displayFolder="Seasonality" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Seasonality Index]" caption="Seasonality Index" measure="1" displayFolder="Seasonality" measureGroup="Sales Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Av Price/Unit]" caption="Av Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="11"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Av Price/KG]" caption="Av Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="15"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Av Price/Unit]" caption="Av Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Av Price/KG]" caption="Av Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[YA Price/Unit]" caption="YA Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[YA Price/KG]" caption="YA Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[PP Price/KG]" caption="PP Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
@@ -1443,20 +1432,12 @@
     <cacheHierarchy uniqueName="[Measures].[DPP Price/Unit]" caption="DPP Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[DYA Price/KG]" caption="DYA Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[DYA Price/Unit]" caption="DYA Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[IYA Price/KG]" caption="IYA Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="13"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[IYA Price/KG]" caption="IYA Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[IYA Price/Unit]" caption="IYA Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[IPP Price/KG]" caption="IPP Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[IPP Price/Unit]" caption="IPP Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Relative Price Index]" caption="Relative Price Index" measure="1" displayFolder="Relative Price" measureGroup="Price Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Relative Price]" caption="Relative Price" measure="1" displayFolder="Relative Price" measureGroup="Price Metrics" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="10"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Relative Price]" caption="Relative Price" measure="1" displayFolder="Relative Price" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Channel Relative Price]" caption="Channel Relative Price" measure="1" displayFolder="Relative Price" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Price]" caption="Price" measure="1" displayFolder="" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Price Evolution]" caption="Price Evolution" measure="1" displayFolder="" measureGroup="Price Metrics" count="0"/>
@@ -1531,11 +1512,7 @@
     <cacheHierarchy uniqueName="[Measures].[Category Value]" caption="Category Value" measure="1" displayFolder="" measureGroup="Market Sales" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Category Volume]" caption="Category Volume" measure="1" displayFolder="" measureGroup="Market Sales" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Company Sales]" caption="Company Sales" measure="1" displayFolder="" measureGroup="Market Sales" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Value Share]" caption="Value Share" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="16"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Value Share]" caption="Value Share" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Share]" caption="Volume Share" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Unit Share]" caption="Unit Share" measure="1" displayFolder="Unit Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Value Share YA]" caption="Value Share YA" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0"/>
@@ -1544,11 +1521,7 @@
     <cacheHierarchy uniqueName="[Measures].[Unit Share PP]" caption="Unit Share PP" measure="1" displayFolder="Unit Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Share YA]" caption="Volume Share YA" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Share PP]" caption="Volume Share PP" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Value Share DYA]" caption="Value Share DYA" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="18"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Value Share DYA]" caption="Value Share DYA" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Value Share DPP]" caption="Value Share DPP" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Share DYA]" caption="Volume Share DYA" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Share DPP]" caption="Volume Share DPP" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
@@ -1589,11 +1562,7 @@
     <cacheHierarchy uniqueName="[Measures].[Value Uplift (v. base)]" caption="Value Uplift (v. base)" measure="1" displayFolder="Uplift" measureGroup="Promo Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Units Uplift (v. Base)]" caption="Units Uplift (v. Base)" measure="1" displayFolder="Uplift" measureGroup="Promo Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[VSOD]" caption="VSOD" measure="1" displayFolder="KPIs" measureGroup="Promo Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Base Price/KG]" caption="Base Price/KG" measure="1" displayFolder="Base\Base Price" measureGroup="Promo Metrics" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="14"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Base Price/KG]" caption="Base Price/KG" measure="1" displayFolder="Base\Base Price" measureGroup="Promo Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Promo Price/KG]" caption="Promo Price/KG" measure="1" displayFolder="Promo Price" measureGroup="Promo Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Base Price/Unit]" caption="Base Price/Unit" measure="1" displayFolder="Base\Base Price" measureGroup="Promo Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Promo Price/Unit]" caption="Promo Price/Unit" measure="1" displayFolder="Promo Price" measureGroup="Promo Metrics" count="0"/>
@@ -2270,11 +2239,7 @@
     <cacheHierarchy uniqueName="[Measures].[Trade WoB %]" caption="Trade WoB %" measure="1" displayFolder="WoB" measureGroup="Distribution" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Area Weight DYA]" caption="Area Weight DYA" measure="1" displayFolder="WoB" measureGroup="Distribution" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Price Bracket WoB %]" caption="Price Bracket WoB %" measure="1" displayFolder="WoB" measureGroup="Distribution" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[WoB %]" caption="WoB %" measure="1" displayFolder="WoB" measureGroup="Distribution" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="17"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[WoB %]" caption="WoB %" measure="1" displayFolder="WoB" measureGroup="Distribution" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[ND PP]" caption="ND PP" measure="1" displayFolder="Numeric" measureGroup="Distribution" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[ND YA]" caption="ND YA" measure="1" displayFolder="Numeric" measureGroup="Distribution" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[ND DYA]" caption="ND DYA" measure="1" displayFolder="Numeric" measureGroup="Distribution" count="0"/>
@@ -3729,17 +3694,18 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="4516" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A16:K27" firstHeaderRow="1" firstDataRow="2" firstDataCol="2" rowPageCount="8" colPageCount="1"/>
-  <pivotFields count="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="3560" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A16:C73" firstHeaderRow="1" firstDataRow="1" firstDataCol="2" rowPageCount="6" colPageCount="1"/>
+  <pivotFields count="9">
     <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="2">
+      <items count="3">
         <item x="0"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="9">
+      <items count="28">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -3748,16 +3714,25 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="1">
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="1">
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3792,20 +3767,12 @@
       </items>
     </pivotField>
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="57">
     <i>
       <x/>
       <x/>
@@ -3831,65 +3798,168 @@
     <i r="1">
       <x v="7"/>
     </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
     <i t="default">
       <x/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-    <i i="6">
-      <x v="6"/>
-    </i>
-    <i i="7">
-      <x v="7"/>
-    </i>
-    <i i="8">
-      <x v="8"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <pageFields count="8">
-    <pageField fld="2" hier="81" name="[Products].[Category].&amp;[Manual Shave Men]" cap="Manual Shave Men"/>
-    <pageField fld="3" hier="145" name="[Scope].[Scope].&amp;[Segment]" cap="Segment"/>
-    <pageField fld="4" hier="35" name="[Calendar].[MonthYear].[All]" cap="All"/>
-    <pageField fld="5" hier="102" name="[Products].[Sector].&amp;[Disposables]" cap="Disposables"/>
-    <pageField fld="6" hier="58" name="[Market].[Area].&amp;[RETAILER]" cap="RETAILER"/>
-    <pageField fld="7" hier="64" name="[Market].[Region].&amp;[Walmart]" cap="Walmart"/>
-    <pageField fld="8" hier="59" name="[Market].[Channel].[All]" cap="All"/>
-    <pageField fld="9" hier="63" name="[Market].[Market].[All]" cap="All"/>
+  <pageFields count="6">
+    <pageField fld="2" hier="110" name="[Products].[Top Companies].&amp;[Edgewell Personal Care]" cap="Edgewell Personal Care"/>
+    <pageField fld="3" hier="145" name="[Scope].[Scope].[All]" cap="All"/>
+    <pageField fld="4" hier="58" name="[Market].[Area].&amp;[RETAILER]" cap="RETAILER"/>
+    <pageField fld="5" hier="64" name="[Market].[Region].&amp;[Walmart]" cap="Walmart"/>
+    <pageField fld="6" hier="59" name="[Market].[Channel].[All]" cap="All"/>
+    <pageField fld="7" hier="63" name="[Market].[Market].[All]" cap="All"/>
   </pageFields>
-  <dataFields count="9">
-    <dataField fld="10" baseField="0" baseItem="0"/>
-    <dataField fld="11" baseField="0" baseItem="0"/>
-    <dataField fld="12" baseField="0" baseItem="0"/>
-    <dataField fld="13" baseField="0" baseItem="0"/>
-    <dataField fld="14" baseField="0" baseItem="0"/>
-    <dataField fld="15" baseField="0" baseItem="0"/>
-    <dataField fld="16" baseField="0" baseItem="0"/>
-    <dataField fld="17" baseField="0" baseItem="0"/>
-    <dataField fld="18" baseField="0" baseItem="0"/>
+  <dataFields count="1">
+    <dataField fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotHierarchies count="2657">
     <pivotHierarchy/>
@@ -3927,22 +3997,7 @@
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1">
-      <members count="12" level="1">
-        <member name="[Calendar].[MonthYear].&amp;[Apr-24]"/>
-        <member name="[Calendar].[MonthYear].&amp;[May-24]"/>
-        <member name="[Calendar].[MonthYear].&amp;[Jun-24]"/>
-        <member name="[Calendar].[MonthYear].&amp;[Jul-24]"/>
-        <member name="[Calendar].[MonthYear].&amp;[Aug-24]"/>
-        <member name="[Calendar].[MonthYear].&amp;[Sep-24]"/>
-        <member name="[Calendar].[MonthYear].&amp;[Oct-24]"/>
-        <member name="[Calendar].[MonthYear].&amp;[Nov-24]"/>
-        <member name="[Calendar].[MonthYear].&amp;[Dec-24]"/>
-        <member name="[Calendar].[MonthYear].&amp;[Jan-25]"/>
-        <member name="[Calendar].[MonthYear].&amp;[Feb-25]"/>
-        <member name="[Calendar].[MonthYear].&amp;[Mar-25]"/>
-      </members>
-    </pivotHierarchy>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -6567,12 +6622,9 @@
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleMedium21" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="103"/>
-    <rowHierarchyUsage hierarchyUsage="76"/>
+    <rowHierarchyUsage hierarchyUsage="81"/>
+    <rowHierarchyUsage hierarchyUsage="35"/>
   </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
   <extLst>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
@@ -6878,27 +6930,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:K27"/>
+  <dimension ref="A9:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
     <col min="15" max="20" width="25" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="35" width="32.28515625" bestFit="1" customWidth="1"/>
@@ -6914,36 +6967,20 @@
     <col min="103" max="103" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s" vm="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s" vm="8">
-        <v>14</v>
-      </c>
-    </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s" vm="4">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="B9" t="s" vm="6">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s" vm="6">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="B10" t="s" vm="5">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -6951,15 +6988,15 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" vm="3">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12" t="s" vm="7">
-        <v>35</v>
+      <c r="B12" t="s" vm="4">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -6979,363 +7016,477 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
-        <v>26</v>
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" t="s">
-        <v>34</v>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3019567</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1.58</v>
-      </c>
-      <c r="D18" s="4">
-        <v>11</v>
-      </c>
-      <c r="E18" s="5">
-        <v>22</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1.179</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1.8332999999999999</v>
-      </c>
-      <c r="H18" s="4">
-        <v>1.4666999999999999</v>
-      </c>
-      <c r="I18" s="6">
-        <v>1.3598818030297006E-7</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="7">
-        <v>-4.8347746888349138E-7</v>
+        <v>19</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2808519</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="3">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="D19" s="4">
-        <v>5.2460000000000004</v>
-      </c>
-      <c r="E19" s="5">
-        <v>29854336</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0.77959999999999996</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0.78159999999999996</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0.18453803758152043</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0.1845</v>
-      </c>
-      <c r="K19" s="7">
-        <v>6.3656479803893828E-3</v>
+      <c r="C19" s="2">
+        <v>3153501</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="3">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="D20" s="4">
-        <v>3.3515999999999999</v>
-      </c>
-      <c r="E20" s="5">
-        <v>24797807</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0.54910000000000003</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0.54459999999999997</v>
-      </c>
-      <c r="I20" s="6">
-        <v>0.15328221133792058</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0.15329999999999999</v>
-      </c>
-      <c r="K20" s="7">
-        <v>7.0539345932639219E-3</v>
+      <c r="C20" s="2">
+        <v>3006448</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1.3320000000000001</v>
-      </c>
-      <c r="D21" s="4">
-        <v>10.2652</v>
-      </c>
-      <c r="E21" s="5">
-        <v>87493817</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1.2384999999999999</v>
-      </c>
-      <c r="H21" s="4">
-        <v>1.2369000000000001</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0.54082386189050302</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0.54079999999999995</v>
-      </c>
-      <c r="K21" s="7">
-        <v>4.3554912445610272E-3</v>
+        <v>22</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3048850</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3081972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3287209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3299141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3001550</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3263613</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3398292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5486727</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2636614</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2716620</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2882019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2721873</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2788564</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2697505</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2809765</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2741468</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2520153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2840066</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2964135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4434816</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2368314</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2222040</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2674847</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="2">
+        <v>81874188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2219741</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2166678</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2607569</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2570171</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="3">
-        <v>1.302</v>
-      </c>
-      <c r="D22" s="4">
-        <v>6.7435999999999998</v>
-      </c>
-      <c r="E22" s="5">
-        <v>529274</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1.109</v>
-      </c>
-      <c r="G22" s="4">
-        <v>1.2119</v>
-      </c>
-      <c r="H22" s="4">
-        <v>1.2088000000000001</v>
-      </c>
-      <c r="I22" s="6">
-        <v>3.2715912791670076E-3</v>
-      </c>
-      <c r="J22" s="2">
-        <v>3.3E-3</v>
-      </c>
-      <c r="K22" s="7">
-        <v>-1.1246129040241231E-2</v>
+      <c r="C49" s="2">
+        <v>2722090</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.251</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2.3332999999999999</v>
-      </c>
-      <c r="E23" s="5">
-        <v>7</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1.8660000000000001</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0.23330000000000001</v>
-      </c>
-      <c r="I23" s="6">
-        <v>4.3268966460035926E-8</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="7">
-        <v>1.7723991235851948E-8</v>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2771646</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1.0640000000000001</v>
-      </c>
-      <c r="D24" s="4">
-        <v>8.3892000000000007</v>
-      </c>
-      <c r="E24" s="5">
-        <v>19103492</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0.98709999999999998</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0.98740000000000006</v>
-      </c>
-      <c r="I24" s="6">
-        <v>0.11808405065965208</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0.1181</v>
-      </c>
-      <c r="K24" s="7">
-        <v>-6.5284831561474993E-3</v>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="2">
+        <v>2853462</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.37</v>
-      </c>
-      <c r="D25" s="4">
-        <v>3.6667000000000001</v>
-      </c>
-      <c r="E25" s="5">
-        <v>11</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0.34379999999999999</v>
-      </c>
-      <c r="I25" s="6">
-        <v>6.7994090151485029E-8</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-      <c r="K25" s="7">
-        <v>4.1316520910250806E-9</v>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2923898</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4">
-        <v>6.7496</v>
-      </c>
-      <c r="E26" s="5">
-        <v>161778766</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0.93069999999999997</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0.9284</v>
-      </c>
-      <c r="I26" s="6">
-        <v>1</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1</v>
-      </c>
-      <c r="K26" s="7"/>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2606097</v>
+      </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4">
-        <v>6.7496</v>
-      </c>
-      <c r="E27" s="5">
-        <v>161778766</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0.93069999999999997</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0.9284</v>
-      </c>
-      <c r="I27" s="6">
-        <v>1</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1</v>
-      </c>
-      <c r="K27" s="7"/>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2624325</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2455991</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2958362</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2360492</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2161851</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2147170</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2003062</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1957610</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1891575</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1869678</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1880526</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1719792</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1768061</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1686405</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="2">
+        <v>2087488</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1692691</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1552610</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1824722</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="2">
+        <v>60083763</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="2">
+        <v>141957951</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Edgewell US Male Dataset.xlsx
+++ b/Edgewell US Male Dataset.xlsx
@@ -5,19 +5,19 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\aleaa\Documents\Slide-Automate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\BW4SA\Documents\Slide-Automate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B76B0A1-5BF9-44B9-A4FD-AF4127E6BF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7823C632-7EEA-46F5-9D8A-04B8ED0B8717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Edgewell US Male Dataset" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3560" r:id="rId2"/>
+    <pivotCache cacheId="8854" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -55,11 +55,11 @@
   <metadataStrings count="7">
     <s v="pbiazure://api.powerbi.com e378e301-2498-4932-9987-fbfe08fd72f4 Model"/>
     <s v="{[Market].[Channel].[All]}"/>
-    <s v="{[Market].[Market].[All]}"/>
-    <s v="{[Market].[Area].&amp;[RETAILER]}"/>
-    <s v="{[Market].[Region].&amp;[Walmart]}"/>
     <s v="{[Scope].[Scope].[All]}"/>
-    <s v="{[Products].[Top Companies].&amp;[Edgewell Personal Care]}"/>
+    <s v="{[Market].[Region].[All]}"/>
+    <s v="{[Market].[Area].&amp;[REGIONS]}"/>
+    <s v="{[Market].[Market].&amp;[Walmart West]}"/>
+    <s v="{[Products].[Top Companies].&amp;[Pbg]}"/>
   </metadataStrings>
   <mdxMetadata count="6">
     <mdx n="0" f="s">
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Scope</t>
   </si>
@@ -134,31 +134,16 @@
     <t>MonthYear</t>
   </si>
   <si>
-    <t>RETAILER</t>
-  </si>
-  <si>
     <t>Grand Total</t>
   </si>
   <si>
     <t>Value Sales</t>
   </si>
   <si>
-    <t>Walmart</t>
-  </si>
-  <si>
-    <t>Out Of Scope</t>
-  </si>
-  <si>
     <t>Manual Shave Men Total</t>
   </si>
   <si>
-    <t>Out Of Scope Total</t>
-  </si>
-  <si>
     <t>Top Companies</t>
-  </si>
-  <si>
-    <t>Edgewell Personal Care</t>
   </si>
   <si>
     <t>Jan-23</t>
@@ -240,6 +225,15 @@
   </si>
   <si>
     <t>Mar-25</t>
+  </si>
+  <si>
+    <t>REGIONS</t>
+  </si>
+  <si>
+    <t>Walmart West</t>
+  </si>
+  <si>
+    <t>Pbg</t>
   </si>
 </sst>
 </file>
@@ -768,13 +762,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Aleaa salah" refreshedDate="45887.581377893519" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="BW4SA" refreshedDate="45889.631383564818" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="9">
     <cacheField name="[Products].[Category].[Category]" caption="Category" numFmtId="0" hierarchy="81" level="1">
-      <sharedItems count="2">
+      <sharedItems count="1">
         <s v="[Products].[Category].&amp;[Manual Shave Men]" c="Manual Shave Men"/>
-        <s v="[Products].[Category].&amp;[Out Of Scope]" c="Out Of Scope"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Calendar].[MonthYear].[MonthYear]" caption="MonthYear" numFmtId="0" hierarchy="35" level="1">
@@ -3694,13 +3687,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="3560" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A16:C73" firstHeaderRow="1" firstDataRow="1" firstDataCol="2" rowPageCount="6" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="8854" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A16:C45" firstHeaderRow="1" firstDataRow="1" firstDataCol="2" rowPageCount="6" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="3">
+      <items count="2">
         <item x="0"/>
-        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3772,7 +3764,7 @@
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="57">
+  <rowItems count="29">
     <i>
       <x/>
       <x/>
@@ -3858,91 +3850,6 @@
     <i t="default">
       <x/>
     </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="18"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-    </i>
-    <i r="1">
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="21"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x v="23"/>
-    </i>
-    <i r="1">
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x v="25"/>
-    </i>
-    <i r="1">
-      <x v="26"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
@@ -3951,12 +3858,12 @@
     <i/>
   </colItems>
   <pageFields count="6">
-    <pageField fld="2" hier="110" name="[Products].[Top Companies].&amp;[Edgewell Personal Care]" cap="Edgewell Personal Care"/>
+    <pageField fld="2" hier="110" name="[Products].[Top Companies].&amp;[Pbg]" cap="Pbg"/>
     <pageField fld="3" hier="145" name="[Scope].[Scope].[All]" cap="All"/>
-    <pageField fld="4" hier="58" name="[Market].[Area].&amp;[RETAILER]" cap="RETAILER"/>
-    <pageField fld="5" hier="64" name="[Market].[Region].&amp;[Walmart]" cap="Walmart"/>
+    <pageField fld="4" hier="58" name="[Market].[Area].&amp;[REGIONS]" cap="REGIONS"/>
+    <pageField fld="5" hier="64" name="[Market].[Region].[All]" cap="All"/>
     <pageField fld="6" hier="59" name="[Market].[Channel].[All]" cap="All"/>
-    <pageField fld="7" hier="63" name="[Market].[Market].[All]" cap="All"/>
+    <pageField fld="7" hier="63" name="[Market].[Market].&amp;[Walmart West]" cap="Walmart West"/>
   </pageFields>
   <dataFields count="1">
     <dataField fld="8" baseField="0" baseItem="0"/>
@@ -6930,76 +6837,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A9:C73"/>
+  <dimension ref="A9:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="35" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="97" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="35" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="97" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="18" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s" vm="6">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" t="s" vm="5">
+      <c r="B10" t="s" vm="2">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B11" t="s" vm="3">
-        <v>9</v>
+      <c r="B11" t="s" vm="4">
+        <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12" t="s" vm="4">
-        <v>12</v>
+      <c r="B12" t="s" vm="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -7007,15 +6914,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" t="s" vm="2">
-        <v>1</v>
+      <c r="B14" t="s" vm="5">
+        <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -7023,469 +6930,242 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2">
+        <v>414163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2">
+        <v>390655</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2">
+        <v>412049</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <v>419390</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2">
+        <v>520094</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="2">
-        <v>3019567</v>
+      <c r="C22" s="2">
+        <v>546562</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="2">
-        <v>2808519</v>
+      <c r="C23" s="2">
+        <v>571587</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="2">
-        <v>3153501</v>
+      <c r="C24" s="2">
+        <v>566872</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="2">
-        <v>3006448</v>
+      <c r="C25" s="2">
+        <v>531557</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="2">
-        <v>3048850</v>
+      <c r="C26" s="2">
+        <v>512667</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="2">
-        <v>3081972</v>
+      <c r="C27" s="2">
+        <v>472183</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="2">
-        <v>3287209</v>
+      <c r="C28" s="2">
+        <v>500551</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="2">
-        <v>3299141</v>
+      <c r="C29" s="2">
+        <v>484113</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="2">
-        <v>3001550</v>
+      <c r="C30" s="2">
+        <v>480111</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="2">
-        <v>3263613</v>
+      <c r="C31" s="2">
+        <v>517292</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="2">
-        <v>3398292</v>
+      <c r="C32" s="2">
+        <v>496034</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="2">
-        <v>5486727</v>
+      <c r="C33" s="2">
+        <v>535364</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="2">
-        <v>2636614</v>
+      <c r="C34" s="2">
+        <v>559462</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="2">
-        <v>2716620</v>
+      <c r="C35" s="2">
+        <v>575343</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="2">
-        <v>2882019</v>
+      <c r="C36" s="2">
+        <v>581119</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="2">
-        <v>2721873</v>
+      <c r="C37" s="2">
+        <v>528746</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="2">
-        <v>2788564</v>
+      <c r="C38" s="2">
+        <v>521009</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="2">
-        <v>2697505</v>
+      <c r="C39" s="2">
+        <v>469661</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="2">
-        <v>2809765</v>
+      <c r="C40" s="2">
+        <v>478263</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="2">
-        <v>2741468</v>
+      <c r="C41" s="2">
+        <v>446013</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="2">
-        <v>2520153</v>
+      <c r="C42" s="2">
+        <v>419250</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="2">
-        <v>2840066</v>
+      <c r="C43" s="2">
+        <v>499777</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="2">
-        <v>2964135</v>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="2">
+        <v>13449887</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="2">
-        <v>4434816</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="2">
-        <v>2368314</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="2">
-        <v>2222040</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="2">
-        <v>2674847</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="2">
-        <v>81874188</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C45" s="2">
-        <v>2219741</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="2">
-        <v>2166678</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" s="2">
-        <v>2607569</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="2">
-        <v>2570171</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" s="2">
-        <v>2722090</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="2">
-        <v>2771646</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="2">
-        <v>2853462</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="2">
-        <v>2923898</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="2">
-        <v>2606097</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" s="2">
-        <v>2624325</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C55" s="2">
-        <v>2455991</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="2">
-        <v>2958362</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>30</v>
-      </c>
-      <c r="C57" s="2">
-        <v>2360492</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>31</v>
-      </c>
-      <c r="C58" s="2">
-        <v>2161851</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="2">
-        <v>2147170</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>33</v>
-      </c>
-      <c r="C60" s="2">
-        <v>2003062</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>34</v>
-      </c>
-      <c r="C61" s="2">
-        <v>1957610</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62" s="2">
-        <v>1891575</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>36</v>
-      </c>
-      <c r="C63" s="2">
-        <v>1869678</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" s="2">
-        <v>1880526</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>38</v>
-      </c>
-      <c r="C65" s="2">
-        <v>1719792</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>39</v>
-      </c>
-      <c r="C66" s="2">
-        <v>1768061</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67" s="2">
-        <v>1686405</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>41</v>
-      </c>
-      <c r="C68" s="2">
-        <v>2087488</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>42</v>
-      </c>
-      <c r="C69" s="2">
-        <v>1692691</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>43</v>
-      </c>
-      <c r="C70" s="2">
-        <v>1552610</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>44</v>
-      </c>
-      <c r="C71" s="2">
-        <v>1824722</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" s="2">
-        <v>60083763</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" s="2">
-        <v>141957951</v>
+        <v>13449887</v>
       </c>
     </row>
   </sheetData>

--- a/Edgewell US Male Dataset.xlsx
+++ b/Edgewell US Male Dataset.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\BW4SA\Documents\Slide-Automate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7823C632-7EEA-46F5-9D8A-04B8ED0B8717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6584C25D-4C17-42BE-8137-1AA2D3BFD68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="8854" r:id="rId2"/>
+    <pivotCache cacheId="4989" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,16 +52,21 @@
   <metadataTypes count="1">
     <metadataType name="XLMDX" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <metadataStrings count="7">
+  <metadataStrings count="12">
     <s v="pbiazure://api.powerbi.com e378e301-2498-4932-9987-fbfe08fd72f4 Model"/>
     <s v="{[Market].[Channel].[All]}"/>
-    <s v="{[Scope].[Scope].[All]}"/>
-    <s v="{[Market].[Region].[All]}"/>
-    <s v="{[Market].[Area].&amp;[REGIONS]}"/>
-    <s v="{[Market].[Market].&amp;[Walmart West]}"/>
-    <s v="{[Products].[Top Companies].&amp;[Pbg]}"/>
+    <s v="{[Products].[SubSegment].[All]}"/>
+    <s v="{[Products].[SubCategory].[All]}"/>
+    <s v="{[Products].[Category].&amp;[Manual Shave Men]}"/>
+    <s v="{[Market].[Market].[All]}"/>
+    <s v="{[Market].[Area].&amp;[CHANNEL]}"/>
+    <s v="{[Market].[Region].&amp;[Food]}"/>
+    <s v="{[Time Logic].[Time Period].&amp;[P12M]}"/>
+    <s v="{[Scope].[Scope].&amp;[Sector]}"/>
+    <s v="{[Products].[Segment].[All]}"/>
+    <s v="{[Products].[Sector].&amp;[Disposables]}"/>
   </metadataStrings>
-  <mdxMetadata count="6">
+  <mdxMetadata count="11">
     <mdx n="0" f="s">
       <ms ns="1" c="0"/>
     </mdx>
@@ -80,8 +85,23 @@
     <mdx n="0" f="s">
       <ms ns="6" c="0"/>
     </mdx>
+    <mdx n="0" f="s">
+      <ms ns="7" c="0"/>
+    </mdx>
+    <mdx n="0" f="s">
+      <ms ns="8" c="0"/>
+    </mdx>
+    <mdx n="0" f="s">
+      <ms ns="9" c="0"/>
+    </mdx>
+    <mdx n="0" f="s">
+      <ms ns="10" c="0"/>
+    </mdx>
+    <mdx n="0" f="s">
+      <ms ns="11" c="0"/>
+    </mdx>
   </mdxMetadata>
-  <valueMetadata count="6">
+  <valueMetadata count="11">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -100,12 +120,27 @@
     <bk>
       <rc t="1" v="5"/>
     </bk>
+    <bk>
+      <rc t="1" v="6"/>
+    </bk>
+    <bk>
+      <rc t="1" v="7"/>
+    </bk>
+    <bk>
+      <rc t="1" v="8"/>
+    </bk>
+    <bk>
+      <rc t="1" v="9"/>
+    </bk>
+    <bk>
+      <rc t="1" v="10"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="90">
   <si>
     <t>Scope</t>
   </si>
@@ -119,10 +154,40 @@
     <t>Area</t>
   </si>
   <si>
-    <t>Region</t>
+    <t>Grand Total</t>
   </si>
   <si>
-    <t>Manual Shave Men</t>
+    <t>Bic</t>
+  </si>
+  <si>
+    <t>Equate</t>
+  </si>
+  <si>
+    <t>Gillette</t>
+  </si>
+  <si>
+    <t>Harry's</t>
+  </si>
+  <si>
+    <t>Schick</t>
+  </si>
+  <si>
+    <t>Bic Total</t>
+  </si>
+  <si>
+    <t>Equate Total</t>
+  </si>
+  <si>
+    <t>Gillette Total</t>
+  </si>
+  <si>
+    <t>Harry's Total</t>
+  </si>
+  <si>
+    <t>Schick Total</t>
+  </si>
+  <si>
+    <t>Region</t>
   </si>
   <si>
     <t>Channel</t>
@@ -131,115 +196,229 @@
     <t>Market</t>
   </si>
   <si>
-    <t>MonthYear</t>
+    <t>Sector</t>
   </si>
   <si>
-    <t>Grand Total</t>
+    <t>Segment</t>
   </si>
   <si>
-    <t>Value Sales</t>
+    <t>SubSegment</t>
   </si>
   <si>
-    <t>Manual Shave Men Total</t>
+    <t>SubCategory</t>
   </si>
   <si>
-    <t>Top Companies</t>
+    <t>Value Share</t>
   </si>
   <si>
-    <t>Jan-23</t>
+    <t>Values</t>
   </si>
   <si>
-    <t>Feb-23</t>
+    <t>Manual Shave Men</t>
   </si>
   <si>
-    <t>Mar-23</t>
+    <t>Disposables</t>
   </si>
   <si>
-    <t>Apr-23</t>
+    <t>Time Period</t>
   </si>
   <si>
-    <t>May-23</t>
+    <t>CHANNEL</t>
   </si>
   <si>
-    <t>Jun-23</t>
+    <t>Food</t>
   </si>
   <si>
-    <t>Jul-23</t>
+    <t>P12M</t>
   </si>
   <si>
-    <t>Aug-23</t>
+    <t>Brand</t>
   </si>
   <si>
-    <t>Sep-23</t>
+    <t>Private Label</t>
   </si>
   <si>
-    <t>Oct-23</t>
+    <t>Assured</t>
   </si>
   <si>
-    <t>Nov-23</t>
+    <t>Assured For Men</t>
   </si>
   <si>
-    <t>Dec-23</t>
+    <t>Barbasol</t>
   </si>
   <si>
-    <t>Jan-24</t>
+    <t>Body Basic Essential</t>
   </si>
   <si>
-    <t>Feb-24</t>
+    <t>Care For Men</t>
   </si>
   <si>
-    <t>Mar-24</t>
+    <t>Goodsense</t>
   </si>
   <si>
-    <t>Apr-24</t>
+    <t>Handy Solutions</t>
   </si>
   <si>
-    <t>May-24</t>
+    <t>Health Smart</t>
   </si>
   <si>
-    <t>Jun-24</t>
+    <t>Lil Drugstore</t>
   </si>
   <si>
-    <t>Jul-24</t>
+    <t>Lil Necessities</t>
   </si>
   <si>
-    <t>Aug-24</t>
+    <t>Nobrand</t>
   </si>
   <si>
-    <t>Sep-24</t>
+    <t>Old Spice</t>
   </si>
   <si>
-    <t>Oct-24</t>
+    <t>Pace Br</t>
   </si>
   <si>
-    <t>Nov-24</t>
+    <t>Pacific</t>
   </si>
   <si>
-    <t>Dec-24</t>
+    <t>Pbg Pl</t>
   </si>
   <si>
-    <t>Jan-25</t>
+    <t>Personna</t>
   </si>
   <si>
-    <t>Feb-25</t>
+    <t>Rem Brands</t>
   </si>
   <si>
-    <t>Mar-25</t>
+    <t>Rem Gillette</t>
   </si>
   <si>
-    <t>REGIONS</t>
+    <t>Rm Cleanshave</t>
   </si>
   <si>
-    <t>Walmart West</t>
+    <t>Supermax</t>
   </si>
   <si>
-    <t>Pbg</t>
+    <t>Supermax 2</t>
+  </si>
+  <si>
+    <t>Turtle Nose</t>
+  </si>
+  <si>
+    <t>Ultra Max</t>
+  </si>
+  <si>
+    <t>Valet</t>
+  </si>
+  <si>
+    <t>Xtra Care</t>
+  </si>
+  <si>
+    <t>Assured Total</t>
+  </si>
+  <si>
+    <t>Assured For Men Total</t>
+  </si>
+  <si>
+    <t>Barbasol Total</t>
+  </si>
+  <si>
+    <t>Body Basic Essential Total</t>
+  </si>
+  <si>
+    <t>Care For Men Total</t>
+  </si>
+  <si>
+    <t>Goodsense Total</t>
+  </si>
+  <si>
+    <t>Handy Solutions Total</t>
+  </si>
+  <si>
+    <t>Health Smart Total</t>
+  </si>
+  <si>
+    <t>Lil Drugstore Total</t>
+  </si>
+  <si>
+    <t>Lil Necessities Total</t>
+  </si>
+  <si>
+    <t>Nobrand Total</t>
+  </si>
+  <si>
+    <t>Old Spice Total</t>
+  </si>
+  <si>
+    <t>Pace Br Total</t>
+  </si>
+  <si>
+    <t>Pacific Total</t>
+  </si>
+  <si>
+    <t>Pbg Pl Total</t>
+  </si>
+  <si>
+    <t>Personna Total</t>
+  </si>
+  <si>
+    <t>Private Label Total</t>
+  </si>
+  <si>
+    <t>Rem Brands Total</t>
+  </si>
+  <si>
+    <t>Rem Gillette Total</t>
+  </si>
+  <si>
+    <t>Rm Cleanshave Total</t>
+  </si>
+  <si>
+    <t>Supermax Total</t>
+  </si>
+  <si>
+    <t>Turtle Nose Total</t>
+  </si>
+  <si>
+    <t>Ultra Max Total</t>
+  </si>
+  <si>
+    <t>Xtra Care Total</t>
+  </si>
+  <si>
+    <t>Revenue Group</t>
+  </si>
+  <si>
+    <t>Revenue YA</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Mix</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Discontinued</t>
+  </si>
+  <si>
+    <t>Revenue TY</t>
+  </si>
+  <si>
+    <t>Revenue By PVM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%;\-0.0%;0.0%"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -699,9 +878,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -762,49 +942,59 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="BW4SA" refreshedDate="45889.631383564818" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="BW4SA" refreshedDate="45895.400227199076" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="9">
-    <cacheField name="[Products].[Category].[Category]" caption="Category" numFmtId="0" hierarchy="81" level="1">
-      <sharedItems count="1">
-        <s v="[Products].[Category].&amp;[Manual Shave Men]" c="Manual Shave Men"/>
+  <cacheFields count="15">
+    <cacheField name="[Products].[Brand].[Brand]" caption="Brand" numFmtId="0" hierarchy="76" level="1">
+      <sharedItems count="31">
+        <s v="[Products].[Brand].&amp;[Assured]" c="Assured"/>
+        <s v="[Products].[Brand].&amp;[Assured For Men]" c="Assured For Men"/>
+        <s v="[Products].[Brand].&amp;[Barbasol]" c="Barbasol"/>
+        <s v="[Products].[Brand].&amp;[Bic]" c="Bic"/>
+        <s v="[Products].[Brand].&amp;[Body Basic Essential]" c="Body Basic Essential"/>
+        <s v="[Products].[Brand].&amp;[Care For Men]" c="Care For Men"/>
+        <s v="[Products].[Brand].&amp;[Equate]" c="Equate"/>
+        <s v="[Products].[Brand].&amp;[Gillette]" c="Gillette"/>
+        <s v="[Products].[Brand].&amp;[Goodsense]" c="Goodsense"/>
+        <s v="[Products].[Brand].&amp;[Handy Solutions]" c="Handy Solutions"/>
+        <s v="[Products].[Brand].&amp;[Harry's]" c="Harry's"/>
+        <s v="[Products].[Brand].&amp;[Health Smart]" c="Health Smart"/>
+        <s v="[Products].[Brand].&amp;[Lil Drugstore]" c="Lil Drugstore"/>
+        <s v="[Products].[Brand].&amp;[Lil Necessities]" c="Lil Necessities"/>
+        <s v="[Products].[Brand].&amp;[Nobrand]" c="Nobrand"/>
+        <s v="[Products].[Brand].&amp;[Old Spice]" c="Old Spice"/>
+        <s v="[Products].[Brand].&amp;[Pace Br]" c="Pace Br"/>
+        <s v="[Products].[Brand].&amp;[Pacific]" c="Pacific"/>
+        <s v="[Products].[Brand].&amp;[Pbg Pl]" c="Pbg Pl"/>
+        <s v="[Products].[Brand].&amp;[Personna]" c="Personna"/>
+        <s v="[Products].[Brand].&amp;[Private Label]" c="Private Label"/>
+        <s v="[Products].[Brand].&amp;[Rem Brands]" c="Rem Brands"/>
+        <s v="[Products].[Brand].&amp;[Rem Gillette]" c="Rem Gillette"/>
+        <s v="[Products].[Brand].&amp;[Rm Cleanshave]" c="Rm Cleanshave"/>
+        <s v="[Products].[Brand].&amp;[Schick]" c="Schick"/>
+        <s v="[Products].[Brand].&amp;[Supermax]" c="Supermax"/>
+        <s v="[Products].[Brand].&amp;[Supermax 2]" c="Supermax 2"/>
+        <s v="[Products].[Brand].&amp;[Turtle Nose]" c="Turtle Nose"/>
+        <s v="[Products].[Brand].&amp;[Ultra Max]" c="Ultra Max"/>
+        <s v="[Products].[Brand].&amp;[Valet]" c="Valet"/>
+        <s v="[Products].[Brand].&amp;[Xtra Care]" c="Xtra Care"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Calendar].[MonthYear].[MonthYear]" caption="MonthYear" numFmtId="0" hierarchy="35" level="1">
-      <sharedItems count="27">
-        <s v="[Calendar].[MonthYear].&amp;[Jan-23]" c="Jan-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Feb-23]" c="Feb-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Mar-23]" c="Mar-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Apr-23]" c="Apr-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[May-23]" c="May-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Jun-23]" c="Jun-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Jul-23]" c="Jul-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Aug-23]" c="Aug-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Sep-23]" c="Sep-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Oct-23]" c="Oct-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Nov-23]" c="Nov-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Dec-23]" c="Dec-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Jan-24]" c="Jan-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Feb-24]" c="Feb-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Mar-24]" c="Mar-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Apr-24]" c="Apr-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[May-24]" c="May-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Jun-24]" c="Jun-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Jul-24]" c="Jul-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Aug-24]" c="Aug-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Sep-24]" c="Sep-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Oct-24]" c="Oct-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Nov-24]" c="Nov-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Dec-24]" c="Dec-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Jan-25]" c="Jan-25"/>
-        <s v="[Calendar].[MonthYear].&amp;[Feb-25]" c="Feb-25"/>
-        <s v="[Calendar].[MonthYear].&amp;[Mar-25]" c="Mar-25"/>
+    <cacheField name="[PVM].[Revenue Group].[Revenue Group]" caption="Revenue Group" numFmtId="0" hierarchy="141" level="1">
+      <sharedItems count="7">
+        <s v="[PVM].[Revenue Group].&amp;[Revenue YA]" c="Revenue YA"/>
+        <s v="[PVM].[Revenue Group].&amp;[Price]" c="Price"/>
+        <s v="[PVM].[Revenue Group].&amp;[Volume]" c="Volume"/>
+        <s v="[PVM].[Revenue Group].&amp;[Mix]" c="Mix"/>
+        <s v="[PVM].[Revenue Group].&amp;[New]" c="New"/>
+        <s v="[PVM].[Revenue Group].&amp;[Discontinued]" c="Discontinued"/>
+        <s v="[PVM].[Revenue Group].&amp;[Revenue TY]" c="Revenue TY"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Products].[Top Companies].[Top Companies]" caption="Top Companies" numFmtId="0" hierarchy="110" level="1">
+    <cacheField name="[Scope].[Scope].[Scope]" caption="Scope" numFmtId="0" hierarchy="145" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[Scope].[Scope].[Scope]" caption="Scope" numFmtId="0" hierarchy="145" level="1">
+    <cacheField name="[Products].[Category].[Category]" caption="Category" numFmtId="0" hierarchy="81" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[Market].[Area].[Area]" caption="Area" numFmtId="0" hierarchy="58" level="1">
@@ -819,7 +1009,23 @@
     <cacheField name="[Market].[Market].[Market]" caption="Market" numFmtId="0" hierarchy="63" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[Measures].[Value Sales]" caption="Value Sales" numFmtId="0" hierarchy="448" level="32767"/>
+    <cacheField name="[Time Logic].[Time Period].[Time Period]" caption="Time Period" numFmtId="0" hierarchy="149" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Products].[Sector].[Sector]" caption="Sector" numFmtId="0" hierarchy="102" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Products].[Segment].[Segment]" caption="Segment" numFmtId="0" hierarchy="103" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Products].[SubSegment].[SubSegment]" caption="SubSegment" numFmtId="0" hierarchy="108" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Products].[SubCategory].[SubCategory]" caption="SubCategory" numFmtId="0" hierarchy="107" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Measures].[Revenue By PVM]" caption="Revenue By PVM" numFmtId="0" hierarchy="1725" level="32767"/>
+    <cacheField name="[Measures].[Value Share]" caption="Value Share" numFmtId="0" hierarchy="639" level="32767"/>
   </cacheFields>
   <cacheHierarchies count="2657">
     <cacheHierarchy uniqueName="[2nd Measure Table].[Measures]" caption="Measures" attribute="1" defaultMemberUniqueName="[2nd Measure Table].[Measures].[All]" allUniqueName="[2nd Measure Table].[Measures].[All]" dimensionUniqueName="[2nd Measure Table]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -857,12 +1063,7 @@
     <cacheHierarchy uniqueName="[Calendar].[MonthLong]" caption="MonthLong" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthLong].[All]" allUniqueName="[Calendar].[MonthLong].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[MonthNum]" caption="MonthNum" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthNum].[All]" allUniqueName="[Calendar].[MonthNum].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[MonthStart]" caption="MonthStart" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthStart].[All]" allUniqueName="[Calendar].[MonthStart].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[MonthYear]" caption="MonthYear" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthYear].[All]" allUniqueName="[Calendar].[MonthYear].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Calendar].[MonthYear]" caption="MonthYear" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthYear].[All]" allUniqueName="[Calendar].[MonthYear].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[MonthYearLong]" caption="MonthYearLong" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthYearLong].[All]" allUniqueName="[Calendar].[MonthYearLong].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[MonthYearNum]" caption="MonthYearNum" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthYearNum].[All]" allUniqueName="[Calendar].[MonthYearNum].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[Quarter]" caption="Quarter" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[Quarter].[All]" allUniqueName="[Calendar].[Quarter].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -923,7 +1124,12 @@
     <cacheHierarchy uniqueName="[ProductNames].[ProductMaster]" caption="ProductMaster" attribute="1" defaultMemberUniqueName="[ProductNames].[ProductMaster].[All]" allUniqueName="[ProductNames].[ProductMaster].[All]" dimensionUniqueName="[ProductNames]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[ProductNames].[ProductName]" caption="ProductName" attribute="1" defaultMemberUniqueName="[ProductNames].[ProductName].[All]" allUniqueName="[ProductNames].[ProductName].[All]" dimensionUniqueName="[ProductNames]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[ProductNames].[SourceName]" caption="SourceName" attribute="1" defaultMemberUniqueName="[ProductNames].[SourceName].[All]" allUniqueName="[ProductNames].[SourceName].[All]" dimensionUniqueName="[ProductNames]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Brand]" caption="Brand" attribute="1" defaultMemberUniqueName="[Products].[Brand].[All]" allUniqueName="[Products].[Brand].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Brand]" caption="Brand" attribute="1" defaultMemberUniqueName="[Products].[Brand].[All]" allUniqueName="[Products].[Brand].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[Brand Logo URL]" caption="Brand Logo URL" attribute="1" defaultMemberUniqueName="[Products].[Brand Logo URL].[All]" allUniqueName="[Products].[Brand Logo URL].[All]" dimensionUniqueName="[Products]" displayFolder="Images" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[BrandType]" caption="BrandType" attribute="1" defaultMemberUniqueName="[Products].[BrandType].[All]" allUniqueName="[Products].[BrandType].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Bundle]" caption="Bundle" attribute="1" defaultMemberUniqueName="[Products].[Bundle].[All]" allUniqueName="[Products].[Bundle].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -931,7 +1137,7 @@
     <cacheHierarchy uniqueName="[Products].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Products].[Category].[All]" allUniqueName="[Products].[Category].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
+        <fieldUsage x="3"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[Category Hierarchy]" caption="Category Hierarchy" defaultMemberUniqueName="[Products].[Category Hierarchy].[All]" allUniqueName="[Products].[Category Hierarchy].[All]" dimensionUniqueName="[Products]" displayFolder="" count="6" unbalanced="0"/>
@@ -954,20 +1160,35 @@
     <cacheHierarchy uniqueName="[Products].[Portion Size]" caption="Portion Size" attribute="1" defaultMemberUniqueName="[Products].[Portion Size].[All]" allUniqueName="[Products].[Portion Size].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Portion Size Bracket]" caption="Portion Size Bracket" attribute="1" defaultMemberUniqueName="[Products].[Portion Size Bracket].[All]" allUniqueName="[Products].[Portion Size Bracket].[All]" dimensionUniqueName="[Products]" displayFolder="Brackets" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Product]" caption="Product" attribute="1" defaultMemberUniqueName="[Products].[Product].[All]" allUniqueName="[Products].[Product].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Sector]" caption="Sector" attribute="1" defaultMemberUniqueName="[Products].[Sector].[All]" allUniqueName="[Products].[Sector].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Segment]" caption="Segment" attribute="1" defaultMemberUniqueName="[Products].[Segment].[All]" allUniqueName="[Products].[Segment].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Sector]" caption="Sector" attribute="1" defaultMemberUniqueName="[Products].[Sector].[All]" allUniqueName="[Products].[Sector].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="9"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Products].[Segment]" caption="Segment" attribute="1" defaultMemberUniqueName="[Products].[Segment].[All]" allUniqueName="[Products].[Segment].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="10"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[SKU]" caption="SKU" attribute="1" defaultMemberUniqueName="[Products].[SKU].[All]" allUniqueName="[Products].[SKU].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Store Link]" caption="Store Link" attribute="1" defaultMemberUniqueName="[Products].[Store Link].[All]" allUniqueName="[Products].[Store Link].[All]" dimensionUniqueName="[Products]" displayFolder="Images" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[SubBrand]" caption="SubBrand" attribute="1" defaultMemberUniqueName="[Products].[SubBrand].[All]" allUniqueName="[Products].[SubBrand].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[SubCategory]" caption="SubCategory" attribute="1" defaultMemberUniqueName="[Products].[SubCategory].[All]" allUniqueName="[Products].[SubCategory].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[SubSegment]" caption="SubSegment" attribute="1" defaultMemberUniqueName="[Products].[SubSegment].[All]" allUniqueName="[Products].[SubSegment].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Top Brands]" caption="Top Brands" attribute="1" defaultMemberUniqueName="[Products].[Top Brands].[All]" allUniqueName="[Products].[Top Brands].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Top Companies]" caption="Top Companies" attribute="1" defaultMemberUniqueName="[Products].[Top Companies].[All]" allUniqueName="[Products].[Top Companies].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0">
+    <cacheHierarchy uniqueName="[Products].[SubCategory]" caption="SubCategory" attribute="1" defaultMemberUniqueName="[Products].[SubCategory].[All]" allUniqueName="[Products].[SubCategory].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
+        <fieldUsage x="12"/>
       </fieldsUsage>
     </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Products].[SubSegment]" caption="SubSegment" attribute="1" defaultMemberUniqueName="[Products].[SubSegment].[All]" allUniqueName="[Products].[SubSegment].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="11"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Products].[Top Brands]" caption="Top Brands" attribute="1" defaultMemberUniqueName="[Products].[Top Brands].[All]" allUniqueName="[Products].[Top Brands].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Top Companies]" caption="Top Companies" attribute="1" defaultMemberUniqueName="[Products].[Top Companies].[All]" allUniqueName="[Products].[Top Companies].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Total Size]" caption="Total Size" attribute="1" defaultMemberUniqueName="[Products].[Total Size].[All]" allUniqueName="[Products].[Total Size].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[UnitOfMeasure]" caption="UnitOfMeasure" attribute="1" defaultMemberUniqueName="[Products].[UnitOfMeasure].[All]" allUniqueName="[Products].[UnitOfMeasure].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Variant]" caption="Variant" attribute="1" defaultMemberUniqueName="[Products].[Variant].[All]" allUniqueName="[Products].[Variant].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -998,20 +1219,30 @@
     <cacheHierarchy uniqueName="[Promo Events].[StartDate]" caption="StartDate" attribute="1" time="1" defaultMemberUniqueName="[Promo Events].[StartDate].[All]" allUniqueName="[Promo Events].[StartDate].[All]" dimensionUniqueName="[Promo Events]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Promo Price Bracket].[Promo Price Bracket]" caption="Promo Price Bracket" attribute="1" defaultMemberUniqueName="[Promo Price Bracket].[Promo Price Bracket].[All]" allUniqueName="[Promo Price Bracket].[Promo Price Bracket].[All]" dimensionUniqueName="[Promo Price Bracket]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Promo Price Ladder].[Promo Price Group]" caption="Promo Price Group" attribute="1" defaultMemberUniqueName="[Promo Price Ladder].[Promo Price Group].[All]" allUniqueName="[Promo Price Ladder].[Promo Price Group].[All]" dimensionUniqueName="[Promo Price Ladder]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[PVM].[Revenue Group]" caption="Revenue Group" attribute="1" defaultMemberUniqueName="[PVM].[Revenue Group].[All]" allUniqueName="[PVM].[Revenue Group].[All]" dimensionUniqueName="[PVM]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[PVM].[Revenue Group]" caption="Revenue Group" attribute="1" defaultMemberUniqueName="[PVM].[Revenue Group].[All]" allUniqueName="[PVM].[Revenue Group].[All]" dimensionUniqueName="[PVM]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Quadrant].[Description]" caption="Description" attribute="1" defaultMemberUniqueName="[Quadrant].[Description].[All]" allUniqueName="[Quadrant].[Description].[All]" dimensionUniqueName="[Quadrant]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Quadrant].[Quadrant]" caption="Quadrant" attribute="1" defaultMemberUniqueName="[Quadrant].[Quadrant].[All]" allUniqueName="[Quadrant].[Quadrant].[All]" dimensionUniqueName="[Quadrant]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Rolling Sales].[Rolling Period]" caption="Rolling Period" attribute="1" defaultMemberUniqueName="[Rolling Sales].[Rolling Period].[All]" allUniqueName="[Rolling Sales].[Rolling Period].[All]" dimensionUniqueName="[Rolling Sales]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Scope].[Scope]" caption="Scope" attribute="1" defaultMemberUniqueName="[Scope].[Scope].[All]" allUniqueName="[Scope].[Scope].[All]" dimensionUniqueName="[Scope]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="3"/>
+        <fieldUsage x="2"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Shelf Price Ladder].[Shelf Price Group]" caption="Shelf Price Group" attribute="1" defaultMemberUniqueName="[Shelf Price Ladder].[Shelf Price Group].[All]" allUniqueName="[Shelf Price Ladder].[Shelf Price Group].[All]" dimensionUniqueName="[Shelf Price Ladder]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Time Logic].[Prior Period]" caption="Prior Period" attribute="1" defaultMemberUniqueName="[Time Logic].[Prior Period].[All]" allUniqueName="[Time Logic].[Prior Period].[All]" dimensionUniqueName="[Time Logic]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Time Logic].[Prior Period Full]" caption="Prior Period Full" attribute="1" defaultMemberUniqueName="[Time Logic].[Prior Period Full].[All]" allUniqueName="[Time Logic].[Prior Period Full].[All]" dimensionUniqueName="[Time Logic]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Time Logic].[Time Period]" caption="Time Period" attribute="1" defaultMemberUniqueName="[Time Logic].[Time Period].[All]" allUniqueName="[Time Logic].[Time Period].[All]" dimensionUniqueName="[Time Logic]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Time Logic].[Time Period]" caption="Time Period" attribute="1" defaultMemberUniqueName="[Time Logic].[Time Period].[All]" allUniqueName="[Time Logic].[Time Period].[All]" dimensionUniqueName="[Time Logic]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="8"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Time Logic].[Time Period Full]" caption="Time Period Full" attribute="1" defaultMemberUniqueName="[Time Logic].[Time Period Full].[All]" allUniqueName="[Time Logic].[Time Period Full].[All]" dimensionUniqueName="[Time Logic]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[VAT].[VAT]" caption="VAT" attribute="1" defaultMemberUniqueName="[VAT].[VAT].[All]" allUniqueName="[VAT].[VAT].[All]" dimensionUniqueName="[VAT]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[2nd Measure Table].[MEAS IX]" caption="MEAS IX" attribute="1" defaultMemberUniqueName="[2nd Measure Table].[MEAS IX].[All]" allUniqueName="[2nd Measure Table].[MEAS IX].[All]" dimensionUniqueName="[2nd Measure Table]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
@@ -1310,11 +1541,7 @@
     <cacheHierarchy uniqueName="[VAT].[VAT SORT]" caption="VAT SORT" attribute="1" defaultMemberUniqueName="[VAT].[VAT SORT].[All]" allUniqueName="[VAT].[VAT SORT].[All]" dimensionUniqueName="[VAT]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[Unit Sales]" caption="Unit Sales" measure="1" displayFolder="Unit Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Sales]" caption="Volume Sales" measure="1" displayFolder="Volume Sales" measureGroup="Sales Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Value Sales]" caption="Value Sales" measure="1" displayFolder="Value Sales" measureGroup="Sales Metrics" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="8"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Value Sales]" caption="Value Sales" measure="1" displayFolder="Value Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Unit Sales PP]" caption="Unit Sales PP" measure="1" displayFolder="Unit Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Unit Sales YA]" caption="Unit Sales YA" measure="1" displayFolder="Unit Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Sales PP]" caption="Volume Sales PP" measure="1" displayFolder="Volume Sales" measureGroup="Sales Metrics" count="0"/>
@@ -1505,7 +1732,11 @@
     <cacheHierarchy uniqueName="[Measures].[Category Value]" caption="Category Value" measure="1" displayFolder="" measureGroup="Market Sales" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Category Volume]" caption="Category Volume" measure="1" displayFolder="" measureGroup="Market Sales" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Company Sales]" caption="Company Sales" measure="1" displayFolder="" measureGroup="Market Sales" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Value Share]" caption="Value Share" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Value Share]" caption="Value Share" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="14"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Volume Share]" caption="Volume Share" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Unit Share]" caption="Unit Share" measure="1" displayFolder="Unit Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Value Share YA]" caption="Value Share YA" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0"/>
@@ -2591,7 +2822,11 @@
     <cacheHierarchy uniqueName="[Measures].[New]" caption="New" measure="1" displayFolder="" measureGroup="PVM" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Price PY]" caption="Price PY" measure="1" displayFolder="" measureGroup="PVM" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Price TY]" caption="Price TY" measure="1" displayFolder="" measureGroup="PVM" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Revenue By PVM]" caption="Revenue By PVM" measure="1" displayFolder="" measureGroup="PVM" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Revenue By PVM]" caption="Revenue By PVM" measure="1" displayFolder="" measureGroup="PVM" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="13"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Revenue PY]" caption="Revenue PY" measure="1" displayFolder="" measureGroup="PVM" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Revenue TY]" caption="Revenue TY" measure="1" displayFolder="" measureGroup="PVM" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Shelf Price PY]" caption="Shelf Price PY" measure="1" displayFolder="" measureGroup="PVM" count="0"/>
@@ -3687,17 +3922,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="8854" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A16:C45" firstHeaderRow="1" firstDataRow="1" firstDataCol="2" rowPageCount="6" colPageCount="1"/>
-  <pivotFields count="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="4989" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A16:D256" firstHeaderRow="1" firstDataRow="2" firstDataCol="2" rowPageCount="11" colPageCount="1"/>
+  <pivotFields count="15">
     <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="28">
+      <items count="32">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -3725,6 +3954,47 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
         <item t="default"/>
       </items>
     </pivotField>
@@ -3759,12 +4029,13 @@
       </items>
     </pivotField>
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="29">
+  <rowItems count="239">
     <i>
       <x/>
       <x/>
@@ -3787,86 +4058,760 @@
     <i r="1">
       <x v="6"/>
     </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="18"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-    </i>
-    <i r="1">
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="21"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x v="23"/>
-    </i>
-    <i r="1">
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x v="25"/>
-    </i>
-    <i r="1">
-      <x v="26"/>
-    </i>
     <i t="default">
       <x/>
     </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="27"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="30"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="30"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <pageFields count="6">
-    <pageField fld="2" hier="110" name="[Products].[Top Companies].&amp;[Pbg]" cap="Pbg"/>
-    <pageField fld="3" hier="145" name="[Scope].[Scope].[All]" cap="All"/>
-    <pageField fld="4" hier="58" name="[Market].[Area].&amp;[REGIONS]" cap="REGIONS"/>
-    <pageField fld="5" hier="64" name="[Market].[Region].[All]" cap="All"/>
+  <pageFields count="11">
+    <pageField fld="2" hier="145" name="[Scope].[Scope].&amp;[Sector]" cap="Sector"/>
+    <pageField fld="3" hier="81" name="[Products].[Category].&amp;[Manual Shave Men]" cap="Manual Shave Men"/>
+    <pageField fld="4" hier="58" name="[Market].[Area].&amp;[CHANNEL]" cap="CHANNEL"/>
+    <pageField fld="5" hier="64" name="[Market].[Region].&amp;[Food]" cap="Food"/>
     <pageField fld="6" hier="59" name="[Market].[Channel].[All]" cap="All"/>
-    <pageField fld="7" hier="63" name="[Market].[Market].&amp;[Walmart West]" cap="Walmart West"/>
+    <pageField fld="7" hier="63" name="[Market].[Market].[All]" cap="All"/>
+    <pageField fld="8" hier="149" name="[Time Logic].[Time Period].&amp;[P12M]" cap="P12M"/>
+    <pageField fld="9" hier="102" name="[Products].[Sector].&amp;[Disposables]" cap="Disposables"/>
+    <pageField fld="10" hier="103" name="[Products].[Segment].[All]" cap="All"/>
+    <pageField fld="11" hier="108" name="[Products].[SubSegment].[All]" cap="All"/>
+    <pageField fld="12" hier="107" name="[Products].[SubCategory].[All]" cap="All"/>
   </pageFields>
-  <dataFields count="1">
-    <dataField fld="8" baseField="0" baseItem="0"/>
+  <dataFields count="2">
+    <dataField fld="13" baseField="0" baseItem="0"/>
+    <dataField fld="14" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotHierarchies count="2657">
     <pivotHierarchy/>
@@ -6529,9 +7474,12 @@
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleMedium21" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="81"/>
-    <rowHierarchyUsage hierarchyUsage="35"/>
+    <rowHierarchyUsage hierarchyUsage="76"/>
+    <rowHierarchyUsage hierarchyUsage="141"/>
   </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
   <extLst>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
@@ -6837,335 +7785,2772 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A9:C45"/>
+  <dimension ref="A4:D256"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="35" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="97" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="18" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17" bestFit="1" customWidth="1"/>
+    <col min="30" max="97" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="15" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s" vm="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s" vm="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s" vm="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s" vm="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s" vm="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s" vm="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s" vm="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" vm="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s" vm="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s" vm="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s" vm="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="3">
+        <v>130</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3.0573720662332803E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="3">
+        <v>-2.2343999999999755</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3.0573720662332803E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="3">
+        <v>196.22399999999999</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3.0573720662332803E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1.0399999999975762E-2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3.0573720662332803E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="3">
+        <v>14</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3.0573720662332803E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2">
+        <v>3.0573720662332803E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="3">
+        <v>338</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3.0573720662332803E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="3">
+        <v>338</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3.0573720662332803E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="3">
+        <v>66</v>
+      </c>
+      <c r="D26" s="2">
+        <v>6.1599715298960472E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="3">
+        <v>-16.104799999999969</v>
+      </c>
+      <c r="D27" s="2">
+        <v>6.1599715298960472E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="3">
+        <v>609.125</v>
+      </c>
+      <c r="D28" s="2">
+        <v>6.1599715298960472E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="3">
+        <v>-2.0200000000045293E-2</v>
+      </c>
+      <c r="D29" s="2">
+        <v>6.1599715298960472E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="3">
+        <v>22</v>
+      </c>
+      <c r="D30" s="2">
+        <v>6.1599715298960472E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="2">
+        <v>6.1599715298960472E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="3">
+        <v>681</v>
+      </c>
+      <c r="D32" s="2">
+        <v>6.1599715298960472E-6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="3">
+        <v>681</v>
+      </c>
+      <c r="D33" s="2">
+        <v>6.1599715298960472E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1595269</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1.4300749294052338E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="3">
+        <v>53486.07470000007</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1.4300749294052338E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="3">
+        <v>-83744.185600000012</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1.4300749294052338E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="3">
+        <v>22.110899999941466</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1.4300749294052338E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="3">
+        <v>16020</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1.4300749294052338E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="3">
+        <v>-70</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1.4300749294052338E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1580983</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1.4300749294052338E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1580983</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1.4300749294052338E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="3">
+        <v>24643239</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.21471703311456872</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="3">
+        <v>-613177.2661000014</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.21471703311456872</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="3">
+        <v>-344088.55899999995</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.21471703311456872</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="3">
+        <v>9.8251000014133751</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.21471703311456872</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="3">
+        <v>53328</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.21471703311456872</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="3">
+        <v>-1815</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.21471703311456872</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="3">
+        <v>23737496</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.21471703311456872</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="3">
+        <v>23737496</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.21471703311456872</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="3">
+        <v>55657</v>
+      </c>
+      <c r="D50" s="2">
+        <v>5.8447365698125267E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2844.4330000000045</v>
+      </c>
+      <c r="D51" s="2">
+        <v>5.8447365698125267E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="3">
+        <v>6113.4579999999996</v>
+      </c>
+      <c r="D52" s="2">
+        <v>5.8447365698125267E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.10899999999674037</v>
+      </c>
+      <c r="D53" s="2">
+        <v>5.8447365698125267E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="2">
+        <v>5.8447365698125267E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="2">
+        <v>5.8447365698125267E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="3">
+        <v>64615</v>
+      </c>
+      <c r="D56" s="2">
+        <v>5.8447365698125267E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="3">
+        <v>64615</v>
+      </c>
+      <c r="D57" s="2">
+        <v>5.8447365698125267E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="3">
+        <v>350</v>
+      </c>
+      <c r="D58" s="2">
+        <v>4.902649881356325E-6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1.1015999999999693</v>
+      </c>
+      <c r="D59" s="2">
+        <v>4.902649881356325E-6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="3">
+        <v>190.90799999999999</v>
+      </c>
+      <c r="D60" s="2">
+        <v>4.902649881356325E-6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="3">
+        <v>-9.5999999999492047E-3</v>
+      </c>
+      <c r="D61" s="2">
+        <v>4.902649881356325E-6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="2">
+        <v>4.902649881356325E-6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="2">
+        <v>4.902649881356325E-6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="3">
+        <v>542</v>
+      </c>
+      <c r="D64" s="2">
+        <v>4.902649881356325E-6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="3">
+        <v>542</v>
+      </c>
+      <c r="D65" s="2">
+        <v>4.902649881356325E-6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="3">
+        <v>627</v>
+      </c>
+      <c r="D66" s="2">
+        <v>2.2613698714743198E-7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1.6774999999999975</v>
+      </c>
+      <c r="D67" s="2">
+        <v>2.2613698714743198E-7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="3">
+        <v>-554.71050000000002</v>
+      </c>
+      <c r="D68" s="2">
+        <v>2.2613698714743198E-7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="3">
+        <v>3.3000000000015461E-2</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2.2613698714743198E-7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="2">
+        <v>2.2613698714743198E-7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" s="3">
+        <v>-49</v>
+      </c>
+      <c r="D71" s="2">
+        <v>2.2613698714743198E-7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" s="3">
+        <v>25</v>
+      </c>
+      <c r="D72" s="2">
+        <v>2.2613698714743198E-7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="3">
+        <v>25</v>
+      </c>
+      <c r="D73" s="2">
+        <v>2.2613698714743198E-7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="3">
+        <v>54522179</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0.48527059900133024</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" s="3">
+        <v>-158497.98790000009</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0.48527059900133024</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="3">
+        <v>-921556.22429999965</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0.48527059900133024</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="3">
+        <v>393.212199999718</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0.48527059900133024</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="3">
+        <v>206749</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0.48527059900133024</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" s="3">
+        <v>-1409</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0.48527059900133024</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="3">
+        <v>53647858</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0.48527059900133024</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s" vm="6">
+      <c r="C81" s="3">
+        <v>53647858</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0.48527059900133024</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1070</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1.9104052674215052E-5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" s="3">
+        <v>-31.740799999999965</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1.9104052674215052E-5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1073.5207</v>
+      </c>
+      <c r="D84" s="2">
+        <v>1.9104052674215052E-5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0.22010000000000218</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1.9104052674215052E-5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="2">
+        <v>1.9104052674215052E-5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="2">
+        <v>1.9104052674215052E-5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" s="3">
+        <v>2112</v>
+      </c>
+      <c r="D88" s="2">
+        <v>1.9104052674215052E-5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" s="3">
+        <v>2112</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1.9104052674215052E-5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>38</v>
+      </c>
+      <c r="B90" t="s">
+        <v>82</v>
+      </c>
+      <c r="C90" s="3">
+        <v>5564</v>
+      </c>
+      <c r="D90" s="2">
+        <v>5.8099114737918223E-5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91" s="3">
+        <v>358.32829999999944</v>
+      </c>
+      <c r="D91" s="2">
+        <v>5.8099114737918223E-5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C92" s="3">
+        <v>500.68939999999998</v>
+      </c>
+      <c r="D92" s="2">
+        <v>5.8099114737918223E-5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>85</v>
+      </c>
+      <c r="C93" s="3">
+        <v>-1.7699999999422289E-2</v>
+      </c>
+      <c r="D93" s="2">
+        <v>5.8099114737918223E-5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>86</v>
+      </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="2">
+        <v>5.8099114737918223E-5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>87</v>
+      </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="2">
+        <v>5.8099114737918223E-5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>88</v>
+      </c>
+      <c r="C96" s="3">
+        <v>6423</v>
+      </c>
+      <c r="D96" s="2">
+        <v>5.8099114737918223E-5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" s="3">
+        <v>6423</v>
+      </c>
+      <c r="D97" s="2">
+        <v>5.8099114737918223E-5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" t="s">
+        <v>82</v>
+      </c>
+      <c r="C98" s="3">
+        <v>882382</v>
+      </c>
+      <c r="D98" s="2">
+        <v>7.5850144590632763E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>83</v>
+      </c>
+      <c r="C99" s="3">
+        <v>-45991.718199999996</v>
+      </c>
+      <c r="D99" s="2">
+        <v>7.5850144590632763E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100" s="3">
+        <v>2137.5981999999804</v>
+      </c>
+      <c r="D100" s="2">
+        <v>7.5850144590632763E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101" s="3">
+        <v>14.120000000017171</v>
+      </c>
+      <c r="D101" s="2">
+        <v>7.5850144590632763E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>86</v>
+      </c>
+      <c r="C102" s="3"/>
+      <c r="D102" s="2">
+        <v>7.5850144590632763E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>87</v>
+      </c>
+      <c r="C103" s="3"/>
+      <c r="D103" s="2">
+        <v>7.5850144590632763E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>88</v>
+      </c>
+      <c r="C104" s="3">
+        <v>838542</v>
+      </c>
+      <c r="D104" s="2">
+        <v>7.5850144590632763E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="3">
+        <v>838542</v>
+      </c>
+      <c r="D105" s="2">
+        <v>7.5850144590632763E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>39</v>
+      </c>
+      <c r="B106" t="s">
+        <v>82</v>
+      </c>
+      <c r="C106" s="3">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2">
+        <v>1.9900054868974014E-7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>83</v>
+      </c>
+      <c r="C107" s="3">
+        <v>-5.4340000000000011</v>
+      </c>
+      <c r="D107" s="2">
+        <v>1.9900054868974014E-7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>84</v>
+      </c>
+      <c r="C108" s="3">
+        <v>16.442800000000002</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1.9900054868974014E-7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>85</v>
+      </c>
+      <c r="C109" s="3">
+        <v>-8.8000000000008072E-3</v>
+      </c>
+      <c r="D109" s="2">
+        <v>1.9900054868974014E-7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>86</v>
+      </c>
+      <c r="C110" s="3"/>
+      <c r="D110" s="2">
+        <v>1.9900054868974014E-7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>87</v>
+      </c>
+      <c r="C111" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D111" s="2">
+        <v>1.9900054868974014E-7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>88</v>
+      </c>
+      <c r="C112" s="3">
+        <v>22</v>
+      </c>
+      <c r="D112" s="2">
+        <v>1.9900054868974014E-7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>64</v>
+      </c>
+      <c r="C113" s="3">
+        <v>22</v>
+      </c>
+      <c r="D113" s="2">
+        <v>1.9900054868974014E-7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>40</v>
+      </c>
+      <c r="B114" t="s">
+        <v>82</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1344</v>
+      </c>
+      <c r="D114" s="2">
+        <v>1.8054777053850969E-5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>83</v>
+      </c>
+      <c r="C115" s="3">
+        <v>37.43799999999991</v>
+      </c>
+      <c r="D115" s="2">
+        <v>1.8054777053850969E-5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>84</v>
+      </c>
+      <c r="C116" s="3">
+        <v>614.625</v>
+      </c>
+      <c r="D116" s="2">
+        <v>1.8054777053850969E-5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>85</v>
+      </c>
+      <c r="C117" s="3">
+        <v>-6.299999999987449E-2</v>
+      </c>
+      <c r="D117" s="2">
+        <v>1.8054777053850969E-5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>86</v>
+      </c>
+      <c r="C118" s="3"/>
+      <c r="D118" s="2">
+        <v>1.8054777053850969E-5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>87</v>
+      </c>
+      <c r="C119" s="3"/>
+      <c r="D119" s="2">
+        <v>1.8054777053850969E-5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>88</v>
+      </c>
+      <c r="C120" s="3">
+        <v>1996</v>
+      </c>
+      <c r="D120" s="2">
+        <v>1.8054777053850969E-5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>65</v>
+      </c>
+      <c r="C121" s="3">
+        <v>1996</v>
+      </c>
+      <c r="D121" s="2">
+        <v>1.8054777053850969E-5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>41</v>
+      </c>
+      <c r="B122" t="s">
+        <v>82</v>
+      </c>
+      <c r="C122" s="3">
+        <v>16013</v>
+      </c>
+      <c r="D122" s="2">
+        <v>1.1992496702402612E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>83</v>
+      </c>
+      <c r="C123" s="3">
+        <v>-210.45299999999938</v>
+      </c>
+      <c r="D123" s="2">
+        <v>1.1992496702402612E-4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>84</v>
+      </c>
+      <c r="C124" s="3">
+        <v>-2544.4846000000002</v>
+      </c>
+      <c r="D124" s="2">
+        <v>1.1992496702402612E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>85</v>
+      </c>
+      <c r="C125" s="3">
+        <v>-6.2400000000252476E-2</v>
+      </c>
+      <c r="D125" s="2">
+        <v>1.1992496702402612E-4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>86</v>
+      </c>
+      <c r="C126" s="3"/>
+      <c r="D126" s="2">
+        <v>1.1992496702402612E-4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>87</v>
+      </c>
+      <c r="C127" s="3"/>
+      <c r="D127" s="2">
+        <v>1.1992496702402612E-4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>88</v>
+      </c>
+      <c r="C128" s="3">
+        <v>13258</v>
+      </c>
+      <c r="D128" s="2">
+        <v>1.1992496702402612E-4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>66</v>
+      </c>
+      <c r="C129" s="3">
+        <v>13258</v>
+      </c>
+      <c r="D129" s="2">
+        <v>1.1992496702402612E-4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B130" t="s">
+        <v>82</v>
+      </c>
+      <c r="C130" s="3">
+        <v>99</v>
+      </c>
+      <c r="D130" s="2">
+        <v>4.6131945378076122E-6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>83</v>
+      </c>
+      <c r="C131" s="3"/>
+      <c r="D131" s="2">
+        <v>4.6131945378076122E-6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>84</v>
+      </c>
+      <c r="C132" s="3"/>
+      <c r="D132" s="2">
+        <v>4.6131945378076122E-6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>85</v>
+      </c>
+      <c r="C133" s="3">
         <v>0</v>
       </c>
-      <c r="B10" t="s" vm="2">
+      <c r="D133" s="2">
+        <v>4.6131945378076122E-6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>86</v>
+      </c>
+      <c r="C134" s="3">
+        <v>510</v>
+      </c>
+      <c r="D134" s="2">
+        <v>4.6131945378076122E-6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>87</v>
+      </c>
+      <c r="C135" s="3">
+        <v>-99</v>
+      </c>
+      <c r="D135" s="2">
+        <v>4.6131945378076122E-6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>88</v>
+      </c>
+      <c r="C136" s="3">
+        <v>510</v>
+      </c>
+      <c r="D136" s="2">
+        <v>4.6131945378076122E-6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>67</v>
+      </c>
+      <c r="C137" s="3">
+        <v>510</v>
+      </c>
+      <c r="D137" s="2">
+        <v>4.6131945378076122E-6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>43</v>
+      </c>
+      <c r="B138" t="s">
+        <v>82</v>
+      </c>
+      <c r="C138" s="3">
+        <v>25</v>
+      </c>
+      <c r="D138" s="2">
+        <v>8.1409315373075505E-8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>83</v>
+      </c>
+      <c r="C139" s="3">
+        <v>-1.7148000000000003</v>
+      </c>
+      <c r="D139" s="2">
+        <v>8.1409315373075505E-8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>84</v>
+      </c>
+      <c r="C140" s="3">
+        <v>-14.2864</v>
+      </c>
+      <c r="D140" s="2">
+        <v>8.1409315373075505E-8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>85</v>
+      </c>
+      <c r="C141" s="3">
+        <v>1.200000000000756E-3</v>
+      </c>
+      <c r="D141" s="2">
+        <v>8.1409315373075505E-8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>86</v>
+      </c>
+      <c r="C142" s="3"/>
+      <c r="D142" s="2">
+        <v>8.1409315373075505E-8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>87</v>
+      </c>
+      <c r="C143" s="3"/>
+      <c r="D143" s="2">
+        <v>8.1409315373075505E-8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>88</v>
+      </c>
+      <c r="C144" s="3">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2">
+        <v>8.1409315373075505E-8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>68</v>
+      </c>
+      <c r="C145" s="3">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2">
+        <v>8.1409315373075505E-8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>44</v>
+      </c>
+      <c r="B146" t="s">
+        <v>82</v>
+      </c>
+      <c r="C146" s="3">
+        <v>11579</v>
+      </c>
+      <c r="D146" s="2">
+        <v>1.259854382795773E-4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>83</v>
+      </c>
+      <c r="C147" s="3">
+        <v>880.51</v>
+      </c>
+      <c r="D147" s="2">
+        <v>1.259854382795773E-4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>84</v>
+      </c>
+      <c r="C148" s="3">
+        <v>1469.0767999999998</v>
+      </c>
+      <c r="D148" s="2">
+        <v>1.259854382795773E-4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>85</v>
+      </c>
+      <c r="C149" s="3">
+        <v>-0.58680000000003929</v>
+      </c>
+      <c r="D149" s="2">
+        <v>1.259854382795773E-4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>86</v>
+      </c>
+      <c r="C150" s="3"/>
+      <c r="D150" s="2">
+        <v>1.259854382795773E-4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>87</v>
+      </c>
+      <c r="C151" s="3"/>
+      <c r="D151" s="2">
+        <v>1.259854382795773E-4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>88</v>
+      </c>
+      <c r="C152" s="3">
+        <v>13928</v>
+      </c>
+      <c r="D152" s="2">
+        <v>1.259854382795773E-4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>69</v>
+      </c>
+      <c r="C153" s="3">
+        <v>13928</v>
+      </c>
+      <c r="D153" s="2">
+        <v>1.259854382795773E-4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>45</v>
+      </c>
+      <c r="B154" t="s">
+        <v>82</v>
+      </c>
+      <c r="C154" s="3">
+        <v>6341</v>
+      </c>
+      <c r="D154" s="2">
+        <v>6.4421904898560419E-5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>83</v>
+      </c>
+      <c r="C155" s="3">
+        <v>1.8709000000011315</v>
+      </c>
+      <c r="D155" s="2">
+        <v>6.4421904898560419E-5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>84</v>
+      </c>
+      <c r="C156" s="3">
+        <v>779.05959999999993</v>
+      </c>
+      <c r="D156" s="2">
+        <v>6.4421904898560419E-5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>85</v>
+      </c>
+      <c r="C157" s="3">
+        <v>6.9499999998924977E-2</v>
+      </c>
+      <c r="D157" s="2">
+        <v>6.4421904898560419E-5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>86</v>
+      </c>
+      <c r="C158" s="3"/>
+      <c r="D158" s="2">
+        <v>6.4421904898560419E-5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>87</v>
+      </c>
+      <c r="C159" s="3"/>
+      <c r="D159" s="2">
+        <v>6.4421904898560419E-5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>88</v>
+      </c>
+      <c r="C160" s="3">
+        <v>7122</v>
+      </c>
+      <c r="D160" s="2">
+        <v>6.4421904898560419E-5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>70</v>
+      </c>
+      <c r="C161" s="3">
+        <v>7122</v>
+      </c>
+      <c r="D161" s="2">
+        <v>6.4421904898560419E-5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>46</v>
+      </c>
+      <c r="B162" t="s">
+        <v>82</v>
+      </c>
+      <c r="C162" s="3">
+        <v>14581888</v>
+      </c>
+      <c r="D162" s="2">
+        <v>0.13140762432068562</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>83</v>
+      </c>
+      <c r="C163" s="3">
+        <v>207215.94720000005</v>
+      </c>
+      <c r="D163" s="2">
+        <v>0.13140762432068562</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>84</v>
+      </c>
+      <c r="C164" s="3">
+        <v>-417185.47420000006</v>
+      </c>
+      <c r="D164" s="2">
+        <v>0.13140762432068562</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>85</v>
+      </c>
+      <c r="C165" s="3">
+        <v>-257.47299999999814</v>
+      </c>
+      <c r="D165" s="2">
+        <v>0.13140762432068562</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>86</v>
+      </c>
+      <c r="C166" s="3">
+        <v>188190</v>
+      </c>
+      <c r="D166" s="2">
+        <v>0.13140762432068562</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>87</v>
+      </c>
+      <c r="C167" s="3">
+        <v>-32415</v>
+      </c>
+      <c r="D167" s="2">
+        <v>0.13140762432068562</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>88</v>
+      </c>
+      <c r="C168" s="3">
+        <v>14527436</v>
+      </c>
+      <c r="D168" s="2">
+        <v>0.13140762432068562</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>71</v>
+      </c>
+      <c r="C169" s="3">
+        <v>14527436</v>
+      </c>
+      <c r="D169" s="2">
+        <v>0.13140762432068562</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>47</v>
+      </c>
+      <c r="B170" t="s">
+        <v>82</v>
+      </c>
+      <c r="C170" s="3">
+        <v>916</v>
+      </c>
+      <c r="D170" s="2">
+        <v>3.7267375481896787E-6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>83</v>
+      </c>
+      <c r="C171" s="3">
+        <v>22.306400000000021</v>
+      </c>
+      <c r="D171" s="2">
+        <v>3.7267375481896787E-6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>84</v>
+      </c>
+      <c r="C172" s="3">
+        <v>51.675799999999953</v>
+      </c>
+      <c r="D172" s="2">
+        <v>3.7267375481896787E-6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>85</v>
+      </c>
+      <c r="C173" s="3">
+        <v>1.7800000000079308E-2</v>
+      </c>
+      <c r="D173" s="2">
+        <v>3.7267375481896787E-6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>86</v>
+      </c>
+      <c r="C174" s="3">
+        <v>72</v>
+      </c>
+      <c r="D174" s="2">
+        <v>3.7267375481896787E-6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>87</v>
+      </c>
+      <c r="C175" s="3">
+        <v>-650</v>
+      </c>
+      <c r="D175" s="2">
+        <v>3.7267375481896787E-6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>88</v>
+      </c>
+      <c r="C176" s="3">
+        <v>412</v>
+      </c>
+      <c r="D176" s="2">
+        <v>3.7267375481896787E-6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>72</v>
+      </c>
+      <c r="C177" s="3">
+        <v>412</v>
+      </c>
+      <c r="D177" s="2">
+        <v>3.7267375481896787E-6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>31</v>
+      </c>
+      <c r="B178" t="s">
+        <v>82</v>
+      </c>
+      <c r="C178" s="3">
+        <v>2434337</v>
+      </c>
+      <c r="D178" s="2">
+        <v>2.8477675019422229E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>83</v>
+      </c>
+      <c r="C179" s="3">
+        <v>-94189.323200000072</v>
+      </c>
+      <c r="D179" s="2">
+        <v>2.8477675019422229E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>84</v>
+      </c>
+      <c r="C180" s="3">
+        <v>781306.17850000004</v>
+      </c>
+      <c r="D180" s="2">
+        <v>2.8477675019422229E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>85</v>
+      </c>
+      <c r="C181" s="3">
+        <v>82.144700000062585</v>
+      </c>
+      <c r="D181" s="2">
+        <v>2.8477675019422229E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>86</v>
+      </c>
+      <c r="C182" s="3">
+        <v>26741</v>
+      </c>
+      <c r="D182" s="2">
+        <v>2.8477675019422229E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>87</v>
+      </c>
+      <c r="C183" s="3"/>
+      <c r="D183" s="2">
+        <v>2.8477675019422229E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>88</v>
+      </c>
+      <c r="C184" s="3">
+        <v>3148277</v>
+      </c>
+      <c r="D184" s="2">
+        <v>2.8477675019422229E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>73</v>
+      </c>
+      <c r="C185" s="3">
+        <v>3148277</v>
+      </c>
+      <c r="D185" s="2">
+        <v>2.8477675019422229E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>48</v>
+      </c>
+      <c r="B186" t="s">
+        <v>82</v>
+      </c>
+      <c r="C186" s="3">
+        <v>28878</v>
+      </c>
+      <c r="D186" s="2">
+        <v>1.1958847518715075E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>83</v>
+      </c>
+      <c r="C187" s="3">
+        <v>213.92999999999543</v>
+      </c>
+      <c r="D187" s="2">
+        <v>1.1958847518715075E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>84</v>
+      </c>
+      <c r="C188" s="3">
+        <v>103116.125</v>
+      </c>
+      <c r="D188" s="2">
+        <v>1.1958847518715075E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>85</v>
+      </c>
+      <c r="C189" s="3">
+        <v>-5.4999999993015081E-2</v>
+      </c>
+      <c r="D189" s="2">
+        <v>1.1958847518715075E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>86</v>
+      </c>
+      <c r="C190" s="3"/>
+      <c r="D190" s="2">
+        <v>1.1958847518715075E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>87</v>
+      </c>
+      <c r="C191" s="3"/>
+      <c r="D191" s="2">
+        <v>1.1958847518715075E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>88</v>
+      </c>
+      <c r="C192" s="3">
+        <v>132208</v>
+      </c>
+      <c r="D192" s="2">
+        <v>1.1958847518715075E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>74</v>
+      </c>
+      <c r="C193" s="3">
+        <v>132208</v>
+      </c>
+      <c r="D193" s="2">
+        <v>1.1958847518715075E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>49</v>
+      </c>
+      <c r="B194" t="s">
+        <v>82</v>
+      </c>
+      <c r="C194" s="3">
+        <v>13759</v>
+      </c>
+      <c r="D194" s="2">
+        <v>7.9301718652861441E-5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>83</v>
+      </c>
+      <c r="C195" s="3">
+        <v>228.58539999999962</v>
+      </c>
+      <c r="D195" s="2">
+        <v>7.9301718652861441E-5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>84</v>
+      </c>
+      <c r="C196" s="3">
+        <v>-5220.4920000000002</v>
+      </c>
+      <c r="D196" s="2">
+        <v>7.9301718652861441E-5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>85</v>
+      </c>
+      <c r="C197" s="3">
+        <v>-9.3399999999746797E-2</v>
+      </c>
+      <c r="D197" s="2">
+        <v>7.9301718652861441E-5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>86</v>
+      </c>
+      <c r="C198" s="3"/>
+      <c r="D198" s="2">
+        <v>7.9301718652861441E-5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>87</v>
+      </c>
+      <c r="C199" s="3"/>
+      <c r="D199" s="2">
+        <v>7.9301718652861441E-5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>88</v>
+      </c>
+      <c r="C200" s="3">
+        <v>8767</v>
+      </c>
+      <c r="D200" s="2">
+        <v>7.9301718652861441E-5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>75</v>
+      </c>
+      <c r="C201" s="3">
+        <v>8767</v>
+      </c>
+      <c r="D201" s="2">
+        <v>7.9301718652861441E-5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>50</v>
+      </c>
+      <c r="B202" t="s">
+        <v>82</v>
+      </c>
+      <c r="C202" s="3">
+        <v>203</v>
+      </c>
+      <c r="D202" s="2">
+        <v>2.6503254893679027E-6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>83</v>
+      </c>
+      <c r="C203" s="3">
+        <v>27.918599999999977</v>
+      </c>
+      <c r="D203" s="2">
+        <v>2.6503254893679027E-6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>84</v>
+      </c>
+      <c r="C204" s="3">
+        <v>62.071200000000005</v>
+      </c>
+      <c r="D204" s="2">
+        <v>2.6503254893679027E-6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>85</v>
+      </c>
+      <c r="C205" s="3">
+        <v>1.0200000000025966E-2</v>
+      </c>
+      <c r="D205" s="2">
+        <v>2.6503254893679027E-6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>86</v>
+      </c>
+      <c r="C206" s="3"/>
+      <c r="D206" s="2">
+        <v>2.6503254893679027E-6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>87</v>
+      </c>
+      <c r="C207" s="3"/>
+      <c r="D207" s="2">
+        <v>2.6503254893679027E-6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>88</v>
+      </c>
+      <c r="C208" s="3">
+        <v>293</v>
+      </c>
+      <c r="D208" s="2">
+        <v>2.6503254893679027E-6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>76</v>
+      </c>
+      <c r="C209" s="3">
+        <v>293</v>
+      </c>
+      <c r="D209" s="2">
+        <v>2.6503254893679027E-6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>9</v>
+      </c>
+      <c r="B210" t="s">
+        <v>82</v>
+      </c>
+      <c r="C210" s="3">
+        <v>13735733</v>
+      </c>
+      <c r="D210" s="2">
+        <v>0.11563109600302966</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>83</v>
+      </c>
+      <c r="C211" s="3">
+        <v>-93412.005700000125</v>
+      </c>
+      <c r="D211" s="2">
+        <v>0.11563109600302966</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>84</v>
+      </c>
+      <c r="C212" s="3">
+        <v>-1411935.0202000001</v>
+      </c>
+      <c r="D212" s="2">
+        <v>0.11563109600302966</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>85</v>
+      </c>
+      <c r="C213" s="3">
+        <v>-277.97409999975935</v>
+      </c>
+      <c r="D213" s="2">
+        <v>0.11563109600302966</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>86</v>
+      </c>
+      <c r="C214" s="3">
+        <v>553572</v>
+      </c>
+      <c r="D214" s="2">
+        <v>0.11563109600302966</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>87</v>
+      </c>
+      <c r="C215" s="3">
+        <v>-378</v>
+      </c>
+      <c r="D215" s="2">
+        <v>0.11563109600302966</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>88</v>
+      </c>
+      <c r="C216" s="3">
+        <v>12783302</v>
+      </c>
+      <c r="D216" s="2">
+        <v>0.11563109600302966</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>14</v>
+      </c>
+      <c r="C217" s="3">
+        <v>12783302</v>
+      </c>
+      <c r="D217" s="2">
+        <v>0.11563109600302966</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>51</v>
+      </c>
+      <c r="B218" t="s">
+        <v>82</v>
+      </c>
+      <c r="C218" s="3">
+        <v>5561</v>
+      </c>
+      <c r="D218" s="2">
+        <v>7.2997019451191044E-5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>83</v>
+      </c>
+      <c r="C219" s="3">
+        <v>2006.5349999999994</v>
+      </c>
+      <c r="D219" s="2">
+        <v>7.2997019451191044E-5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>84</v>
+      </c>
+      <c r="C220" s="3">
+        <v>518.35000000000014</v>
+      </c>
+      <c r="D220" s="2">
+        <v>7.2997019451191044E-5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>85</v>
+      </c>
+      <c r="C221" s="3">
+        <v>-0.88499999999930878</v>
+      </c>
+      <c r="D221" s="2">
+        <v>7.2997019451191044E-5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>86</v>
+      </c>
+      <c r="C222" s="3"/>
+      <c r="D222" s="2">
+        <v>7.2997019451191044E-5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>87</v>
+      </c>
+      <c r="C223" s="3">
+        <v>-15</v>
+      </c>
+      <c r="D223" s="2">
+        <v>7.2997019451191044E-5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>88</v>
+      </c>
+      <c r="C224" s="3">
+        <v>8070</v>
+      </c>
+      <c r="D224" s="2">
+        <v>7.2997019451191044E-5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>77</v>
+      </c>
+      <c r="C225" s="3">
+        <v>8070</v>
+      </c>
+      <c r="D225" s="2">
+        <v>7.2997019451191044E-5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>52</v>
+      </c>
+      <c r="B226" t="s">
+        <v>82</v>
+      </c>
+      <c r="C226" s="3">
+        <v>29</v>
+      </c>
+      <c r="D226" s="2"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>85</v>
+      </c>
+      <c r="C227" s="3">
+        <v>0</v>
+      </c>
+      <c r="D227" s="2"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>87</v>
+      </c>
+      <c r="C228" s="3">
+        <v>-29</v>
+      </c>
+      <c r="D228" s="2"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>53</v>
+      </c>
+      <c r="B229" t="s">
+        <v>82</v>
+      </c>
+      <c r="C229" s="3"/>
+      <c r="D229" s="2">
+        <v>2.469415899649957E-6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>83</v>
+      </c>
+      <c r="C230" s="3"/>
+      <c r="D230" s="2">
+        <v>2.469415899649957E-6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>84</v>
+      </c>
+      <c r="C231" s="3"/>
+      <c r="D231" s="2">
+        <v>2.469415899649957E-6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>85</v>
+      </c>
+      <c r="C232" s="3">
+        <v>0</v>
+      </c>
+      <c r="D232" s="2">
+        <v>2.469415899649957E-6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>86</v>
+      </c>
+      <c r="C233" s="3">
+        <v>273</v>
+      </c>
+      <c r="D233" s="2">
+        <v>2.469415899649957E-6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>87</v>
+      </c>
+      <c r="C234" s="3"/>
+      <c r="D234" s="2">
+        <v>2.469415899649957E-6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>88</v>
+      </c>
+      <c r="C235" s="3">
+        <v>273</v>
+      </c>
+      <c r="D235" s="2">
+        <v>2.469415899649957E-6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>78</v>
+      </c>
+      <c r="C236" s="3">
+        <v>273</v>
+      </c>
+      <c r="D236" s="2">
+        <v>2.469415899649957E-6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>54</v>
+      </c>
+      <c r="B237" t="s">
+        <v>82</v>
+      </c>
+      <c r="C237" s="3">
+        <v>1391</v>
+      </c>
+      <c r="D237" s="2">
+        <v>1.6480863623304843E-5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>83</v>
+      </c>
+      <c r="C238" s="3">
+        <v>106.35109999999997</v>
+      </c>
+      <c r="D238" s="2">
+        <v>1.6480863623304843E-5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>84</v>
+      </c>
+      <c r="C239" s="3">
+        <v>324.68559999999997</v>
+      </c>
+      <c r="D239" s="2">
+        <v>1.6480863623304843E-5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>85</v>
+      </c>
+      <c r="C240" s="3">
+        <v>-3.6699999999939337E-2</v>
+      </c>
+      <c r="D240" s="2">
+        <v>1.6480863623304843E-5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>86</v>
+      </c>
+      <c r="C241" s="3"/>
+      <c r="D241" s="2">
+        <v>1.6480863623304843E-5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>87</v>
+      </c>
+      <c r="C242" s="3"/>
+      <c r="D242" s="2">
+        <v>1.6480863623304843E-5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>88</v>
+      </c>
+      <c r="C243" s="3">
+        <v>1822</v>
+      </c>
+      <c r="D243" s="2">
+        <v>1.6480863623304843E-5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>79</v>
+      </c>
+      <c r="C244" s="3">
+        <v>1822</v>
+      </c>
+      <c r="D244" s="2">
+        <v>1.6480863623304843E-5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>55</v>
+      </c>
+      <c r="B245" t="s">
+        <v>82</v>
+      </c>
+      <c r="C245" s="3">
+        <v>53</v>
+      </c>
+      <c r="D245" s="2"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>85</v>
+      </c>
+      <c r="C246" s="3">
+        <v>0</v>
+      </c>
+      <c r="D246" s="2"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>87</v>
+      </c>
+      <c r="C247" s="3">
+        <v>-53</v>
+      </c>
+      <c r="D247" s="2"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>56</v>
+      </c>
+      <c r="B248" t="s">
+        <v>82</v>
+      </c>
+      <c r="C248" s="3">
+        <v>23874</v>
+      </c>
+      <c r="D248" s="2">
+        <v>2.2739430879597169E-4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>83</v>
+      </c>
+      <c r="C249" s="3">
+        <v>1625.6750000000011</v>
+      </c>
+      <c r="D249" s="2">
+        <v>2.2739430879597169E-4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>84</v>
+      </c>
+      <c r="C250" s="3">
+        <v>-360.07879999999977</v>
+      </c>
+      <c r="D250" s="2">
+        <v>2.2739430879597169E-4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>85</v>
+      </c>
+      <c r="C251" s="3">
+        <v>-0.59620000000131768</v>
+      </c>
+      <c r="D251" s="2">
+        <v>2.2739430879597169E-4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>86</v>
+      </c>
+      <c r="C252" s="3"/>
+      <c r="D252" s="2">
+        <v>2.2739430879597169E-4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>87</v>
+      </c>
+      <c r="C253" s="3"/>
+      <c r="D253" s="2">
+        <v>2.2739430879597169E-4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>88</v>
+      </c>
+      <c r="C254" s="3">
+        <v>25139</v>
+      </c>
+      <c r="D254" s="2">
+        <v>2.2739430879597169E-4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>80</v>
+      </c>
+      <c r="C255" s="3">
+        <v>25139</v>
+      </c>
+      <c r="D255" s="2">
+        <v>2.2739430879597169E-4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256" s="3">
+        <v>110552459</v>
+      </c>
+      <c r="D256" s="2">
         <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s" vm="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s" vm="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s" vm="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s" vm="5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2">
-        <v>414163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="2">
-        <v>390655</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="2">
-        <v>412049</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="2">
-        <v>419390</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="2">
-        <v>520094</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="2">
-        <v>546562</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="2">
-        <v>571587</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="2">
-        <v>566872</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="2">
-        <v>531557</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="2">
-        <v>512667</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="2">
-        <v>472183</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="2">
-        <v>500551</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="2">
-        <v>484113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="2">
-        <v>480111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="2">
-        <v>517292</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="2">
-        <v>496034</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="2">
-        <v>535364</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="2">
-        <v>559462</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="2">
-        <v>575343</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="2">
-        <v>581119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="2">
-        <v>528746</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="2">
-        <v>521009</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="2">
-        <v>469661</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="2">
-        <v>478263</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="2">
-        <v>446013</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="2">
-        <v>419250</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="2">
-        <v>499777</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="2">
-        <v>13449887</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="2">
-        <v>13449887</v>
       </c>
     </row>
   </sheetData>

--- a/Edgewell US Male Dataset.xlsx
+++ b/Edgewell US Male Dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\BW4SA\Documents\Slide-Automate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\AleaaSALAH\Documents\Slide-Automate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6584C25D-4C17-42BE-8137-1AA2D3BFD68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EC2FE4-DA18-4793-9916-C77BC3D0E4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4989" r:id="rId2"/>
+    <pivotCache cacheId="2736" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,21 +52,18 @@
   <metadataTypes count="1">
     <metadataType name="XLMDX" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <metadataStrings count="12">
+  <metadataStrings count="9">
     <s v="pbiazure://api.powerbi.com e378e301-2498-4932-9987-fbfe08fd72f4 Model"/>
     <s v="{[Market].[Channel].[All]}"/>
-    <s v="{[Products].[SubSegment].[All]}"/>
-    <s v="{[Products].[SubCategory].[All]}"/>
     <s v="{[Products].[Category].&amp;[Manual Shave Men]}"/>
     <s v="{[Market].[Market].[All]}"/>
-    <s v="{[Market].[Area].&amp;[CHANNEL]}"/>
-    <s v="{[Market].[Region].&amp;[Food]}"/>
-    <s v="{[Time Logic].[Time Period].&amp;[P12M]}"/>
-    <s v="{[Scope].[Scope].&amp;[Sector]}"/>
-    <s v="{[Products].[Segment].[All]}"/>
-    <s v="{[Products].[Sector].&amp;[Disposables]}"/>
+    <s v="{[Market].[Region].[All]}"/>
+    <s v="{[Scope].[Scope].&amp;[Category]}"/>
+    <s v="{[Products].[Top Companies].&amp;[Edgewell Personal Care]}"/>
+    <s v="{[Market].[Area].&amp;[NATIONAL]}"/>
+    <s v="{[Products].[Brand].&amp;[Schick]}"/>
   </metadataStrings>
-  <mdxMetadata count="11">
+  <mdxMetadata count="8">
     <mdx n="0" f="s">
       <ms ns="1" c="0"/>
     </mdx>
@@ -91,17 +88,8 @@
     <mdx n="0" f="s">
       <ms ns="8" c="0"/>
     </mdx>
-    <mdx n="0" f="s">
-      <ms ns="9" c="0"/>
-    </mdx>
-    <mdx n="0" f="s">
-      <ms ns="10" c="0"/>
-    </mdx>
-    <mdx n="0" f="s">
-      <ms ns="11" c="0"/>
-    </mdx>
   </mdxMetadata>
-  <valueMetadata count="11">
+  <valueMetadata count="8">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -126,21 +114,12 @@
     <bk>
       <rc t="1" v="7"/>
     </bk>
-    <bk>
-      <rc t="1" v="8"/>
-    </bk>
-    <bk>
-      <rc t="1" v="9"/>
-    </bk>
-    <bk>
-      <rc t="1" v="10"/>
-    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Scope</t>
   </si>
@@ -154,37 +133,7 @@
     <t>Area</t>
   </si>
   <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Bic</t>
-  </si>
-  <si>
-    <t>Equate</t>
-  </si>
-  <si>
-    <t>Gillette</t>
-  </si>
-  <si>
-    <t>Harry's</t>
-  </si>
-  <si>
     <t>Schick</t>
-  </si>
-  <si>
-    <t>Bic Total</t>
-  </si>
-  <si>
-    <t>Equate Total</t>
-  </si>
-  <si>
-    <t>Gillette Total</t>
-  </si>
-  <si>
-    <t>Harry's Total</t>
-  </si>
-  <si>
-    <t>Schick Total</t>
   </si>
   <si>
     <t>Region</t>
@@ -199,226 +148,46 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Segment</t>
-  </si>
-  <si>
-    <t>SubSegment</t>
-  </si>
-  <si>
-    <t>SubCategory</t>
-  </si>
-  <si>
-    <t>Value Share</t>
-  </si>
-  <si>
     <t>Values</t>
   </si>
   <si>
     <t>Manual Shave Men</t>
   </si>
   <si>
-    <t>Disposables</t>
-  </si>
-  <si>
-    <t>Time Period</t>
-  </si>
-  <si>
-    <t>CHANNEL</t>
-  </si>
-  <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>P12M</t>
-  </si>
-  <si>
     <t>Brand</t>
   </si>
   <si>
-    <t>Private Label</t>
+    <t>Top Companies</t>
   </si>
   <si>
-    <t>Assured</t>
+    <t>Scraped Av. Price/Unit</t>
   </si>
   <si>
-    <t>Assured For Men</t>
+    <t>Scraped Av. Price/KG</t>
   </si>
   <si>
-    <t>Barbasol</t>
+    <t>Edgewell Personal Care</t>
   </si>
   <si>
-    <t>Body Basic Essential</t>
+    <t>End of Week</t>
   </si>
   <si>
-    <t>Care For Men</t>
+    <t>SKU</t>
   </si>
   <si>
-    <t>Goodsense</t>
+    <t>Ean</t>
   </si>
   <si>
-    <t>Handy Solutions</t>
+    <t>Total Size</t>
   </si>
   <si>
-    <t>Health Smart</t>
-  </si>
-  <si>
-    <t>Lil Drugstore</t>
-  </si>
-  <si>
-    <t>Lil Necessities</t>
-  </si>
-  <si>
-    <t>Nobrand</t>
-  </si>
-  <si>
-    <t>Old Spice</t>
-  </si>
-  <si>
-    <t>Pace Br</t>
-  </si>
-  <si>
-    <t>Pacific</t>
-  </si>
-  <si>
-    <t>Pbg Pl</t>
-  </si>
-  <si>
-    <t>Personna</t>
-  </si>
-  <si>
-    <t>Rem Brands</t>
-  </si>
-  <si>
-    <t>Rem Gillette</t>
-  </si>
-  <si>
-    <t>Rm Cleanshave</t>
-  </si>
-  <si>
-    <t>Supermax</t>
-  </si>
-  <si>
-    <t>Supermax 2</t>
-  </si>
-  <si>
-    <t>Turtle Nose</t>
-  </si>
-  <si>
-    <t>Ultra Max</t>
-  </si>
-  <si>
-    <t>Valet</t>
-  </si>
-  <si>
-    <t>Xtra Care</t>
-  </si>
-  <si>
-    <t>Assured Total</t>
-  </si>
-  <si>
-    <t>Assured For Men Total</t>
-  </si>
-  <si>
-    <t>Barbasol Total</t>
-  </si>
-  <si>
-    <t>Body Basic Essential Total</t>
-  </si>
-  <si>
-    <t>Care For Men Total</t>
-  </si>
-  <si>
-    <t>Goodsense Total</t>
-  </si>
-  <si>
-    <t>Handy Solutions Total</t>
-  </si>
-  <si>
-    <t>Health Smart Total</t>
-  </si>
-  <si>
-    <t>Lil Drugstore Total</t>
-  </si>
-  <si>
-    <t>Lil Necessities Total</t>
-  </si>
-  <si>
-    <t>Nobrand Total</t>
-  </si>
-  <si>
-    <t>Old Spice Total</t>
-  </si>
-  <si>
-    <t>Pace Br Total</t>
-  </si>
-  <si>
-    <t>Pacific Total</t>
-  </si>
-  <si>
-    <t>Pbg Pl Total</t>
-  </si>
-  <si>
-    <t>Personna Total</t>
-  </si>
-  <si>
-    <t>Private Label Total</t>
-  </si>
-  <si>
-    <t>Rem Brands Total</t>
-  </si>
-  <si>
-    <t>Rem Gillette Total</t>
-  </si>
-  <si>
-    <t>Rm Cleanshave Total</t>
-  </si>
-  <si>
-    <t>Supermax Total</t>
-  </si>
-  <si>
-    <t>Turtle Nose Total</t>
-  </si>
-  <si>
-    <t>Ultra Max Total</t>
-  </si>
-  <si>
-    <t>Xtra Care Total</t>
-  </si>
-  <si>
-    <t>Revenue Group</t>
-  </si>
-  <si>
-    <t>Revenue YA</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Mix</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Discontinued</t>
-  </si>
-  <si>
-    <t>Revenue TY</t>
-  </si>
-  <si>
-    <t>Revenue By PVM</t>
+    <t>NATIONAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%;\-0.0%;0.0%"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -878,11 +647,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -942,59 +709,19 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="BW4SA" refreshedDate="45895.400227199076" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Aleaa SALAH" refreshedDate="45900.640380902776" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="15">
-    <cacheField name="[Products].[Brand].[Brand]" caption="Brand" numFmtId="0" hierarchy="76" level="1">
-      <sharedItems count="31">
-        <s v="[Products].[Brand].&amp;[Assured]" c="Assured"/>
-        <s v="[Products].[Brand].&amp;[Assured For Men]" c="Assured For Men"/>
-        <s v="[Products].[Brand].&amp;[Barbasol]" c="Barbasol"/>
-        <s v="[Products].[Brand].&amp;[Bic]" c="Bic"/>
-        <s v="[Products].[Brand].&amp;[Body Basic Essential]" c="Body Basic Essential"/>
-        <s v="[Products].[Brand].&amp;[Care For Men]" c="Care For Men"/>
-        <s v="[Products].[Brand].&amp;[Equate]" c="Equate"/>
-        <s v="[Products].[Brand].&amp;[Gillette]" c="Gillette"/>
-        <s v="[Products].[Brand].&amp;[Goodsense]" c="Goodsense"/>
-        <s v="[Products].[Brand].&amp;[Handy Solutions]" c="Handy Solutions"/>
-        <s v="[Products].[Brand].&amp;[Harry's]" c="Harry's"/>
-        <s v="[Products].[Brand].&amp;[Health Smart]" c="Health Smart"/>
-        <s v="[Products].[Brand].&amp;[Lil Drugstore]" c="Lil Drugstore"/>
-        <s v="[Products].[Brand].&amp;[Lil Necessities]" c="Lil Necessities"/>
-        <s v="[Products].[Brand].&amp;[Nobrand]" c="Nobrand"/>
-        <s v="[Products].[Brand].&amp;[Old Spice]" c="Old Spice"/>
-        <s v="[Products].[Brand].&amp;[Pace Br]" c="Pace Br"/>
-        <s v="[Products].[Brand].&amp;[Pacific]" c="Pacific"/>
-        <s v="[Products].[Brand].&amp;[Pbg Pl]" c="Pbg Pl"/>
-        <s v="[Products].[Brand].&amp;[Personna]" c="Personna"/>
-        <s v="[Products].[Brand].&amp;[Private Label]" c="Private Label"/>
-        <s v="[Products].[Brand].&amp;[Rem Brands]" c="Rem Brands"/>
-        <s v="[Products].[Brand].&amp;[Rem Gillette]" c="Rem Gillette"/>
-        <s v="[Products].[Brand].&amp;[Rm Cleanshave]" c="Rm Cleanshave"/>
-        <s v="[Products].[Brand].&amp;[Schick]" c="Schick"/>
-        <s v="[Products].[Brand].&amp;[Supermax]" c="Supermax"/>
-        <s v="[Products].[Brand].&amp;[Supermax 2]" c="Supermax 2"/>
-        <s v="[Products].[Brand].&amp;[Turtle Nose]" c="Turtle Nose"/>
-        <s v="[Products].[Brand].&amp;[Ultra Max]" c="Ultra Max"/>
-        <s v="[Products].[Brand].&amp;[Valet]" c="Valet"/>
-        <s v="[Products].[Brand].&amp;[Xtra Care]" c="Xtra Care"/>
-      </sharedItems>
+    <cacheField name="[Products].[Top Companies].[Top Companies]" caption="Top Companies" numFmtId="0" hierarchy="110" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[PVM].[Revenue Group].[Revenue Group]" caption="Revenue Group" numFmtId="0" hierarchy="141" level="1">
-      <sharedItems count="7">
-        <s v="[PVM].[Revenue Group].&amp;[Revenue YA]" c="Revenue YA"/>
-        <s v="[PVM].[Revenue Group].&amp;[Price]" c="Price"/>
-        <s v="[PVM].[Revenue Group].&amp;[Volume]" c="Volume"/>
-        <s v="[PVM].[Revenue Group].&amp;[Mix]" c="Mix"/>
-        <s v="[PVM].[Revenue Group].&amp;[New]" c="New"/>
-        <s v="[PVM].[Revenue Group].&amp;[Discontinued]" c="Discontinued"/>
-        <s v="[PVM].[Revenue Group].&amp;[Revenue TY]" c="Revenue TY"/>
-      </sharedItems>
+    <cacheField name="[Products].[Category].[Category]" caption="Category" numFmtId="0" hierarchy="81" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[Scope].[Scope].[Scope]" caption="Scope" numFmtId="0" hierarchy="145" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[Products].[Category].[Category]" caption="Category" numFmtId="0" hierarchy="81" level="1">
+    <cacheField name="[Products].[Brand].[Brand]" caption="Brand" numFmtId="0" hierarchy="76" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[Market].[Area].[Area]" caption="Area" numFmtId="0" hierarchy="58" level="1">
@@ -1009,23 +736,117 @@
     <cacheField name="[Market].[Market].[Market]" caption="Market" numFmtId="0" hierarchy="63" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[Time Logic].[Time Period].[Time Period]" caption="Time Period" numFmtId="0" hierarchy="149" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    <cacheField name="[Measures].[Scraped Av. Price/Unit]" caption="Scraped Av. Price/Unit" numFmtId="0" hierarchy="596" level="32767"/>
+    <cacheField name="[Measures].[Scraped Av. Price/KG]" caption="Scraped Av. Price/KG" numFmtId="0" hierarchy="597" level="32767"/>
+    <cacheField name="[Calendar].[End of Week].[End of Week]" caption="End of Week" numFmtId="0" hierarchy="9" level="1">
+      <sharedItems count="19">
+        <s v="[Calendar].[End of Week].&amp;[2024-08-04T00:00:00]" c="8/4/2024"/>
+        <s v="[Calendar].[End of Week].&amp;[2024-08-11T00:00:00]" c="8/11/2024"/>
+        <s v="[Calendar].[End of Week].&amp;[2024-08-18T00:00:00]" c="8/18/2024"/>
+        <s v="[Calendar].[End of Week].&amp;[2024-08-25T00:00:00]" c="8/25/2024"/>
+        <s v="[Calendar].[End of Week].&amp;[2024-09-01T00:00:00]" c="9/1/2024"/>
+        <s v="[Calendar].[End of Week].&amp;[2024-09-08T00:00:00]" c="9/8/2024"/>
+        <s v="[Calendar].[End of Week].&amp;[2024-09-15T00:00:00]" c="9/15/2024"/>
+        <s v="[Calendar].[End of Week].&amp;[2024-09-22T00:00:00]" c="9/22/2024"/>
+        <s v="[Calendar].[End of Week].&amp;[2024-09-29T00:00:00]" c="9/29/2024"/>
+        <s v="[Calendar].[End of Week].&amp;[2024-10-06T00:00:00]" c="10/6/2024"/>
+        <s v="[Calendar].[End of Week].&amp;[2024-10-13T00:00:00]" c="10/13/2024"/>
+        <s v="[Calendar].[End of Week].&amp;[2024-10-20T00:00:00]" c="10/20/2024"/>
+        <s v="[Calendar].[End of Week].&amp;[2024-11-03T00:00:00]" c="11/3/2024"/>
+        <s v="[Calendar].[End of Week].&amp;[2024-11-10T00:00:00]" c="11/10/2024"/>
+        <s v="[Calendar].[End of Week].&amp;[2024-11-17T00:00:00]" c="11/17/2024"/>
+        <s v="[Calendar].[End of Week].&amp;[2024-11-24T00:00:00]" c="11/24/2024"/>
+        <s v="[Calendar].[End of Week].&amp;[2025-03-02T00:00:00]" c="3/2/2025"/>
+        <s v="[Calendar].[End of Week].&amp;[2025-03-16T00:00:00]" c="3/16/2025"/>
+        <s v="[Calendar].[End of Week].&amp;[2025-03-23T00:00:00]" c="3/23/2025"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="[Products].[Sector].[Sector]" caption="Sector" numFmtId="0" hierarchy="102" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+      <sharedItems count="2">
+        <s v="[Products].[Sector].&amp;[Disposables]" c="Disposables"/>
+        <s v="[Products].[Sector].&amp;[System]" c="System"/>
+      </sharedItems>
     </cacheField>
-    <cacheField name="[Products].[Segment].[Segment]" caption="Segment" numFmtId="0" hierarchy="103" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    <cacheField name="[Products].[SKU].[SKU]" caption="SKU" numFmtId="0" hierarchy="104" level="1">
+      <sharedItems count="29">
+        <s v="[Products].[SKU].&amp;[SCHICK XTREME 2 SENSITIVE 2 BLADE DISPOSABLE NORMAL 12CT]" c="SCHICK XTREME 2 SENSITIVE 2 BLADE DISPOSABLE NORMAL 12CT"/>
+        <s v="[Products].[SKU].&amp;[SCHICK XTREME 3 DUO COMFORT 3 BLADE DISPOSABLE NORMAL 4CT]" c="SCHICK XTREME 3 DUO COMFORT 3 BLADE DISPOSABLE NORMAL 4CT"/>
+        <s v="[Products].[SKU].&amp;[SCHICK XTREME 3 ECO-GLIDE 3 BLADE DISPOSABLE NORMAL 3CT]" c="SCHICK XTREME 3 ECO-GLIDE 3 BLADE DISPOSABLE NORMAL 3CT"/>
+        <s v="[Products].[SKU].&amp;[SCHICK XTREME 3 SENSITIVE BLACK 3 BLADE DISPOSABLE SENSITIVE 4CT]" c="SCHICK XTREME 3 SENSITIVE BLACK 3 BLADE DISPOSABLE SENSITIVE 4CT"/>
+        <s v="[Products].[SKU].&amp;[SCHICK XTREME 3 SENSITIVE BLACK GREEN 3 BLADE DISPOSABLE SENSITIVE 12CT]" c="SCHICK XTREME 3 SENSITIVE BLACK GREEN 3 BLADE DISPOSABLE SENSITIVE 12CT"/>
+        <s v="[Products].[SKU].&amp;[SCHICK XTREME 4 OUTLAST 4 BLADE DISPOSABLE NORMAL 3CT]" c="SCHICK XTREME 4 OUTLAST 4 BLADE DISPOSABLE NORMAL 3CT"/>
+        <s v="[Products].[SKU].&amp;[HYDRO 5 DRY SKIN 5 BLADE REFILL DRY 6CT]" c="HYDRO 5 DRY SKIN 5 BLADE REFILL DRY 6CT"/>
+        <s v="[Products].[SKU].&amp;[HYDRO 5 DRY SKIN 5 BLADE REFILL NORMAL 4CT]" c="HYDRO 5 DRY SKIN 5 BLADE REFILL NORMAL 4CT"/>
+        <s v="[Products].[SKU].&amp;[HYDRO 5 SENSITIVE 5 BLADE RAZOR SENSITIVE 3CT]" c="HYDRO 5 SENSITIVE 5 BLADE RAZOR SENSITIVE 3CT"/>
+        <s v="[Products].[SKU].&amp;[HYDRO 5 SENSITIVE 5 BLADE REFILL SENSITIVE 12CT]" c="HYDRO 5 SENSITIVE 5 BLADE REFILL SENSITIVE 12CT"/>
+        <s v="[Products].[SKU].&amp;[HYDRO 5 SENSITIVE 5 BLADE REFILL SENSITIVE 4CT]" c="HYDRO 5 SENSITIVE 5 BLADE REFILL SENSITIVE 4CT"/>
+        <s v="[Products].[SKU].&amp;[HYDRO 5 SENSITIVE 5 BLADE REFILL SENSITIVE 6CT]" c="HYDRO 5 SENSITIVE 5 BLADE REFILL SENSITIVE 6CT"/>
+        <s v="[Products].[SKU].&amp;[SCHICK HYDRO 3 SENSITIVE 3 BLADE RAZOR SENSITIVE 4CT]" c="SCHICK HYDRO 3 SENSITIVE 3 BLADE RAZOR SENSITIVE 4CT"/>
+        <s v="[Products].[SKU].&amp;[SCHICK HYDRO 3 SENSITIVE 3 BLADE REFILL SENSITIVE 5CT]" c="SCHICK HYDRO 3 SENSITIVE 3 BLADE REFILL SENSITIVE 5CT"/>
+        <s v="[Products].[SKU].&amp;[SCHICK QUATTRO FOR MEN 4 BLADE REFILL NORMAL 4CT]" c="SCHICK QUATTRO FOR MEN 4 BLADE REFILL NORMAL 4CT"/>
+        <s v="[Products].[SKU].&amp;[SCHICK QUATTRO FOR MEN 4 BLADE REFILL NORMAL 6CT]" c="SCHICK QUATTRO FOR MEN 4 BLADE REFILL NORMAL 6CT"/>
+        <s v="[Products].[SKU].&amp;[SCHICK QUATTRO FOR MEN 4 BLADE REFILL NORMAL 8CT]" c="SCHICK QUATTRO FOR MEN 4 BLADE REFILL NORMAL 8CT"/>
+        <s v="[Products].[SKU].&amp;[SCHICK XTREME 3 BAMBOO 3 BLADE HYBRID NORMAL 3CT]" c="SCHICK XTREME 3 BAMBOO 3 BLADE HYBRID NORMAL 3CT"/>
+        <s v="[Products].[SKU].&amp;[SCHICK XTREME 2 2 BLADE DISPOSABLE SENSITIVE 12CT]" c="SCHICK XTREME 2 2 BLADE DISPOSABLE SENSITIVE 12CT"/>
+        <s v="[Products].[SKU].&amp;[SCHICK XTREME 3 CLASSIC 3 BLADE DISPOSABLE SENSITIVE 4CT]" c="SCHICK XTREME 3 CLASSIC 3 BLADE DISPOSABLE SENSITIVE 4CT"/>
+        <s v="[Products].[SKU].&amp;[SCHICK XTREME 3 SPORT 3 BLADE DISPOSABLE NORMAL 8CT]" c="SCHICK XTREME 3 SPORT 3 BLADE DISPOSABLE NORMAL 8CT"/>
+        <s v="[Products].[SKU].&amp;[SCHICK XTREME 5 5 BLADE DISPOSABLE NORMAL 2CT]" c="SCHICK XTREME 5 5 BLADE DISPOSABLE NORMAL 2CT"/>
+        <s v="[Products].[SKU].&amp;[HYDRO 5 DRY SKIN 5 BLADE RAZOR DRY 2CT]" c="HYDRO 5 DRY SKIN 5 BLADE RAZOR DRY 2CT"/>
+        <s v="[Products].[SKU].&amp;[SCHICK XTREME 3 SENSITIVE BLACK 3 BLADE DISPOSABLE SENSITIVE 20CT]" c="SCHICK XTREME 3 SENSITIVE BLACK 3 BLADE DISPOSABLE SENSITIVE 20CT"/>
+        <s v="[Products].[SKU].&amp;[SCHICK INJECTOR 1 BLADE REFILL NORMAL 7CT]" c="SCHICK INJECTOR 1 BLADE REFILL NORMAL 7CT"/>
+        <s v="[Products].[SKU].&amp;[SCHICK XTREME 3 RELOAD 3 BLADE HYBRID NORMAL 5CT]" c="SCHICK XTREME 3 RELOAD 3 BLADE HYBRID NORMAL 5CT"/>
+        <s v="[Products].[SKU].&amp;[SCHICK HYDRO 3 3 BLADE REFILL NORMAL 4CT]" c="SCHICK HYDRO 3 3 BLADE REFILL NORMAL 4CT"/>
+        <s v="[Products].[SKU].&amp;[SCHICK XTREME 3 PIVOT BALL 3 BLADE DISPOSABLE NORMAL 3CT]" c="SCHICK XTREME 3 PIVOT BALL 3 BLADE DISPOSABLE NORMAL 3CT"/>
+        <s v="[Products].[SKU].&amp;[HYDRO 5 SENSITIVE MULTI COLOR 5 BLADE RAZOR SENSITIVE 2CT]" c="HYDRO 5 SENSITIVE MULTI COLOR 5 BLADE RAZOR SENSITIVE 2CT"/>
+      </sharedItems>
     </cacheField>
-    <cacheField name="[Products].[SubSegment].[SubSegment]" caption="SubSegment" numFmtId="0" hierarchy="108" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    <cacheField name="[Products].[Ean].[Ean]" caption="Ean" numFmtId="0" hierarchy="84" level="1">
+      <sharedItems count="30">
+        <s v="[Products].[Ean].&amp;[4105804802]" c="4105804802"/>
+        <s v="[Products].[Ean].&amp;[4105802136]" c="4105802136"/>
+        <s v="[Products].[Ean].&amp;[4105800047]" c="4105800047"/>
+        <s v="[Products].[Ean].&amp;[4105802095]" c="4105802095"/>
+        <s v="[Products].[Ean].&amp;[4105801476]" c="4105801476"/>
+        <s v="[Products].[Ean].&amp;[4105802104]" c="4105802104"/>
+        <s v="[Products].[Ean].&amp;[4105801482]" c="4105801482"/>
+        <s v="[Products].[Ean].&amp;[4105801501]" c="4105801501"/>
+        <s v="[Products].[Ean].&amp;[4105801484]" c="4105801484"/>
+        <s v="[Products].[Ean].&amp;[4105801598]" c="4105801598"/>
+        <s v="[Products].[Ean].&amp;[4105801560]" c="4105801560"/>
+        <s v="[Products].[Ean].&amp;[4105801480]" c="4105801480"/>
+        <s v="[Products].[Ean].&amp;[4105800023]" c="4105800023"/>
+        <s v="[Products].[Ean].&amp;[4105800030]" c="4105800030"/>
+        <s v="[Products].[Ean].&amp;[4105803701]" c="4105803701"/>
+        <s v="[Products].[Ean].&amp;[4105808248]" c="4105808248"/>
+        <s v="[Products].[Ean].&amp;[4105801879]" c="4105801879"/>
+        <s v="[Products].[Ean].&amp;[4105800740]" c="4105800740"/>
+        <s v="[Products].[Ean].&amp;[4105802507]" c="4105802507"/>
+        <s v="[Products].[Ean].&amp;[4105802020]" c="4105802020"/>
+        <s v="[Products].[Ean].&amp;[4105802022]" c="4105802022"/>
+        <s v="[Products].[Ean].&amp;[4105800062]" c="4105800062"/>
+        <s v="[Products].[Ean].&amp;[4105802146]" c="4105802146"/>
+        <s v="[Products].[Ean].&amp;[4105801319]" c="4105801319"/>
+        <s v="[Products].[Ean].&amp;[4105802099]" c="4105802099"/>
+        <s v="[Products].[Ean].&amp;[4105801202]" c="4105801202"/>
+        <s v="[Products].[Ean].&amp;[4105802142]" c="4105802142"/>
+        <s v="[Products].[Ean].&amp;[4105801401]" c="4105801401"/>
+        <s v="[Products].[Ean].&amp;[4105802122]" c="4105802122"/>
+        <s v="[Products].[Ean].&amp;[4105801321]" c="4105801321"/>
+      </sharedItems>
     </cacheField>
-    <cacheField name="[Products].[SubCategory].[SubCategory]" caption="SubCategory" numFmtId="0" hierarchy="107" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    <cacheField name="[Products].[Total Size].[Total Size]" caption="Total Size" numFmtId="0" hierarchy="111" level="1">
+      <sharedItems count="9">
+        <s v="[Products].[Total Size].&amp;[12CT]" c="12CT"/>
+        <s v="[Products].[Total Size].&amp;[4CT]" c="4CT"/>
+        <s v="[Products].[Total Size].&amp;[3CT]" c="3CT"/>
+        <s v="[Products].[Total Size].&amp;[6CT]" c="6CT"/>
+        <s v="[Products].[Total Size].&amp;[5CT]" c="5CT"/>
+        <s v="[Products].[Total Size].&amp;[8CT]" c="8CT"/>
+        <s v="[Products].[Total Size].&amp;[2CT]" c="2CT"/>
+        <s v="[Products].[Total Size].&amp;[20CT]" c="20CT"/>
+        <s v="[Products].[Total Size].&amp;[7CT]" c="7CT"/>
+      </sharedItems>
     </cacheField>
-    <cacheField name="[Measures].[Revenue By PVM]" caption="Revenue By PVM" numFmtId="0" hierarchy="1725" level="32767"/>
-    <cacheField name="[Measures].[Value Share]" caption="Value Share" numFmtId="0" hierarchy="639" level="32767"/>
   </cacheFields>
   <cacheHierarchies count="2657">
     <cacheHierarchy uniqueName="[2nd Measure Table].[Measures]" caption="Measures" attribute="1" defaultMemberUniqueName="[2nd Measure Table].[Measures].[All]" allUniqueName="[2nd Measure Table].[Measures].[All]" dimensionUniqueName="[2nd Measure Table]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -1037,7 +858,12 @@
     <cacheHierarchy uniqueName="[Calendar].[Date]" caption="Date" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Calendar].[Date].[All]" allUniqueName="[Calendar].[Date].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[Day]" caption="Day" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[Day].[All]" allUniqueName="[Calendar].[Day].[All]" dimensionUniqueName="[Calendar]" displayFolder="Week" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[DayOfYear]" caption="DayOfYear" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[DayOfYear].[All]" allUniqueName="[Calendar].[DayOfYear].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[End of Week]" caption="End of Week" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[End of Week].[All]" allUniqueName="[Calendar].[End of Week].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="2" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[End of Week]" caption="End of Week" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[End of Week].[All]" allUniqueName="[Calendar].[End of Week].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="2" memberValueDatatype="7" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="10"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Calendar].[FiscalHalf]" caption="FiscalHalf" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[FiscalHalf].[All]" allUniqueName="[Calendar].[FiscalHalf].[All]" dimensionUniqueName="[Calendar]" displayFolder="Fiscal" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[FiscalHalfDate]" caption="FiscalHalfDate" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[FiscalHalfDate].[All]" allUniqueName="[Calendar].[FiscalHalfDate].[All]" dimensionUniqueName="[Calendar]" displayFolder="Fiscal" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[FiscalHalfName]" caption="FiscalHalfName" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[FiscalHalfName].[All]" allUniqueName="[Calendar].[FiscalHalfName].[All]" dimensionUniqueName="[Calendar]" displayFolder="Fiscal" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -1127,7 +953,7 @@
     <cacheHierarchy uniqueName="[Products].[Brand]" caption="Brand" attribute="1" defaultMemberUniqueName="[Products].[Brand].[All]" allUniqueName="[Products].[Brand].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
+        <fieldUsage x="3"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[Brand Logo URL]" caption="Brand Logo URL" attribute="1" defaultMemberUniqueName="[Products].[Brand Logo URL].[All]" allUniqueName="[Products].[Brand Logo URL].[All]" dimensionUniqueName="[Products]" displayFolder="Images" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -1137,12 +963,17 @@
     <cacheHierarchy uniqueName="[Products].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Products].[Category].[All]" allUniqueName="[Products].[Category].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="3"/>
+        <fieldUsage x="1"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[Category Hierarchy]" caption="Category Hierarchy" defaultMemberUniqueName="[Products].[Category Hierarchy].[All]" allUniqueName="[Products].[Category Hierarchy].[All]" dimensionUniqueName="[Products]" displayFolder="" count="6" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Company Logo URL]" caption="Company Logo URL" attribute="1" defaultMemberUniqueName="[Products].[Company Logo URL].[All]" allUniqueName="[Products].[Company Logo URL].[All]" dimensionUniqueName="[Products]" displayFolder="Images" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Ean]" caption="Ean" attribute="1" defaultMemberUniqueName="[Products].[Ean].[All]" allUniqueName="[Products].[Ean].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Ean]" caption="Ean" attribute="1" defaultMemberUniqueName="[Products].[Ean].[All]" allUniqueName="[Products].[Ean].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="13"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[Financials]" caption="Financials" attribute="1" defaultMemberUniqueName="[Products].[Financials].[All]" allUniqueName="[Products].[Financials].[All]" dimensionUniqueName="[Products]" displayFolder="zKeys" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Flavor]" caption="Flavor" attribute="1" defaultMemberUniqueName="[Products].[Flavor].[All]" allUniqueName="[Products].[Flavor].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Item]" caption="Item" attribute="1" defaultMemberUniqueName="[Products].[Item].[All]" allUniqueName="[Products].[Item].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -1163,33 +994,33 @@
     <cacheHierarchy uniqueName="[Products].[Sector]" caption="Sector" attribute="1" defaultMemberUniqueName="[Products].[Sector].[All]" allUniqueName="[Products].[Sector].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="9"/>
+        <fieldUsage x="11"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Products].[Segment]" caption="Segment" attribute="1" defaultMemberUniqueName="[Products].[Segment].[All]" allUniqueName="[Products].[Segment].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="10"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Products].[SKU]" caption="SKU" attribute="1" defaultMemberUniqueName="[Products].[SKU].[All]" allUniqueName="[Products].[SKU].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Store Link]" caption="Store Link" attribute="1" defaultMemberUniqueName="[Products].[Store Link].[All]" allUniqueName="[Products].[Store Link].[All]" dimensionUniqueName="[Products]" displayFolder="Images" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[SubBrand]" caption="SubBrand" attribute="1" defaultMemberUniqueName="[Products].[SubBrand].[All]" allUniqueName="[Products].[SubBrand].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[SubCategory]" caption="SubCategory" attribute="1" defaultMemberUniqueName="[Products].[SubCategory].[All]" allUniqueName="[Products].[SubCategory].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
+    <cacheHierarchy uniqueName="[Products].[Segment]" caption="Segment" attribute="1" defaultMemberUniqueName="[Products].[Segment].[All]" allUniqueName="[Products].[Segment].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[SKU]" caption="SKU" attribute="1" defaultMemberUniqueName="[Products].[SKU].[All]" allUniqueName="[Products].[SKU].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
         <fieldUsage x="12"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Products].[SubSegment]" caption="SubSegment" attribute="1" defaultMemberUniqueName="[Products].[SubSegment].[All]" allUniqueName="[Products].[SubSegment].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
+    <cacheHierarchy uniqueName="[Products].[Store Link]" caption="Store Link" attribute="1" defaultMemberUniqueName="[Products].[Store Link].[All]" allUniqueName="[Products].[Store Link].[All]" dimensionUniqueName="[Products]" displayFolder="Images" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[SubBrand]" caption="SubBrand" attribute="1" defaultMemberUniqueName="[Products].[SubBrand].[All]" allUniqueName="[Products].[SubBrand].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[SubCategory]" caption="SubCategory" attribute="1" defaultMemberUniqueName="[Products].[SubCategory].[All]" allUniqueName="[Products].[SubCategory].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[SubSegment]" caption="SubSegment" attribute="1" defaultMemberUniqueName="[Products].[SubSegment].[All]" allUniqueName="[Products].[SubSegment].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Top Brands]" caption="Top Brands" attribute="1" defaultMemberUniqueName="[Products].[Top Brands].[All]" allUniqueName="[Products].[Top Brands].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Top Companies]" caption="Top Companies" attribute="1" defaultMemberUniqueName="[Products].[Top Companies].[All]" allUniqueName="[Products].[Top Companies].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="11"/>
+        <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Products].[Top Brands]" caption="Top Brands" attribute="1" defaultMemberUniqueName="[Products].[Top Brands].[All]" allUniqueName="[Products].[Top Brands].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Top Companies]" caption="Top Companies" attribute="1" defaultMemberUniqueName="[Products].[Top Companies].[All]" allUniqueName="[Products].[Top Companies].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Total Size]" caption="Total Size" attribute="1" defaultMemberUniqueName="[Products].[Total Size].[All]" allUniqueName="[Products].[Total Size].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Total Size]" caption="Total Size" attribute="1" defaultMemberUniqueName="[Products].[Total Size].[All]" allUniqueName="[Products].[Total Size].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="14"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[UnitOfMeasure]" caption="UnitOfMeasure" attribute="1" defaultMemberUniqueName="[Products].[UnitOfMeasure].[All]" allUniqueName="[Products].[UnitOfMeasure].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Variant]" caption="Variant" attribute="1" defaultMemberUniqueName="[Products].[Variant].[All]" allUniqueName="[Products].[Variant].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Version]" caption="Version" attribute="1" defaultMemberUniqueName="[Products].[Version].[All]" allUniqueName="[Products].[Version].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -1219,12 +1050,7 @@
     <cacheHierarchy uniqueName="[Promo Events].[StartDate]" caption="StartDate" attribute="1" time="1" defaultMemberUniqueName="[Promo Events].[StartDate].[All]" allUniqueName="[Promo Events].[StartDate].[All]" dimensionUniqueName="[Promo Events]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Promo Price Bracket].[Promo Price Bracket]" caption="Promo Price Bracket" attribute="1" defaultMemberUniqueName="[Promo Price Bracket].[Promo Price Bracket].[All]" allUniqueName="[Promo Price Bracket].[Promo Price Bracket].[All]" dimensionUniqueName="[Promo Price Bracket]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Promo Price Ladder].[Promo Price Group]" caption="Promo Price Group" attribute="1" defaultMemberUniqueName="[Promo Price Ladder].[Promo Price Group].[All]" allUniqueName="[Promo Price Ladder].[Promo Price Group].[All]" dimensionUniqueName="[Promo Price Ladder]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[PVM].[Revenue Group]" caption="Revenue Group" attribute="1" defaultMemberUniqueName="[PVM].[Revenue Group].[All]" allUniqueName="[PVM].[Revenue Group].[All]" dimensionUniqueName="[PVM]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[PVM].[Revenue Group]" caption="Revenue Group" attribute="1" defaultMemberUniqueName="[PVM].[Revenue Group].[All]" allUniqueName="[PVM].[Revenue Group].[All]" dimensionUniqueName="[PVM]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Quadrant].[Description]" caption="Description" attribute="1" defaultMemberUniqueName="[Quadrant].[Description].[All]" allUniqueName="[Quadrant].[Description].[All]" dimensionUniqueName="[Quadrant]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Quadrant].[Quadrant]" caption="Quadrant" attribute="1" defaultMemberUniqueName="[Quadrant].[Quadrant].[All]" allUniqueName="[Quadrant].[Quadrant].[All]" dimensionUniqueName="[Quadrant]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Rolling Sales].[Rolling Period]" caption="Rolling Period" attribute="1" defaultMemberUniqueName="[Rolling Sales].[Rolling Period].[All]" allUniqueName="[Rolling Sales].[Rolling Period].[All]" dimensionUniqueName="[Rolling Sales]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -1237,12 +1063,7 @@
     <cacheHierarchy uniqueName="[Shelf Price Ladder].[Shelf Price Group]" caption="Shelf Price Group" attribute="1" defaultMemberUniqueName="[Shelf Price Ladder].[Shelf Price Group].[All]" allUniqueName="[Shelf Price Ladder].[Shelf Price Group].[All]" dimensionUniqueName="[Shelf Price Ladder]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Time Logic].[Prior Period]" caption="Prior Period" attribute="1" defaultMemberUniqueName="[Time Logic].[Prior Period].[All]" allUniqueName="[Time Logic].[Prior Period].[All]" dimensionUniqueName="[Time Logic]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Time Logic].[Prior Period Full]" caption="Prior Period Full" attribute="1" defaultMemberUniqueName="[Time Logic].[Prior Period Full].[All]" allUniqueName="[Time Logic].[Prior Period Full].[All]" dimensionUniqueName="[Time Logic]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Time Logic].[Time Period]" caption="Time Period" attribute="1" defaultMemberUniqueName="[Time Logic].[Time Period].[All]" allUniqueName="[Time Logic].[Time Period].[All]" dimensionUniqueName="[Time Logic]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="8"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Time Logic].[Time Period]" caption="Time Period" attribute="1" defaultMemberUniqueName="[Time Logic].[Time Period].[All]" allUniqueName="[Time Logic].[Time Period].[All]" dimensionUniqueName="[Time Logic]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Time Logic].[Time Period Full]" caption="Time Period Full" attribute="1" defaultMemberUniqueName="[Time Logic].[Time Period Full].[All]" allUniqueName="[Time Logic].[Time Period Full].[All]" dimensionUniqueName="[Time Logic]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[VAT].[VAT]" caption="VAT" attribute="1" defaultMemberUniqueName="[VAT].[VAT].[All]" allUniqueName="[VAT].[VAT].[All]" dimensionUniqueName="[VAT]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[2nd Measure Table].[MEAS IX]" caption="MEAS IX" attribute="1" defaultMemberUniqueName="[2nd Measure Table].[MEAS IX].[All]" allUniqueName="[2nd Measure Table].[MEAS IX].[All]" dimensionUniqueName="[2nd Measure Table]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
@@ -1689,8 +1510,16 @@
     <cacheHierarchy uniqueName="[Measures].[Scraped Max Price]" caption="Scraped Max Price" measure="1" displayFolder="Scraped Price\Max Price" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Scraped Max Position]" caption="Scraped Max Position" measure="1" displayFolder="Scraped Price\Position" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Scraped Max Page No]" caption="Scraped Max Page No" measure="1" displayFolder="Scraped Price\Position" measureGroup="Price Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Scraped Av. Price/Unit]" caption="Scraped Av. Price/Unit" measure="1" displayFolder="Scraped Price\Av. Price" measureGroup="Price Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Scraped Av. Price/KG]" caption="Scraped Av. Price/KG" measure="1" displayFolder="Scraped Price\Av. Price" measureGroup="Price Metrics" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Scraped Av. Price/Unit]" caption="Scraped Av. Price/Unit" measure="1" displayFolder="Scraped Price\Av. Price" measureGroup="Price Metrics" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="8"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Scraped Av. Price/KG]" caption="Scraped Av. Price/KG" measure="1" displayFolder="Scraped Price\Av. Price" measureGroup="Price Metrics" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="9"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Scraped Av. Price]" caption="Scraped Av. Price" measure="1" displayFolder="Scraped Price\Av. Price" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Scraped Av. Position]" caption="Scraped Av. Position" measure="1" displayFolder="Scraped Price\Position" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Scraped Av. Page No]" caption="Scraped Av. Page No" measure="1" displayFolder="Scraped Price\Position" measureGroup="Price Metrics" count="0"/>
@@ -1732,11 +1561,7 @@
     <cacheHierarchy uniqueName="[Measures].[Category Value]" caption="Category Value" measure="1" displayFolder="" measureGroup="Market Sales" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Category Volume]" caption="Category Volume" measure="1" displayFolder="" measureGroup="Market Sales" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Company Sales]" caption="Company Sales" measure="1" displayFolder="" measureGroup="Market Sales" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Value Share]" caption="Value Share" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="14"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Value Share]" caption="Value Share" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Share]" caption="Volume Share" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Unit Share]" caption="Unit Share" measure="1" displayFolder="Unit Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Value Share YA]" caption="Value Share YA" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0"/>
@@ -2822,11 +2647,7 @@
     <cacheHierarchy uniqueName="[Measures].[New]" caption="New" measure="1" displayFolder="" measureGroup="PVM" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Price PY]" caption="Price PY" measure="1" displayFolder="" measureGroup="PVM" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Price TY]" caption="Price TY" measure="1" displayFolder="" measureGroup="PVM" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Revenue By PVM]" caption="Revenue By PVM" measure="1" displayFolder="" measureGroup="PVM" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="13"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Revenue By PVM]" caption="Revenue By PVM" measure="1" displayFolder="" measureGroup="PVM" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Revenue PY]" caption="Revenue PY" measure="1" displayFolder="" measureGroup="PVM" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Revenue TY]" caption="Revenue TY" measure="1" displayFolder="" measureGroup="PVM" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Shelf Price PY]" caption="Shelf Price PY" measure="1" displayFolder="" measureGroup="PVM" count="0"/>
@@ -3922,72 +3743,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="4989" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A16:D256" firstHeaderRow="1" firstDataRow="2" firstDataCol="2" rowPageCount="11" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="2736" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A16:G17" firstHeaderRow="1" firstDataRow="2" firstDataCol="5" rowPageCount="8" colPageCount="1"/>
   <pivotFields count="15">
-    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="32">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="1">
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="1">
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="1">
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
       <items count="1">
         <item t="default"/>
@@ -4030,761 +3788,128 @@
     </pivotField>
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="20">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="30">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="31">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
+  <rowFields count="5">
+    <field x="10"/>
+    <field x="11"/>
+    <field x="12"/>
+    <field x="13"/>
+    <field x="14"/>
   </rowFields>
-  <rowItems count="239">
-    <i>
-      <x/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="27"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="30"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="30"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
   <colFields count="1">
     <field x="-2"/>
   </colFields>
@@ -4796,22 +3921,19 @@
       <x v="1"/>
     </i>
   </colItems>
-  <pageFields count="11">
-    <pageField fld="2" hier="145" name="[Scope].[Scope].&amp;[Sector]" cap="Sector"/>
-    <pageField fld="3" hier="81" name="[Products].[Category].&amp;[Manual Shave Men]" cap="Manual Shave Men"/>
-    <pageField fld="4" hier="58" name="[Market].[Area].&amp;[CHANNEL]" cap="CHANNEL"/>
-    <pageField fld="5" hier="64" name="[Market].[Region].&amp;[Food]" cap="Food"/>
+  <pageFields count="8">
+    <pageField fld="0" hier="110" name="[Products].[Top Companies].&amp;[Edgewell Personal Care]" cap="Edgewell Personal Care"/>
+    <pageField fld="1" hier="81" name="[Products].[Category].&amp;[Manual Shave Men]" cap="Manual Shave Men"/>
+    <pageField fld="2" hier="145" name="[Scope].[Scope].&amp;[Category]" cap="Category"/>
+    <pageField fld="3" hier="76" name="[Products].[Brand].&amp;[Schick]" cap="Schick"/>
+    <pageField fld="4" hier="58" name="[Market].[Area].&amp;[NATIONAL]" cap="NATIONAL"/>
+    <pageField fld="5" hier="64" name="[Market].[Region].[All]" cap="All"/>
     <pageField fld="6" hier="59" name="[Market].[Channel].[All]" cap="All"/>
     <pageField fld="7" hier="63" name="[Market].[Market].[All]" cap="All"/>
-    <pageField fld="8" hier="149" name="[Time Logic].[Time Period].&amp;[P12M]" cap="P12M"/>
-    <pageField fld="9" hier="102" name="[Products].[Sector].&amp;[Disposables]" cap="Disposables"/>
-    <pageField fld="10" hier="103" name="[Products].[Segment].[All]" cap="All"/>
-    <pageField fld="11" hier="108" name="[Products].[SubSegment].[All]" cap="All"/>
-    <pageField fld="12" hier="107" name="[Products].[SubCategory].[All]" cap="All"/>
   </pageFields>
   <dataFields count="2">
-    <dataField fld="13" baseField="0" baseItem="0"/>
-    <dataField fld="14" baseField="0" baseItem="0"/>
+    <dataField fld="8" baseField="0" baseItem="0"/>
+    <dataField fld="9" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotHierarchies count="2657">
     <pivotHierarchy/>
@@ -7473,9 +6595,12 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleMedium21" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="76"/>
-    <rowHierarchyUsage hierarchyUsage="141"/>
+  <rowHierarchiesUsage count="5">
+    <rowHierarchyUsage hierarchyUsage="9"/>
+    <rowHierarchyUsage hierarchyUsage="102"/>
+    <rowHierarchyUsage hierarchyUsage="104"/>
+    <rowHierarchyUsage hierarchyUsage="84"/>
+    <rowHierarchyUsage hierarchyUsage="111"/>
   </rowHierarchiesUsage>
   <colHierarchiesUsage count="1">
     <colHierarchyUsage hierarchyUsage="-2"/>
@@ -7785,19 +6910,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:D256"/>
+  <dimension ref="A7:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -7820,2739 +6948,119 @@
     <col min="103" max="103" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s" vm="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s" vm="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s" vm="9">
-        <v>18</v>
+      <c r="B9" t="s" vm="5">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
       </c>
-      <c r="B5" t="s" vm="4">
-        <v>24</v>
+      <c r="B10" t="s" vm="8">
+        <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s" vm="6">
-        <v>27</v>
+      <c r="B11" t="s" vm="7">
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
       </c>
-      <c r="B7" t="s" vm="7">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s" vm="1">
+      <c r="B12" t="s" vm="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
       </c>
-      <c r="B9" t="s" vm="5">
+      <c r="B13" t="s" vm="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s" vm="8">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s" vm="11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s" vm="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s" vm="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s" vm="3">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
-        <v>23</v>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
-      <c r="C17" t="s">
-        <v>89</v>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
       </c>
-      <c r="D17" t="s">
-        <v>22</v>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="3">
-        <v>130</v>
-      </c>
-      <c r="D18" s="2">
-        <v>3.0573720662332803E-6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="3">
-        <v>-2.2343999999999755</v>
-      </c>
-      <c r="D19" s="2">
-        <v>3.0573720662332803E-6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="3">
-        <v>196.22399999999999</v>
-      </c>
-      <c r="D20" s="2">
-        <v>3.0573720662332803E-6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1.0399999999975762E-2</v>
-      </c>
-      <c r="D21" s="2">
-        <v>3.0573720662332803E-6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="3">
-        <v>14</v>
-      </c>
-      <c r="D22" s="2">
-        <v>3.0573720662332803E-6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2">
-        <v>3.0573720662332803E-6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="3">
-        <v>338</v>
-      </c>
-      <c r="D24" s="2">
-        <v>3.0573720662332803E-6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="3">
-        <v>338</v>
-      </c>
-      <c r="D25" s="2">
-        <v>3.0573720662332803E-6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="3">
-        <v>66</v>
-      </c>
-      <c r="D26" s="2">
-        <v>6.1599715298960472E-6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="3">
-        <v>-16.104799999999969</v>
-      </c>
-      <c r="D27" s="2">
-        <v>6.1599715298960472E-6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="3">
-        <v>609.125</v>
-      </c>
-      <c r="D28" s="2">
-        <v>6.1599715298960472E-6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="3">
-        <v>-2.0200000000045293E-2</v>
-      </c>
-      <c r="D29" s="2">
-        <v>6.1599715298960472E-6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="3">
-        <v>22</v>
-      </c>
-      <c r="D30" s="2">
-        <v>6.1599715298960472E-6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="2">
-        <v>6.1599715298960472E-6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="3">
-        <v>681</v>
-      </c>
-      <c r="D32" s="2">
-        <v>6.1599715298960472E-6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="3">
-        <v>681</v>
-      </c>
-      <c r="D33" s="2">
-        <v>6.1599715298960472E-6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1595269</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1.4300749294052338E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="3">
-        <v>53486.07470000007</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1.4300749294052338E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="3">
-        <v>-83744.185600000012</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1.4300749294052338E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="3">
-        <v>22.110899999941466</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1.4300749294052338E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="3">
-        <v>16020</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1.4300749294052338E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="3">
-        <v>-70</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1.4300749294052338E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1580983</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1.4300749294052338E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1580983</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1.4300749294052338E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="3">
-        <v>24643239</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0.21471703311456872</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="3">
-        <v>-613177.2661000014</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0.21471703311456872</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="3">
-        <v>-344088.55899999995</v>
-      </c>
-      <c r="D44" s="2">
-        <v>0.21471703311456872</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="3">
-        <v>9.8251000014133751</v>
-      </c>
-      <c r="D45" s="2">
-        <v>0.21471703311456872</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="3">
-        <v>53328</v>
-      </c>
-      <c r="D46" s="2">
-        <v>0.21471703311456872</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" s="3">
-        <v>-1815</v>
-      </c>
-      <c r="D47" s="2">
-        <v>0.21471703311456872</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" s="3">
-        <v>23737496</v>
-      </c>
-      <c r="D48" s="2">
-        <v>0.21471703311456872</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="3">
-        <v>23737496</v>
-      </c>
-      <c r="D49" s="2">
-        <v>0.21471703311456872</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>35</v>
-      </c>
-      <c r="B50" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="3">
-        <v>55657</v>
-      </c>
-      <c r="D50" s="2">
-        <v>5.8447365698125267E-4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="3">
-        <v>2844.4330000000045</v>
-      </c>
-      <c r="D51" s="2">
-        <v>5.8447365698125267E-4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="3">
-        <v>6113.4579999999996</v>
-      </c>
-      <c r="D52" s="2">
-        <v>5.8447365698125267E-4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="3">
-        <v>0.10899999999674037</v>
-      </c>
-      <c r="D53" s="2">
-        <v>5.8447365698125267E-4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="2">
-        <v>5.8447365698125267E-4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="2">
-        <v>5.8447365698125267E-4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>88</v>
-      </c>
-      <c r="C56" s="3">
-        <v>64615</v>
-      </c>
-      <c r="D56" s="2">
-        <v>5.8447365698125267E-4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="3">
-        <v>64615</v>
-      </c>
-      <c r="D57" s="2">
-        <v>5.8447365698125267E-4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>36</v>
-      </c>
-      <c r="B58" t="s">
-        <v>82</v>
-      </c>
-      <c r="C58" s="3">
-        <v>350</v>
-      </c>
-      <c r="D58" s="2">
-        <v>4.902649881356325E-6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" s="3">
-        <v>1.1015999999999693</v>
-      </c>
-      <c r="D59" s="2">
-        <v>4.902649881356325E-6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" s="3">
-        <v>190.90799999999999</v>
-      </c>
-      <c r="D60" s="2">
-        <v>4.902649881356325E-6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>85</v>
-      </c>
-      <c r="C61" s="3">
-        <v>-9.5999999999492047E-3</v>
-      </c>
-      <c r="D61" s="2">
-        <v>4.902649881356325E-6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="2">
-        <v>4.902649881356325E-6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="2">
-        <v>4.902649881356325E-6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" s="3">
-        <v>542</v>
-      </c>
-      <c r="D64" s="2">
-        <v>4.902649881356325E-6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>61</v>
-      </c>
-      <c r="C65" s="3">
-        <v>542</v>
-      </c>
-      <c r="D65" s="2">
-        <v>4.902649881356325E-6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66" t="s">
-        <v>82</v>
-      </c>
-      <c r="C66" s="3">
-        <v>627</v>
-      </c>
-      <c r="D66" s="2">
-        <v>2.2613698714743198E-7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" s="3">
-        <v>1.6774999999999975</v>
-      </c>
-      <c r="D67" s="2">
-        <v>2.2613698714743198E-7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" s="3">
-        <v>-554.71050000000002</v>
-      </c>
-      <c r="D68" s="2">
-        <v>2.2613698714743198E-7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" s="3">
-        <v>3.3000000000015461E-2</v>
-      </c>
-      <c r="D69" s="2">
-        <v>2.2613698714743198E-7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="2">
-        <v>2.2613698714743198E-7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>87</v>
-      </c>
-      <c r="C71" s="3">
-        <v>-49</v>
-      </c>
-      <c r="D71" s="2">
-        <v>2.2613698714743198E-7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" s="3">
-        <v>25</v>
-      </c>
-      <c r="D72" s="2">
-        <v>2.2613698714743198E-7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" s="3">
-        <v>25</v>
-      </c>
-      <c r="D73" s="2">
-        <v>2.2613698714743198E-7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" t="s">
-        <v>82</v>
-      </c>
-      <c r="C74" s="3">
-        <v>54522179</v>
-      </c>
-      <c r="D74" s="2">
-        <v>0.48527059900133024</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>83</v>
-      </c>
-      <c r="C75" s="3">
-        <v>-158497.98790000009</v>
-      </c>
-      <c r="D75" s="2">
-        <v>0.48527059900133024</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>84</v>
-      </c>
-      <c r="C76" s="3">
-        <v>-921556.22429999965</v>
-      </c>
-      <c r="D76" s="2">
-        <v>0.48527059900133024</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>85</v>
-      </c>
-      <c r="C77" s="3">
-        <v>393.212199999718</v>
-      </c>
-      <c r="D77" s="2">
-        <v>0.48527059900133024</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" s="3">
-        <v>206749</v>
-      </c>
-      <c r="D78" s="2">
-        <v>0.48527059900133024</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>87</v>
-      </c>
-      <c r="C79" s="3">
-        <v>-1409</v>
-      </c>
-      <c r="D79" s="2">
-        <v>0.48527059900133024</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>88</v>
-      </c>
-      <c r="C80" s="3">
-        <v>53647858</v>
-      </c>
-      <c r="D80" s="2">
-        <v>0.48527059900133024</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" s="3">
-        <v>53647858</v>
-      </c>
-      <c r="D81" s="2">
-        <v>0.48527059900133024</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>37</v>
-      </c>
-      <c r="B82" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" s="3">
-        <v>1070</v>
-      </c>
-      <c r="D82" s="2">
-        <v>1.9104052674215052E-5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>83</v>
-      </c>
-      <c r="C83" s="3">
-        <v>-31.740799999999965</v>
-      </c>
-      <c r="D83" s="2">
-        <v>1.9104052674215052E-5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>84</v>
-      </c>
-      <c r="C84" s="3">
-        <v>1073.5207</v>
-      </c>
-      <c r="D84" s="2">
-        <v>1.9104052674215052E-5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>85</v>
-      </c>
-      <c r="C85" s="3">
-        <v>0.22010000000000218</v>
-      </c>
-      <c r="D85" s="2">
-        <v>1.9104052674215052E-5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>86</v>
-      </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="2">
-        <v>1.9104052674215052E-5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>87</v>
-      </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="2">
-        <v>1.9104052674215052E-5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>88</v>
-      </c>
-      <c r="C88" s="3">
-        <v>2112</v>
-      </c>
-      <c r="D88" s="2">
-        <v>1.9104052674215052E-5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>62</v>
-      </c>
-      <c r="C89" s="3">
-        <v>2112</v>
-      </c>
-      <c r="D89" s="2">
-        <v>1.9104052674215052E-5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>38</v>
-      </c>
-      <c r="B90" t="s">
-        <v>82</v>
-      </c>
-      <c r="C90" s="3">
-        <v>5564</v>
-      </c>
-      <c r="D90" s="2">
-        <v>5.8099114737918223E-5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>83</v>
-      </c>
-      <c r="C91" s="3">
-        <v>358.32829999999944</v>
-      </c>
-      <c r="D91" s="2">
-        <v>5.8099114737918223E-5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>84</v>
-      </c>
-      <c r="C92" s="3">
-        <v>500.68939999999998</v>
-      </c>
-      <c r="D92" s="2">
-        <v>5.8099114737918223E-5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>85</v>
-      </c>
-      <c r="C93" s="3">
-        <v>-1.7699999999422289E-2</v>
-      </c>
-      <c r="D93" s="2">
-        <v>5.8099114737918223E-5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>86</v>
-      </c>
-      <c r="C94" s="3"/>
-      <c r="D94" s="2">
-        <v>5.8099114737918223E-5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>87</v>
-      </c>
-      <c r="C95" s="3"/>
-      <c r="D95" s="2">
-        <v>5.8099114737918223E-5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>88</v>
-      </c>
-      <c r="C96" s="3">
-        <v>6423</v>
-      </c>
-      <c r="D96" s="2">
-        <v>5.8099114737918223E-5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>63</v>
-      </c>
-      <c r="C97" s="3">
-        <v>6423</v>
-      </c>
-      <c r="D97" s="2">
-        <v>5.8099114737918223E-5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>8</v>
-      </c>
-      <c r="B98" t="s">
-        <v>82</v>
-      </c>
-      <c r="C98" s="3">
-        <v>882382</v>
-      </c>
-      <c r="D98" s="2">
-        <v>7.5850144590632763E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>83</v>
-      </c>
-      <c r="C99" s="3">
-        <v>-45991.718199999996</v>
-      </c>
-      <c r="D99" s="2">
-        <v>7.5850144590632763E-3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>84</v>
-      </c>
-      <c r="C100" s="3">
-        <v>2137.5981999999804</v>
-      </c>
-      <c r="D100" s="2">
-        <v>7.5850144590632763E-3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>85</v>
-      </c>
-      <c r="C101" s="3">
-        <v>14.120000000017171</v>
-      </c>
-      <c r="D101" s="2">
-        <v>7.5850144590632763E-3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>86</v>
-      </c>
-      <c r="C102" s="3"/>
-      <c r="D102" s="2">
-        <v>7.5850144590632763E-3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>87</v>
-      </c>
-      <c r="C103" s="3"/>
-      <c r="D103" s="2">
-        <v>7.5850144590632763E-3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>88</v>
-      </c>
-      <c r="C104" s="3">
-        <v>838542</v>
-      </c>
-      <c r="D104" s="2">
-        <v>7.5850144590632763E-3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>13</v>
-      </c>
-      <c r="C105" s="3">
-        <v>838542</v>
-      </c>
-      <c r="D105" s="2">
-        <v>7.5850144590632763E-3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>39</v>
-      </c>
-      <c r="B106" t="s">
-        <v>82</v>
-      </c>
-      <c r="C106" s="3">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2">
-        <v>1.9900054868974014E-7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>83</v>
-      </c>
-      <c r="C107" s="3">
-        <v>-5.4340000000000011</v>
-      </c>
-      <c r="D107" s="2">
-        <v>1.9900054868974014E-7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>84</v>
-      </c>
-      <c r="C108" s="3">
-        <v>16.442800000000002</v>
-      </c>
-      <c r="D108" s="2">
-        <v>1.9900054868974014E-7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>85</v>
-      </c>
-      <c r="C109" s="3">
-        <v>-8.8000000000008072E-3</v>
-      </c>
-      <c r="D109" s="2">
-        <v>1.9900054868974014E-7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>86</v>
-      </c>
-      <c r="C110" s="3"/>
-      <c r="D110" s="2">
-        <v>1.9900054868974014E-7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>87</v>
-      </c>
-      <c r="C111" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D111" s="2">
-        <v>1.9900054868974014E-7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>88</v>
-      </c>
-      <c r="C112" s="3">
-        <v>22</v>
-      </c>
-      <c r="D112" s="2">
-        <v>1.9900054868974014E-7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>64</v>
-      </c>
-      <c r="C113" s="3">
-        <v>22</v>
-      </c>
-      <c r="D113" s="2">
-        <v>1.9900054868974014E-7</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>40</v>
-      </c>
-      <c r="B114" t="s">
-        <v>82</v>
-      </c>
-      <c r="C114" s="3">
-        <v>1344</v>
-      </c>
-      <c r="D114" s="2">
-        <v>1.8054777053850969E-5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>83</v>
-      </c>
-      <c r="C115" s="3">
-        <v>37.43799999999991</v>
-      </c>
-      <c r="D115" s="2">
-        <v>1.8054777053850969E-5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>84</v>
-      </c>
-      <c r="C116" s="3">
-        <v>614.625</v>
-      </c>
-      <c r="D116" s="2">
-        <v>1.8054777053850969E-5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>85</v>
-      </c>
-      <c r="C117" s="3">
-        <v>-6.299999999987449E-2</v>
-      </c>
-      <c r="D117" s="2">
-        <v>1.8054777053850969E-5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>86</v>
-      </c>
-      <c r="C118" s="3"/>
-      <c r="D118" s="2">
-        <v>1.8054777053850969E-5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>87</v>
-      </c>
-      <c r="C119" s="3"/>
-      <c r="D119" s="2">
-        <v>1.8054777053850969E-5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>88</v>
-      </c>
-      <c r="C120" s="3">
-        <v>1996</v>
-      </c>
-      <c r="D120" s="2">
-        <v>1.8054777053850969E-5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>65</v>
-      </c>
-      <c r="C121" s="3">
-        <v>1996</v>
-      </c>
-      <c r="D121" s="2">
-        <v>1.8054777053850969E-5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>41</v>
-      </c>
-      <c r="B122" t="s">
-        <v>82</v>
-      </c>
-      <c r="C122" s="3">
-        <v>16013</v>
-      </c>
-      <c r="D122" s="2">
-        <v>1.1992496702402612E-4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
-        <v>83</v>
-      </c>
-      <c r="C123" s="3">
-        <v>-210.45299999999938</v>
-      </c>
-      <c r="D123" s="2">
-        <v>1.1992496702402612E-4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
-        <v>84</v>
-      </c>
-      <c r="C124" s="3">
-        <v>-2544.4846000000002</v>
-      </c>
-      <c r="D124" s="2">
-        <v>1.1992496702402612E-4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>85</v>
-      </c>
-      <c r="C125" s="3">
-        <v>-6.2400000000252476E-2</v>
-      </c>
-      <c r="D125" s="2">
-        <v>1.1992496702402612E-4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>86</v>
-      </c>
-      <c r="C126" s="3"/>
-      <c r="D126" s="2">
-        <v>1.1992496702402612E-4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>87</v>
-      </c>
-      <c r="C127" s="3"/>
-      <c r="D127" s="2">
-        <v>1.1992496702402612E-4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>88</v>
-      </c>
-      <c r="C128" s="3">
-        <v>13258</v>
-      </c>
-      <c r="D128" s="2">
-        <v>1.1992496702402612E-4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>66</v>
-      </c>
-      <c r="C129" s="3">
-        <v>13258</v>
-      </c>
-      <c r="D129" s="2">
-        <v>1.1992496702402612E-4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>42</v>
-      </c>
-      <c r="B130" t="s">
-        <v>82</v>
-      </c>
-      <c r="C130" s="3">
-        <v>99</v>
-      </c>
-      <c r="D130" s="2">
-        <v>4.6131945378076122E-6</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>83</v>
-      </c>
-      <c r="C131" s="3"/>
-      <c r="D131" s="2">
-        <v>4.6131945378076122E-6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>84</v>
-      </c>
-      <c r="C132" s="3"/>
-      <c r="D132" s="2">
-        <v>4.6131945378076122E-6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
-        <v>85</v>
-      </c>
-      <c r="C133" s="3">
-        <v>0</v>
-      </c>
-      <c r="D133" s="2">
-        <v>4.6131945378076122E-6</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>86</v>
-      </c>
-      <c r="C134" s="3">
-        <v>510</v>
-      </c>
-      <c r="D134" s="2">
-        <v>4.6131945378076122E-6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>87</v>
-      </c>
-      <c r="C135" s="3">
-        <v>-99</v>
-      </c>
-      <c r="D135" s="2">
-        <v>4.6131945378076122E-6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
-        <v>88</v>
-      </c>
-      <c r="C136" s="3">
-        <v>510</v>
-      </c>
-      <c r="D136" s="2">
-        <v>4.6131945378076122E-6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>67</v>
-      </c>
-      <c r="C137" s="3">
-        <v>510</v>
-      </c>
-      <c r="D137" s="2">
-        <v>4.6131945378076122E-6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>43</v>
-      </c>
-      <c r="B138" t="s">
-        <v>82</v>
-      </c>
-      <c r="C138" s="3">
-        <v>25</v>
-      </c>
-      <c r="D138" s="2">
-        <v>8.1409315373075505E-8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>83</v>
-      </c>
-      <c r="C139" s="3">
-        <v>-1.7148000000000003</v>
-      </c>
-      <c r="D139" s="2">
-        <v>8.1409315373075505E-8</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
-        <v>84</v>
-      </c>
-      <c r="C140" s="3">
-        <v>-14.2864</v>
-      </c>
-      <c r="D140" s="2">
-        <v>8.1409315373075505E-8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>85</v>
-      </c>
-      <c r="C141" s="3">
-        <v>1.200000000000756E-3</v>
-      </c>
-      <c r="D141" s="2">
-        <v>8.1409315373075505E-8</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
-        <v>86</v>
-      </c>
-      <c r="C142" s="3"/>
-      <c r="D142" s="2">
-        <v>8.1409315373075505E-8</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
-        <v>87</v>
-      </c>
-      <c r="C143" s="3"/>
-      <c r="D143" s="2">
-        <v>8.1409315373075505E-8</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
-        <v>88</v>
-      </c>
-      <c r="C144" s="3">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2">
-        <v>8.1409315373075505E-8</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>68</v>
-      </c>
-      <c r="C145" s="3">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2">
-        <v>8.1409315373075505E-8</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>44</v>
-      </c>
-      <c r="B146" t="s">
-        <v>82</v>
-      </c>
-      <c r="C146" s="3">
-        <v>11579</v>
-      </c>
-      <c r="D146" s="2">
-        <v>1.259854382795773E-4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
-        <v>83</v>
-      </c>
-      <c r="C147" s="3">
-        <v>880.51</v>
-      </c>
-      <c r="D147" s="2">
-        <v>1.259854382795773E-4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
-        <v>84</v>
-      </c>
-      <c r="C148" s="3">
-        <v>1469.0767999999998</v>
-      </c>
-      <c r="D148" s="2">
-        <v>1.259854382795773E-4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
-        <v>85</v>
-      </c>
-      <c r="C149" s="3">
-        <v>-0.58680000000003929</v>
-      </c>
-      <c r="D149" s="2">
-        <v>1.259854382795773E-4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>86</v>
-      </c>
-      <c r="C150" s="3"/>
-      <c r="D150" s="2">
-        <v>1.259854382795773E-4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
-        <v>87</v>
-      </c>
-      <c r="C151" s="3"/>
-      <c r="D151" s="2">
-        <v>1.259854382795773E-4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
-        <v>88</v>
-      </c>
-      <c r="C152" s="3">
-        <v>13928</v>
-      </c>
-      <c r="D152" s="2">
-        <v>1.259854382795773E-4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>69</v>
-      </c>
-      <c r="C153" s="3">
-        <v>13928</v>
-      </c>
-      <c r="D153" s="2">
-        <v>1.259854382795773E-4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>45</v>
-      </c>
-      <c r="B154" t="s">
-        <v>82</v>
-      </c>
-      <c r="C154" s="3">
-        <v>6341</v>
-      </c>
-      <c r="D154" s="2">
-        <v>6.4421904898560419E-5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
-        <v>83</v>
-      </c>
-      <c r="C155" s="3">
-        <v>1.8709000000011315</v>
-      </c>
-      <c r="D155" s="2">
-        <v>6.4421904898560419E-5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
-        <v>84</v>
-      </c>
-      <c r="C156" s="3">
-        <v>779.05959999999993</v>
-      </c>
-      <c r="D156" s="2">
-        <v>6.4421904898560419E-5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
-        <v>85</v>
-      </c>
-      <c r="C157" s="3">
-        <v>6.9499999998924977E-2</v>
-      </c>
-      <c r="D157" s="2">
-        <v>6.4421904898560419E-5</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
-        <v>86</v>
-      </c>
-      <c r="C158" s="3"/>
-      <c r="D158" s="2">
-        <v>6.4421904898560419E-5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
-        <v>87</v>
-      </c>
-      <c r="C159" s="3"/>
-      <c r="D159" s="2">
-        <v>6.4421904898560419E-5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
-        <v>88</v>
-      </c>
-      <c r="C160" s="3">
-        <v>7122</v>
-      </c>
-      <c r="D160" s="2">
-        <v>6.4421904898560419E-5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>70</v>
-      </c>
-      <c r="C161" s="3">
-        <v>7122</v>
-      </c>
-      <c r="D161" s="2">
-        <v>6.4421904898560419E-5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>46</v>
-      </c>
-      <c r="B162" t="s">
-        <v>82</v>
-      </c>
-      <c r="C162" s="3">
-        <v>14581888</v>
-      </c>
-      <c r="D162" s="2">
-        <v>0.13140762432068562</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
-        <v>83</v>
-      </c>
-      <c r="C163" s="3">
-        <v>207215.94720000005</v>
-      </c>
-      <c r="D163" s="2">
-        <v>0.13140762432068562</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
-        <v>84</v>
-      </c>
-      <c r="C164" s="3">
-        <v>-417185.47420000006</v>
-      </c>
-      <c r="D164" s="2">
-        <v>0.13140762432068562</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
-        <v>85</v>
-      </c>
-      <c r="C165" s="3">
-        <v>-257.47299999999814</v>
-      </c>
-      <c r="D165" s="2">
-        <v>0.13140762432068562</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
-        <v>86</v>
-      </c>
-      <c r="C166" s="3">
-        <v>188190</v>
-      </c>
-      <c r="D166" s="2">
-        <v>0.13140762432068562</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
-        <v>87</v>
-      </c>
-      <c r="C167" s="3">
-        <v>-32415</v>
-      </c>
-      <c r="D167" s="2">
-        <v>0.13140762432068562</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
-        <v>88</v>
-      </c>
-      <c r="C168" s="3">
-        <v>14527436</v>
-      </c>
-      <c r="D168" s="2">
-        <v>0.13140762432068562</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>71</v>
-      </c>
-      <c r="C169" s="3">
-        <v>14527436</v>
-      </c>
-      <c r="D169" s="2">
-        <v>0.13140762432068562</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>47</v>
-      </c>
-      <c r="B170" t="s">
-        <v>82</v>
-      </c>
-      <c r="C170" s="3">
-        <v>916</v>
-      </c>
-      <c r="D170" s="2">
-        <v>3.7267375481896787E-6</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
-        <v>83</v>
-      </c>
-      <c r="C171" s="3">
-        <v>22.306400000000021</v>
-      </c>
-      <c r="D171" s="2">
-        <v>3.7267375481896787E-6</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B172" t="s">
-        <v>84</v>
-      </c>
-      <c r="C172" s="3">
-        <v>51.675799999999953</v>
-      </c>
-      <c r="D172" s="2">
-        <v>3.7267375481896787E-6</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
-        <v>85</v>
-      </c>
-      <c r="C173" s="3">
-        <v>1.7800000000079308E-2</v>
-      </c>
-      <c r="D173" s="2">
-        <v>3.7267375481896787E-6</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
-        <v>86</v>
-      </c>
-      <c r="C174" s="3">
-        <v>72</v>
-      </c>
-      <c r="D174" s="2">
-        <v>3.7267375481896787E-6</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B175" t="s">
-        <v>87</v>
-      </c>
-      <c r="C175" s="3">
-        <v>-650</v>
-      </c>
-      <c r="D175" s="2">
-        <v>3.7267375481896787E-6</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
-        <v>88</v>
-      </c>
-      <c r="C176" s="3">
-        <v>412</v>
-      </c>
-      <c r="D176" s="2">
-        <v>3.7267375481896787E-6</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>72</v>
-      </c>
-      <c r="C177" s="3">
-        <v>412</v>
-      </c>
-      <c r="D177" s="2">
-        <v>3.7267375481896787E-6</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>31</v>
-      </c>
-      <c r="B178" t="s">
-        <v>82</v>
-      </c>
-      <c r="C178" s="3">
-        <v>2434337</v>
-      </c>
-      <c r="D178" s="2">
-        <v>2.8477675019422229E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
-        <v>83</v>
-      </c>
-      <c r="C179" s="3">
-        <v>-94189.323200000072</v>
-      </c>
-      <c r="D179" s="2">
-        <v>2.8477675019422229E-2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B180" t="s">
-        <v>84</v>
-      </c>
-      <c r="C180" s="3">
-        <v>781306.17850000004</v>
-      </c>
-      <c r="D180" s="2">
-        <v>2.8477675019422229E-2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B181" t="s">
-        <v>85</v>
-      </c>
-      <c r="C181" s="3">
-        <v>82.144700000062585</v>
-      </c>
-      <c r="D181" s="2">
-        <v>2.8477675019422229E-2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
-        <v>86</v>
-      </c>
-      <c r="C182" s="3">
-        <v>26741</v>
-      </c>
-      <c r="D182" s="2">
-        <v>2.8477675019422229E-2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B183" t="s">
-        <v>87</v>
-      </c>
-      <c r="C183" s="3"/>
-      <c r="D183" s="2">
-        <v>2.8477675019422229E-2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B184" t="s">
-        <v>88</v>
-      </c>
-      <c r="C184" s="3">
-        <v>3148277</v>
-      </c>
-      <c r="D184" s="2">
-        <v>2.8477675019422229E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>73</v>
-      </c>
-      <c r="C185" s="3">
-        <v>3148277</v>
-      </c>
-      <c r="D185" s="2">
-        <v>2.8477675019422229E-2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>48</v>
-      </c>
-      <c r="B186" t="s">
-        <v>82</v>
-      </c>
-      <c r="C186" s="3">
-        <v>28878</v>
-      </c>
-      <c r="D186" s="2">
-        <v>1.1958847518715075E-3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
-        <v>83</v>
-      </c>
-      <c r="C187" s="3">
-        <v>213.92999999999543</v>
-      </c>
-      <c r="D187" s="2">
-        <v>1.1958847518715075E-3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
-        <v>84</v>
-      </c>
-      <c r="C188" s="3">
-        <v>103116.125</v>
-      </c>
-      <c r="D188" s="2">
-        <v>1.1958847518715075E-3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
-        <v>85</v>
-      </c>
-      <c r="C189" s="3">
-        <v>-5.4999999993015081E-2</v>
-      </c>
-      <c r="D189" s="2">
-        <v>1.1958847518715075E-3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B190" t="s">
-        <v>86</v>
-      </c>
-      <c r="C190" s="3"/>
-      <c r="D190" s="2">
-        <v>1.1958847518715075E-3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B191" t="s">
-        <v>87</v>
-      </c>
-      <c r="C191" s="3"/>
-      <c r="D191" s="2">
-        <v>1.1958847518715075E-3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B192" t="s">
-        <v>88</v>
-      </c>
-      <c r="C192" s="3">
-        <v>132208</v>
-      </c>
-      <c r="D192" s="2">
-        <v>1.1958847518715075E-3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>74</v>
-      </c>
-      <c r="C193" s="3">
-        <v>132208</v>
-      </c>
-      <c r="D193" s="2">
-        <v>1.1958847518715075E-3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>49</v>
-      </c>
-      <c r="B194" t="s">
-        <v>82</v>
-      </c>
-      <c r="C194" s="3">
-        <v>13759</v>
-      </c>
-      <c r="D194" s="2">
-        <v>7.9301718652861441E-5</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B195" t="s">
-        <v>83</v>
-      </c>
-      <c r="C195" s="3">
-        <v>228.58539999999962</v>
-      </c>
-      <c r="D195" s="2">
-        <v>7.9301718652861441E-5</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B196" t="s">
-        <v>84</v>
-      </c>
-      <c r="C196" s="3">
-        <v>-5220.4920000000002</v>
-      </c>
-      <c r="D196" s="2">
-        <v>7.9301718652861441E-5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
-        <v>85</v>
-      </c>
-      <c r="C197" s="3">
-        <v>-9.3399999999746797E-2</v>
-      </c>
-      <c r="D197" s="2">
-        <v>7.9301718652861441E-5</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B198" t="s">
-        <v>86</v>
-      </c>
-      <c r="C198" s="3"/>
-      <c r="D198" s="2">
-        <v>7.9301718652861441E-5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
-        <v>87</v>
-      </c>
-      <c r="C199" s="3"/>
-      <c r="D199" s="2">
-        <v>7.9301718652861441E-5</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B200" t="s">
-        <v>88</v>
-      </c>
-      <c r="C200" s="3">
-        <v>8767</v>
-      </c>
-      <c r="D200" s="2">
-        <v>7.9301718652861441E-5</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>75</v>
-      </c>
-      <c r="C201" s="3">
-        <v>8767</v>
-      </c>
-      <c r="D201" s="2">
-        <v>7.9301718652861441E-5</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>50</v>
-      </c>
-      <c r="B202" t="s">
-        <v>82</v>
-      </c>
-      <c r="C202" s="3">
-        <v>203</v>
-      </c>
-      <c r="D202" s="2">
-        <v>2.6503254893679027E-6</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
-        <v>83</v>
-      </c>
-      <c r="C203" s="3">
-        <v>27.918599999999977</v>
-      </c>
-      <c r="D203" s="2">
-        <v>2.6503254893679027E-6</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
-        <v>84</v>
-      </c>
-      <c r="C204" s="3">
-        <v>62.071200000000005</v>
-      </c>
-      <c r="D204" s="2">
-        <v>2.6503254893679027E-6</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B205" t="s">
-        <v>85</v>
-      </c>
-      <c r="C205" s="3">
-        <v>1.0200000000025966E-2</v>
-      </c>
-      <c r="D205" s="2">
-        <v>2.6503254893679027E-6</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B206" t="s">
-        <v>86</v>
-      </c>
-      <c r="C206" s="3"/>
-      <c r="D206" s="2">
-        <v>2.6503254893679027E-6</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B207" t="s">
-        <v>87</v>
-      </c>
-      <c r="C207" s="3"/>
-      <c r="D207" s="2">
-        <v>2.6503254893679027E-6</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B208" t="s">
-        <v>88</v>
-      </c>
-      <c r="C208" s="3">
-        <v>293</v>
-      </c>
-      <c r="D208" s="2">
-        <v>2.6503254893679027E-6</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>76</v>
-      </c>
-      <c r="C209" s="3">
-        <v>293</v>
-      </c>
-      <c r="D209" s="2">
-        <v>2.6503254893679027E-6</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>9</v>
-      </c>
-      <c r="B210" t="s">
-        <v>82</v>
-      </c>
-      <c r="C210" s="3">
-        <v>13735733</v>
-      </c>
-      <c r="D210" s="2">
-        <v>0.11563109600302966</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B211" t="s">
-        <v>83</v>
-      </c>
-      <c r="C211" s="3">
-        <v>-93412.005700000125</v>
-      </c>
-      <c r="D211" s="2">
-        <v>0.11563109600302966</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B212" t="s">
-        <v>84</v>
-      </c>
-      <c r="C212" s="3">
-        <v>-1411935.0202000001</v>
-      </c>
-      <c r="D212" s="2">
-        <v>0.11563109600302966</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B213" t="s">
-        <v>85</v>
-      </c>
-      <c r="C213" s="3">
-        <v>-277.97409999975935</v>
-      </c>
-      <c r="D213" s="2">
-        <v>0.11563109600302966</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B214" t="s">
-        <v>86</v>
-      </c>
-      <c r="C214" s="3">
-        <v>553572</v>
-      </c>
-      <c r="D214" s="2">
-        <v>0.11563109600302966</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B215" t="s">
-        <v>87</v>
-      </c>
-      <c r="C215" s="3">
-        <v>-378</v>
-      </c>
-      <c r="D215" s="2">
-        <v>0.11563109600302966</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B216" t="s">
-        <v>88</v>
-      </c>
-      <c r="C216" s="3">
-        <v>12783302</v>
-      </c>
-      <c r="D216" s="2">
-        <v>0.11563109600302966</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>14</v>
-      </c>
-      <c r="C217" s="3">
-        <v>12783302</v>
-      </c>
-      <c r="D217" s="2">
-        <v>0.11563109600302966</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>51</v>
-      </c>
-      <c r="B218" t="s">
-        <v>82</v>
-      </c>
-      <c r="C218" s="3">
-        <v>5561</v>
-      </c>
-      <c r="D218" s="2">
-        <v>7.2997019451191044E-5</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B219" t="s">
-        <v>83</v>
-      </c>
-      <c r="C219" s="3">
-        <v>2006.5349999999994</v>
-      </c>
-      <c r="D219" s="2">
-        <v>7.2997019451191044E-5</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B220" t="s">
-        <v>84</v>
-      </c>
-      <c r="C220" s="3">
-        <v>518.35000000000014</v>
-      </c>
-      <c r="D220" s="2">
-        <v>7.2997019451191044E-5</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B221" t="s">
-        <v>85</v>
-      </c>
-      <c r="C221" s="3">
-        <v>-0.88499999999930878</v>
-      </c>
-      <c r="D221" s="2">
-        <v>7.2997019451191044E-5</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B222" t="s">
-        <v>86</v>
-      </c>
-      <c r="C222" s="3"/>
-      <c r="D222" s="2">
-        <v>7.2997019451191044E-5</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B223" t="s">
-        <v>87</v>
-      </c>
-      <c r="C223" s="3">
-        <v>-15</v>
-      </c>
-      <c r="D223" s="2">
-        <v>7.2997019451191044E-5</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B224" t="s">
-        <v>88</v>
-      </c>
-      <c r="C224" s="3">
-        <v>8070</v>
-      </c>
-      <c r="D224" s="2">
-        <v>7.2997019451191044E-5</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>77</v>
-      </c>
-      <c r="C225" s="3">
-        <v>8070</v>
-      </c>
-      <c r="D225" s="2">
-        <v>7.2997019451191044E-5</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>52</v>
-      </c>
-      <c r="B226" t="s">
-        <v>82</v>
-      </c>
-      <c r="C226" s="3">
-        <v>29</v>
-      </c>
-      <c r="D226" s="2"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B227" t="s">
-        <v>85</v>
-      </c>
-      <c r="C227" s="3">
-        <v>0</v>
-      </c>
-      <c r="D227" s="2"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B228" t="s">
-        <v>87</v>
-      </c>
-      <c r="C228" s="3">
-        <v>-29</v>
-      </c>
-      <c r="D228" s="2"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>53</v>
-      </c>
-      <c r="B229" t="s">
-        <v>82</v>
-      </c>
-      <c r="C229" s="3"/>
-      <c r="D229" s="2">
-        <v>2.469415899649957E-6</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B230" t="s">
-        <v>83</v>
-      </c>
-      <c r="C230" s="3"/>
-      <c r="D230" s="2">
-        <v>2.469415899649957E-6</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B231" t="s">
-        <v>84</v>
-      </c>
-      <c r="C231" s="3"/>
-      <c r="D231" s="2">
-        <v>2.469415899649957E-6</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B232" t="s">
-        <v>85</v>
-      </c>
-      <c r="C232" s="3">
-        <v>0</v>
-      </c>
-      <c r="D232" s="2">
-        <v>2.469415899649957E-6</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B233" t="s">
-        <v>86</v>
-      </c>
-      <c r="C233" s="3">
-        <v>273</v>
-      </c>
-      <c r="D233" s="2">
-        <v>2.469415899649957E-6</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B234" t="s">
-        <v>87</v>
-      </c>
-      <c r="C234" s="3"/>
-      <c r="D234" s="2">
-        <v>2.469415899649957E-6</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B235" t="s">
-        <v>88</v>
-      </c>
-      <c r="C235" s="3">
-        <v>273</v>
-      </c>
-      <c r="D235" s="2">
-        <v>2.469415899649957E-6</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>78</v>
-      </c>
-      <c r="C236" s="3">
-        <v>273</v>
-      </c>
-      <c r="D236" s="2">
-        <v>2.469415899649957E-6</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>54</v>
-      </c>
-      <c r="B237" t="s">
-        <v>82</v>
-      </c>
-      <c r="C237" s="3">
-        <v>1391</v>
-      </c>
-      <c r="D237" s="2">
-        <v>1.6480863623304843E-5</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B238" t="s">
-        <v>83</v>
-      </c>
-      <c r="C238" s="3">
-        <v>106.35109999999997</v>
-      </c>
-      <c r="D238" s="2">
-        <v>1.6480863623304843E-5</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B239" t="s">
-        <v>84</v>
-      </c>
-      <c r="C239" s="3">
-        <v>324.68559999999997</v>
-      </c>
-      <c r="D239" s="2">
-        <v>1.6480863623304843E-5</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B240" t="s">
-        <v>85</v>
-      </c>
-      <c r="C240" s="3">
-        <v>-3.6699999999939337E-2</v>
-      </c>
-      <c r="D240" s="2">
-        <v>1.6480863623304843E-5</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B241" t="s">
-        <v>86</v>
-      </c>
-      <c r="C241" s="3"/>
-      <c r="D241" s="2">
-        <v>1.6480863623304843E-5</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B242" t="s">
-        <v>87</v>
-      </c>
-      <c r="C242" s="3"/>
-      <c r="D242" s="2">
-        <v>1.6480863623304843E-5</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B243" t="s">
-        <v>88</v>
-      </c>
-      <c r="C243" s="3">
-        <v>1822</v>
-      </c>
-      <c r="D243" s="2">
-        <v>1.6480863623304843E-5</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>79</v>
-      </c>
-      <c r="C244" s="3">
-        <v>1822</v>
-      </c>
-      <c r="D244" s="2">
-        <v>1.6480863623304843E-5</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>55</v>
-      </c>
-      <c r="B245" t="s">
-        <v>82</v>
-      </c>
-      <c r="C245" s="3">
-        <v>53</v>
-      </c>
-      <c r="D245" s="2"/>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B246" t="s">
-        <v>85</v>
-      </c>
-      <c r="C246" s="3">
-        <v>0</v>
-      </c>
-      <c r="D246" s="2"/>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B247" t="s">
-        <v>87</v>
-      </c>
-      <c r="C247" s="3">
-        <v>-53</v>
-      </c>
-      <c r="D247" s="2"/>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>56</v>
-      </c>
-      <c r="B248" t="s">
-        <v>82</v>
-      </c>
-      <c r="C248" s="3">
-        <v>23874</v>
-      </c>
-      <c r="D248" s="2">
-        <v>2.2739430879597169E-4</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B249" t="s">
-        <v>83</v>
-      </c>
-      <c r="C249" s="3">
-        <v>1625.6750000000011</v>
-      </c>
-      <c r="D249" s="2">
-        <v>2.2739430879597169E-4</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B250" t="s">
-        <v>84</v>
-      </c>
-      <c r="C250" s="3">
-        <v>-360.07879999999977</v>
-      </c>
-      <c r="D250" s="2">
-        <v>2.2739430879597169E-4</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B251" t="s">
-        <v>85</v>
-      </c>
-      <c r="C251" s="3">
-        <v>-0.59620000000131768</v>
-      </c>
-      <c r="D251" s="2">
-        <v>2.2739430879597169E-4</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B252" t="s">
-        <v>86</v>
-      </c>
-      <c r="C252" s="3"/>
-      <c r="D252" s="2">
-        <v>2.2739430879597169E-4</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B253" t="s">
-        <v>87</v>
-      </c>
-      <c r="C253" s="3"/>
-      <c r="D253" s="2">
-        <v>2.2739430879597169E-4</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B254" t="s">
-        <v>88</v>
-      </c>
-      <c r="C254" s="3">
-        <v>25139</v>
-      </c>
-      <c r="D254" s="2">
-        <v>2.2739430879597169E-4</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>80</v>
-      </c>
-      <c r="C255" s="3">
-        <v>25139</v>
-      </c>
-      <c r="D255" s="2">
-        <v>2.2739430879597169E-4</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>4</v>
-      </c>
-      <c r="C256" s="3">
-        <v>110552459</v>
-      </c>
-      <c r="D256" s="2">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="33" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="34" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="35" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="36" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="37" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="38" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
